--- a/landnotev3/data/real_estate_articles/articles.xlsx
+++ b/landnotev3/data/real_estate_articles/articles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,9917 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>915147</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>農舍興建之借名登記案例：最高法院114年度台上字第1834號民事判決,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026/01/13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>• (一) 案例 甲公司與乙地主簽立A農地租約後，因農舍興建須具農民身分，故委任乙之名義申請建造執照及使用執照，由甲公司出資建成B農舍，並將之作為展售中心使用，於租約屆滿後，試問B農舍之所有權人為何？
+• (二) 重要概念及規定
+1. 基於私法自治及契約自由原則，當事人得自行決定契約之種類及內容，以形成其所欲發生之權利義務關係。
+2. 借名登記契約，係指當事人約定一方將自己之財產以他方名義登記，而仍由自己管理、使用、處分，他方允就該財產出名為登記之契約 (最高法院113年度台上字第2029號判決參照)。故借名登記契約之特性，在於借名人仍保留對財產之實際管理、使用及處分之權能。查，B農舍完成後，自始均由甲公司使用，未支付乙任何對價，且關於租期屆滿後，已明確約定B農舍得由乙以金錢向甲公司買回，足見B農舍固登記予乙名下，惟甲公司仍保有B農舍實際之管理、使用、處分之權能，核與借名登記契約之性質相符。
+3. 當事人為規避強行法規之適用，以迂迴方法達成該強行法規所禁止之相同效果行為，其事實上之效果違反法律規定之意旨，屬脫法行為，應非法之所許，自屬無效 (最高法院105年度台上字第1852號民事判決參照)。
+4. 農業發展條例第18條第4項規定，同條第1項、第3項農舍起造人應為該農舍坐落土地之所有權人；農舍應與其坐落用地併同移轉或併同設定抵押權；依同條第5項授權訂定之農業用地興建農舍辦法第2條、第3條規定，申請興建農舍之申請人應為農民，且其資格需符合各該條規定（包含該農舍坐落土地之所有權人）。上開相關規定，係基於農業發展、建全農地利用之目的而制定，自屬強行規定。
+• (三) 結論 甲與乙就B農舍之所有權登記，成立借名登記契約。農業發展條例18條第1項、第3項、第4項及農業用地興建農舍辦法第2條、第3條規定，申請興建農舍之人應具備農民資格，係基於農業發展、建全農地利用之目的，屬強行規定。甲公司為規避上開規範以取得B農舍所有權，與乙成立之借名登記契約，屬脫法行為而無效，且甲公司不得以雙方有借名契約存在，自詡為實際出資人而取得B農舍之所有權，B農舍應由符合上開規範之登記所有人乙取得所有權。
+參考資料： 臺灣高等法院臺中分院113年度重上字第146號民事判決 最高法院114年度台上字第1834號民事判決</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=915147</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:06:23</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>借名登記契約</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>915095</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>農業用地變更使用之主管機關同意條件,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025/01/06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>簡要整理農地變更之條件，茲說明如下：
+• (一) 不影響農業生產環境完整性+農業主管機關同意
+1. 農業用地於劃定或變更為非農業使用時，應以不影響農業生產環境之完整，並先徵得主管機關之同意。(農業發展條例§10)
+2. 農業用地變更使用，應避免影響農業生產環境之完整。有下列情形之一者，不同意變更使用(農業主管機關同意農業用地變更使用審查作業要點§5)： (1)未依規定規劃設置隔離綠帶或設施。 (2)使用具有農業灌溉功能之系統作為廢污水排放使用或有妨礙上、下游農業灌排水系統輸水能力之虞。 (3)申請變更範圍內夾雜未申請變更之農業用地且妨礙其農業經營。 (4)妨礙原有區域性農路通行。 (5)申請變更農業用地辦理部分土地分割，致造成坵塊零碎不利農業經營。但線狀之公共建設，不在此限。 (6)目的事業主管機關就事業設置之必要性與計畫使用農業用地所提區位、面積之必要性、合理性及無可替代性，未提出評估意見或未表示支持意見。 (7)其他依本要點規定不得同意變更使用之情形。目的事業主管機關對於興辦事業人申請農業用地變更，應就事業設置之必要性與計畫使用農業用地所提區位、面積之必要性、合理性及無可替代性，提出評估意見，或具體表示是否支持該興辦事業及土地使用。(農業主管機關同意農業用地變更使用審查作業要點§4)
+• (二) 繳交回饋金
+農業用地之變更，應視其事業性質，繳交回饋金，撥交第54條中央主管機關所設置之農業發展基金，專供農業發展及農民福利之用。(農業發展條例§12 I)
+各目的事業相關法令已明定土地變更使用應捐贈或繳交相當回饋性質之金錢或代金者，其繳交及使用，依其法令規定辦理。但其土地如係農業用地，除民國89年1月4日修正施行前已收繳者，得免予撥交外，各相關機關應將收繳之金錢或代金之二分之一依前項規定辦理。(農業發展條例§12 II)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=915095</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:06:26</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>農業用地變更使用</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>915064</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>時效取得地上權之主觀占有意思要件認定,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025/12/30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>• (一) 時效取得之意義 占有人依民法第769條、第770條及第772條規定，主張時效完成，向該管登記機關申請時效取得不動產權利所為之登記。又可細分為以下幾種類型：
+1. 時效取得所有權登記 占有人根據民法第769條規定，以所有之意思，二十年間和平、公然、繼續占有他人未登記之不動產；或按民法第770條規定，以所有之意思，十年間和平、公然、繼續占有他人未登記之不動產，而其占有之始為善意並無過失，經檢附相關文件，向該管登記機關申請時效取得不動產所有權之登記。
+2. 時效取得地上權登記 民法第772條規定，時效取得所有權相關規定，於所有權以外財產權之取得，準用之。而適用之權利種類為地上權、農育權與不動產役權。 時效取得地上權登記係占有人根據民法第772條規定，以行使地上權之意思，二十年間或十年間而其占有之始為善意並無過失，和平、公然、繼續在他人土地之上下有建築物或其他工作物，經檢附相關文件，向該管登記機關申請時效取得地上權之登記。
+3. 時效取得農育權登記 占有人根據民法第772條規定，以行使農育權之意思，二十年間或十年間而其占有之始為善意並無過失，和平、公然、繼續在他人土地為農作、森林、養殖、畜牧、種植竹木或保育，經檢附相關文件，向該管登記機關申請時效取得農育權之登記。
+4. 時效取得不動產役權登記 占有人根據民法第772條規定，以行使不動產役權之意思，二十年間或十年間而其占有之始為善意並無過失，和平、公然、繼續以他人不動產供自己不動產通行、汲水、採光、眺望、電信或其他以特定便宜之用，經檢附相關文件，向該管登記機關申請時效取得不動產役權之登記。
+• (二) 時效取得地上權登記 土地總登記後，因主張時效完成申請地上權登記時，應提出以行使地上權意思而占有之證明文件及占有土地四鄰證明或其他足資證明開始占有至申請登記時繼續占有事實之文件 (土登§118 I)。換言之，上述規定可分為兩大證明文件：
+• (1) 主觀意思之證明文件 以行使地上權意思而占有之證明文件，如： A.當事人間已有設定地上權之約定，本於該約定先將土地交付占有而未完成登記 B.已為申請地上權設定登記而未完成登記 C.已為設定登記但該設定行為具有無效情形 D.占有人於占有他人土地之始，即將以行使地上權之意思表示於外部並取得第三人之證明等之相關證明文件
+• (2) 客觀占有事實之證明文件（以下擇一） A.占有土地四鄰證明 占有土地四鄰之證明人，於占有人開始占有時及申請登記時，需繼續為該占有地附近土地之使用人、所有權人或房屋居住者，且於占有人占有之始應有行為能力(時地§6 I)。 B.其他足資證明開始占有至申請登記時繼續占有事實之文件，如： (A)曾於該建物設籍之戶籍證明文件。惟如戶籍有他遷記載時，占有人應另提占有土地四鄰之證明書或公證書等文件(時地§5)。 (B)門牌編釘證明。 (C)繳納房屋稅憑證或稅籍證明。 (D)繳納水費或電費憑證。
+• (三) 主觀意思之證明文件爭議 確實上述主觀意思證明文件實不易提出，因為大多數占有人於占有之初，多無法證實其主觀意思，以致於實務上通常難以提出此要件。
+而近來臺北高等行政法院高等庭112年度訴字第1216號判決卻做出不同看法，值得注意：
+1. 一般民眾難以於占有土地之初，即明瞭地上權之義，俾能於占有土地期間備具日後主張時效取得地上權之證明；如僅因無法證明其行使地上權之主觀意思而否准其時效取得地上權之登記申請，勢必有礙時效取得制度目的之實現。
+2. 從地上權之本質而論，其既係以使用他人之土地為目的，而原告所管領使用之系爭建物確實使用他人所有之土地，自應認其已就以行使地上權意思而占有之事實為證明，符合土地登記規則第118條第1項規定。
+3. 土地登記機關並非司法機關，不宜在民眾提出時效取得地上權登記申請時，即逕行裁斷私權爭執，致民眾因無法滿足土地登記機關所要求之「證明」，而妨礙時效取得制度之目的實現，且在登記機關受理登記申請而為審查、辦理公告後，土地所有權人也能藉由後續調處、訴訟等程序主張其權利，是現行制度於平衡占有人及權利人間之利益已有所安排，則在解釋適用上開規定時，自應採較為寬鬆的標準；即除有充分證據證明占有人確非基於行使地上權之意思而為占有外，如依其占有狀態確有可能係基於行使地上權之主觀意思為占有者，即應認符合「提出以行使地上權意思而占有之證明文件」的要件，而非必須充分證明而後可。
+惟陳立夫教授(2025：87-88)卻就此提出疑問：首先，由占有人對於具備「以行使地上權意思而占有」之要件，負舉證責任，係基於民法規定文義解釋當然結果，且多為實務見解所採認。其次，「占有人建物存在於他人土地上」及「以行使地上權意思而占有他人土地」，二者概念、意涵並不相同。是否僅以建物占有逾20年以上事實，即可逕予認定是已就行使地上權意思而占有他人土地為證明，殊有斟酌餘地。
+曾老師小看法：從該判決第2點意見來看，以地上權本質，以外觀占有他人並有建築物來認定其具有地上權意思，似有點武斷，因為占用他人土地建築可能基於各種目的，如租賃、使用借貸、純粹佔高興的等。再從判決第3點意見來看，反而會變成要由土地所有權人舉證占有人確非基於行使地上權意思占有，如此一來，舉證之所在，敗訴之所在，以後時效取得地上權就變得容易的多，而有鼓勵占有之疑慮。
+參考資料：陳立夫，2025，土地法裁判精選-時效取得地上權之登記──臺北高等行政法院高等庭112年度訴字第1216號判決解說，月旦實務選評，第5卷，第7期：79-95。</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=915064</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:06:29</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>時效取得地上權登記、主觀意思之證明文件</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>915012</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>區域計畫開發許可之審議條件,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025/12/23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>本次專欄就地方特考四等土地利用概要的考題，考到區域計畫開發許可之審議條件概念，進一步整理與說明。
+• Q. ：非都市計畫地區土地為開發利用，得依區域計畫法之規定申請開發許可。請針對區域計畫委員會審議此類申請案件時的審議條件原則加以說明：
+• (一) 於國土利用係屬適當而合理 區域計畫法立法目的，在於促進土地及天然資源之保育利用，人口及產業活動之合理分布，以加速並健全經濟發展，改善生活環境，增進公共福利，足見其核心在於區位與公共利益之考量。因此，主管機關內政部之區域計畫委員會在審議非都市土地分區變更之區位適宜性時，關於有無符合「於國土利用係屬適當而合理者」之規定，應為利益衡量，必須就許可開發所帶來之公共利益是否遠大於不許可開發所維持區域土地完整之利益為衡量。此在私人在其私有土地為開發者亦然，亦即須就其開發之利益與不開發維持土地完整之利益為衡量。
+• (二) 不違反中央、直轄市或縣(市)政府基於中央法規或地方自治法規所為之土地利用或環境保護計畫 非都市土地之開發事業計畫申請，不得違反任何法定計畫，例如某A機關之法定計畫規定該區得有條件開發，而某B機關之法定計畫則規定該區不得開發，則開發許可必須不違反所有相關之計畫內容，係採聯集概念，故該區仍不得開發。
+• (三) 對環境保護、自然保育及災害防止為妥適規劃 考量者為基地內開發對於環境保護、自然保育及災害防止妥適規劃之課題，包括位於環境敏感地區之開發行為限制（如自來水水質水量保護區、平均坡度40%以上土地）、規劃保育區、隔離綠帶、設施、留設滯洪池、整地排水計畫、防災計畫、景觀分析等。
+• (四) 與水源供應、鄰近之交通設施、排水系統、電力、電信及垃圾處理等公共設施及公用設備服務能相互配合 需與周邊重大公共設施及公用設備服務相互配合，以證明土地開發後能順利使用營運。
+• (五) 取得開發地區土地及建築物權利證明文件 證明開發土地及建築之權源，例如土地所有權狀、他項權利證明書等。
+參考資料：最高行政法院105年度判字第479號、103年度判字第59號。</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=915012</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:06:32</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>區域計畫、環境保護</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>915011</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>公地放領政策,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025/12/16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 一、法源 中華民國憲法第143條：國家對於土地之分配與整理，應以扶植自耕農及自行使用土地人為原則。
+• 二、意義 為扶持自耕農並倡導耕者有其田政策，政府乃率先辦理公地放領以為示範。所謂公地放領，就是政府將公有耕地開放，供合於資格之農民承領，農民在繳清地價取得土地所有權後，即成為自地自耕並自己享受全部耕作成果之自耕農。
+• 三、目的 (一)落實憲法「扶植自耕農」政策 (二)消弭地主壟斷，提升社會公平 (三)持有土地所有權以鼓勵農地農用 (四)有助提高耕作、投資和土地利用效率，促進農業生產力 (五)基於過往政策背景，還地於民、保障權利
+• 四、背景 為落實憲法扶植自耕農政策，政府自1948年起推動三階段放領，總計放領約15萬公頃土地。
+[圖片1]
+其中，第一階段公地放領之原因，係因在1947、1948年間，臺灣依舊發生了許多激烈的農民抗爭事件，而其對象大抵都是對準臺糖公司，例如，溪湖糖廠、埔里糖廠、虎尾糖廠、後壁林糖廠、及高雄縣各糖廠等，農民抗爭的原因是由於臺糖欲將其租用之土地收回自營，對原耕作佃農的任意撤佃起耕所致。
+至於第二階段公地放領之原因，主要原因乃是因為來臺的國民政府並未依土地法的規定進行土地總登記，而是以土地權利憑證繳驗來取代土地總登記，遂使得許多臺人的土地權利遭致嚴重剝奪所致。
+• 五、重啟公地放領之原則 (一)依法行政 (二)信賴保護 (三)國土保育
+• 六、申請資格 (一)1976年9月24日前承租國有平地耕地（農牧用地或養殖用地） (二)符合「國有耕地放領實施辦法」、「國有邊際養殖用地放領實施辦法」規定 全國約近2,000公頃、4,445位農民
+• 七、爭議與討論
+• (一) 效率面
+1. 資格認定及審查疑義 因政策設有承租期限等資格要件，實務上易生自耕農認定、耕作年限計算及租賃契約合法性之爭議；加以年代久遠資料查核不易，將造成資格認定疑義與審查效率低之問題。
+2. 未農地農用之投機 公地放領後，投機者可能會出現農地轉用、閒置、轉賣等情形。
+3. 農用效率降低 放領後將原本較大規模且完整的國有耕地，經過後續繼承、分割等過程，逐漸變成小規模、零碎化，而難以維持規模效益，影響農業競爭力。
+• (二) 公平面
+1. 未被納入者之不公平疑義 以租賃期限一刀切方式，將對承租期較晚、或契約關係不明者未被納入者，出現不公平疑義。
+2. 世代剝奪感 對於目前積極投入農業的新農或青農，可能會有相對剝奪感。
+• 八、相關建議 (一)建議建置國有土地承租契約及耕作證明資料庫，並與財政部、內政部及地方政府進行資料串聯。 (二)建立透明且可追溯之申請審議與申訴機制，以降低爭議並提升政府公信力。 (三)運用無人機、衛星影像資料等科技技術，監控土地違規使用情形，並依據規定執行查察控管，以確保農地農用。 (四)建立農地所有權轉讓限制，考慮訂定農地轉作、出售前優先回收條款。 (五)建立農地閒置懲罰機制，以確保農地農用。 (六)建議配合青年農民、精緻農業、有機農業輔助計畫，並與產業鏈、地方政府協作，推動農村經營升級。透過輔導、補助、創新農業模式，實現土地所有權提升後的生產力提升。
+資料來源：
+1. 行政院，2025.11.27，重啟公地放領政策說明。
+2. 徐世榮教授，2025.11.25，為何要公地放領？
+3. 公地放領政策有待商榷 - 日報 - 工商時報
+4. 萃抬菁，重啟公地放領讓地於民，到底是實踐土地正義還是造成更大的不公平？ | 城市學，城市學網站。
+5. 內政部：公地放領土地維持農地農用 兼顧農業永續 - 政治 - 自由時報電子報
+## 文章圖片
+![圖片1](./images/915011_f6f14835.png)
+</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=915011</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:06:35</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>公地放領、農地農用、自耕農</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>914969</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>國土計畫法之回饋義務－國土保育費及影響費,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025/12/09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>• (一) 法源
+依照國土計畫法第28條第1項，經主管機關核發使用許可案件，中央主管機關應向申請人收取國土保育費作為辦理國土保育有關事項之用；直轄市、縣（市）主管機關應向申請人收取影響費，作為改善或增建相關公共設施之用，影響費得以使用許可範圍內可建築土地抵充之，始得依使用計畫進行後續開發。
+• (二) 意涵
+1. 國土保育費 未來配合國土計畫法施行，中央主管機關收取之國土保育費，係考量使用許可後對於整體環境有一定程度之衝擊影響，且本法對於國土保育地區、農業發展地區及海洋資源地區，均有不同程度禁止或限制使用之規定，為維護整體環境及公共利益原則下，遂收取國土保育費，屬於一種維護永續發展為目的之特別公課。
+2. 影響費 影響費與現行區域計畫法之開發影響費相似，係基於使用許可獲准後，將帶來地區性之開發活動，產生服務人口成長與地方經濟所需之公共設施需求問題，以及伴隨開發活動所可能造成之地區環境衝擊問題，應由造成外部成本之開發者負擔，符合外部成本內部化之精神及成長付費之理念。
+• (三) 用途
+根據國土計畫法第44條之規定，國土保育費由中央主管機關收取後應作為國土永續發展基金的來源之一，供辦理國土保育有關事項使用。該費用經課徵後係用於：
+1. 依本法規定辦理之補償所需支出；
+2. 國土之規劃研究、調查及土地利用之監測；
+3. 依第一項第五款來源補助直轄市、縣（市）主管機關辦理違規查處及支應民眾檢舉獎勵；
+4. 其他國土保育事項。</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914969</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:06:38</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>國土保育費、影響費</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>914930</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>特別犧牲之意義、要件及判斷基準,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>• (一) 特別犧牲之意涵 司法院釋字第400號解釋：「憲法第15條關於人民財產權應予保障之規定，旨在確保個人依財產之存續狀態行使其自由使用、收益及處分之權能，並免於遭受公權力或第三人之侵害，俾能實現個人自由、發展人格及維護尊嚴。惟個人行使財產權仍應依法受社會責任及環境生態責任之限制，其因此類責任使財產之利用有所限制，而形成個人利益之特別犧牲，社會公眾並因而受益者，應享有相當補償之權利。」其中，特別犧牲指人民對財產權的自由支配使用權，因公益之故而遭受到超過財產社會義務界限的特別限制或剝奪，而為顧及所有權人權益，基於公共利益限制土地利用時，難免涉及構成財產權人之特別犧牲，則生應予損失補償之問題。
+• (二) 特別犧牲之要件 是否構成特別犧牲之要件：
+1. 須屬於行使公權力之行為。
+2. 須對財產或其他權利之侵害。
+3. 侵害須達嚴重程度或已構成特別犧牲。
+4. 須相對人或利害關係人有值得保護之利益。
+5. 須基於公益之必要性。
+6. 須為合法行為。
+7. 補償義務須有法規之依據始得請求。
+• (三) 特別犧牲之判斷基準 至於侵害是否達嚴重程度而構成特別犧牲之判斷基準，宜就限制之目的、手段型態、限制程度、損失程度、土地狀況及條件、社會需要（社會情況）、限制期間及有無既得權益等複數要素，綜合地對於財產權限制之個別情形判斷。
+參考資料： 陳立夫，2007，土地法研究(一)，台北：新學林出版公司。 陳立夫，2011，土地法研究(二)，台北：新學林出版股份有限公司。 李惠宗，2007，行政法要義（3版），台北：元照出版有限公司。</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914930</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:06:41</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>特別犧牲、財產權</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>914915</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>111年度台上大字第1958號－理監事選任與重劃會合法性案,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025/11/25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>114年5月23日做成裁定的台上大字第1958號，係有關自辦市地重劃於選任重劃會執行主體「理事會及監事會」有黑箱作業問題。以下將重要內容簡要摘錄，高普考與不動產估價師同學尤應特別注意：
+主文
+• 一、民國95年6月22日、101年2月4日發布施行之獎勵土地所有權人辦理市地重劃辦法第13條第3項，關於第2項第2款選任理事、監事決議所定之同意比例，係指各別理事及監事之選任獲得同意之比例，不得以會員大會決議之章程或另訂理監事選舉辦法而降低之。未達上開同意比例或無法判斷之選任決 議，除該當不成立外，應屬無效，重劃會未合法成立，不因主管機關已為核定且未撤銷而受影響。
+• 二、以規避上開同意比例之目的而通謀虛偽移轉土地所有權者，受移轉登記人之人數及所有土地面積不列入選任決議計算。
+理由摘要
+㈠自辦市地重劃會係以重劃區內全體土地所有權人為會員，其中包括不同意參與重劃而被迫參與者，其性質有別於一般依自由意思成立或參與之私法自治團體，所從事市地重劃之本質復涉及人民私有土地之取得及重新分配。則會員大會對於選任理事、監事之決議，實係重劃會會員對於各別之理事、監事人選行使同意權，並授權其依市地重劃之程序代為處分財產之行為，其選定自須符合重劃會絕對多數之民意。故會員大會選任理事、監事之系爭同意比例，應本其法條文義及規範目的解釋為係各別理事、監事取得會員同意而得合法當選之比例，且屬強制規定，不能由會員大會以章程或另訂選舉辦法或決議予以調降，未達系爭同意比例或無法判斷之選任決議，除該當不成立外，依民法第71條規定，應屬無效。
+㈡自辦市地重劃一旦發動，將使不同意參與重劃者被迫參與自辦市地重劃程序，面臨財產權與居住自由被限制之危險。為確保個人依財產存續狀態行使其自由使用、收益及處分之權能，應認系爭同意比例係自辦市地重劃符合憲法要求保障財產權之正當程序。理事、監事選任之決議倘不符合系爭同意比例，重劃會之成立即不符合憲法要求之實質正當性，縱主管機關已依95年及101年獎勵重劃辦法第11條第4項規定為核定，亦不能治癒其瑕疵，民事法院仍得對重劃會是否合法成立之私法行為審判，不受該核定之拘束。
+㈢重劃區土地所有權人如係以虛灌人頭方式參與會員大會選任理事、監事之議決，藉以影響決議之結果，進而達到操控或阻擾重劃業務進行之目的，屬脫法行為，受移轉登記人參與議決之行為應屬無效，不得計入議決之人數及面積，以確保重劃區內真正土地權利人之自治決定及憲法要求之正當程序。</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914915</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:06:44</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>自辦市地重劃、重劃會</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>914903</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>國土計畫公告實施後之指導效力與變更情形,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025/11/18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>國土計畫法強調計畫管制精神，由國土功能分區分類指導土地使用項目，以確保計畫穩定性。因此，國土計畫公告實施後所發生的指導效力為何？又何種情形才得以進行國土計畫之變更？
+• (一) 公告實施
+1. 全國國土計畫公告實施後，直轄市、縣（市）主管機關應依中央主管機關規定期限，辦理直轄市、縣（市）國土計畫之擬訂或變更。但其全部行政轄區均已發布實施都市計畫或國家公園計畫者，得免擬訂直轄市、縣（市）國土計畫。
+2. 直轄市、縣（市）國土計畫公告實施後，應由直轄市、縣（市）主管機關通知當地都市計畫主管機關按國土計畫之指導，辦理都市計畫之擬訂或變更。前項都市計畫之擬訂或變更，中央主管機關或直轄市、縣（市）主管機關得指定各該擬定機關限期為之，必要時並得逕為擬定或變更。
+3. 各目的事業主管機關興辦性質重要且在一定規模以上部門計畫時，除應遵循國土計畫之指導外，並應於先期規劃階段，徵詢同級主管機關之意見。中央目的事業主管機關興辦部門計畫與各級國土計畫所定部門空間發展策略或計畫產生競合時，應報由中央主管機關協調；協調不成時，得報請行政院決定之。
+• (二) 變更
+1. 定期通檢國土計畫公告實施後，擬訂計畫之機關應視實際發展情況，全國國土計畫每十年通盤檢討一次，直轄市、縣（市）國土計畫每五年通盤檢討一次，並作必要之變更。
+2. 臨時變更有下列情事之一者，得適時檢討變更之：(1)因戰爭、地震、水災、風災、火災或其他重大事變遭受損壞。(2)為加強資源保育或避免重大災害之發生。(3)政府興辦國防、重大之公共設施或公用事業計畫。(4)其屬全國國土計畫者，為擬訂、變更都會區域或特定區域之計畫內容。(5)其屬直轄市、縣（市）國土計畫者，為配合全國國土計畫之指示事項。
+3. 依循全國國土計畫變更全國國土計畫公告實施後，直轄市、縣（市）主管機關應依中央主管機關規定期限，辦理直轄市、縣（市）國土計畫之變更。
+4. 中央主管機關逕為變更直轄市、縣（市）主管機關未依前項規定期限辦理直轄市、縣（市）國土計畫之變更者，中央主管機關得逕為變更。</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914903</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:06:48</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>國土計畫公告、國土計畫變更、都市計畫</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>914873</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>公寓大廈約定專用對繼受人之效力,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025/11/11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>本週專欄簡要彙整公寓大廈約定專用對繼受人之效力的實務判決一則。
+甲與乙簽訂房屋及土地(系爭房地)預定買賣合約，約定總價4,600萬元。甲買受系爭房地時，乙明知無系爭房地門前法定空地10坪之專用權，卻騙稱除所有權狀所載29.49坪外，尚有法定空地可供專用，未違反誠信原則說未據實告知系爭房地所在之大樓管委會決議公告及總幹事明示，隨時可收回法定空地及調整使用空地償金，致甲陷於錯誤，而同意以包含法定空地使用權之對價購買系爭房地，並交付價金，乙係故意詐欺，不法侵害甲之金錢財產權，又未依債之本旨交付買賣標的，違反出賣人應負之告知、說明等附隨義務，且乙就法定空地之使用權應負權利瑕疵擔保及物之瑕疵擔保責任，進而請求損害賠償。試問出賣人乙主張依公寓大廈管理條例，繼受人甲有向公寓大廈管委會或相關人員查詢法定空地使用權源及狀態之義務，故不需賠償或應減輕賠償，有無理由？
+按開放空間及退縮空地，在直轄市、縣（市）政府核准範圍內，得依規約或區分所有權人會議供營業使用；約定專用部分之範圍及使用主體，非經載明於規約者，不生效力；區分所有權之繼受人，應於繼受前向管理負責人或管理委員會請求閱覽或影印第35條所定文件（如規約、管理委員會會議紀錄等），並應於繼受後遵守原區分所有權人依本條例或規約所定之一切權利義務事項，公寓大廈管理條例第16條第2項但書、第23條第2項第1款、第24條第1項、第35條固有明文。
+惟觀諸上開規定之立法理由，公寓大廈管理條例第16條旨在維護公共安全，第23條在規範住戶規約應由區分所有權人自訂，並不得違反法令，及非經載明於規約不生效力之事項，第24條則明定區分所有權之繼受人應繼受前區分所有人權利義務，以維護區分所有關係之一貫性，第35條係明定與規約及區分所有權人會議之會議紀錄權益關係之第三人得請求閱覽，管理負責人或管理委員會不得拒絕，俱非課有意購買所謂約定專用部分（即公寓大廈共用部分經約定供特定區分所有權人使用者）之買受人有事先查證使用權源之義務，況出賣人乙就所謂約定專用部分之使用現況及權源本難諉為不知，其既於系爭買賣契約擔保有法定空地之專用權，自應就不履行擔保所致甲之損害負全部責任，縱使甲可得依上開規定向大樓管委會或相關人員查詢法定空地之使用權源，卻未查詢，致未能於系爭買賣契約成立前發現乙並無所謂約定專用權，亦不能逕而認定甲未查證即與乙訂立系爭買賣契約，及之後因乙不履行權利瑕疵擔保責任而受有損害，為與有過失。
+資料來源：臺灣高等法院 104 年度重上更（二）字第 109 號 判決</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914873</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:06:51</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>公寓大廈約定專用、系爭房地、公寓大廈管理條例、系爭買賣契約</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>914814</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>基地優先購買權之相關議題(二)：未受通知主張塗銷登記多年後，物權效力是否受誠信原則限制？,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025/11/04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>延續前次基地優先購買權之相關議題(一)，探討優先購買權人在未受通知後，並且該基地已移轉第三人過了多年，甚至還轉了好幾手後，才發現其優先購買權受到侵害，進而訴請塗銷這些移轉的所有權，以行使優先購買權，試問是否妥適？
+根據土地法第104條第一項規定：「基地出賣時，地上權人、典權人或承租人有依同樣條件優先購買之權。房屋出賣時，基地所有權人有依同樣條件優先購買之權。其順序以登記之先後定之。」此為地政考試非常重要的基地優先購買權觀念，至於同條第二項：「前項優先購買權人，於接到出賣通知後十日內不表示者，其優先權視為放棄。出賣人未通知優先購買權人而與第三人訂立買賣契約者，其契約不得對抗優先購買權人。」由於該優先購買權可據以對抗第三人，故學者將其歸屬為「物權效力」。
+該物權效力，指在優先購買權人（地上權人、典權人或承租人）未受出賣通知時，若出賣人已移轉所有權登記予第三人，因出賣人與第三人以買賣為原因而成立之物權移轉行為不得對抗優先承買權人，從而，優先承買權人自得請求第三人即買受人塗銷所有權移轉登記，暨請求義務人即出賣人協同辦理所有權移轉登記。然而，究竟多久內可以主張優先購買而訴請塗銷所有權，法未明訂，參楊智守（2019）提及目前司法實務以是否違反誠信原則作為討論，並分為兩說：
+1. 未違反誠信原則說 承租人必須知悉買賣條件後，始能為放棄優先承買權之表示，倘出租人未為與買賣契約同意條件之通知，縱承租人知悉出賣事實而未為購買之表示，仍不得視為其放棄優先承買權，既不得認其已拋棄優先承買權，亦難認其違反誠信或有權利濫用之情事（最高法院106年度台上字第1263號判決意旨）。
+2. 違反誠信原則說 優先承買權之立法意旨非在使優先承買權人巧取利益，是土地優先承買權人如已知悉土地所有權人出賣基地及買受人並買賣條件（例如從買受人、法院判決書、對造答辯狀等來源而知悉買賣同樣條件時），即應於相當期限內行使其權利，若長期不行使，足以引起出賣人與買受人之正當信任，認為權利人已不欲行使其權利，或嗣後房地價格飆漲後，再主張行使優先承買權時，應認為有違誠信原則。
+其中，楊智守法官（2019）於結論中指出，此種優先購買權人訴請塗銷所有權移轉登記，常已距基地初次買賣有段時日，基地所有權甚至更已轉手多次，優先承買權人的相對物權效力一次性翻轉歷次基地所有權轉移效果，造成法秩序不安定，訴訟爭點再次延伸到誠信原則的判斷，最後求之法院職權調整買賣價金亦不太可得，足見基地租賃優先承買權的相對物權效力應有立法調整之必要。
+參考資料：楊智守，2019，基地租賃優先承買權之實務問題探討（二）－以法律效果與訴訟主張為中心，司法周刊，第1976期，第2-3版。</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914814</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:06:54</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>基地優先購買權、物權效力</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>914715</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>製造商與提供服務者的無過失責任,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025/10/28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>各位同學好
+最近於總複習時，發現有些同學觀念需要修正一下，故今日專欄針對消費者保護法第7條有關「製造商與提供服務者的無過失責任」概念予以釐清。
+首先，消費者保護法第7條規定：「從事設計、生產、製造商品或提供服務之企業經營者，於提供商品流通進入市場，或提供服務時，應確保該商品或服務，符合當時科技或專業水準可合理期待之安全性(第一項)。商品或服務具有危害消費者生命、身體、健康、財產之可能者，應於明顯處為警告標示及緊急處理危險之方法(第二項)。企業經營者違反前二項規定，致生損害於消費者或第三人時，應負連帶賠償責任。但企業經營者能證明其無過失者，法院得減輕其賠償責任(第三項)。」
+從文義而言，已明確指出企業經營者是在違反前兩項（即未符合安全性、未有警告標示與緊急處理方法）時，才負損害賠償責任，且因為未符合前兩項規定而一定要予連帶賠償，至於如能證明無過失，方能減輕。這邊應特別注意的是，並非只要消費者使用商品或服務受有損害就需要負無過失賠償責任，這個責任是有「前提要件」的－未符合安全性、未有警告標示與緊急處理方法！
+另依消費者保護法第7條之1：「企業經營者主張其商品於流通進入市場，或其服務於提供時，符合當時科技或專業水準可合理期待之安全性者，就其主張之事實負舉證責任。」因此，倘若企業經營者可以提出明確有說服力的證明，指出其商品或服務確實符合可合理期待的安全性，包含對危險者亦有警告標示與處理方法，那麼即可免責，不需賠償。但應注意，該舉證責任為企業經營者而非消費者。
+以下提供幾個案例參考：
+參考案例一（唱K受槍傷死亡）：
+最高法院96年度台上字第656號判決，法院認為：KTV係提供消費者唱歌設備、飲食，及獨立不受影響之唱歌空間，屬消費者保護法所稱之服務，依該法第7條之立法意旨，固應對其提供消費者使用之空間及附屬設施負確保安全之責任。惟一般消費者至KTV消費，其預期經營者所提供之服務為符合品質、效用之唱歌與飲食，而隔間牆之設置僅係為提供不同之消費族群各自獨立不受影響之唱歌空間而已；KTV並非試槍場所，一般人至KTV消費，並不會預期包廂係供消費者談判、聚眾鬥毆之場所，是以，KTV包廂隔間牆不須具備防彈功能；亦無法律規定KTV應設置。金屬探測門。是被告所提供之隔間牆，應符合當時科技或專業水準可合理期待之安全性。從而被害人因受槍傷而死亡，不得請求被告賠償。（陳聰富，2023）
+明確指出並非於營業場所享受服務時受傷或死亡即需負賠償責任，仍須先視企業經營者由無提供可合理期待安全性。
+參考案例二（營業場所滑倒）：
+最高法院 108 年度台上字第1710號民事判決：查上訴人在欣大中公司經營之環東店用餐時，於該店自助沙拉區未鋪設地毯且未設置「小心地滑」之安全警告標示之角落處跌倒受傷，為原審認定之事實。果爾，依前揭規定，欣大中公司應就其主張所提供之服務符合專業水準可合理期待之安全性之事實負舉證責任，以證明所提供之用餐環境已符合專業水準可提供消費者於用餐時安全行走之合理期待。否則，欣大中公司對其未能確保其所提供之服務無安全上之危險，無論有無過失，均應就上訴人所受損害負賠償責任。
+同樣明確指出應由企業經營者舉證該服務符合專業水準可合理期待之安全性，如無法證實則不論有無過失，均應就消費者所受損害負賠償責任。
+參考案例三（熱紅茶燙傷）：
+臺灣高等法院民事判決101年度上字第419號：高等法院認為，被上訴人頂呱呱忠孝店就系爭紅茶之提供及服務均無安全上之危險，且符合當時科技或專業水準可合理期待之安全性，就其主張之事實應負舉證責任。乙雖於原審陳述，其於甲購買熱紅茶時，封紙袋前有再確認杯蓋有無蓋好，且頂呱呱忠孝店設定沖泡江茶溫度為八十度。但法院認為乙稱其於交付熱紅茶予上訴人甲時，有提醒上訴人熱飲小心飲用，惟上訴人於系爭燙傷事故發生當時為年僅十一歲之未成年人，就危險預防之思慮自較成年人不足，且依專家文獻記載，超過七十度 C 高溫的水，在皮膚上停留超過一秒鐘就會造成燒燙傷，而若遭八十度 C 熱水傾到，隔著褲子可能致十一歲兒童鼠蹊部受到三度燙傷之程度等情。是頂呱呱忠孝店所出售達八十度 C 之熱紅茶，其溫度即有燙傷消費者之安全上之危險。法院進一步認為，頂呱呱忠孝店既提供外帶熱紅茶之商品及服務，對於熱紅茶裝盛器具之安全，自有注意義務，應預先注意杯體傾倒時，杯蓋不會與杯體分離，致熱紅茶洩流而與人體皮膚接觸造成傷害。而食品衛生管理法雖未規範銷售產品溫度之限制，惟為維護消費者飲食安全，並參照消費者保護法第七條第三項、第十條第二項之規定，頂呱呱忠孝店於出售熱紅茶之商品時應在包裝上標示，提醒消費者小心並避免燙傷之相關警示語。但於本案頂呱呱忠孝店在裝盛熱紅茶之紙杯及放置飲料之包裝紙袋外，並無相關警語或標示，足見其並未依消費者保護法七條第二項規定，於明顯處為警告之注意標示，已難認其提供之「服務」符合專業水準之合理期待。
+至於被上訴人雖另辯稱系爭紙杯耐熱水試驗，其測試結果可證明系爭熱飲杯正常情形下並無溢漏或不堪使用之情況，其材質應已符合當時科技或專業水準可合理期待之安全性。惟法院認為，依頂呱呱門市服務區工作手冊及標準作業流程資料，已詳載裝盛熱紅茶時，應於蓋上杯蓋並確實壓緊杯蓋後，並應使用膠帶固定杯蓋與杯子，需使其膠帶為十字狀，堪認頂呱呱忠孝店亦預見僅將熱飲杯蓋閉合仍可能發生與杯體脫離之安全上危險，則其未要求員工應確實執行此流程，復未於杯體容器加註提醒消費者注意之警示，即難認頂呱呱忠孝店已依消保法第七條之一規定，就商品之提供及服務符合當時科技或專業水準可合理期待之安全性盡其舉證責任，自應依同法第七條第三項規定，負損害賠償責任。至被上訴人雖另辯稱，上訴人甲遭熱飲燙傷之原因可能係其自購買後到上車前不當擠壓紙杯所致溢漏或其母駕駛行進間車輛顛簸，導致紙袋破裂或熱飲潑灑所造成，惟未舉證以實其說，應無可採，自難認系爭損害之發生，乃出於上訴人或其法定代理人之不當使用或過失，而非可歸責於頂呱呱忠孝店提供熱紅茶之商品及外帶之服務在包裝上符合專業水準可合理期待之安全性所致。
+高等法院因此認定被上訴人出售足以使人燙傷之熱紅茶，未為符合專業水準之安全防護措施，致不具合理期待之安全性，造成上訴人受有深二度燙傷，已違反消保法第七條第一項規定，應依同法條第三項規定，負損害賠償責任，另消保法第五一條規定，審酌事故發生之原因及被上訴人之疏失情節，暨所造成上訴人之傷害，被上訴人應連帶賠償上訴人五十萬元之懲罰性賠償金。（吳淑莉，2016）
+綜上，應釐清觀念：商品或服務無過失責任之基礎，在於企業經營者提供之商品或服務，未符合當時科技或專業水準可合理期待之安全性。換言之，要將「商品安全性」與「過失」分開看待，如同蔡晶瑩教授（2023）所述，只要企業經營者因為服務欠缺安全性，而使消費者或第三人受有生命、身體、健康或財產上之損害時，企業經營者對消費者或第三人即應負擔損害賠償責任。企業經營者所提供之服務是否欠缺安全性，須以服務是否具備「符合當時科技或專業水準可合理期待之安全性」為標準而判斷之，消保法所定之規則，為立法者對於服務提供者所要求之「服務品質」，此一規定與企業經營者是否具有過失無關，並非過失之判斷標準，不應將過失與安全性欠缺兩者混淆。安全性欠缺係針對商品或服務導致損害之事實，決定該損害之發生，是否源自於一種不正常或不合理之危險，此種危險之實現應由企業經營者承擔其因此所生之不利益。安全性是否欠缺，僅為一種現象或事實，我們只須做有或無的判斷，至於所提供之服務基於何種原因發生安全性欠缺，是基於服務提供者之故意行為、重大過失行為、輕過失行為、乃至於無過失行為，皆不影響消費者或第三人因其生命、身體、健康、財產所受之損害對於服務提供者（企業經營者）主張損害賠償責任。
+參考文獻：
+1. 吳淑莉，2016，餐飲業之消保法商品及服務責任－熱紅茶案判決評析，月旦法學雜誌，第252期，第210-222頁。
+2. 陳聰富，2023，商品製造人責任，月旦法學教室，第251期，第46-54 頁。
+3. 蔡晶瑩，2023，論商品製造人責任中服務欠缺安全性在概念上之研析－最高法院110年度台上字第1425號判決與最高法院105年度台上字第1905號判決，月旦法學雜誌，第336期，第36-46頁。</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914715</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:06:57</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>消費者保護法、企業經營者、消費者、無過失責任</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>914694</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>基地優先購買權之相關議題(一)：基地出賣後建物拆除之主張優先購買問題,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025/10/21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>• (一) 案例說明
+乙於民國76年3月1日與甲就系爭土地訂立租賃契約書，租期自76年3月1日起至80年 2月28日止，年租金5萬元。租期屆滿後乙仍續租，雙方約定以乙墊付之開發費用抵繳日後租金，乙並在系爭土地上興建1棟房屋（下稱系爭房屋）。然而，甲於95年9月11日未先通知乙，即以總價2,200萬元出售系爭土地並移轉登記予丙所有，嗣丙再將應有部分10分之 1移轉登記予丁所有，乙發現後爰於民國100年依民法第426條之 2、第767條及土地法第104條第1項規定，求為下列判決，惟民國102年1月16日乙之房屋已遭拆除：
+1. 確認乙就系爭土地有優先購買權存在。
+2. 命丁將系爭土地所有權應有部分10分之 1所為之移轉登記塗銷，回復登記為丙所有。
+3. 命丙將系爭土地所有權全部所為之移轉登記塗銷，回復登記為甲所有。
+4. 命甲以出售予丙之相同條件即總價 2,200萬元與乙訂立買賣契約，並移轉登記予乙所有。
+• (二) 法條
+按土地法第104條規定，基地出賣時，地上權人、典權人或承租人有依同樣條件優先購買之權。房屋出賣時，基地所有權人有依同樣條件優先購買之權。其順序以登記之先後定之。前項優先購買權人，於接到出賣通知後十日內不表示者，其優先權視為放棄。出賣人未通知優先購買權人而與第三人訂立買賣契約者，其契約不得對抗優先購買權人。
+• (三) 判決重點
+1. 房屋拆除後得否主張土104優先購買？ 所謂「依同樣條件優先購買」，係指在買賣條件如買賣標的、範圍、價金、付款方式、瑕疵擔保等均相同情形下，承租人得要求優先成為基地之買受人。上開規定之優先購買權，乃成立買賣契約之形成權，其權利之有無，應依行使權利時之狀態認定之。倘承租人行使優先購買權時，本於租地建屋契約而在土地上建有房屋者，其行使先買權即屬合法，縱然該房屋嗣後被拆除，仍不影響其原本已取得之先買權。
+2. 知悉出賣事實而未為購買表示是否視為放棄？ 承租人必須知悉買賣條件後，始能為放棄優先購買權之表示，倘出賣基地之出租人，未為與買賣契約同樣條件之通知，縱承租人知悉出賣事實而未為購買之表示，仍不得視為其放棄優先購買權。
+3. 移轉第三人之效力？ 此優先購買權具有相對物權的效力，不因買受人買受基地後，已輾轉移轉所有權於第三人而有異。
+• (四) 結論
+甲於95年 8月16日出賣其所有系爭土地時，乙基於不定期租賃契約而為系爭土地之承租人，並本於該租約約定，在系爭土地上建有系爭房屋，乃甲未將其買賣條件通知乙，即以總價 2,200萬元出售系爭土地並移轉登記為丙所有，丙嗣再將系爭土地所有權應有部分10分之 1出售並移轉登記予丁。
+乙主張依土地法第104條第1項規定，以甲出賣系爭土地之同樣條件，優先購買系爭土地，自屬合法有據，既不得認其已拋棄優先購買權，亦難認其違反誠信或有權利濫用之情事。
+又，土地法第104條第1項規定之優先購買權，具有相對物權的效力，乙行使該權利之結果，使甲移轉系爭土地所有權予丙、及丙移轉系爭土地所有權應有部分10分之 1予丁之物權行為，均因而成為無權處分，乙自得請求塗銷各該所有權移轉登記。
+資料來源：最高法院106年度台上字第1263號判決</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914694</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>優先購買權、土地所有權、基地</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>914642</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>美濃盜採砂石案違反區域計畫法之情形,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025/10/14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>本週專欄針對進來時事－「美濃大峽谷」作法規說明，此與不動產經紀人、高普考及不動產估價師之計畫法規有關
+可先看新聞：美濃盜採砂石案 內政部國土署：高雄市政府已法移送地檢署調查 地方政府聯合查緝平台 持續查處不法土地使用行為
+主要是高雄市美濃區有23筆非都市土地農牧用地遭盜取砂石，甚至被挖成「大峽谷」顯見其嚴重程度，其違反法規包含土石採取法、廢棄物清理法、區域計畫法等。
+就地政相關法規而言，主要違反區域計畫法之土地使用管制，根據區域計畫法第15條規定：「區域計畫公告實施後，不屬第十一條之非都市土地(擬定都市計畫者)，應由有關直轄市或縣（市）政府，按照非都市土地分區使用計畫，製定非都市土地使用分區圖，並編定各種使用地，報經上級主管機關核備後，實施管制。變更之程序亦同。其管制規則，由中央主管機關定之。」因此，非都市土地使用分為上、中、下層管制，分別為非都市土地分區使用計畫→11種分區→19種使用地，再根據非都市土地使用管制規則第6條：「非都市土地經劃定使用分區並編定使用地類別，應依其容許使用之項目及許可使用細目使用。」只要未按照其所定容許使用項目及許可使用細目使用，即屬違規使用（違反土地使用管制）。
+違規使用之裁罰則依據區域計畫法第21條規定：「違反規定管制使用土地者，由該管直轄市、縣（市）政府處新臺幣六萬元以上三十萬元以下罰鍰，並得限期令其變更使用、停止使用或拆除其地上物恢復原狀。前項情形經限期變更使用、停止使用或拆除地上物恢復原狀而不遵從者，得按次處罰，並停止供水、供電、封閉、強制拆除或採取其他恢復原狀之措施，其費用由土地或地上物所有人、使用人或管理人負擔。前二項罰鍰，經限期繳納逾期不繳納者，移送法院強制執行。」
+又因為本案屆期仍未改善，所以可依據區域計畫法第22條刑責規定：「違反前條規定不依限變更土地使用或拆除建築物恢復土地原狀者，除依行政執行法辦理外，並得處六個月以下有期徒刑或拘役。」已移送地檢署調查中。</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914642</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:03</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>美濃大峽谷、土石採取法、廢棄物清理法、區域計畫法、非都市土地</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>914598</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>不動產經紀業涉及聯合行為之情形,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025/10/07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>• (一) 聯合行為之意義
+指具競爭關係之同一產銷階段事業，以契約、協議或其他方式之合意，共同決定商品或服務之價格、數量、技術、產品、設備、交易對象、交易地區或其他相互約束事業活動之行為，而足以影響生產、商品交易或服務供需之市場功能者。(公交§14)
+其中，聯合行為之合意，得依市場狀況、商品或服務特性、成本及利潤考量、事業行為之經濟合理性等相當依據之因素推定之。
+• (二) 聯合行為之效力
+事業不得為聯合行為。但有下列情形之一，而有益於整體經濟與公共利益，經申請主管機關許可者，不在此限：
+1. 為降低成本、改良品質或增進效率，而統一商品或服務之規格或型式。
+2. 為提高技術、改良品質、降低成本或增進效率，而共同研究開發商品、服務或市場。
+3. 為促進事業合理經營，而分別作專業發展。
+4. 為確保或促進輸出，而專就國外市場之競爭予以約定。
+5. 為加強貿易效能，而就國外商品或服務之輸入採取共同行為。
+6. 因經濟不景氣，致同一行業之事業難以繼續維持或生產過剩，為有計畫適應需求而限制產銷數量、設備或價格之共同行為。
+7. 為增進中小企業之經營效率，或加強其競爭能力所為之共同行為。
+8. 其他為促進產業發展、技術創新或經營效率所必要之共同行為。
+• (三) 聯合行為之處罰
+1. 主管機關對於違反規定之事業，得限期令停止、改正其行為或採取必要更正措施，並得處新臺幣十萬元以上五千萬元以下罰鍰；屆期仍不停止、改正其行為或未採取必要更正措施者，得繼續限期令停止、改正其行為或採取必要更正措施，並按次處新臺幣二十萬元以上一億元以下罰鍰，至停止、改正其行為或採取必要更正措施為止。
+2. 經主管機關認定有情節重大者，得處該事業上一會計年度銷售金額百分之十以下罰鍰，不受前項罰鍰金額限制。
+3. 違反規定，經主管機關依規定限期令停止、改正其行為或採取必要更正措施，而屆期未停止、改正其行為或未採取必要更正措施，或停止後再為相同違反行為者，處行為人三年以下有期徒刑、拘役或科或併科新臺幣一億元以下罰金。
+• (四) 不動產經紀業涉及聯合行為之情形
+《公平交易委員會對於不動產經紀業之規範說明》不動產經紀業者涉及違法聯合行為之態樣例示如下：
+1. 共同決定服務報酬收費標準，或協議限制服務報酬之調整。
+2. 共同劃分經營區域。
+3. 共同劃分交易對象。
+4. 共同阻礙或排除其他競爭者或潛在競爭者參與競爭，例如協議拒絕其他不動產經紀業者參與聯賣。
+5. 共同約束開發物件必須與委託人簽訂專任委託契約，致使不動產經紀業者及委託人選擇委託契約型態之自由受到限制。
+6. 共同約束專任委託契約之期間，致使不動產經紀業者縱未積極努力撮合，委託人卻因受限於契約而無法另行委託其他不動產經紀業者。
+7. 共同約束收取斡旋金之票期，致使斡旋金票期趨於一致。
+8. 共同約束實施聯賣之不動產物件開發方擁有一定的專賣期間，致使已尋得交易相對人之其他不動產經紀業者受限於專賣權之規定而無法成交。</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914598</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:06</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>不動產經紀業、聯合行為</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>914565</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>不動產廣告未下架、隱瞞賺差價之經紀業規範,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025/09/30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>本週專欄針對不動產經紀業兩項情形－不動產廣告未下架、回頭殺賺差價，進行說明：
+• 一、今年5月仲介業出現檢舉潮，專門針對「委託標的已售出而廣告未下架」進行檢舉，其究竟違反什麼規定？
+• (一) 規定
+不動產經紀業管理條例第21條第2項：「廣告及銷售內容，應與事實相符，並註明經紀業名稱。」因此，已售出卻仍廣告待銷售中，即屬與事實不符，也就是「廣告不實」。
+• (二) 處罰
+不動產經紀業管理條例第29條第1項第1款：「違反第二十一條第二項，由直轄市、縣（市）主管機關處新臺幣六萬元以上三十萬元以下罰鍰。」
+• 二、倘若仲介業有「回頭殺」手法，欺騙委託人以賺取差價，例如假設賣方委託價是1,000萬，而買方已同意購買，結果仲介卻回頭又以話術使賣方價格降為950萬，賺取差價50萬元收入自己囊中，可能違反哪些民事相關規範？
+• (一) 不動產經紀業管理條例
+1. 規定
+1. 第4條第9款：「差價︰係指實際買賣交易價格與委託銷售價格之差額。」
+2. 第19條第1項：「經紀業或經紀人員不得收取差價或其他報酬，其經營仲介業務者，並應依實際成交價金或租金按中央主管機關規定之報酬標準計收。」
+2. 違反規定之處理與處罰
+1. 第19條第2項：「違反前項規定者，其已收取之差價或其他報酬，應於加計利息後加倍返還支付人。」
+2. 經紀業 第29條第1項第1款：「違反第十九條第一項規定，由直轄市、縣（市）主管機關處新臺幣六萬元以上三十萬元以下罰鍰。」
+3. 經紀人員 第31條第1項第2款：「違反第十九條第一項規定者，應予六個月以上三年以下之停止執行業務處分。」
+• (二) 民法
+第184條第1項後段：「因故意或過失，不法侵害他人之權利者，負損害賠償責任。 故意以背於善良風俗之方法，加損害於他人者亦同。」
+• (三) 公平交易法
+1. 規定 第25條：「除本法另有規定者外，事業亦不得為其他足以影響交易秩序之欺罔或顯失公平之行為。」欺瞞委託人屬於欺罔行為。
+2. 違反規定之處理與處罰
+1. 第30條：「事業違反本法之規定，致侵害他人權益者，應負損害賠償責任。」
+2. 第31條：「法院因前條被害人之請求，如為事業之故意行為，得依侵害情節，酌定損害額以上之賠償。但不得超過已證明損害額之三倍。侵害人如因侵害行為受有利益者，被害人得請求專依該項利益計算損害額。」
+3. 第32條：「所定之請求權，自請求權人知有行為及賠償義務人時起，二年間不行使而消滅；自為行為時起，逾十年者亦同。」
+4. 第42條：「主管機關對於違反第二十五條規定之事業，得限期令停止、改正其行為或採取必要更正措施，並得處新臺幣五萬元以上二千五百萬元以下罰鍰；屆期仍不停止、改正其行為或未採取必要更正措施者，得繼續限期令停止、改正其行為或採取必要更正措施，並按次處新臺幣十萬元以上五千萬元以下罰鍰，至停止、改正其行為或採取必要更正措施為止。」</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914565</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:09</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>回頭殺、差價、不動產經紀業管理條例</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>915284</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>撤銷徵收或廢止徵收之行政程序,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2026/02/12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>撤銷徵收或廢止徵收之行政程序如下：
+• (一) 申請：若申請人為需用土地人，應向中央主管機關（即內政部）申請。若申請人為原土地所有權人，應向直轄市或縣（市）主管機關（即直轄市或縣（市）政府地政局或地政處）申請。
+• (二) 核准：撤銷或廢止徵收之核准機關為中央主管機關（即內政部）。
+• (三) 公告通知：中央主管機關於核准撤銷或廢止徵收後，應將原案通知該管直轄市或縣（市）主管機關（徵§51Ⅰ）。直轄市或縣（市）主管機關於收到中央主管機關通知核准撤銷或廢止徵收案時，應公告三十日，並通知原土地所有權人於一定期間繳清應繳納之價額（徵§51Ⅱ）。
+• (四) 繳清價額：原土地所有權人應於一定期間繳清應繳納之價額；未於一定期間繳清者，不發還其土地，並不得依規定申請收回該土地（徵§51Ⅱ）。前項一定期間，不得少於六個月（徵§51Ⅲ）。所稱應繳納之價額，指徵收補償地價、地價加成補償及遷移費。人口或物件已遷移者，無須繳納遷移費（徵§51Ⅳ）。另，徵收補償地價，於徵收前設定有他項權利或耕地租約者，包括他項權利人或耕地承租人原應受領之價金（徵§51Ⅴ）。
+• (五) 發還土地：原土地所有權人繳清價額後，直轄市或縣（市）主管機關發還土地。另，撤銷或廢止徵收後，徵收前原設定之他項權利及耕地租約不予回復。但依規定由原土地所有權人及他項權利人申請於發給之抵價地設定抵押權或典權者，其原抵押權或典權准予回復（徵§52）。
+【註】 徵：土地徵收條例。</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=915284</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:12</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>撤銷徵收、廢止徵收</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>915241</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>公共設施保留地與公共設施用地之比較（二）,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2026/02/05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1. 租稅優惠： (1)地價稅：
+①公共設施保留地：
+• 公共設施保留地未作任何使用並與使用中之土地隔離，免徵地價稅。
+• 公共設施保留地作農業使用，課徵田賦。田賦自民國76年停徵迄今。
+• 公共設施保留地作自用住宅用地，按千分之二計徵地價稅。
+• 公共設施保留地作自用住宅用地以外之建築使用，統按千分之六計徵地價稅（不累進）。（土稅§19）
+②公共設施用地：
+• 道路：無償供公眾通行之道路土地，經查明屬實者，在使用期間內，地價稅全免。但其屬建造房屋應保留之法定空地部分，不予免徵（土稅減§9）。
+• 學校用地：財團法人或財團法人所興辦業經立案之私立學校用地、為學生實習農、林、漁、牧、工、礦等所用之生產用地及員生宿舍用地，經登記為財團法人所有者，全免。但私立補習班或函授學校用地，均不予減免（土稅減§8I①）。
+• 公園及體育場所用地：私立公園及體育場所用地，按千分之十計徵地價稅（不累進）（土稅§18I②）。又，經事業主管機關核准設立，對外絕對公開，並不以營利為目的之私立公園及體育館場，其用地減徵百分之五十；其為財團法人組織者減徵百分之七十（土稅減§8I③）。
+• 停車場用地：依都市計畫法規定設置之供公眾使用之停車場用地，按千分之十計徵地價稅（不累進）（土稅§18I④）。
+• 其餘公共設施用地：上述以外之私有公共設施用地，無減免規定，持有時均應課徵地價稅。
+• (2) 土地增值稅：
+①公共設施保留地：
+• 被徵收之土地，免徵土地增值稅；依法得徵收之私有土地，土地所有權人自願售與需用土地人者，免徵土地增值稅（土稅§39I）。
+• 依都市計畫法指定之公共設施保留地尚未被徵收前之移轉，免徵土地增值稅（土稅§39Ⅱ）。
+②公共設施用地：
+• 都市土地：私有公共設施用地（如道路用地、學校用地、公園用地、體育場所用地、停車場用地等）之移轉，無減免規定，移轉時均應課徵土地增值稅。
+• 非都市土地：非都市土地經需用土地人開闢完成或依計畫核定供公共設施使用，並依法完成使用地編定，其尚未被徵收前之移轉，經需用土地人證明者，免徵土地增值稅（土稅§39Ⅲ）。
+• (3) 房地合一所得稅：
+①公共設施保留地：
+• 被徵收或被徵收前先行協議價購之土地，免徵所得稅（所§4-5I③）。
+• 尚未被徵收前移轉依都市計畫法指定之公共設施保留地，免徵所得稅（所 §4-5I④）。
+②公共設施用地： 所有公共設施用地，無減免規定，交易時均應課徵所得稅。
+• (4) 遺產稅：
+①公共設施保留地： 公共設施保留地因繼承而移轉，免徵遺產稅（都§50-1）。
+②公共設施用地：
+• 道路用地：被繼承者遺產中經政府闢為公眾通行道路之土地或其他無償供公眾通行之道路土地，經主管機關證明者，不計入遺產總額（其租稅效果等同免徵遺產稅）。但其屬建造房屋應保留之法定空地部分，仍應計入遺產總額（遺贈§16⑫）。
+• 其餘公共設施用地：道路用地以外之私有公共設施用地，無減免規定，繼承時均應課徵遺產稅。
+• (5) 贈與稅：
+①公共設施保留地： 公共設施保留地因配偶、直系血親之贈與而移轉者，免徵贈與稅（都§50-1）。
+②公共設施用地： 所有公共設施用地，無減免規定，贈與時均應課徵贈與稅。
+綜上，對公共設施保留地土地所有權人之權益保障較公共設施用地為多，違反租稅平等原則。
+【註】 都：都市計畫法。 徵：土地徵收條例。 土稅：土地稅法。 土稅減：土地稅減免規則。 遺贈：遺產及贈與稅法。 所：所得稅法。</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=915241</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:19</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>地價稅、土地增值稅、遺產稅、贈與稅、公共設施保留地、公共設施用地</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>915236</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>公共設施保留地與公共設施用地之比較（一）,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2026/01/29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>• (一) 公共設施保留地之意義 公共設施保留地係指都市計畫事先指定之公共設施用地，保留供政府機關或各事業機構日後取得。
+• (二) 私有公共設施保留地與私有公共設施用地之比較 應先說明，本比較所稱公共設施用地，指除公共設施保留地以外，供公共設施使用之土地。
+1. 存在地區： (1)公共設施保留地僅存在都市土地。亦即，非都市土地無公共設施保留地。 (2)公共設施用地存在於都市土地及非都市土地。
+2. 容積移轉： (1)公共設施保留地之取得，得以容積移轉方式辦理（都§83-1）。 (2)私有公共設施用地之取得不適用容積移轉。
+3. 私地與公地交換： (1)私有公共設施保留地得申請與公有非公用土地辦理交換（都§50-2）。 (2)私有公共設施用地不適用私地與公地交換。
+4. 徵收補償： (1)公共設施保留地按毗鄰非公共設施保留地之平均市價補償其地價（徵§30）。 (2)公共設施用地按標的本身市價補償其地價（徵§30）。
+（待續）</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=915236</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:22</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>公共設施保留地、公共設施用地</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>915179</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>建物拆除之補償標準,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2026/01/22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>• (一) 合法建物拆除之補償： 建物現值=重建價格–建物折舊 合法建物拆除之補償有二項標準：
+1. 以重建價格補償：建物拆除補償係以重建價格為補償標準。換言之，雖建物為中古屋，仍以重建之新成屋價格予以補償，不扣除建物折舊。其原因是如以建物現值（即重建價格扣除建物折舊之殘餘價格）補償，將使原建物所有權人無法以其補償金額再去興建同一區位、同一品質及同一面積之建物。如土地徵收對於建物，採重建價格補償即是（徵§31 I）。
+2. 以建物現值補償：建物拆除補償標準係以重建價格扣除建物折舊，以其殘餘價格為補償標準。例如： (1)都市更新權利變換而拆除建物（都更§57 V）。 (2)市地重劃而拆除建物（平§62-1 II）。 (3)照價收買土地而一併收買建物（平§34）。 上開三種情形，原建物所有權人無須以其補償金額再去興建建物，故以建物現值補償。
+綜上，合法建物拆除以建物現值補償為原則，以重建價格補償為例外。 (二)違章建築拆除之補償：
+1. 原則：不予補償。如土地徵收對於違章建築，不予補償（徵§5 I③、III）。
+2. 例外：專案處理。如都市更新權利變換對於舊違章建築，可採分配房地處理（都更§62）。
+【註】
+1. 平：平均地權條例。
+2. 徵：土地徵收條例。
+3. 都更：都市更新條例。</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=915179</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:25</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>建物拆除補償</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>915157</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>絕對估值與相對估值,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2026/01/15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>• (一) 絕對估值：指著重勘估標的本身之估值符合市場行情，而不著重勘估標的與其他土地之地價高低層次（即地價等級）是否合理。
+• (二) 相對估值：指著重勘估標的與其他土地之地價高低層次（即地價等級）的合理性，而不著重勘估標的本身之估值是否符合市場行情。
+• (三) 應用：
+1. 公部門估價： (1)規定地價：強調相對估值。因為相對估值才可以確保土地所有權人地價稅負擔之公平性。如果公告地價較市場行情為低，則全體土地所有權人之地價稅皆減輕而已，不致引發土地所有權人質疑。
+• (2) 土地現值查估：強調相對估值。因為相對估值才可以確保土地所有權人土地增值稅負擔之公平性。如果公告土地現值較市場行情為低，則全體土地所有權人之土地增值稅皆減輕而已，不致引發土地所有權人質疑。
+• (3) 土地徵收補償地價查估： ①一般徵收：強調絕對估值。因為一般徵收採現金補償，絕對估值才可以確保土地徵收之合理補償。 ②區段徵收：強調相對估值。因為區段徵收大都採抵價地補償，即原土地所有權人按其應領地價補償費與區段徵收補償地價總額之比率計算領回抵價地。如果參加區段徵收之各所有權人之土地估值皆偏低，則前揭比率維持不變，因此領回抵價地不受影響。
+2. 私部門估價： 民間估價強調絕對估值，以確保買賣、租賃、融資、擔保等經濟活動之公平性及安全性。</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=915157</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:28</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>絕對估值、相對估值、勘估標的</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>915124</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>農業用地興建個別農舍之條件,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2026/01/08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>• (一) 人的管制：
+1. 申請人已成年（即年滿18歲）（農建§2Ⅰ①）。
+2. 申請人為農民。農民之認定，由農民於申請興建農舍時，檢附農業生產相關佐證資料，經直轄市、縣（市）主管機關會同專家、學者會勘後認定之。但屬農民健康保險被保險人或全民健康保險第三類被保險人者，不在此限（農建§3-1）。
+3. 申請人無自用農舍。申請人已領有個別農舍或集村農舍建造執照者，視為已有自用農舍。但該建造執照屬尚未開工且已撤銷或原申請案件重新申請者，不在此限（農建§2Ⅰ④）。
+4. 申請人之戶籍所在地及其農業用地，須在同一直轄市、縣（市）內，且其土地取得及戶籍登記均應滿二年（農建§2Ⅰ②）。
+5. 申請人為該農業用地之所有權人（農建§2Ⅰ⑤）。亦即，興建農舍起造人應為該農舍坐落土地之所有權人（農建§9Ⅰ）。
+• (二) 地的管制：
+1. 申請興建農舍之該筆農業用地面積不得小於0.25公頃（農建§2Ⅰ③）。
+2. 申請興建農舍之農業用地，有下列情形之一者，不得申請興建農舍： (1)非都市土地工業區或河川區。 (2)前款以外其他使用分區之水利用地、生態保護用地、國土保安用地或林業用地。 (3)非都市土地森林區養殖用地。 (4)其他違反土地使用管制規定。（農建§5Ⅰ）
+3. 該農業用地確供農業使用及屬未經申請興建農舍（農建§2Ⅰ⑤）。
+4. 該農舍之興建不得影響農業生產環境及農村發展（農建§2Ⅰ⑤）。
+【註】 農建：農業用地興建農舍辦法</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=915124</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:31</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>申請興建農舍</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>915027</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>限建之意涵,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025/12/18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>下列三項有關限建之意涵不同：
+• (一) 空地限建： 所請限建，指限期建築、增建、改建或重建而言。亦即，土地所有權人應於規定期限內請領建造執照開工建築而言。前揭期限，在直轄市或省轄市為二年，在縣轄市或鄉鎮為三年（平施§41）。
+• (二) 平均地權條例施行細則第40條之限建與禁建： 直轄市或縣（市）主管機關依規定劃定私有空地限期建築、增建、改建或重建之地區，應符合下列規定：
+1. 依法得核發建造執照。
+2. 無限建、禁建情事。（平施§40Ⅰ）。 上開所稱無限建、禁建情事，指無限制建築、無禁止建築之情事。
+• (三) 平均地權條例第22條之依法限制建築及依法不能建築：
+1. 依法限制建築：指依法令規定有明確期間禁止其作建築使用。如平均地權條例第53條規定，區段徵收地區選定後，徵收機關得禁止建築改良物之新建、增建、改建或重建，禁止期間以一年六個月爲期。平均地權條例第59條規定，重劃地區選定後，直轄市或縣（市）政府得禁止或限制建築改良物之新建、增建、改建或重建，禁止或限制之期間，不得超過一年六個月。
+2. 依法不能建築：指依法令規定無明確期間禁止其作建築使用。如都市計畫法第17條規定，未公布細部計畫地區，應限制其建築使用。建築法第47條規定，易受海潮、海嘯侵襲、洪水泛濫及土地崩塌之地區，如無確保安全之防護設施者，直轄市、縣（市）（局）主管建築機關應商同有關機關劃定範圍予以發布，並豎立標誌，禁止在該地區範圍內建築。 （參見：平均地權條例第二十二條有關依法限制建築、依法不能建築之界定作業原則）
+【註】 平施：平均地權條例施行細則。</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=915027</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:34</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>空地限建、平均地權、限制建築</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>914997</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>一般徵收與區段徵收,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025/12/11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>土地徵收大致分為一般徵收與區段徵收二種。簡言之，區段徵收以外之土地徵收，皆屬一般徵收。
+• (一) 一般徵收：政府對個別或小範圍之土地予以徵收，稱為一般徵收。一般徵收僅得採現金補償，不得採抵價地補償。
+• (二) 區段徵收：政府對全區或大範圍之土地予以徵收，稱為區段徵收。區段徵收採現金補償與抵價地補償並行，並以抵價地補償為其特色。
+• (三) 兩者在適用上之比較：
+• T. ABLE_PLACEHOLDER_1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914997</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:37</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>土地徵收、一般徵收、區段徵收</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>914943</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>政府機關及國營事業以撥用或徵收方式取得公有土地或私有土地之比較,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025/12/04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>• (一) 取得方式不同：
+1. 政府機關及國營事業得以「撥用」方式取得公有土地，但不得以「徵收」方式取得公有土地。
+2. 政府機關及國營事業得以「徵收」方式取得私有土地，但不得以「撥用」方式取得私有土地。
+• (二) 國營事業不同：
+1. 僅限於非公司組織之國營事業（亦即僅限於政府機關組織之國營事業），始得以撥用方式取得公有土地。
+2. 僅限於政府資本超過50%之國營事業（亦即得為公司組織之國營事業，但政府股份須超過50%），始得以徵收方式取得私有土地
+• (三) 取得權利不同：
+1. 政府機關及國營事業以「有償撥用」取得公有土地之所有權，以「無償撥用」取得公有土地之使用權。
+2. 政府機關及國營事業以「土地徵收」取得私有土地之所有權，以「土地徵用」取得私有土地之使用權。
+• (四) 取償價格不同：
+1. 政府機關及國營事業如以有償撥用取得公有土地，其取償價格以「公告土地現值」為準（撥劃§III）；如以無償撥用取得公有土地，則無取償價格。
+2. 政府機關及國營事業如以土地徵收取得私有土地，其取償價格以「市價」為準（徵§30I II）；如以土地徵用取得私有土地，其每年取償價格以「公告土地現值百分之十」為準（徵§58V）。</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914943</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:41</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>有償撥用、無償撥用、土地徵收、土地徵用</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>914924</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>關於土地及其改良物方面之特別犧牲,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025/11/27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">國家機關依法行使公權力致人民之財產遭受損失，若逾其社會責任所應忍受之範圍，形成個人之特別犧牲者，國家應給予合理補償（司法院釋字第440號解釋）。準此，凡屬個人之一般犧牲者，國家不給予補償；凡屬個人之特別犧牲者，國家始給予補償。
+關於土地及其改良物方面之特別犧牲包括下列二種：
+• (一) 私人土地或其改良物所有權被剝奪：此即「土地徵收」之意涵。特別犧牲以土地徵收為主，但不限於土地徵收。
+• (二) 私人土地或其改良物所有權之使用、收益或處分遭受限制：憲法上財產權保障之範圍，不限於人民對財產之所有權遭國家剝奪之情形。國家雖未剝奪人民之土地所有權，但限制其使用、收益或處分，已逾其社會責任所應忍受之範圍，形成個人之特別犧牲者，國家亦應予土地所有人相當之補償，始符合憲法保障人民財產權之意旨（司法院釋字第813號解釋理由書）。茲舉四例說明；
+1. 土地徵用：國家因興辦臨時性公共建設工程，得徵用私有土地或土地改良物（徵§58Ⅰ）。所稱徵用，指國家強制使用私人土地或其改良物，用畢即歸還所有權人。因此，土地徵用乃徵用「使用權」，而非徵收「所有權」。
+2. 地上權徵收：需用土地人因興辦土地徵收條例第3條規定之事業，需穿越私有土地之上空或地下，得就需用之空間範圍協議取得地上權，協議不成時，準用徵收規定取得地上權（徵§57Ⅰ）。又，需用土地人不依徵收規定向主管機關申請徵收地上權者，土地所有權人得請求需用土地人向主管機關申請徵收地上權（司法院釋字第747號解釋）。因此，地上權徵收乃徵收「地上權」，而非徵收「所有權」。
+3. 既成道路或都市計畫道路埋設地下設施物：主管機關對於既成道路或都市計畫道路用地，在依法徵收或價購以前埋設地下設施物妨礙土地權利人對其權利之行使，致生損失，形成其個人特別之犧牲，自應享有受相當補償之權利（司法院釋字第440號解釋）。
+4. 歷史建築所定著之土地：土地所有人如因定著於其土地上之建造物及附屬設施，被登錄為歷史建築，致其就該土地原得行使之使用、收益、處分等權能受到限制，究其性質，屬國家依法行使公權力，致人民財產權遭受逾越其社會責任所應忍受範圍之損失，而形成個人之特別犧牲，國家應予相當補償（司法院釋字第813號解釋）。
+總之，特別犧牲之範圍不限於土地或其改良物之所有權被剝奪（即土地徵收）。土地或其改良物所有權之使用、收益或處分遭受限制，逾其社會責任所應忍受之範圍，亦屬於特別犧牲之範圍，國家應給予合理補償。如圖所示。
+[圖片1]
+【註】 徵：土地徵收條例
+## 文章圖片
+![圖片1](./images/914924_b8874440.png)
+</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914924</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:44</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>私人土地或其改良物、土地徵收、土地徵用</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>914907</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>都市更新權利變換之實例研習,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025/11/20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">有一都市更新案，更新單元內可區分為三塊建築基地A、B及C。
+1. A基地上有一幢二層區分所有建物。1F（以A1表示）為甲所有，房地總價800萬元。2F（以A2表示）為乙所有，房地總價700萬元。基地價值比率90%。
+2. B基地上有一幢三層區分所有建物。1F（以B1表示）為丙所有，房地總價600萬元。2F（以B2表示）為丁所有，房地總價500萬元。3F（以B3表示）為戊所有，房地總價400萬元。基地價值比率80%。
+3. C基地有一透天房屋，為庚所有，房地總價1,000萬元。基地價值比率為60%。
+4. A地之素地總價值1,000萬元，B地之素地總價值1,500萬元，C地之素地總價值1,200萬元，（A+B+C）整體素地總價值4,500萬元。
+【解答】
+• (一) 各基地之素地總價值：
+• T. ABLE_PLACEHOLDER_1
+• (二) A基地各戶之基地權利價值：
+• T. ABLE_PLACEHOLDER_2
+綜上，基地總價值（1,350萬元）大於調整後素地總價值（1,217萬元），故以基地總價值為準。
+• (三) B基地各戶之基地權利價值：
+• T. ABLE_PLACEHOLDER_3
+綜上，基地總價值（1,200萬元）小於調整後素地總價值（1,824萬元），故以調整後素地總價值為準。
+• (四) C基地之基地權利價值：
+1. 基地權利價值： 1,000×60%=600萬元
+2. 調整後素地價值： 1,459萬元
+綜上，基地權利價值（600萬元）小於調整後素地價值（1,459萬元），故以調整後素地價值為準。
+• (五) 各所有權人之權利價值比率：
+• T. ABLE_PLACEHOLDER_4
+• (六) 更新後之房地總值（即更新後總銷售金額）： 更新後興建地上12層、地下3層之住宅大樓，一層一戶。 1F：100萬／坪×65坪=6,500萬元 2F：90萬／坪×65坪=5,850萬元 3F：85萬／坪×65坪=5,525萬元 4F：82萬／坪×65坪=5,330萬元 5F：84萬／坪×65坪=5,460萬元 6F：85萬／坪×65坪=5,525萬元 7F：86萬／坪×65坪=5,590萬元 8F：87萬／坪×65坪=5,655萬元 9F：88萬／坪×65坪=5,720萬元 10F：89萬／坪×65坪=5,785萬元 11F：90萬／坪×65坪=5,850萬元 12F：92萬／坪×65坪=5,980萬元 車位：200萬／個×30個=6,000萬元 合計：6,500+5,850+5,525+5,330+5,460+5,525+5,590+5,655+5,720+5,785+5,850+5,980+6,000=74,770萬元
+• (七) 土地所有權人共同負擔比率（即實施者應分配之權利價值比率）： 土地所有權人共同負擔比率
+[圖片1] =60%實施者應分配之權利價值：74,770×60%=44,862萬元
+• (八) 更新後各所有權人應分配之權利價值： 74,770-44,862=29,908萬元
+• T. ABLE_PLACEHOLDER_5
+## 文章圖片
+![圖片1](./images/914907_abeae34e.png)
+</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914907</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:47</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>都市更新、基地權利價值</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>914813</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>土地開發分析法,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• (一) 土地開發分析法之意義：指根據土地法定用途、使用強度進行開發與改良所導致土地效益之變化，估算開發或建築後總銷售金額，扣除開發期間之直接成本、間接成本、資本利息及利潤後，求得開發前或建築前土地開發分析價格。
+• (二) 土地開發分析法之應用時機：
+1. 評估建地價格：如住宅用地、商業用地、工業用地等之建地估價。
+2. 評估需經開發改良土地之開發前地價：如山坡地、工業區土地、重劃區土地等之開發前地價評估。
+• (三) 土地開發分析法之公式： V=S÷（1+R）÷（1+i）-（C+M） 其中： V：土地開發分析價格。 S：開發或建築後預期總銷售金額。 R：適當之利潤率。 C：開發或建築所需之直接成本。 M：開發或建築所需之間接成本。 i：開發或建築所需總成本之資本利息綜合利率。
+• (四) 土地開發分析法之估價程序：
+1. 確定土地開發內容及預期開發時間：先確定土地開發之面積、內容及開發時間。
+2. 調查各項成本及相關費用並蒐集市場行情等資料：蒐集營造施工費、規劃設計費、廣告費與銷售費、管理費、稅捐、資本利率、建築利潤率等市場行情資料。
+3. 現況勘察並進行環境發展程度之調查及分析：現況勘察勘估標的及其周遭環境之土地利用與開發程度。
+4. 估算開發或建築後可銷售之土地或建物面積：按相關法令規定，在最有效使用下，估算勘估標的之可銷售面積。
+5. 估算開發或建築後總銷售金額：按開發後或建築後可銷售面積，乘以可銷售單價，得到銷售金額。總計各部分之銷售金額，得到總銷售金額。
+6. 估算各項成本及相關費用：估算營造施工費、規劃設計費、廣告費與銷售費、管理費、稅捐及其他負擔等成本及費用。
+7. 選擇適當之利潤率及資本利息綜合利率：選擇適當利潤率，並計算資本利息綜合利率。
+8. 計算土地開發分析價格：將上開計算結果，代入土地開發分析法之公式，即得出土地開發分析價格。
+• (五) 舉例說明：
+有一塊建築基地，土地面積800坪，開發期間3年，可銷售資料如下：
+• T. ABLE_PLACEHOLDER_1
+相關資料如下：
+1. 營造施工費：18萬／坪。
+2. 規劃設計費：依營造施工費之2%計。
+3. 廣告費與銷售費：依總銷售金額之5%計。
+4. 管理費：依總銷售金額之4%計。
+5. 稅捐及其他負擔：依總銷售金額之1%計。
+6. 資本利息資料如下：(1)一年期定存利率2%，銀行放款利率5%。(2)貸款資金：自有資金：預售收入=3:2:1(3)土地價值：建物價值=5:4
+7. 適當之利潤率：20%。
+試以土地開發分析法計算該建築基地之單價及總價？
+【解答】
+• (一) 總銷售金額（S）： 1F：160×240=38,400 2F以上：100×1,060=106,000 車位：250×75=18,750 合計：38,400+106,000+18,750=163,150
+• (二) 直接成本（C）： 18×2,200=39,600
+• (三) 間接成本（M）：
+1. 規劃設計費：39,600×2%=792
+2. 廣告費與銷售費：163,150×5%=8,158
+3. 管理費：163,150×4%=6,526
+4. 稅捐及其他負擔：163,150×1%=1,632
+5. 合計：792+8,158+6,526+1,632=17,108
+• (四) 資本利息綜合利率（i）：
+1. 資本利息年利率：[圖片1]
+2. 資本利息綜合利率：[圖片2]
+• (五) 適當利潤率（R）： 適當利潤率為20%。
+• (六) 土地開發分析價格（V）： V=S÷（1+R）÷（1+i）-（C+M） =163,150÷（1+20%）÷（1+7.4%）-（39,600+17,108） =69,883 69,883÷800=87.35
+答：該建築基地之單價為87.35萬／坪，總價69,883萬元。
+## 文章圖片
+![圖片1](./images/914813_88244725.png)
+![圖片2](./images/914813_ac495b84.png)
+</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914813</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:50</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>土地開發分析法</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>914812</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>折現現金流量分析法,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025/11/06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• (一) 折現現金流量分析法之意義： 指勘估標的未來折現現金流量分析期間之各期淨收益及期末價值，以適當折現率折現後加總推算勘估標的價格之方法。
+• (二) 折現現金流量分析法之應用時機：
+1. 營運性不動產之價格評估：如觀光飯店、百貨商場、出租辦公大樓等之估價。
+2. 以投資為目的之不動產投資評估：委託者擬投資收益性不動產，採折現現金流量分析法評估不動產價格，供投資決策之參考。
+• (三) 折現現金流量分析法之公式：
+[圖片1] 其中： P：收益價格。 CFk：各期淨收益。 Y：折現率。 n’：折現現金流量分析期間。 k：各年期。 Pn’：期末價值。
+• (四) 折現現金流量分析法之估價程序：
+1. 蒐集資料：蒐集總收入、總費用及折現率等資料。
+2. 推算有效總收入：推算分析期間（分析期間一般為5年或10年）勘估標的之各年總收入，再推算各年閒置及其他原因造成之收入損失，二者相減，就得到分析期間勘估標的之各年有效總收入。
+3. 推算總費用：推算分析期間勘估標的之各年總費用。
+4. 計算淨收益：由各年有效總收入扣除各年總費用，求得分析期間勘估標的之各年淨收益。
+5. 推估期末價值：推估分析期間屆滿後，處分勘估標的所得到之價格。此稱為期末價值。期末價值應扣除處分勘估標的所需之相關費用。
+6. 決定折現率：採加權平均資金成本法決定折現率。
+7. 計算收益價格：將上開計算結果，代入折現現金流量分析法之公式，即得出收益價格。
+• (五) 舉例說明： 有一棟收益性不動產，預計持有五年後出售，未來一年至第五年之淨收益分別為100萬元、200萬元、300萬元、400萬元及500萬元，期末價值為6,000萬元，折現率5%，則該不動產收益價格為何？ 【解答】
+[圖片2] 答：該不動產之收益價格為5,958萬元。
+## 文章圖片
+![圖片1](./images/914812_1b160edb.png)
+![圖片2](./images/914812_9cb72be5.png)
+</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914812</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:53</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>折現現金流量分析法</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>914746</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>土地增值稅之免徵、不課徵、記存及不計徵,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025/10/30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>• (一) 意義：
+1. 免徵：免除土地增值稅負擔。如繼承而移轉之土地，免徵土地增值稅（土稅§28）。
+2. 不課徵：尚未結算已發生之土地增值稅，俟下次移轉時一併結算並徵收。如配偶相互贈與之土地，得申請不課徵土地增值稅（土稅§28-2）。
+3. 記存：結算已發生之土地增值稅，記在帳上，俟下次移轉時一併徵收。如都市更新權利變換，土地所有權人應分配之土地範圍內，分配予各該合法建築物所有權人、地上權人、永佃權人、農育權人或耕地三七五租約承租人，視為土地所有權人獲配土地後無償移轉，其土地增值稅減徵40%，並准予記存，於權利變換後再移轉，一併繳納（都更§60）。
+4. 不計徵：土地增值稅之課徵範圍（時機）為所有權移轉及設定典權。不計徵，指不在土地增值稅之課徵範圍內。如市地重劃後，重行分配予原土地所有權人之土地，不計徵土地增值稅。其理由是市地重劃後，重行分配與原土地所有權人之土地，自分配結果確定之日起，視為其原有之土地（平§62）。
+• (二) 比較：
+1. 免徵土地增值稅與不課徵土地增值稅之比較： (1)免徵土地增值稅屬於租稅免除，不課徵土地增值稅，屬於租稅遞延。 (2)免徵土地增值稅，其原地價必須重新核定。不課徵土地增值稅，其原地價未更動。 (3)免徵土地增值稅，其納稅義務人不必申請（無租稅申報協力義務）。不課徵土地增值稅，納稅義務人有必須申請者（有租稅申報協力義務），亦有不必申請者（無租稅申報協力義務）。
+2. 不課徵土地增值稅與土地增值稅記存之比較： (1)不課徵土地增值稅，指尚未結算已發生之土地增值稅。土地增值稅記存，指結算已發生之土地增值稅。 (2)不課徵土地增值稅，其原地價未更動。土地增值稅記存，其原地價必須重新核定。 (3)不課徵土地增值稅，其土地漲價總數額繼續累計，累進倍數不斷提高。土地增值稅記存，其土地漲價總數額自記存時起重新計算。
+3. 免徵土地增值稅與不計徵土地增值稅之比較： (1)免徵土地增值稅，指在土地增值稅之課徵範圍內，但給予租稅免除。不計徵土地增值稅，指不在土地增值稅之課徵範圍內，故政府無須稽徵作業。 (2)免徵土地增值稅，其原地價必須重新核定。不計徵土地增值稅，其原地價照舊。
+4. 不課徵土地增值稅與不計徵土地增值稅之比較： (1)不課徵土地增值稅，指在土地增值稅之課徵範圍內，但給予租稅遞延。不計徵土地增值稅，指不在土地增值稅之課徵範圍內，故政府無須稽徵作業。 (2)不課徵土地增值稅，有必須納稅義務人申請者（有租稅申報協力義務），亦有不必納稅義務人申請者（無租稅申報協力義務）。不計徵土地增值稅，人民無納稅義務存在。 (3)不課徵土地增值稅與不計徵土地增值稅，對納稅義務人而言，其租稅效果相同。
+【註】 土：土地法。 平：平均地權條例。 土稅：土地稅法。 都更：都市更新條例。</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914746</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:07:56</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>土地增值稅、免徵、不課徵、記存、不計徵、租稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>914706</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>空地、素地、袋地、裡地,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025/10/23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>• (一) 空地：土地法及平均地權條例定義之專有名詞。土地法第87條第1項規定，凡編為建築用地，未依法使用者，為空地。準此，空地乃地主未善盡利用土地，故政府採空地稅或照價收買，以督促其使用。
+• (二) 素地：不動產估價之專有名詞。素地係指地上無改良物或他項權利之土地。地上如有改良物或他項權利，將其視為不存在，評估素地狀況下之地價。如不動產估價技術規則第106條規定，建物已不具備使用價值，得將其基地視為素地估價。但應考量建物拆除成本予以調整之。
+• (三) 袋地：描述不動產臨路狀況之專有名詞。袋地係指不直接臨路之土地。如袋地通行權即是一例。民法第787條第1項規定，土地因與公路無適宜之聯絡，致不能為通常使用時，除因土地所有人之任意行為所生者外，土地所有人得通行周圍地以至公路。
+• (四) 裡地：我國政府部門估價所採用之專有名詞。繁榮街道路線價區段，以距離臨街線18公尺以內為臨街地，採路線價估價法查估；以距離臨街線18公尺以外為裡地，採區段價法查估。其實，裡地是臨路之一般宗地，但為了估價目的，在其深度18公尺處劃出裡地線，將該宗土地區分為臨街地與裡地二部分，而適用不同的估價方法（臨街地適用路線價估價法，裡地適用區段價法）。因此，裡地並非袋地。</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914706</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>空地、素地、袋地、裡地、估價</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>914654</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>民法物權編施行法第8條之5之優先購買權與土地法第104條之優先購買權的比較,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025/10/16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>• (一) 民法物權編施行法第8條之5優先購買權之規定：
+1. 區分所有建築物之基地，有分離出賣之情形時，其專有部分之所有人無基地應有部分或應有部分不足者，於按其專有部分面積比例計算其基地之應有部分範圍內，有依相同條件優先承買之權利，其權利並優先於其他共有人。前項情形，有數人表示優先承買時，應按專有部分比例買受之。但另有約定者，從其約定。
+2. 區分所有建築物之專有部分，有分離出賣之情形時，其基地之所有人無專有部分者，有依相同條件優先承買之權利。前項情形，有數人表示優先承買時，以抽籤定之。但另有約定者，從其約定。
+3. 區分所有建築物之基地或專有部分之所有人出賣基地或專有部分時，應在該建築物之公告處或其他相當處所公告五日。優先承買權人不於最後公告日起十五日內表示優先承買者，視為拋棄其優先承買權。
+• (二) 土地法第104條優先購買權之規定：
+1. 基地出賣時，地上權人、典權人或承租人有依同樣條件優先購買之權。房屋出賣時，基地所有權人有依同樣條件優先購買之權。其順序以登記之先後定之。
+2. 前項優先購買權人，於接到出賣通知後十日內不表示者，其優先權視為放棄。出賣人未通知優先購買權人而與第三人訂立買賣契約者，其契約不得對抗優先購買權人。
+• (三) 兩者比較：
+民法物權編施行法第8條之5之優先購買權與土地法第104條之優先購買權同屬房與地間之優先購買權。兩者之比較如下表。
+• T. ABLE_PLACEHOLDER_1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914654</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:03</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>民法物權編施行法第8條之5、土地法第104條、優先承買權、基地</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>914619</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>土地法第34條之1應用於公同共有之舉例,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>土地法第34條之1第5項規定，公同共有準用土地法之第34條之1第1項（多數決）及第4項（優先購買權）。茲舉一例說明：
+甲死亡，遺留一筆土地，由乙、丙、丁三人繼承，應繼分分別為四分之三、六分之一、十二分之一。乙急需現金，但不得單獨出售其應繼分，故擬運用土地法第34條之1第1項，將該筆土地全部出售於戊。其程序如下：
+• (一) 乙依據土地登記規則第120條、遺產及贈與稅法第41條之1之規定，先繳清全部遺產稅，並辦理公同共有繼承登記。
+• (二) 乙依據民法第759條及土地法第34條之1第1項之規定，出售該筆土地全部予戊。
+• (三) 乙依據土地法第34條之1第4項規定，通知丙及丁是否主張優先購買。
+• (四) 設丙、丁二人皆願意以同樣條件優先購買。
+• (五) 依據民法第830條第1項規定，公同共有物之關係因公同共有物之讓與而消滅。準此，本例由公同共有轉變為分別共有。
+• (六) 依據土地法第三十四條之一執行要點第13點第10款規定，公同共有人數人主張時，其優先購買權之範圍應按各主張優先購買權人之潛在應有部分（即應繼分）比例計算之。
+• (七) 最後，該筆土地產權為丙、丁二人分別共有，應有部分丙為三分之二，丁為三分之一。</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914619</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:06</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>土地法第34條之1、公同共有、優先購買</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>914579</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>差別稅率,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025/10/02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>土地稅採差別稅率之目的，在達成其政策目的（如平均社會財富、實現地利共享、打擊炒房投機等）。茲分述如下：
+• (一) 地價稅之差別稅率：地價稅針對申報地價總額（即地價稅之稅基）與累進起點地價之倍數大小的不同，採差別稅率，以抑制兼併、壟斷土地。
+• (二) 土地增值稅之差別稅率：土地增值稅針對土地漲價總數額（即土地增值稅之稅基）與原地價（即原規定地價或前次申報移轉現值）之倍數大小的不同，採差別稅率，以實現地利共享，並減少投機誘因。
+• (三) 房地合一所得稅之差別稅率：房地合一所得稅針對持有房地年數長短的不同，採差別稅率，以懲罰短期持有及打擊炒房投機。
+• (四) 房屋稅之差別稅率：房屋稅針對持有房屋戶數的不同，採差別稅率，以制止囤房投機。
+值得一提的是，地價稅及土地增值稅屬於累進稅，房地合一所得稅及房屋稅屬於比例稅。不論累進稅或比例稅，皆可採差別稅率，發揮租稅之政策效果。</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914579</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:09</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>差別稅率、地價稅、土地增值稅、房地合一所得稅、房屋稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>914557</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>生態足跡與碳足跡,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2025/09/25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>• (一) 生態足跡：衡量每個人所需使用多少土地面積。吾人使用土地面積愈少，對環境保護愈好。
+• (二) 碳足跡：指產品由原料取得、製造、配送銷售、使用及廢棄處理等生命週期各階段產生之碳排放量，經換算為二氧化碳當量之總和（氣候法§3）。產品之碳排放量愈少，對環境保護愈好。
+【註】 氣候法：氣候變遷因應法。</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914557</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:12</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>生態足跡、碳足跡、土地面積、碳排放</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>914531</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>WTP與WTA之應用,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025/09/18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• (一) 不動產成交之條件：
+不動產交易中，買方購買不動產所願意支付之最高價格（Willingness to Pay, WTP）大於賣方出售不動產所願意接受之最低價格（Willingness to Accept, WTA），雙方才會成交。成交價格（Transaction Price, TP）落在WTP與WTA之間。析言之：
+1. 買方願付最高價格小於賣方願受最低價格，雙方不會成交。如圖①所示，D代表買方在不同價格下購買意願之強弱。S代表賣方在不同價格下出售意願之強弱。D與S在第一象限無交點，表示買賣雙方不會成交。
+[圖片1]
+圖① 買賣雙方不會成交
+2. 買方願付最高價格大於賣方願受最低價格，雙方才會成交。如圖②所示，D與S在第一象限有交點，表示買賣雙方才會成交。成交價格落在WTP0與WTA0之間。假設買方購買意願等於賣方出售意願情況下（即雙方意願皆在W0）成交，則成交價格TP0。總之，不動產成交條件如下： WTA0 ≤ TP0 ≤ WTP0
+[圖片2]
+圖② 買賣雙方會成交
+• (二) 消費者剩餘與生產者剩餘：
+買賣雙方成交後，買方擁有消費者剩餘，賣方擁有生產者剩餘。雙方在雙贏之情況下成交，皆大歡喜。消費者剩餘與生產者剩餘皆是一種心理感受。自願交易可以提高買方福利，亦可以提高賣方福利。總之，自願交易可以提高社會福利。
+消費者剩餘 = WTP0 - TP0 生產者剩餘 = TP0 - WTA0
+• (三) 稟賦效果：
+就同一人而言，針對特定不動產，WTA會高於WTP。此稱為稟賦效果（Endowment Effect）。換言之，同一人就失去不動產之痛苦效用，會高於獲得該不動產之快樂效用。亦即「失去」比「獲得」更痛若。例如，現行土地徵收採市價補償，但土地所有權人還是不滿意，這是稟賦效果所造成。
+稟賦效果是一種心理因素。土地所有權人持有不動產一段時間後會產生「依戀不捨情感」。時間愈長，依戀不捨情感愈濃厚。基此，就同一人針對特定不動產形成下列關係：
+• W. TP + 依戀不捨情感價值 = WTAM 是以，WTA &gt; WTP
+上開依戀不捨情感價值，即是稟賦效果。總之，站在徵收者立場，希望採「市價」補償；但站在被徵收者立場，希望採「高於市價」之補償。
+## 文章圖片
+![圖片1](./images/914531_18eaef8f.png)
+![圖片2](./images/914531_b16007c2.png)
+</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914531</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:16</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>WTP、WTA、不動產、依戀不捨情感</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>914549</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>租賃專法修法方向,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2025/09/23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>為讓租客穩定安居，房東出租更放心，推動租屋市場朝長期穩定發展，內政部近來通過「租賃住宅市場發展及管理條例」部分條文修正草案，其中修法三大重點方向，茲整理說明如下，高普考同學應特別關注此修法動態：
+• (一) 保障3年租期
+1. 規範租客享有3年租期保障，除非房東有自用需求或遇有欠租、毀損等法定情形，否則不得拒絕續租。
+2. 房東若因自用收回，須於租期屆滿6個月前通知，並規範收回後1年內不得再出租，違反規定將處罰則並須補償租客3個月租金。
+• (二) 限制續約租金漲幅
+規範房東續約雖可調漲租金，但須於租期屆滿6個月前通知，且漲幅不得超過當月行政院主計總處公布的房租指數年增率，確保租金調整合理。
+此部分不動產估價師應結合不動產經濟學提過的限制房租之圖形分析，高普考則應著重限制租金之可能效果與影響。
+• (三) 強化租賃雙方權益保障
+1. 承租人保障 明定房東不得以任何形式禁止租客申請租金補貼、遷入戶籍或申報租金費用，違反者相關約定無效並處以罰則。
+2. 出租人保障 (1)增訂「租霸下車條款」，若租客惡意欠租、妨礙安寧秩序或從事非法活動等，房東得提前終止租約。 (2)對於經公證的租賃契約，租賃期間若租客欠租已符合法定終止條件卻仍拒絕搬遷，房東可逕送強制執行。
+資料來源：租賃條例修法三大方向 內政部：保障租賃雙方權益 租客安心住、房東放心租</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914549</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:19</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>租賃、租客、租金、欠租、租霸下車</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>914510</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>消保法有關保證書之相關概念,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025/09/16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>• (一) 消保法第25條有關書面保證書之規範
+企業經營者對消費者保證商品或服務之品質時，應主動出具書面保證書。
+前項保證書應載明下列事項：
+1. 商品或服務之名稱、種類、數量，其有製造號碼或批號者，其製造號碼或批號。
+2. 保證之內容。
+3. 保證期間及其起算方法。
+4. 製造商之名稱、地址。
+5. 由經銷商售出者，經銷商之名稱、地址。
+6. 交易日期。
+其中，應注意商品或服務價格並不屬於保證事項，例如：「保證最便宜」、「保證買貴退差價」，皆非保證書應載明事項。
+• (二) 規範主體(對象)
+提供書面保證書之企業經營者是否限於商品製造商?抑或經銷商、零售商? 依上開法條文義，其規範之主體為「企業經營者」，又衡諸交易實務，經銷商或零售商為促銷商品而主動提供品質保證者，亦不乏其例，為保護消費者，似毋需為限縮解釋。因此，有關書面保證書之規範對象為「企業經營者」，不以商品製造商為限。(院臺消保字第1080016285號)
+• (三) 書面保證書之效力
+企業經營者對消費者就商品或服務之品質提供保證，為一獨立之擔保契約，業者應依其保證內容負擔保責任。(消保法字第0970007367號)
+• (四) 未出具保證書之效力
+依據消費者保護法施行細則第26條規定，企業經營者未依規定出具書面保證書者，仍應就其保證之品質負責。
+例如：業者保證書上記載著「要加蓋經銷商印章」「須將保證回函寄回」、「須自行上網登錄」，「否則保證書無效」等除外條款者，已經違反消保法所記載的定型化契約，及違反公平互惠原則，且不論是否出具書面保證書，仍應就其保證品質負責。
+• (五) 違反規定之處罰
+企業經營者違反上述規定時，依消費者保護法第56條規定，經主管機關通知改正而逾期不改正者，處新臺幣二萬元以上二十萬元以下罰鍰，並得連續處罰。
+• (六) 成屋履約保證是否屬書面保證書
+仲介業者提供「成屋履約保證」之服務，其性質主要是付款（價金）保證，故是否完全符合消保法所稱書面保證書之擔保「品質」似有疑義，惟針對保證買方能順利完成不動產登記似也仍可算是仲介服務之品質，以及部分履約保證契約中，亦涉及保證不會漏水、海砂屋等瑕疵，以此而言，尚可符合書面保證書之意義與目的。</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914510</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:22</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>消保法、保證書、消費者</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>914488</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>聯合行為之規範,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025/09/09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>• (一) 定義指具競爭關係之同一產銷階段事業，以契約、協議或其他方式之合意，共同決定商品或服務之價格、數量、技術、產品、設備、交易對象、交易地區或其他相互約束事業活動之行為，而足以影響生產、商品交易或服務供需之市場功能者。
+• (二) 原則禁止事業採取聯合行為。
+• (三) 例外事業不得為聯合行為。但有下列情形之一，而有益於整體經濟與公共利益，經申請主管機關許可者，不在此限：
+1. 為降低成本、改良品質或增進效率，而統一商品或服務之規格或型式。
+2. 為提高技術、改良品質、降低成本或增進效率，而共同研究開發商品、服務或市場。
+3. 為促進事業合理經營，而分別作專業發展。
+4. 為確保或促進輸出，而專就國外市場之競爭予以約定。
+5. 輸入為加強貿易效能，而就國外商品或服務之輸入採取共同行為。
+6. 因經濟不景氣，致同一行業之事業難以繼續維持或生產過剩，為有計畫適應需求而限制產銷數量、設備或價格之共同行為。
+7. 為增進中小企業之經營效率，或加強其競爭能力所為之共同行為。
+8. 其他為促進產業發展、技術創新或經營效率所必要之共同行為。
+主管機關收受前項之申請，應於三個月內為決定；必要時得延長一次。 主管機關為前條之許可時，得附加條件或負擔。 許可應附期限，其期限不得逾五年；事業如有正當理由，得於期限屆滿前三個月至六個月期間內，以書面向主管機關申請延展；其延展期限，每次不得逾五年。 主管機關對於許可及其有關之條件、負擔、期限，應主動公開。
+• (四) 不動產經紀業者涉及違法聯合行為之態樣例示
+1. 共同決定服務報酬收費標準，或協議限制服務報酬之調整。
+2. 共同劃分經營區域。
+3. 共同劃分交易對象。
+4. 共同阻礙或排除其他競爭者或潛在競爭者參與競爭，例如協議拒絕其他不動產經紀業者參與聯賣。
+5. 共同約束開發物件必須與委託人簽訂專任委託契約，致使不動產經紀業者及委託人選擇委託契約型態之自由受到限制。
+6. 共同約束專任委託契約之期間，致使不動產經紀業者縱未積極努力撮合，委託人卻因受限於契約而無法另行委託其他不動產經紀業者。
+7. 共同約束收取斡旋金之票期，致使斡旋金票期趨於一致。
+8. 共同約束實施聯賣之不動產物件開發方擁有一定的專賣期間，致使已尋得交易相對人之其他不動產經紀業者受限於專賣權之規定而無法成交。</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914488</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:25</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>聯合行為、不動產經紀業者、共同約束</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>914445</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>公寓大廈管理條例-起造人相關義務,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025/09/02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>依照公寓大廈管理條例，起造人相關義務，依照其辦理順序，茲整理如下：
+• (一) 申請建造執照檢附相關文件
+公寓大廈之起造人於申請建造執照時，應檢附專有部分、共用部分、約定專用部分、約定共用部分標示之詳細圖說及規約草約。於設計變更時亦同。前項規約草約經承受人簽署同意後，於區分所有權人會議訂定規約前，視為規約。(公寓§56)
+• (二) 領得建造執照始得銷售
+公寓大廈起造人或建築業者，非經領得建造執照，不得辦理銷售。(公寓§58)
+• (三) 依規定測繪辦理建物登記
+公寓大廈之起造人或區分所有權人應依使用執照所記載之用途及下列測繪規定，辦理建物所有權第一次登記(公寓§56)：
+1. 獨立建築物所有權之牆壁，以牆之外緣為界。
+2. 建築物共用之牆壁，以牆壁之中心為界。
+3. 附屬建物以其外緣為界辦理登記。
+4. 有隔牆之共用牆壁，依第二款之規定，無隔牆設置者，以使用執照竣工平面圖區分範圍為界，其面積應包括四周牆壁之厚度。
+• (四) 移交共用設施設備
+起造人應將公寓大廈共用部分、約定共用部分與其附屬設施設備；設施設備使用維護手冊及廠商資料、使用執照謄本、竣工圖說、水電、機械設施、消防及管線圖說，於管理委員會成立或管理負責人推選或指定後七日內會同政府主管機關、公寓大廈管理委員會或管理負責人現場針對水電、機械設施、消防設施及各類管線進行檢測，確認其功能正常無誤後，移交之。
+公寓大廈之水電、機械設施、消防設施及各類管線不能通過檢測，或其功能有明顯缺陷者，管理委員會或管理負責人得報請主管機關處理，其歸責起造人者，主管機關命起造人負責修復改善，並於一個月內，起造人再會同管理委員會或管理負責人辦理移交手續。(公寓§57)
+• (五) 不得將共用部分讓售於特定人
+公寓大廈之起造人或建築業者，不得將共用部分，包含法定空地、法定停車空間及法定防空避難設備，讓售於特定人或為區分所有權人以外之特定人設定專用使用權或為其他有損害區分所有權人權益之行為。(公寓§58)
+• (六) 提列公共基金
+起造人就公寓大廈領得使用執照一年內之管理維護事項，應按工程造價一定比例或金額提列公共基金。依規定提列之公共基金，起造人於該公寓大廈使用執照申請時，應提出繳交各直轄市、縣 (市) 主管機關公庫代收之證明。(公寓§18)
+• (七) 召開會議
+1. 公寓大廈建築物所有權登記之區分所有權人達半數以上及其區分所有權比例合計半數以上時，起造人應於三個月內召集區分所有權人召開區分所有權人會議，成立管理委員會或推選管理負責人，並向直轄市、縣(市)主管機關報備。
+2. 起造人於召集區分所有權人召開區分所有權人會議成立管理委員會或推選管理負責人前，為公寓大廈之管理負責人。(公寓§28)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914445</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:28</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>起造人、建造執照、所有權人、公寓大廈</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>914382</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>市地重劃前後地價查估,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>政府依法實施市地重劃時，應估計重劃前後地價，請說明該地價之用途為何？在查估重劃前各宗土地地價時，應先調查之土地資料為何？又在查估重劃後各街廓之路線價或區段價時，應參酌那些影響因素估計之？
+• (一) 估計重劃前後地價之用途
+1. 計算公共設施用地負擔之標準 實施市地重劃時，重劃區內供公共使用之道路、溝渠、兒童遊樂場、鄰里公園、廣場、綠地、國民小學、國民中學、停車場、零售市場等十項用地，除以原公有道路、溝渠、河川及未登記地等四項土地抵充外，其不足土地由參加重劃土地所有權人按其土地受益比例共同負擔。
+2. 計算費用負擔之標準 實施市地重劃時，工程費用、重劃費用與貸款利息由參加重劃土地所有權人按其土地受益比例共同負擔。
+3. 土地交換分配之標準 重劃區內之土地扣除折價抵付共同負擔之土地後，其餘土地仍依各宗土地地價數額比例分配與原土地所有權人。
+4. 變通補償之標準 重劃分配結果，實際分配之土地面積多於應分配之面積者，應繳納差額地價；實際分配面積少於應分配之面積者，應發給差額地價。另，應分配土地之一部或全部因未達最小分配面積標準，不能分配土地者，得以現金補償之。
+• (二) 查估重劃前各宗土地地價應先調查之土地資料
+重劃前之地價應先調查土地位置、地勢、交通、使用狀況、買賣實例及當期公告現值等資料，分別估計重劃前各宗土地地價。
+• (三) 查估重劃後各街廓之路線價或區段價應參酌之影響因素
+重劃後之地價應參酌各街廓土地之位置、地勢、交通、道路寬度、公共設施、土地使用分區及重劃後預期發展情形，估計重劃後各路街之路線價或區段價。</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914382</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:32</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>市地重劃、地價、共同負擔</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>914366</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>公平交易法-違反結合之附加條件或負擔,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>今年公平交易法中有關「結合」比較重要案例，應該就是全聯與大潤發之結合案件，今年考試應特別注意。相關考試重點茲整理如下：
+• (一) 結合之意義
+本法所稱結合，指事業有下列情形之一者（公交10 I）：
+1. 與他事業合併。
+2. 持有或取得他事業之股份或出資額，達到他事業有表決權股份總數或資本總額三分之一以上。
+3. 受讓或承租他事業全部或主要部分之營業或財產。
+4. 與他事業經常共同經營或受他事業委託經營。
+5. 直接或間接控制他事業之業務經營或人事任免。
+• (二) 結合應事先申報之條件
+事業結合時，有下列情形之一者，應先向主管機關提出申報（公交11 I）：
+1. 事業因結合而使其市場占有率達三分之一。
+2. 參與結合之一事業，其市場占有率達四分之一。
+3. 參與結合之事業，其上一會計年度銷售金額，超過主管機關所公告之金額。
+• (三) 附加條件或負擔
+主管機關對於結合申報案件所為之決定，得附加條件或負擔，以確保整體經濟利益大於限制競爭之不利益。（公交13 II）
+• (四) 違反規定之處罰
+事業違反規定而為結合，或申報後經主管機關禁止其結合而為結合，或未履行對於結合所附加之負擔者，主管機關得禁止其結合、限期令其分設事業、處分全部或部分股份、轉讓部分營業、免除擔任職務或為其他必要之處分，並得處新臺幣二十萬元以上五千萬元以下罰鍰。（公交39 I）
+• (五) 大全聯案件
+1. 全聯公司併購大潤發之結合負擔 「參與結合事業於結合實施之次日起，不得採最惠客戶政策」，也就是全聯公司不得以其他通路之商品定價，作為與供貨廠商雙方議價之基礎，要求更為有利或同等之條件。因為如此將以其市場力迫使供貨廠商吸收成本並產生「其他通路售價不低於全聯公司」之壓力，進而影響其他通路降價競爭幅度，反而不利於通路市場競爭，消費者也難在眾多通路享受更優惠的價格。
+2. 違反規定行為 經查全聯公司於供貨廠商申請新品上架及申請調漲價格時，要求售價須為其他通路的一定折數，若有不符應同比例降價；以及於促銷檔期以其他競爭通路之商品定價作為雙方議價之基礎，而向供貨廠商協商調整促銷售價及進貨價格。
+3. 處罰 今年4月公平會認定全聯公司未履行併購大潤發之結合承諾，故依照公平交易法第39條第1項處罰2,000萬元。
+參考來源：全聯公司未履行併購大潤發之結合承諾，違反公平法之結合負擔，公平會重罰2,000萬元</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914366</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:35</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>公平交易法、結合、全聯公司、大潤發</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>914311</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>房屋同時作營業與自住使用之房屋稅計算案例,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2025/08/12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>王大於114年1月新建一間樓地板面積為300平方公尺之房屋，並於當月開始起課房屋稅，其中15平方公尺供作飲料店營業使用，其餘面積則供自住使用。假設該房屋核定單價為每平方公尺8,000元，折舊率1%，地段等級調整率為200%，則王大當年應納房屋稅稅額為何？（該縣市營業用稅率為3%）
+擬答
+房屋同時作住家及非住家用者，應以實際使用面積，分別按住家用或非住家用稅率，課徵房屋稅。但非住家用者，課稅面積最低不得少於全部面積六分之一。 300×1/6＝50＞15，因此，以50平方公尺作為非住家用課稅面積。
+• (一) 非住家營業用
+1. 稅基 房屋現值＝核定單價×面積×(1-折舊率×經歷年數)×街路等級調整率 ＝8,000×50×(1-1%×0)×200% ＝800,000(元)
+2. 稅率 供營業、私人醫院、診所或自由職業事務所使用者，最低不得少於其房屋現值3%，最高不得超過5%。而該縣市訂定營業用稅率為3%
+3. 應納房屋稅 800,000×3%＝24,000(元)
+• (二) 住家自住用
+1. 稅基 房屋現值＝核定單價×面積×(1-折舊率×經歷年數)×街路等級調整率 ＝8,000×(300-50)×(1-1%×0)×200% ＝4,000,000(元)
+2. 稅率 供自住、公益出租人出租使用或以土地設定地上權之使用權房屋並供該使用權人自住使用者，為其房屋現值1.2%。
+3. 應納房屋稅 4,000,000×1.2%＝48,000(元)
+• (三) 王大當年應納房屋稅稅額
+新建係按月比例計課(1至6月) (24,000+48,000) ×6/12＝36,000(元)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914311</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:38</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>營業用、自住、房屋稅、稅率、稅基</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>914287</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>鄉村地區整體規劃及鄉村地區計畫,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>根據國土計畫法第8條第3項：「直轄市、縣（市）主管機關擬訂直轄市、縣（市）國土計畫時，得辦理鄉村地區整體規劃，並視實際需要研擬鄉村地區計畫，納入直轄市、縣（市）國土計畫，並得另以附冊方式定之。」其中，鄉村地區整體規劃與鄉村地區計畫，依照目前國土管理署對其定義與關連性，整理如下：
+• (一) 鄉村地區整體規劃
+基於直轄市、縣（市）國土計畫之指導，以鄉（鎮、市、區）或該鄉（鎮、市、區）內聚落及其周邊地區為範圍，就居住、產業、運輸、公共設施、景觀等面向研提更細緻之規劃內容，進而視需要提出土地使用配置，指認居住、產業及公共設施等區位。
+鄉村地區整體規劃為辦理縣市國土計畫法定程序前之先期作業，並透過議題導向方式辦理，辦理程序包含盤點現況、彙整多面向課題、研擬策略所需資源及蒐整相關計畫等。其中可能包含居住生活、當地產業、公共設施、交通環境等各面向課題與對應之目的事業主管機關，故得透過部門協調之國土計畫法定工具，於辦理規劃作業時以機關研商、府內協調等方式，整合相關目的事業主管機關行政資源，發揮鄉村地區整體規劃作為「協商平臺」之功能。
+• (二) 鄉村地區計畫
+辦理聚落規劃或產業群聚空間規劃之法定計畫，可視為直轄市、縣（市）國土計畫內就鄉（鎮、市、區）範圍作更細緻之規劃與補充，並作為直轄市、縣（市）國土計畫之附冊。其主要功能即是將鄉村地區整體規劃轉換為可納入縣市國土計畫之內容，以落實引導相關部門資源投入、取得必要公共設施。
+參考資料來源： 內政部國土管理署，2024.05，鄉村地區整體規劃政策及機制，國土計畫專業教育訓練。 2024.11.28，直轄市、縣（市）鄉村地區整體規劃作業第15次研商會議議程。 2025.04.01，直轄市、縣（市）鄉村地區整體規劃作業第16次研商會議議程。</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914287</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:41</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>鄉村地區整體規劃、鄉村地區計畫、國土計畫法</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>914251</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>農地(業)權,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2025/07/29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>針對今年高考土地政策第一題，提及國土計畫法相關爭議－農地（業）權本週專欄針對該觀念進行說明
+114土地政策題目：
+先前各方對於直轄市、縣（市）主管機關是否應於今(114)年如期公告國土功能分區圖發生爭執，其中優良農地是否仍繼續劃設為國土計畫法（下稱國土法）下農業發展地區第一類用地（下稱農一用地），應是爭執之焦點。茲於兼顧生態保育之正常農業經營前提下，農地利用具有外部效益性（例如涵養水源與淨化空氧等），故而從公平正義觀點，政府理當予以適度補貼（例如實施對地補貼等措施）。事實上，農業主管機關亦制定相應補貼政策，以提高農地之私權保障密度，並避免讓農民對其保有農地產生相對剝奪感。茲對前揭優良農地被劃入農一用地之爭議，有學者從農地（財產）權保障等視角，主張不應劃設之；但亦有學者認為農一用地劃設主要是因其本具高生產力（先前因政府投入巨施行農地重劃所致），而具有優先供作農用之義務（具有高度社會義務或強烈公共利益），故而主張應劃設之。試問何謂農地權？依國土法之規定，主管機關劃設農一用地時應考量原則為何？並請從農地所有權保障觀點，分析優良農地被劃入農一用地所需之相應措施。
+擬答參考：
+• (一) 農地權 農地除生產糧食以外，尚有其他多功能性，包含涵養水源、國土保育、維護景觀、文化傳承等外部效益。因此，從公平正義觀點，農地權係不僅限於保障農地之土地所有權，亦強調應保障農地農用之生活及生產經營權利，以確保達到農業永續、糧食安全之目標。
+• (二) 劃設農一之原則 具優良農業生產環境、維持糧食安全功能或曾經投資建設重大農業改良設施之地區。
+• (三) 優良農地被劃入農一用地所需之相應措施
+1. 堆疊式給付 針對「農地農用」給予下列堆疊式經費獎勵及協助： (1)農地對地給付：由土地所有權人領取。農地依法從事農糧、養殖、畜牧、林業使用得給付條件；針對農作所需基本環境維護管理措施之雇工費用，政府適度提供給付支持。 (2)確保糧食安全給付：實耕者領取。引導種植產銷穩定作物，朝向契作集團生產，並規範交叉承諾事項(如揭露繳售數量、安全用藥等)，將依農民所選種植作物及各類農事操作模式，規劃堆疊式給付。 (3)生態環境給付：實耕者領取。配合有機友善耕作、生態及棲地維護或採行強化水土韌性措施，如種植節水作物、草生栽培、配合禽畜糞尿水資源化利用等，將依農民所選擇各類友善環境操作模式及區位，規劃堆疊式給付。 (4)農業設施設備補助：因地制宜擴大提供所需農業生產設施設備。 (5)農業金融支持：給予從農準備所需之農業金融支持 (6)農業公共基礎建設：完善重要農業生產環境，確保用水等基礎建設需求
+2. 農地碳權 由於農地屬於碳匯空間，有助於碳平衡，故為保障優良農地被劃設為農一限制農用，可建立農地碳交易機制，向農地農用者購買碳權，使其獲得補貼。
+3. 農地發展(建築)權移轉 將優良農地劃設為農一限制農用，似等於喪失農地發展(建築/變更)權，因而部分學者主張可參考國外農地發展權移轉制度，使農地可將其發展權移轉至其他建地使用，並藉此獲得補償，且確保農地後續維持農用。
+4. 財政補助 針對農業縣市對於農地既要負擔糧食安全，卻無法從中收到地方充足的相關賦稅（農地免地價稅，且土地增值稅得申請不課徵或偏低），建議可就財政收支劃分法按農業貢獻度納入財政劃分的權重，給予農業縣市較多財政補助，以使其維持農地農用貢獻能被平衡、補償。</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914251</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:44</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>土地政策、國土計畫法、農業、農地、農一用地</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>914231</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>容積獎勵之意涵與對都市發展之優缺點,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2025/07/22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>• (一) 容積獎勵之意涵
+於建築基地之法定基準容積外，增加額外容積（樓地板面積）作為誘因，以獎勵民間配合設置必要公共設施、改善都市環境或配合特定政策。其類型例如：
+1. 開放空間獎勵：留設開放空間之建築物，經直轄市、縣（市）主管建築機關審查符合建築技術規則規定者，得增加樓地板面積。
+2. 停車空間獎勵：建築計畫為鼓勵建築物增設營業使用之停車空間，並依停車場法或相關法令規定開放供公眾停車使用，直轄市、縣（市）建築機關得另定鼓勵要點，報經中央主管建築機關核定實施。
+3. 都市更新獎勵：都市更新事業計畫範圍內之建築基地，得視都市更新事業需要，給予適度之建築容積獎勵。
+4. 都市計畫獎勵：設置公益性設施，或符合基地規模、綠建築、防災、停車等規定之獎勵。
+• (二) 容積獎勵對都市發展之優點
+1. 鼓勵民間提供相關必要公共設施，藉此解決部分公共服務機能不足問題。
+2. 鼓勵民間配合與參與都市發展政策，例如都市更新、危險及老舊建築物重建、捷運土地開發等。
+3. 促成都市集約發展型態，提高土地使用效率。
+• (三) 容積獎勵對都市發展之缺點
+1. 效率面
+1. 各種政策都想利用一致性的容積獎勵來推動，與現行都市計畫脫勾，甚至可說是凌駕其上，跳脫都市計畫整體性空間規劃秩序，違反土地使用分區原本所欲達到之維持良好環境品質目的。
+2. 都市內之公園、綠地、防災空間、道路系統等公共設施，皆已依都市計畫所容許之發展總量及其活動量加以配置及建設，惟容積獎勵增加建築基地的樓地板面積，吸引更多人口移入，卻未要求對等增加公共設施容量，使得都市公共設施不足，土地使用效率低落。
+3. 常出現投機情形而未達到原本預期之目的與效益，例如停車位僅提供給基地內區分所有權人使用，或開放空間未明確開放給公眾使用等。
+2. 公平面
+1. 容積獎勵鼓勵基地所有權人，使其增加樓地板面積及效益，但帶來的人口擁擠效果、外部效果與公共設施服務水準降低效果，卻需由周邊居民承受，而無須相對應付費。
+2. 建築容積為土地發展權，是經由人口成長、經濟社會發展及公共建設所創造，故本質上屬於一種公共財，以致於無明確對價關係之容積獎勵等同於利益輸送。</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914231</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:48</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>容積獎勵、公共設施、都市發展</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>914185</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>房地合一所得稅申請重購退稅之要件,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2025/07/15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>• 一、法條規定
+• (一) 先賣後買（申請退稅） 個人出售自住房屋、土地依第十四條之五規定繳納之稅額，自完成移轉登記之日或房屋使用權交易之日起算二年內，重購自住房屋、土地者，得於重購自住房屋、土地完成移轉登記或房屋使用權交易之次日起算五年內，申請按重購價額占出售價額之比率，自前開繳納稅額計算退還(所§14-8 I)。亦即與土地增值稅的差額退稅方式不同，而是配合高齡化社會來臨及節稅規劃需求，採比例退稅方式，只要重購都有得退：
+1. 重購價額≧出售價額（換大換貴）：全額退稅。
+2. 重購價額＜出售價額（換小換便宜）：比例退稅。
+• (二) 先買後賣（申報扣抵） 個人於先購買自住房屋、土地後，自完成移轉登記之日或房屋使用權交易之日起算二年內，出售其他自住房屋、土地者，於依第十四條之五規定申報時，得按前項規定之比率計算扣抵稅額，在不超過應納稅額之限額內減除之(所§14-8 II)。
+• 二、要件
+• (一) 設籍 本人或配偶、未成年子女辦竣戶籍登記並居住。應注意實務上國稅局會查核實際居住情形，透過用水用電之度數予以確認。
+• (二) 用途 該房屋出售前1年內及新購後皆無出租、供營業或執行業務使用。
+• (三) 產權 房、地產權須為本人或其配偶所有。以配偶之一方出售自住房屋、土地，而以配偶之他方名義重購者，亦得適用(要點§17)。
+• (四) 期間 不論先賣後買或先買後賣，其移轉登記(權利)日相距2年內。
+• (五) 申請 登記(交易)日次日起5年內申請退稅；先買後賣可於申報時直接扣抵。
+• (六) 限制 重購於登記(交易日)後5年內改作其他用途或再行移轉時，應追繳原扣抵或退還稅額。</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914185</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:51</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>重購、先賣後買、先買後賣</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>914144</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>房地合一稅計算範例,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2025/07/08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>黃母77年購買一處房地後，103年1月15日死亡後，由黃先生及哥哥2人繼承登記各二分之一，而後哥哥考量整筆出售較為有利，故於107年11月1日將二分之一持分贈與給黃先生，受贈時房屋評定現值17.6萬元、土地公告現值66萬元，並繳納契稅、土地增值稅、規費等合計2萬元，接著由黃先生於113年6月1日以550萬元出售該房地，未提示費用收據，無土地漲價總數額（公告土地現值無調漲），試問黃先生應繳納多少的房地合一所得稅？（以107年11月為基期，113年6月消費者物價指數105.1%）
+• (一) 繼承而來的二分之一 係於103年1月15日繼承取得，屬舊制財產交易所得課稅範圍，土地交易所得免稅，房屋交易所得應併計113年度綜合所得稅申報課稅。
+• (二) 受贈而來的二分之一 係於107年11月1日受贈取得，因取得日期為105年1月1日以後，故屬房地合一稅制課稅範圍。其計算如下：
+1. 稅基 (1)成交價額：550×1/2＝275(萬元) (2)原始取得成本：受贈無取得成本，故以受贈時之房屋評定現值及公告土地現值按政府發布之消費者物價指數調整後之價值＝(17.6+66)×1/2×105.1%＝43.9318(萬元) (3)必要成本＝2(萬元) (4)費用：因未提示費用收據，故以成交價3%計＝275×3%＝8.25(萬元)。 (5)土地漲價總數額：0。 (6)所得餘額＝成交價額－(受贈時公告土地現值+房屋評定現值)×物價調整－費用－依土地稅法計算之土地漲價總數額 ＝275－43.9318－2－8.25－0＝220.8182(萬元)
+2. 稅率 持有期間應為取得日107年11月1日至交易日113年6月1日，共計5年7個月，故稅率為20%。
+3. 甲房地交易所得稅額 220.8182×20%＝44.1636(萬元)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914144</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:54</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>房地合一稅、繼承、受贈</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>914116</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>申報土地移轉現值之認定,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2025/07/01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>• (一) 時間認定
+土地所有權移轉或設定典權，其申報移轉現值之審核標準，依下列規定(土稅§30 I；平權47-1 I)：
+1. 申報人於訂定契約之日起三十日內申報者，以訂約日當期之公告土地現值為準。
+2. 申報人逾訂定契約之日起三十日始申報者，以受理申報機關收件日當期之公告土地現值為準。
+3. 遺贈之土地，以遺贈人死亡日當期之公告土地現值為準。
+4. 依法院判決移轉登記者，以申報人向法院起訴日當期之公告土地現值為準。
+5. 經法院或法務部行政執行署所屬行政執行分署（簡稱行政執行分署）拍賣之土地，以拍定日當期之公告土地現值為準。但拍定價額低於公告土地現值者，以拍定價額為準；拍定價額如已先將設定抵押金額及其他債務予以扣除者，應以併同計算之金額為準。
+6. 經政府核定照價收買或協議購買之土地，以政府收買日或購買日當期之公告土地現值為準。但政府給付之地價低於收買日或購買日當期之公告土地現值者，以政府給付之地價為準。
+• (二) 價值認定
+1. 前第1款至第4款申報人申報之移轉現值，經審核低於公告土地現值者，得由主管機關照其自行申報之移轉現值收買或照公告土地現值徵收土地增值稅。
+2. 前第1款至第3款之申報移轉現值，經審核超過公告土地現值者，應以其自行申報之移轉現值為準，徵收土地增值稅。
+申報移轉現值認定之整理
+• T. ABLE_PLACEHOLDER_1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914116</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:08:57</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>移轉現值、土地現值、土地增值稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>914087</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>國土計畫法延期之原因,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2025/06/24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>參考國土計畫法修法之立委提案理由，茲整理如下：
+1. 有更多時間充分調查及合理規劃期程。
+2. 有更多時間持續充分溝通。
+3. 子法、配套尚未完善。
+4. 大部份目的事業主管機關所掌握的圖資年度已久亦未更新，成圖時間不一，精度也不一致。
+5. 財產權益影響疑慮。
+6. 農業權之質疑，構成特別犧牲。
+7. 有鑑於「農業發展區」及「國土保育區」縣市的地方稅收不足，又加上全國國土計畫劃設農業發展地區影響限制地方發展，所以普通統籌分配款應優先分配給土地發展受影響的縣市，使地方發展是可帶動的，以免造成強者恆強弱者恆弱的現象。國土計畫法上路前，需先完善財政收支分配之公平性，以利穩定發展。</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914087</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:00</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>國土計畫法、農業發展區、國土保育區</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>914040</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>農業用地變更條件,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2025/06/17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>• (一) 不影響農業生產環境之完整性根據農業發展條例第10條：「農業用地於劃定或變更為非農業使用時，應以不影響農業生產環境之完整，並先徵得主管機關之同意。」
+• (二) 徵得農業主管機關之同意依據農業主管機關同意農業用地變更使用審查作業要點第5點：「農業用地變更使用，應避免影響農業生產環境之完整。有下列情形之一者，不同意變更使用：
+1. 未依規定規劃設置隔離綠帶或設施。
+2. 使用具有農業灌溉功能之系統作為廢污水排放使用或有妨礙上、下游農業灌排水系統輸水能力之虞。
+3. 申請變更範圍內夾雜未申請變更之農業用地且妨礙其農業經營。
+4. 妨礙原有區域性農路通行。
+5. 申請變更農業用地辦理部分土地分割，致造成坵塊零碎不利農業經營。但線狀之公共建設，不在此限。
+6. 目的事業主管機關就事業設置之必要性與計畫使用農業用地所提區位、面積之必要性、合理性及無可替代性，未提出評估意見或未表示支持意見。
+7. 其他依本要點規定不得同意變更使用之情形。
+• (三) 繳交回饋金按農業發展條例第12條：「農業用地之變更，應視其事業性質，繳交回饋金，撥交中央主管機關所設置之農業發展基金，專供農業發展及農民福利之用。」</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914040</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:03</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>農業用地、農業發展、農業生產</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>913981</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>地籍清理代為標售有關優先購買權之法律性質,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2025/06/10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>依據地籍清理條例規定，當部分有問題之地籍無法釐清時，將由直轄市或縣（市）主管機關代為標售，並依同法第12條規定，下列之人，依序享有優先購買權：
+1. 地上權人、典權人、永佃權人、農育權人。（以登記之先後定之）
+2. 基地或耕地承租人。
+3. 共有土地之他共有人。
+4. 本條例施行前已占有達十年以上，至標售時仍繼續為該土地之占有人。
+其中，關於優先購買權之法律性質，在學說上，係以「形成權」為通說，亦即當優先購買權人一經主張，則買賣關係旋即成立，無庸出賣人承諾。然而，有學者認為針對地籍清理條例所定優先購買權之法律性質，應屬「訂約請求權」，而非形成權，其理由如下(陳立夫，2025)：
+1. 所定之優先購買權人，擬行使優先購買權，應主動地於決標後，10日內檢附相關證明文件，向執行標售之直轄市、縣（市）主管機關提出申請，並由該主管機關予以審查決定申請人是否得優先購買。
+2. 本條各款規定之不同優先順位優先購買權人，如均有申請優先承購時，則直轄市、縣（市）主管機關尚須就其優先順序者決定購買者。
+簡言之，該優先購買權係透過申請，且須經過審查，而不同於土地法之共有、基地等法定優先購買權，一經表示即成立。
+資料來源：陳立夫，2025，地籍清理條例規定之優先購買權──臺北高等行政法院高等庭112年度訴字第99號判決解說，月旦實務選評，第5卷，第4期。</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913981</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:07</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>優先購買權、地籍清理</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>913968</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>配偶相互贈與得申請不課徵之概念,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2025/06/03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• (一) 情形
+配偶相互贈與之土地，得申請不課徵土地增值稅(土稅§28-2 I前段)。主要是基於配偶為生活共同體，且於一般生活事務相互代理，故相互贈與土地可能是考量家庭財產安排，而非為獲取土地自然增值利益，因而得按其需求申請不課徵。
+又應特別注意者，配偶相互贈與土地非當然不課徵土地增值稅，而是可由當事人自行選擇。但無論是否申請不課徵，均須申報移轉現值。
+• (二) 原地價認定
+於再移轉依法應課徵土地增值稅時，以該土地第一次不課徵土地增值稅前之原規定地價或最近一次課徵土地增值稅時核定之申報移轉現值為原地價，計算漲價總數額，課徵土地增值稅(土稅§28-2 I後段)。換言之，以第一次不課徵前原地價計算土地漲價總數額，原不課徵之土地增值稅，實質上已予補徵，政府稅收並未減少，僅發生延遲課徵效果。
+概念如下圖所示，甲取得土地後，因特殊考量而將該筆土地贈與配偶乙，並申請不課徵土地增值稅，則該次移轉即不計算也不繳納土地增值稅，故原地價也不予調整，待配偶乙移轉他人需課徵土地增值稅時，則以甲取得至乙移轉他人此段期間之土地漲價計算，而非以乙取得為原地價。
+[圖片1]
+值得注意的是，雖然此次配偶間移轉得暫不課徵，惟將租稅時機往後遞延，多年後再將土地移轉給第三人時，反而可能會適用比原先選擇「課徵」時的稅率還高，因為公告土地現值一般多逐年調高，選擇不課徵未必有利。
+• (三) 配偶合併認定
+1. 於再移轉計課土地增值稅時，贈與人或受贈人於其具有土地所有權之期間內，有支付改良土地之改良費用或增繳之地價稅者，準用減除或抵繳規定(土稅§28-2 II前段)，避免原贈與人(夫)有支付土地改良費用及增繳地價稅，但於贈與給受贈人(妻)後，反而不能減除之不合理情形。
+2. 其為經重劃之土地，準用其減徵規定(土稅§28-2 II中段)。舉例而言，某甲參與市地重劃後配回之土地贈與妻乙，嗣後妻乙再將該土地出售於丙。乙得否適用重劃後第一次移轉之土地增值稅減徵規定？其情形應分述如下： (1)甲乙贈與有申請不課徵土地增值稅 因有申請不課徵，該次租稅遞延，故非屬重劃後第一次移轉之情形。因此，當乙再將土地出售於丙，仍得適用土地增值稅減徵百分之四十。 (2)甲乙贈與未申請不課徵土地增值稅 因未申請不課徵，該次贈與移轉即屬重劃後第一次移轉之情形，乙的土地增值稅得予減徵百分之四十。惟當乙再將土地出售於丙，即無土地增值稅之減徵。
+3. 該項再移轉土地，於申請適用自用住宅稅率課徵土地增值稅時，其出售前一年內未曾供營業使用或出租之期間，應合併計算(土稅§28-2 II後段)。例如夫持有5個月皆未營業或出租，後贈與給妻，則妻原則上只要再持有7個月無營業或出租，兩者合計滿一年即可符合規定。
+## 文章圖片
+![圖片1](./images/913968_16cba676.png)
+</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913968</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:10</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>配偶、贈與、土地增值稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>913941</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>地政士禁止行為,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2025/05/27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>某甲地政士，知情且協助假買方騙取賣方權狀、印鑑，並申辦高額抵押貸款取得資金後，即拒不見面，導致賣方收不到尾款又被設定高額抵押，權益嚴重受損，試問某甲違反地政士法哪些規定？
+1. 地政士不得有下列行為： (1)違反法令執行業務。 (2)允諾他人假藉其名義執行業務。 (3)以不正當方法招攬業務。 (4)為開業、遷移或業務範圍以外之宣傳性廣告。 (5)要求、期約或收受規定外之任何酬金。 (6)明知為不實之權利書狀、印鑑證明或其他證明文件而向登記機關申辦登記。 甲之聯合詐騙行為屬於前述違法法令執行業務，應予停止執行業務或除名。
+2. 地政士受託辦理各項業務，不得有不正當行為或違反業務上應盡之義務。甲之聯合詐騙行為違反規定，致委託人或其他利害關係人受有損害時，應負賠償責任。此外，應予停止執行業務或除名。</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913941</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:13</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>地政士</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>913907</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>房地合一所得稅之稅基計算,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2025/05/20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>根據所得稅法及房地合一稅申報作業要點，茲整理房地合一所得稅之稅基，詳細公式如下：
+所得餘額＝成交價額－原始取得成本（另可加其他必要成本、房貸額外負擔）－移轉必要費用（另可加高報現值之多繳土地增值稅）－三年內虧損－以公告現值計之土地漲價總數額
+• (一) 成交價額 本次交易時之成交價額
+• (二) 原始取得成本（或經物價調整之現值）
+1. 出價取得（原始取得成本） 個人房屋、土地交易所得或損失之計算，其為出價取得者，以交易時之成交價額減除原始取得成本，與因取得、改良及移轉而支付之費用後之餘額為所得額。亦即當初購入金額
+2. 繼承或受贈取得（現值） 其為繼承或受贈取得者，以交易時之成交價額減除繼承或受贈時之房屋評定現值及公告土地現值按政府發布之消費者物價指數調整後之價值，與因取得、改良及移轉而支付之費用後之餘額為所得額。亦即當初無購入金額，故以房屋評定現值+公告土地現值並經物價調整後為基礎
+• (三) 其他必要成本（不含在成交價3%內） 其提示下列證明文件者，亦得包含於成本中減除：
+1. 購入房屋、土地達可供使用狀態前支付之必要費用（如契稅、印花稅、代書費、規費、公證費、仲介費等），以及於房屋、土地所有權移轉登記完成前，向金融機構借款之利息
+2. 取得房屋後，於使用期間支付能增加房屋價值或效能且非二年內所能耗竭之增置、改良或修繕費
+3. 個人除得按前2點規定減除成本外，得再減除依土地稅法施行細則第51條規定經主管稽徵機關核准減除之改良土地已支付之下列費用： (1)改良土地費用 (2)已繳納之工程受益費 (3)土地重劃負擔總費用 (4)因土地使用變更而無償捐贈作為公共設施用地其捐贈土地之公告現值總額
+• (四) 房貸額外負擔 個人繼承房地時，併同繼承被繼承人所遺以該房地為擔保向金融機構抵押貸款之未償債務餘額(貸款餘額)者，嗣交易該房地，依所得稅法規定計算房地交易所得時，該貸款餘額超過繼承時房屋評定現值及公告土地現值合計數(房地現值)，且確由該個人實際負擔償還部分，得自房地交易所得中減除。係因該貸款餘額屬繼承該房地所產生之額外負擔，未來出售該房地時，該額外負擔得自交易所得中減除
+• (五) 移轉必要費用 個人交易房屋、土地所支付之必要費用（如仲介費、廣告費、清潔費、搬運費、換約費等）。但依土地稅法規定繳納之土地增值稅(即以公告現值計算的土地增值稅額)，不得列為費用減除
+• (六) 高報現值之多繳土地增值稅 個人除得按規定減除費用外，得再減除當次交易未自該房屋、土地交易所得減除之土地漲價總數額部分之已納土地增值稅稅額，其計算方式如下：[(交易時申報移轉現值—交易時公告土地現值）/以申報移轉現值計算之土地漲價總數額] × 已納土地增值稅
+• (七) 三年內房地交易損失（盈虧互抵） 個人房屋、土地交易損失，得自交易日以後三年內之房屋、土地交易所得減除之
+• (八) 依公告土地現值計算之土地漲價總數額 依土地稅法第30條第1項規定公告土地現值計算之土地漲價總數額</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913907</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:16</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>所得稅、土地增值稅、繼承</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>913820</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>房地合一所得稅「免納(徵)」、「非課稅範圍」及「無所得」之釐清,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2025/05/13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">「免納(徵)」、「非課稅範圍」及「無所得」是不同情況，茲整理說明如下：
+• 一、免納(徵)
+考量特殊政策目的或公共利益，而直接規範特殊情形免納所得稅，但可能還是需要向國稅局申報(自住)。
+根據所得稅法第4條之5，房屋、土地有下列情形之一者，免納所得稅： (一) 個人與其配偶及未成年子女符合下列規定之自住房屋、土地，其免稅所得額，以計算之餘額不超過四百萬元為限：
+1. 個人或其配偶、未成年子女辦竣戶籍登記、持有並居住於該房屋連續滿六年。
+2. 交易前六年內，無出租、供營業或執行業務使用。
+3. 個人與其配偶及未成年子女於交易前六年內未曾適用本款規定。
+• (二) 符合農業發展條例第37條及第38條之1規定得申請不課徵土地增值稅之土地。 (三)被徵收或被徵收前先行協議價購之土地及其土地改良物。 (四)尚未被徵收前移轉依都市計畫法指定之公共設施保留地。
+• 二、非課稅範圍
+非房地合一所得稅課徵範圍，亦即完全不需要申報，因為與房地合一稅無關。 房地合一稅課徵範圍如下：
+[圖片1]
+因此，如夫妻贈與、不動產信託等，只要不是於105年後取得並出售或交換，則與房地合一稅之課徵無關。
+• 三、無所得
+指根據所得稅法之計算公式算完後，所得為零或負（虧損），仍須申報，但繳納單為0，此與特殊情形之「免納(徵)」概念並不相同。
+## 文章圖片
+![圖片1](./images/913820_ed21913e.png)
+</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913820</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:20</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>所得稅、免納(徵)、非課稅範圍、無所得、房地合一</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>914492</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>房地之產權型態,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025/09/11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">民法所稱「物」，於不動產上，指一宗土地或一棟建物。一個地號，稱為一宗土地。一個建號，稱為一棟建物。
+• (一) 土地之產權型態：
+1. 單獨所有：一宗土地由一個人所有。
+2. 共有：一宗土地由數人共同擁有。共有方式又分為分別共有與公同共有。 (1)分別共有：亦稱持分共有；共有人以其應有部分（即持分）劃分權利範圍。 (2)公同共有：共有人基於公同關係共有一物，而無應有部分劃分權利範圍。公同關係之成立有三： 法律規定：如民法第1151條規定，繼承人有數人時，在分割遺產前，各繼承人對於遺產全部為公同共有。 法律行為：如民法第668條規定，各合夥人之出資及其他合夥財產，為合夥人全體之公同共有。 習慣：如祭祠公業之財產由派下現員全體公同共有。
+• (二) 建物之產權型態：
+1. 單獨所有：一棟建物由一個人所有。
+2. 共有：一棟建物由數人共同擁有。共有方式又分為分別共有與公同共有。
+3. 區分所有： (1)民法之定義：稱區分所有建築物者，謂數人區分一建築物而各專有其一部，就專有部分有單獨所有權，並就該建築物及其附屬物之共同部分共有之建築物（民§799Ⅰ）。 (2)公寓大廈管理條例之定義：區分所有，指數人區分一建築物而各有其專有部分，並就其共用部分按其應有部分有所有權（寓§3）。 (3)區分所有建物之構成：區分所有建物由專有部分與共有部分構成。 專有部分：
+1. 民法之定義：專有部分，指區分所有建築物在構造上及使用上可獨立，且得單獨為所有權之標的者（民§799Ⅱ）。
+2. 公寓大廈管理條例之定義：專有部分，指公寓大廈之一部分，具有使用上之獨立性，且為區分所有之標的者（寓§3）。
+3. 專有部分之登記面積：專有部分，即為建築改良物登記簿謄本之主建物面積（即室內面積）及附屬建物面積（如陽台面積）。
+共有部分：
+1. 民法之定義：共有部分，指區分所有建築物專有部分以外之其他部分及不屬於專有部分之附屬物（民§799Ⅱ）。
+2. 公寓大廈管理條例之定義：共用部分，指公寓大廈專有部分以外之其他部分及不屬專有之附屬建築物，而供共同使用者（寓§3）。
+3. 共有部分之登記面積：共有部分面積，俗稱公共設施面積，即為建物改良物登記簿謄本之共有部分面積。另，公共設施在民法稱為共有部分，在公寓大廈管理條例稱為共用部分。共有部分之性質如下： (A)屬於從物：區分所有建物所屬共有部分，除法規另有規定外，依區分所有權人按其設置目的及使用性質之約定情形，分別合併，另編建號，單獨登記為各相關區分所有權人共有。區分所有建物共有部分之登記僅建立標示部及加附區分所有建物共有部分附表，其建號、總面積及權利範圍，應於各專有部分之建物所有權狀中記明之，不另發給所有權狀（登§81）。 基上，共有部分單獨編列一個或數個建號，因此代表一個或數個物。共有部分為專有部分之從物。亦即，專有部分為主物，共有部分為從物。主物之處分，及於從物（民§68II）。共有部分隨同專有部分讓與而讓與，亦隨同專有部分提供擔保而擔保。 (B)分為大公與小公：共有部分面積俗稱公共設施面積。公共設施面積又分為「大公」與「小公」。前者指全體區分所有權人皆需共同使用之公共設施（如機電設備空間、水箱水塔等），而登記為全體區分所有權人持分共有。後者指僅部分區分所有權人實際使用之公共設施（如當層樓梯、電梯空間），而登記為各相關區分所有權人持分共有。 (C)不得分割：區分所有建築物之共同使用部分，為各區分所有人利用該建築物不可或缺，其性質屬於民法第823條第1項但書規定因物之使用目的不能分割者，故不得辦理分割（司法院釋字第358號解釋）。須注意者，此不得分割，指標示分割，不包括權利分割。
+• (三) 房地之產權型態：
+房地產品以透天房屋及公寓大廈最為普遍。
+1. 透天房屋：透天房屋又分為「真透天」與「假透天」二種。 (1)真透天：透天房屋持有人對建物產權為單獨所有，對基地產權亦為單獨所有。 (2)假透天：亦稱為持分透天；透天房屋持有人對建物產權為單獨所有，對基地產權為持分共有。
+2. 公寓大廈：指構造上或使用上或在建築執照設計圖樣標有明確界線，得區分為數部分之建築物及其基地（寓§3）。亦即公寓大廈各戶持有人對建物產權為區分所有，對基地產權為持分共有。
+[圖片1]
+【註】 民：民法。 登：土地登記規則。 寓：公寓大廈管理條例。
+## 文章圖片
+![圖片1](./images/914492_b27f16d9.png)
+</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914492</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:23</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>產權型態、分別共有、公同共有、公寓大廈</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>914473</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>離差計算方法之差異,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2025/09/04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">茲舉一個例子說明：
+[圖片1]
+• (一) 總調整率不得大於30%之離差計算方法的差異：
+1. 政府單位之計算方法： (1×1.03×1.01×0.98)−1=2%
+2. 民間不動產估價師事務所之計算方法： 0%+3%+1%+│−2%│=6%
+3. 結論： 民間不動產估價師事務所之計算結果高於政府單位。因為前者之調整率不會發生正負相抵銷，後者之調整率會發生正負相抵銷。
+• (二) 總調整率不得大於30%與三件以上比較標的分別賦予權重之離差計算方法的差異：
+1. 總調整率不得大於30%之離差計算方法： 0%+3%+1%+│−2%│=6%
+2. 三件以上比較標的分別賦予權重之離差計算方法： (1)細項之離差計算： 2%+│−1%│+3%+0%+｜−5%｜+3%=14% (2)小項之離差計算： │−4%│+1%+14%+2%+｜−3%｜=24% (3)大項之離差計算： 0%+3%+0%+1%+24%=28% (4)最後計算出此一比較標的之離差為28%。
+3. 結論： 總調整率不得大於30%之離差僅就大項調整率計算。然，三件以上比較標的分別賦予權重之離差計算是從細項離差計算得到小項離差，再由小項離差計算得到大項離差。
+## 文章圖片
+![圖片1](./images/914473_737c7c72.png)
+</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914473</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:26</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>離差計算、比較標、調整率</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>914394</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>離差於不動產估價上之應用,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2025/08/28</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>• (一) 離差之意義：
+離差，指比較標的之價格形成因素，離勘估標的之價格形成因素的遠近。倘比較標的之價格形成因素，離勘估標的之價格形成因素較近，表示離差小，則選用此一比較標的較佳。相反地，倘比較標的之價格形成因素，離勘估標的之價格形成因素較遠，表示離差大，則選用此一比較標的較差。
+• (二) 離差於不動產估價上之應用：
+1. 不動產估價技術規則第25條規定，試算價格之調整運算過程中，區域因素調整、個別因素調整或區域因素及個別因素內之任一單獨項目之價格調整率大於百分之十五，或情況、價格日期、區域因素及個別因素調整總調整率大於百分之三十時，判定該比較標的與勘估標的差異過大，應排除該比較標的之適用。但勘估標的性質特殊或區位特殊缺乏市場交易資料，並於估價報告書中敘明者，不在此限。
+2. 不動產估價技術規則第26條規定，經比較調整後求得之勘估標的試算價格，應就價格偏高或偏低者重新檢討，經檢討確認適當合理者，始得作為決定比較價格之基礎。檢討後試算價格之間差距仍達百分之二十以上者，應排除該試算價格之適用。
+3. 不動產估價技術規則第27條規定，不動產估價師應採用三件以上比較標的，就其經推估檢討後之勘估標的試算價格，考量各比較標的蒐集資料可信度、「各比較標的與勘估標的價格形成因素之相近程度」，決定勘估標的之比較價格，並將比較修正內容敘明之。
+4. 不動產估價技術規則第15條第1項規定，不動產估價師應就不同估價方法估價所獲得之價格進行綜合比較，就其中金額顯著差異者重新檢討。並視不同價格所蒐集資料可信度及估價種類目的條件差異，「考量價格形成因素之相近程度」，決定勘估標的價格，並將決定理由詳予敘明。</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914394</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:29</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>離差、不動產估價、勘估標、比較標</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>914368</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>土地分割、土地合併、建物分割、建物合併之總整理,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2025/08/21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>• T. ABLE_PLACEHOLDER_1
+【註】
+1. 民：民法。
+2. 登：土地登記規則。
+3. 地測：地籍測量實施規則。
+4. 土稅施：土地稅施行規則。
+5. 契：契稅條例。</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914368</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:33</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>土地分割、土地合併、建物分割、建物合併</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>914295</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>非市場價值之估價方法,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2025/08/14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">非市場價值（如自然資源、環境資源、遊憩資源、古遺文化資源等）之估價方法有旅遊成本法、特徵價格法及條件評價法等三種。
+• (一) 旅遊成本法：利用旅遊者之願付價格（包括交通成本、門票費、住宿費、餐飲費、時間成本等），建立旅遊者對旅遊地點之旅遊需求曲線。此需求曲線所涵蓋之面積，即為該不動產之非市場價值。如圖所示，需求曲線AB是由邊際效用（MU）所導出，需求曲線即是邊際效用曲線。第1單位之邊際效用為MU1，第2單位之邊際效用為MU2，第3單位之邊際效用為MU3，……，第n單位之邊際效用為MUn。
+• M. U1 + MU2 + MU3 … + MUn = TU 其中： TU：總效用。 TU即圖中△0AB之面積，亦即非市場價值。
+1. 優點：結合旅遊地點之消費市場，可以具體衡量非市場價值。
+2. 缺點：對未開放觀光旅遊之資源，難以適用。
+[圖片1]
+• (二) 特徵價格法：當市場上類似不動產成交時，以迴歸模型衡量不動產各種屬性（即特徵）對該不動產價格之貢獻。例如：
+• P. = a + b1X1 + b2X2 + b3X3 + … + bnXn + e 其中： P：不動產價格（即因變數）。 a：縱軸截距（即常數項）。 bi , i = 1, 2, 3, …, n：迴歸係數。 Xi , i = 1, 2, 3, …, n：不動產各項特徵（即自變數），如交通條件、芬多精含量、負離子含量、物種多樣性、獨特性與不可替代性、相關服務設施（如住宿、停車等）。
+1. 優點：以實際成交價格（即樣本），推求勘估標的價格，具有客觀性及市場性。
+2. 缺點：實際成交價格取得不易，且樣本數太少。
+• (三) 條件評價法：藉由問卷之設計及訪問，探求受訪者保留該不動產所願意支付之最高給付價格，或失去該不動產所願意接受之最低補償價格。以此最高給付價格或最低補償價格衡量該不動產之非市場價值。
+1. 優點：可以廣泛應用於非市場價值之評估。
+2. 缺點：屬於心理層面之主觀價值，而非市場層面之客觀價格。
+## 文章圖片
+![圖片1](./images/914295_123f77a6.png)
+</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914295</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:36</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>非市場價值、旅遊成本法、特徵價格法、條件評價法</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>914294</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>不動產市場(二),許文昌老師</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• (三) 不動產市場易發生市場失靈現象：
+所謂市場失靈，指市場無法藉由其供需機制解決價格高漲問題。茲就一般財貨市場與不動產市場加以比較：
+1. 一般財貨市場：如圖①所示，D0表示消費者對龍鬚菜之需求曲線，S0表示生產者（即農民）對龍鬚菜之供給曲線。由D0與S0之交點決定龍鬚菜之市場價格P0及市場交易量Q0。今，有一篇頗具權威性之醫學報告，指出龍鬚菜富含抗氧化因子。因而，市場上出現搶購龍鬚菜之熱潮，龍鬚菜之需求曲線由D0右上移至D1，龍鬚菜之市場價格由P0上漲至P1，市場交易量由Q0增加至Q1。此時，生產者發現龍鬚菜價格上漲，種植龍鬚菜有利可圖，因此大量種植龍鬚菜，致使龍鬚菜供給曲線由S0右下移至S1，龍鬚菜之市場價格由P1回跌至P0，市場交易量由Q1再增加至Q2。由此可知，龍鬚菜市場可藉由其供需機制，解決其價格高漲問題。
+[圖片1]
+圖① 龍鬚菜之市場運作
+2. 不動產市場：如圖②所示， D’0表示消費者對住宅之需求曲線，S’0表示生產者（即建設公司）對住宅之供給曲線。由D’0與S’0之交點決定住宅之市場價格P3及市場交易量Q3。今，政府鼓勵台商回流，衍生對住宅需求增加，住宅需求曲線由D’0右上移至D’1，住宅之市場價格由P3上漲至P4，市場交易量由Q3增加至Q4。此時，市場產生投機氛圍，不動產投機需求滋生，致使住宅需求曲線再由D’1大幅右上移至D’2。然而，生產者購買土地投資興建住宅，需要大量資本，因而住宅供給增加有限，住宅供給曲線小幅由S’0右下移至S’1。住宅市場價格再由P4上漲至P5，市場交易量再由Q4增加至Q5。由此可知，住宅市場無法藉由其供需機制，解決價格高漲問題。
+[圖片2]
+圖② 住宅市場之市場運作
+總之，一般財貨市場可藉由其本身供需機制，解決價格高漲問題，但不動產市場無法藉由其本身供需機制，解決價格高漲問題。因此，不動產市場需靠政府干預，抑制投機需求，始克平息不動產價格高漲。如中央銀行於民國113年9月19日祭出第七波選擇性信用管制，房價立即冷卻下來，即是著例。
+## 文章圖片
+![圖片1](./images/914294_a562f32e.png)
+![圖片2](./images/914294_4e49e11e.png)
+</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914294</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:40</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>不動產市場、市場失靈、財貨市場、供需機制</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>914269</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>不動產市場(一),許文昌老師</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2025/07/31</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• (一) 不動產市場之意義
+不動產市場，指由供給與需求，而形成價格之最適範圍。其特性如下：
+1. 無具體市場：不動產不具移動性，因此不動產市場不像魚、肉、青菜、水果等有具體之交易市場。不動產市場是一個抽象的市場。
+2. 無集中市場：不動產不具同質性，因此不動產市場不像股票有集中市場。不動產市場須透過不動產經紀人居間而為交易。
+3. 無效率市場：完全競爭市場是一個有效率的市場，不動產市場離完全競爭市場之條件甚遠。因此，不動產市場是一個非常沒有效率的市場。
+• (二) 不動產市場之種類
+不動產屬於耐久財，因此不動市場除買賣市場外，另有租賃市場。不動產市場之種類如下表所示。
+[圖片1]
+## 文章圖片
+![圖片1](./images/914269_b4169239.png)
+</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914269</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:43</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>不動產市場、具體市場、集中市場、效率市場</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>914240</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>土地增值稅之免徵、不課徵、記存及不計徵,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2025/07/24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>• (一) 意義：
+1. 免徵：在土地增值稅之課徵範圍，但免除其租稅負擔，故屬於租稅免除。原地價須更動。如繼承而移轉土地，免徵土地增值稅（土稅§28）。
+2. 不課徵：在土地增值稅之課徵範圍，但本次不予課徵，延至下次移轉時一併課徵，故屬於租稅遞延。原地價無須更動。如配偶相互贈與土地，得申請不課徵土地增值稅（土稅§28-1）。
+3. 記存：在土地增值稅之課徵範圍，但結算已發生之土地增值稅，記在帳上，延至下次移轉時一併課徵，故屬於租稅遞延。原地價須更動。如金融機構因合併而隨同移轉土地予存續之金融機構，其應繳納之土地增值稅准予記存（金§13）。
+4. 不計徵：不在土地增值稅之課徵範圍，故無須課徵土地增值稅。原地價無須更動。如土地重劃交換土地，不計徵土地增值稅。
+• (二) 比較：
+• T. ABLE_PLACEHOLDER_1
+• (三) 法條誤用舉例：
+早期並未嚴格區分免徵、不課徵及不計徵之差異，因此現行部分法條有誤用情形，造成適用混淆。茲舉例如下：
+1. 平均地權條例第36條第1項規定：「土地增值稅之徵收，應依照土地漲價總數額計算，於土地所有權移轉或設定典權時行之。但因繼承而移轉者，不徵土地增值稅。」前揭法條之不徵，應為免徵。
+2. 平均地權條例施行細則第65條第1項規定：「分別共有土地分割後，各人所取得之土地價值與其分割前應有部分價值相等者，免徵土地增值稅；其價值減少者，就其減少部分課徵土地增值稅。」及同條第3項規定：「土地合併後，各共有人應有部分價值與其合併前之土地價值相等者，免徵土地增值稅。其價值減少者，就其減少部分課徵土地增值稅。」前揭法條所稱免徵，應為不課徵。
+3. 土地稅法施行細則第42條第2項規定：「分別共有土地分割後，各人所取得之土地價值與其分割前應有部分價值相等者，免徵土地增值稅；其價值減少者，就其減少部分課徵土地增值稅。」及同條第4項規定：「土地合併後，各共有人應有部分價值與其合併前之土地價值相等者，免徵土地增值稅。其價值減少者，就其減少部分課徵土地增值稅。」前揭法條所稱免徵，應為不課徵。
+【註】
+1. 土稅：土地稅法。
+2. 金：金融機構合併法。</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914240</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:46</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>土地增值稅、租稅、地價</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>914204</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ESG之意涵,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2025/07/17</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>• E. SG是三個英文單字的縮寫。E代表環境保護（Environmental），S代表社會責任（Social），G代表公司治理（Governance）。ESG為衡量一家企業經營績效之指標。
+• (一) 環境保護：涵蓋碳排減量、水及污水管理、生物多樣性、能源管理、環境污染防制等。
+• (二) 社會責任：涵蓋工作環境、勞動福利、客戶關係、社區關懷、人權議題等。
+• (三) 公司治理：涵蓋內部控管、董事組成、股東權益、商業倫理、風險管理、資訊透明等。
+總之，企業除追求商業利潤外，更應注重環境保護、社會責任及公司治理等公共利益。因此，評估一家企業之價值不能僅從財務報表之盈餘或淨值衡量，尚應加入ESG面向衡量。</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914204</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:49</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>ESG、環境保護、社會責任、公司治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>914171</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>機會成本（Opportunity Cost）,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2025/07/10</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>機會成本，指某一項生產要素用於特定用途，就不能用於其他用途之成本。在所有犠牲之各種用途中，犠牲最大者，即為其機會成本。如使用自有資金投入建築，仍須以機會成本設算資金成本。因為如果該自有資金不投入建築，就可以存放在銀行滋生利息，因此機會成本以一定期定存利率計算之利息為準。</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914171</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:52</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>機會成本、犠牲、自有資金</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>914117</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>先行區段徵收,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2025/07/03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>• (一) 先行區段徵收之意義：區段徵收為都市計畫整體開發方式之一。因此，原則上應先發布都市計畫，再辦理區段徵收。但亦有例外，先辦理區段徵收，再發布都市計畫。此例外情形稱為「先行區段徵收」。
+• (二) 先行區段徵收之目的：
+1. 都市計畫內容未必與區段徵收密切配合。因此，先辦理區段徵收，再發布都市計畫，以確保都市計畫具體可行。
+2. 倘先發布都市計畫，再辦理區段徵收，後續仍須對都市計畫未周延完善部分，再辦理都市計畫變更。倘先辦理區段徵收，再發布都市計畫，則都市計畫內容一次完成，無須再辦理都市計畫變更。
+3. 都市計畫一旦發布實施，造成區內地價漲跌不一，導致地主權益不公平現象，而阻礙後續區段徵收之推行。因此，先推行區段徵收，以防止地主權益不公平現象之發生。
+4. 先辦理區段徵收，再於區段徵收進行中，配合發布都市計畫，以縮短區段徵收開發時程。
+• (三) 先行區段徵收之規定：
+1. 土地徵收條例第4條第1項第1款至第3款之開發範圍經中央主管機關核定者，得先行區段徵收，並於區段徵收公告期滿後一年內發布實施都市計畫，不受都市計畫法第52條規定之限制（徵§4II）。
+2. 土地徵收條例第4條第1項第4款或第6款之開發，涉及都市計畫之新訂、擴大或變更者，得依上開之規定辦理（徵§4IV）。
+3. 先行區段徵收地區，應配合辦理迅行變更都市計畫者，需用土地人應於報請中央主管機關核定開發範圍前，先徵得中央都市計畫主管機關同意依都市計畫法第27條規定辦理；應辦理新訂或擴大都市計畫者，依規定層報核可（區徵§9）。
+4. 先行區段微收地區，應於區段徵收公告期滿一年内發布實施都市計畫（區徵§11III）。
+【註】 徵：土地徵收條例。 區徵：區段徵收實施辦法。</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914117</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:56</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>先行區段徵收、區段徵收、都市計畫</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>914108</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>公同共有人可否單獨行使優先購買權？,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2025/06/26</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>公同共有人為數人時，如未經全體公同共有人同意，得否由其中一人單獨行使優先購買權？
+• (一) 否定說：民法第828條第3項規定：「公同共有物之處分及其他之權利行使，除法律另有規定外，應得公同共有人全體之同意。」所謂「其他之權利行使」，包括行使優先購買權在內。因此，公同共有人行使優先購買權應經全體公同共有人之同意，不得由其中一人單獨行使。
+• (二) 肯定說：法條規定之優先購買權人，係立法賦予其有取得優先購買權之資格，得行使之權利係優先購買權。該權利行使既係一種資格，非行使全體公同共有人之公同共有之權利，自無需由公同共有人共同為之，與公同共有人權利行使無涉（最高法院109年度台上字第1546號判決）。
+綜上，早期多採否定說，最近傾向採肯定說。</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914108</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:09:59</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>公同共有人、優先購買權、權利行使</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>914070</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>不計徵土地增值稅之意涵,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025/06/19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• (一) 不計徵土地增值稅之意義： 亦稱不徵土地增值稅；指不在土地增值稅之課徵範圍，因此不必徵收土地增值稅。
+• (二) 不計徵土地增值稅與免徵土地增值稅之比較：
+1. 不計徵土地增值稅，指不在土地增值稅之課徵範圍，故不必課徵土地增值稅。免徵土地增值稅，指在土地增值稅之課徵範圍，故應課徵土地增值稅，但給予租稅免除。
+2. 不計徵土地增值稅，其原地價未更動，租稅效果等同「不課徵土地增值稅」（即租稅遞延）。免徵土地增值稅，其原地價必須更動，租稅效果為租稅免除。
+• (三) 舉例說明：
+1. 土地增值稅之課徵時機為移轉（指土地所有權移轉）及設定典權。準此，設定地上權及地上權移轉不在土地增值稅之課徵範圍。因此,設定地上權及地上權移轉不計徵土地增值稅。但不宜敍述為「設定地上權及地上權移轉免徵土地增值稅或不課徵土地增值稅」。
+2. 平均地權條例施行細則第87條第1項規定：「土地所有權人依本條例第六十條負擔之公共用地及抵費地，不計徵土地增值稅，逕行登記為直轄市、縣（市）有。但由中央主管機關辦理者，抵費地登記為國有。」市地重劃之原土地所有權人交換分合土地，原本屬於土地移轉，應課徵土地增值稅。但平均地權條例第62條本文規定：「市地重劃後，重行分配與原土地所有權人之土地，自分配結果確定之日起，視為其原有之土地。」亦即，市地重劃之原土地所有權人交換分合後所取得之土地，視為其原有土地，等同未移轉土地。因此，市地重劃交換分合之土地，不計徵土地增值稅。同理，原土地所有權人所負擔之公共用地及抵費地，亦為交換分合之一部分，因此不計徵土地增值稅。
+[圖片1]
+## 文章圖片
+![圖片1](./images/914070_18471b7a.png)
+</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914070</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:02</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>土地增值稅、租稅、地上權</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>914029</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>購屋預約單與預售屋買賣契約之轉售異同比較,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2025/06/12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>購屋預約單與預售屋買賣契約之轉售異同比較如下：
+• (一) 購屋預約單與預售屋買賣契約皆禁止買受人之轉售行為。
+• (二) 銷售預售屋者，皆不得同意或協助買受人將購屋預約單及預售屋買賣契約轉售與第三人。
+• (三) 購屋預約單與預售屋買賣契約之轉售行為，依據民法第71條但書規定，仍然有效。
+• (四) 購屋預約單與預售屋買賣契約之轉售，皆須課徵房地合一所得稅。
+• (五) 購屋預約單之轉售行為，處新台幣15萬元以上100萬元以下罰鍰。預售屋買賣契約之轉售行為，處新台幣50萬元以上300萬元以下罰鍰。</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=914029</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:05</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>購屋預約單、預售屋買賣契約</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>913972</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>實價登錄之車位拆分問題,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2025/06/05</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">一般而言，預售屋買賣時，車位單獨銷售，因此無車位拆分問題。然，成屋買賣時，車位未單獨銷售，車位價格包含在房屋交易總價之內，因此必須拆分出車位面積及車位價格，始可計算出真正的房價。亦即（內政部不動產交易實價登錄服務網之公式）：
+[圖片1]
+實務上，常發生下列三種情形：
+1. 車位總面積不詳，但車位總價明確。
+2. 車位總價不詳，但車位總面積明確。
+3. 車位總面積及車位總價皆不詳。
+• (一) 車位總面積在不詳情況下，倘拆分車位總面積過多，則房屋單價偏高；倘拆分車位總面積過少，則房屋單價偏低。
+• (二) 車位總價不詳情況下，倘拆分車位總價過多，則房屋單價偏低；倘拆分車位總價過少，則房屋單價偏高。
+由此可知，車位之拆分干擾房價高低，對實價登錄資訊之正確性影響甚大。
+## 文章圖片
+![圖片1](./images/913972_a55bba7f.png)
+</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913972</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:09</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>實價登錄、車位、車位總價、車位總面積</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>913960</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>地號之分號與建號之分號的比較,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2025/05/29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>試述地號之分號與建號之分號所代表之涵義，有何不同？
+【解】
+• (一) 地號之分號：地號之分號係土地分割所造成。詳言之，土地分割之地號，應依下列規定編定，並將編定情形登載於分號管理簿或電腦建檔管理之：
+1. 原地號分割時，除將其中一宗維持原地號外，其他各宗以分號順序編列之。
+2. 分號土地或經分割後之原地號土地，再行分割時，除其中一宗保留原分號或原地號外，其餘各宗繼續原地號之最後分號之次一分號順序編列之。
+• (二) 建號之分號：建號之分號：建號之分號係特別建物所造成。所稱特別建物，指下列建物，在同一建築基地範圍內屬於同一所有權人，供同一目的使用者：
+1. 公有公用之建物。
+2. 地方自治團體建物。
+3. 學校。
+4. 工廠倉庫。
+5. 祠、廟、寺院或教堂。
+6. 名勝史蹟之建物。
+特別建物數棟併編一建號為母號，亦為五位數，其各棟建物之棟次以分號編列，為三位數。
+應特別說明，建物之分號並非建物分割所造成。因為分割後之建物，除將其中一棟維持原建號外，其他各棟以該地段最後建號之次一號順序編列。</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913960</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:12</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>地號、建號</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>913919</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>預售屋銷售管理,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2025/05/22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>平均地權條例對於預售屋銷售管理之規定如下：
+• (一) 銷售資料報請主管機關備查：
+1. 銷售預售屋者，應於銷售前將預售屋坐落基地、建案名稱、銷售地點、期間、戶（棟）數及預售屋買賣定型化契約，以書面報請預售屋坐落基地所在之直轄市、縣（市）主管機關備查（平§47-3I）。
+2. 經營代銷業務，受起造人或建築業委託代銷預售屋者，應於簽訂、變更或終止委託代銷契約之日起三十日內，將委託代銷契約相關書件報請所在地直轄市、縣（市）主管機關備查（經§24-1II）。
+• (二) 購屋預約單不得轉售：
+1. 銷售預售屋或新建成屋者，向買受人收受定金或類似名目之金額，應以書面契據確立買賣標的物及價金等事項，並不得約定保留出售、保留簽訂買賣契約之權利或其他不利於買受人之事項。委託不動產經紀業代銷者，亦同（平§47-3）。
+2. 前項書面契據，買受人不得轉售與第三人。銷售預售屋或新建成屋者，不得同意或協助買受人將該書面契據轉售與第三人（平§47-3VI）。
+• (三) 預售屋買賣契約不得轉售：
+1. 預售屋或新建成屋買賣契約之買受人，於簽訂買賣契約後，不得讓與或轉售買賣契約與第三人，並不得自行或委託刊登讓與或轉售廣告。但配偶、直系血親或二親等內旁系血親間之讓與或轉售；或其他中央主管機關公告得讓與或轉售之情形並經直轄市、縣（市）主管機關核准者，不在此限（平§47-4I）。
+2. 銷售預售屋或新建成屋者，不得同意或協助買受人將買賣契約讓與或轉售第三人，並不得接受委託刊登讓與或轉售廣告（平§47-4III）。
+• (四) 限制炒作行為： 任何人不得有下列各款之行為：
+1. 以電子通訊、網際網路、說明會或其他傳播方式散布不實資訊，影響不動產交易價格。
+2. 與他人通謀或為虛偽交易，營造不動產交易活絡之表象。
+3. 自行、以他人名義或集結多數人違規銷售、連續買入或加價轉售不動產，且明顯影響市場秩序或壟斷轉售牟利。（平§47-5）
+• (五) 實價登錄申報：
+1. 銷售預售屋者，應於簽訂或解除買賣契約書之日起三十日內，向直轄市、縣（市）主管機關申報登錄資訊。但委託不動產經紀業代銷者，由不動產經紀業辦理簽訂買賣契約書之申報登錄資訊（平§47-3II）。
+2. 經營代銷業務，受起造人或建築業委託代銷預售屋者，應於簽訂買賣契約書之日起三十日內，向直轄市、縣（市）主管機關申報登錄資訊（經§24-1II）。
+【註】 平：平均地權條例 經：不動產經紀業管理條例</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913919</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:15</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>平均地權條例、預售屋、新建成屋</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>913859</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>租稅平等原則,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2025/05/15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>• (一) 意涵：
+1. 憲法第7條規定平等原則，旨在防止立法者恣意對人民為不合理之差別待遇。如對相同事物，為無正當理由之差別待遇，即與憲法第7條之平等原則有違。法規範是否符合平等權保障之要求，其判斷應取決於該法規範所以為差別待遇之目的是否合憲，其所採取之分類與規範目的之達成間，是否存有一定程度之關聯性而定（司法院釋字第779號解釋理由書）。
+2. 憲法第7條保障人民之平等權，法規範是否符合平等原則之要求，其判斷應取決於該法規範所以為差別待遇之目的是否合憲，其所採取之分類與規範目的之達成間，是否存有一定程度之關聯性而定。租稅法律關係中，立法者為了實現憲法所賦予之任務，而就各種稅捐之稽徵及減輕或免除分別訂定不同之規範，其分類及差別待遇，涉及國家財稅政策之整體規劃，適合由代表民意之立法機關及擁有專業能力之相關行政機關，以法律或法律明確授權之法規命令定之，其規定如有正當目的，且分類與目的之達成間具有合理關聯，即符合憲法第7條平等權保障之意旨（憲法法庭112年憲判字第19號判決理由）。
+• (二) 舉例：
+1. 司法院釋字第779號解釋文：「土地稅法第39條第2項關於免徵土地增值稅之規定，僅就依都市計畫法指定之公共設施保留地，免徵其土地增值稅；至非都市土地經編定為交通用地，且依法核定為公共設施用地者，則不予免徵土地增值稅，於此範圍內，與憲法第7條保障平等權之意旨不符。相關機關應自本解釋公布之日起2年內，依本解釋意旨，檢討修正土地稅法相關規定。」（筆者註：現行增訂土地稅法第39條第3項，以為因應）
+2. 憲法法庭112年憲判字第19號判決主文：「土地稅減免規則第9條規定：『無償供公眾通行之道路土地，經查明屬實者，在使用期間內，地價稅或田賦全免。但其屬建造房屋應保留之法定空地部分，不予免徵。』其但書規定與憲法第7條平等原則尚無違背。」</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913859</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:18</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>租稅、平等原則、土地稅法、土地增值稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>913800</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>四則免徵土地增值稅之理由,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2025/05/08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>• (一) 土地徵收免徵土地增值稅之理由：
+1. 若土地徵收課徵土地增值稅，土地所有人就無法以其補償餘額，再去購買同一地段、同一品質及同一面積之土地。
+2. 土地徵收與買賣不同。前者乃強制取得，後者乃合意取得。亦即，土地徵收是土地所有人在不得已、不情願情況下，被迫喪失土地，故給予免徵土地增值稅之租稅優惠。
+3. 現行土地徵收以市價補償，僅填補被徵收人之財產損失，未填補其非財產損失。基於土地徵收稟賦效果，應給予免徵土地增值稅之租稅優惠。
+• (二) 公共設施保留地被徵收免徵土地增值稅之理由（司法院釋字第779號解釋理由書）：
+1. 土地倘經指定為公共設施保留地，其財產價值即大減，嚴重影響土地所有人之權益。
+2. 公共設施保留地之土地流動性、市場交易機會及價值，因政府政策及法令而受不利影響。
+3. 因政府財政困難，土地經指定為公共設施保留地後，至被徵收之期間常延宕多年，其土地流動性受限。
+• (三) 公共設施保留地尚未被徵收前之移轉免徵土地增值稅之理由（司法院釋字第779號解釋理由書）：
+1. 於政府徵收前土地並無市場增值，以致影響市場交易機會及價值，若交易時仍規定須繳納土地增值稅，有違最後於徵收土地時免繳之原意。
+2. 公共設施保留地交易時，通常依公告現值徵收土地增值稅，而公告現值繫諸政府政策，未必反映市場價值，如據以徵收土地增值稅，既不合理，且不符社會公平正義原則。
+3. 就同一公共設施保留地，徵收時之土地所有人無須繳納土地增值稅，而徵收前交易之土地所有人卻須繳納土地增值稅，亦有失公平。
+• (四) 供公共設施使用之非都市土地尚未被徵收前之移轉免徵土地增值稅之理由（司法院釋字第779號解釋理由書）：
+1. 非都市土地如經編定為交通用地，且依法核定為公共設施用地者，其使用受限制，流動性、市場交易機會及價值，因政府之政策及法令而受不利影響之情形，與依都市計畫法指定之公共設施保留地受不利影響者相當。
+2. 非都市土地若實際已成為公路，亦即供作公共設施使用，其流動性、市場交易機會及價值所受不利影響更加嚴重。
+3. 此類非都市土地，性質與依都市計畫法指定之公共設施保留地相似，在土地增值稅之徵免上，理應等同處理，俾符合租稅公平原則及憲法第7條保障平等權之意旨。</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913800</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:22</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>土地增值稅、土地徵收、公共設施保留地、非都市土地</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>913747</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>房屋預售制度是房價飆漲之溫床,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2025/04/24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>• (一) 預售屋及房屋預售制度之緣起：早期，我國法律並無預售屋及房屋預售制度之明文規定，然業界已普遍實施。及至「公寓大廈管理條例」（民國84年6月28日總統公布）及「不動產經紀業管理條例」（民國88年2月3日總統公布）始正式入法。諸如：
+1. 公寓大廈管理條例第58條第1項規定：「公寓大廈起造人或建築業者，非經領得建造執照，不得辦理銷售。」從反面解釋，公寓大廈起造人或建築業者，經領得建造執照，得辦理銷售。亦即，銷售預售屋為合法行為。如果該法條規定：「公寓大廈起造人或建築業者，非經領得使用執照，不得辦理銷售。」則銷售預售屋為違法行為。應特別強調，世界各國，有的國家允許銷售預售屋，有的國家禁止銷售預售屋。
+2. 不動產經紀業管理條例第4條第3款規定：「預售屋：指領有建造執照尚未建造完成而以將來完成之建築物為交易標的之物。」
+• (二) 房屋預售制度與房價飆漲之關係： 房屋預售制度是房價飆漲之溫床。其理由如下：
+1. 房屋預售制度，購屋者運用財務槓桿及選擇權操作進行房地投機，導致不動產景氣時，大量湧入投機客購買預售屋，房屋假性需求增加。
+2. 建設公司之預售個案委由代銷公司銷售（俗稱包銷）。代銷公司為了爭取銷售個案，競相創造區域新行情。因此不動產景氣時，預售價帶動新成屋價，新成屋價再帶動中古屋價，導致不動產價格全面上漲。
+3. 代銷公司採包銷承攬預售個案，承擔銷售成敗之風險。因此，代銷公司不擇手段採取違規銷售（如利用網路傳播不實資訊、營造不動產交易活絡假象等），製造「今天不買，明天房價更高」之恐慌心理。
+4. 預售個案創新價完銷，經媒體大肆渲染，造成民眾對房價之預期心理，進而吸引更多投機客進場。預期終於實現，實現後再預期，形成房價惡性循環上揚。
+綜上，房屋預售制度於不動產多頭市場，誘使房價飆漲，對不動產價格之穩定造成不利影響。因此，房屋預售制度不是好的制度。</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913747</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:25</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>預售屋、房屋預售、公寓大廈、房價飆漲</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>913776</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>違反信託約定之處分,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025/05/06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>小耀將名下A地信託移轉登記給高高，並約定高高僅有管理權限，即於信託存續期間20年內，每年將A地租金收益交付給昌大，並有將相關約定內容納入信託專簿。然而，高高後續竟將A地出賣給第三人，而登記機關未察且辦理A地移轉登記完畢，請問小耀或昌大該如何處理？
+• (一) 昌大得聲請法院撤銷高高之處分
+根據信託法第18條第1項：「受託人違反信託本旨處分信託財產時，受益人得聲請法院撤銷其處分。受益人有數人者，得由其中一人為之。」
+第2項：「前項撤銷權之行使，以有左列情形之一者為限，始得為之： 一、信託財產為已辦理信託登記之應登記或註冊之財產權者。 二、信託財產為已依目的事業主管機關規定於證券上或其他表彰權利之文件上載明其為信託財產之有價證券者。 三、信託財產為前二款以外之財產權而相對人及轉得人明知或因重大過失不知受託人之處分違反信託本旨者。」
+第19條：「前條撤銷權，自受益人知有撤銷原因時起，一年間不行使而消滅。自處分時起逾十年者，亦同。」
+因此，A地屬於已辦理信託登記之應登記財產權，受託人高高違反信託本旨處分信託財產時，受益人昌大得聲請法院撤銷其處分。但昌大應於知有撤銷原因時起1年間，或自處分時起10年內聲請。
+• (二) 阿耀與昌大得對高高請求將其所得之利益歸於信託財產
+信託法第9條第2項：「受託人因信託財產之管理、處分、滅失、毀損或其他事由取得之財產權，仍屬信託財產。」
+信託法第35條第3項：「受託人違反第一項之規定，使用或處分信託財產者，委託人、受益人或其他受託人，除準用第二十三條規定外，並得請求將其所得之利益歸於信託財產；於受託人有惡意者，應附加利息一併歸入。」
+因此，委託人阿耀與受益人昌大得對高高請求將其所得之利益歸於信託財產，倘若高高屬惡意，則應附加利息一併歸入。
+• (三) 阿耀與昌大得對高高請求損害賠償、回復原狀或減免報酬
+根據信託法第35條第1項：「受託人除有下列各款情形之一外，不得將信託財產轉為自有財產，或於該信託財產上設定或取得權利： 一、經受益人書面同意，並依市價取得者。 二、由集中市場競價取得者。 三、有不得已事由經法院許可者。」
+第3項：「受託人違反第一項之規定，使用或處分信託財產者，委託人、受益人或其他受託人，除準用第二十三條規定外，並得請求將其所得之利益歸於信託財產；於受託人有惡意者，應附加利息一併歸入。」
+第4項：「前項請求權，自委託人或受益人知悉之日起，二年間不行使而消滅。自事實發生時起逾五年者，亦同。」
+第23條：「受託人因管理不當致信託財產發生損害或違反信託本旨處分信託財產時，委託人、受益人或其他受託人得請求以金錢賠償信託財產所受損害或回復原狀，並得請求減免報酬。」
+因此，委託人阿耀與受益人昌大得請求高高以金錢賠償信託財產所受損害或回復原狀，並得請求減免報酬。
+• (四) 阿耀與昌大得向法院聲請解任高高之受託人職務
+信託法第36條規定：「受託人違背其職務或有其他重大事由時，法院得因委託人或受益人之聲請將其解任。」
+因此，委託人阿耀與受益人昌大得主張受託人高高違背所約定之職務，向法院聲請將其解任。</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913776</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:28</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>信託、受益人、信託財產、受託人、委託人</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>913752</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>房屋土地交換之房地合一稅,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025/04/29</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>曾大於110年4月以2,000萬元購買A房地，並於114年4月與熊大訂定房地交換契約，將A房地以相當市場行情之2,300萬元，交換熊大所有之B房地，且雙方未進行差價找補，即無收付價金。試問曾大是否需申報繳納房地合一所得稅？要的話，應納稅額為多少？（以公告土地現值計算之土地漲價總數額為50萬元）
+首先，按照「房地合一課徵所得稅申報作業要點」第2點，房屋、土地交易日之認定，以所出售或交換之房屋、土地完成所有權移轉登記日為準。
+因此，個人換出105年1月1日以後取得之房屋、土地，無論有無收付價金，應以換出房地之成交價額減除原始取得成本、因取得、改良及移轉而支付之費用及土地漲價總數額後之餘額為課稅所得，並檢附交換契約書、成本及必要費用相關證明文件與其他有關文件，辦理個人房屋土地交易所得稅申報。
+其中，換出房地之成交價額，原則上國稅局會調查A、B房地交換當時金融機構貸款評定價格及同棟或鄰近同類大樓相近樓層之實價登錄資訊，約定交換價格是否與交換當時A、B房地之市場行情相當，如否，即會參酌時價資料認定。
+因此，曾大換出A房地之課稅所得為220萬元（成交價額2,300萬元－原始取得成本2,000萬元－移轉必要費用30萬元－土地漲價總數額50萬元），應納稅額77萬元（220萬元×適用稅率35%）
+參考來源：個人換出適用房地合一稅制之房屋、土地，應於規定期限內辦理房屋土地交易所得稅申報-財政部全球資訊網</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913752</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:31</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>房地合一、房地交換</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>913739</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>死亡前2年贈與之相關概念比較,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2025/04/22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>甲死亡前二年內贈與給繼承人之一乙300萬，而後甲死亡時留下遺產3,300萬，並由乙、丙、丁三人繼承，應繼分均等，試問其乙、丙、丁之各應繼遺產為何？遺產稅之遺產總額多少？另甲生前對K有一債務，乙、丙、丁應負清償責任之所得遺產總額為多少？
+• (一) 各應繼遺產分為兩種情形：
+1. 甲「非」因結婚、分居或營業而贈與給乙 僅就甲死亡時留下遺產3,300萬進行分配。 乙、丙、丁＝3,300/3＝各1,100萬元 *注意：繼承人彼此間並沒有民法第1148條之1的適用，亦即丙、丁不得就乙已受贈之300萬主張納入應繼遺產。
+2. 甲因結婚、分居或營業而贈與給乙 依據民法第1173條I、II：「繼承人中有在繼承開始前因結婚、分居或營業，已從被繼承人受有財產之贈與者，應將該贈與價額加入繼承開始時被繼承人所有之財產中，為應繼遺產。但被繼承人於贈與時有反對之意思表示者，不在此限。前項贈與價額，應於遺產分割時，由該繼承人之應繼分中扣除。」 因此，應繼遺產＝3,300+300＝3,600萬元，各人應繼遺產： 乙＝3,600/3＝1,200，再扣除300萬元（歸扣）＝900萬元 丙＝3,600/3＝1,200萬元 丁＝3,600/3＝1,200萬元 *注意：歸扣並不限於死亡前二年內。
+• (二) 之遺產總額
+依據遺產及贈與稅法第15條I：「被繼承人死亡前二年內贈與下列個人之財產，應於被繼承人死亡時，視為被繼承人之遺產，併入其遺產總額，依本法規定徵稅：一、被繼承人之配偶。二、被繼承人依民法第一千一百三十八條及第一千一百四十條規定之各順序繼承人。三、前款各順序繼承人之配偶。」
+遺產稅之課稅遺產總額＝3,300+300＝3,600萬元
+*注意：倘若非死亡前二年內之贈與（含結婚、分居、營業之特種贈與），則不需納入遺產稅額計算
+• (三) 應負清償責任之所得遺產總額
+為避免被繼承人生前贈與，影響被繼承人之債權人求償權益，依據民法第1148條之1：「繼承人在繼承開始前二年內，從被繼承人受有財產之贈與者，該財產視為其所得遺產。」，以規範對外清償範圍。
+因此，乙、丙、丁應負清償責任之所得遺產總額為3,300+300＝3,600萬元。換言之，K得請求乙、丙、丁於遺產3,600萬元之範圍內加以清償。</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913739</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:35</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>應繼遺產、繼承人、遺產稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>913706</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>共有土地協議信託給共有人之一,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2025/04/15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>甲乙丙三人共有一筆A地，每人應有部分為1/3，由於丙具有地政士專業，因而三人協議將該A地共同信託給丙，並簽訂信託契約書，約定由丙管理及處分，請問該信託契約是否有效？
+解題關鍵
+• (一) 各共有人，得自由處分其應有部分。 (二)按民法規定，契約交易雙方為對立之當事人，因而兩者原則不得為同一人。 (三)僅法人為增進公共利益，得經決議對外宣言自為委託人及受託人，並邀公眾加入為委託人。
+結論
+• (一) 甲乙應有部分為自由處分，故該2/3與丙之信託契約有效。 (二)丙自己的應有部分1/3，委託給自己，違反契約對立性，該部分無效。
+參考來源：曾榮耀編撰，信託法概要，附錄四精選案例，高點</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913706</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:38</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>信託契約、自由處分、委託人、信託法</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>913666</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>113年憲判字第11號有關遺贈稅法尚未修法前之因應方式,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2025/04/08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>首先，憲判字11號簡要來說有兩個違憲法條：
+• 一、遺產及贈與稅法第15條第1項第1款規定：「被繼承人死亡前2年內贈與下列個人之財產，應於被繼承人死亡時，視為被繼承人之遺產，併入其遺產總額，依本法規定徵稅：一、被繼承人之配偶。……」
+• (一) 違反憲法第7條平等權之意旨
+死亡前2年內贈與配偶之財產，立法目的係為避免生前分散財產減少遺產稅課徵，而將其「視為遺產」，但其他繼承人未享有該財產增益，卻要代被繼承人之配偶負擔該部分遺產稅，有違量能課稅原則。亦即，遺產總額擴及繼承人實際繼承遺產以外的財產，而無法對應繼承人稅捐負擔能力。
+舉例而言，我只拿到遺產2千萬，卻要負擔2千萬以外，不歸於己而是由被繼承人配偶拿走的財產，所計算的遺產稅。
+• (二) 違反憲法第15條財產權保障之意旨
+1. 其他繼承人須以自己繼承之財產，為非自身財產增益部分，負擔稅捐債務。（以自己應得財產，負擔別人稅捐，因而侵蝕到自身財產權）
+2. 未對應設定上限，可能使其他繼承人因課徵遺產稅，而經濟價值嚴重減損，乃至完全失去其本得繼承之遺產，屬「絞殺性租稅」，而與比例原則有違，侵害人民財產權。。（甚至可能遺產全部被遺產稅侵蝕殆盡）
+舉例而言，我只拿到遺產2千萬，卻要負擔5千萬的遺產稅。
+• 二、遺產及贈與稅法第17條之1規定：「被繼承人之配偶依民法第一千零三十條之一規定主張配偶剩餘財產差額分配請求權者，納稅義務人得向稽徵機關申報自遺產總額中扣除。」同時，
+違反憲法第7條平等權之意旨：
+剩餘財產差額分配請求權之立法目的，係針對婚姻關係中經濟弱勢一方，其對於婚姻之家務、教養子女及共同生活等貢獻給予公平之評價，但死亡前2年內贈與配偶之財產被定性為遺產，但卻無法如同遺產稅中扣除額予以統一處理，以致於擬制財產部分無法一致且充分地反映生存配偶的潛在經濟貢獻。
+簡言之，就是一般遺產有剩餘財產差額分配的扣除額，亦即有考慮生存配偶因共同家計所生經濟貢獻；但擬制遺產卻沒有，等同於沒考慮配偶經濟貢獻，兩者並未統一處理。
+舉例如下，死亡前2年內贈與配偶的話，反而因未於遺產總額進行剩財扣除考量，導致反而繳的遺產稅比較多。
+• (1) 甲（原4000萬）死前2年「後」贈與（2000萬）給配偶（原有財產1000萬） 剩財請求＝(2000-1000)/2＝500 遺產稅＝(2000-553-138-500-1333)*10%＝0
+• (2) 甲（原4000萬）死前2年「內」贈與（2000萬）給配偶（原有財產1000萬） 剩財請求＝(2000-1000)/2＝500 遺產稅＝(2000+2000-553-138-500-1333)*10%＝147.6
+按113年憲判11號，立法機關應於本判決公告之日起2年內，依本判決意旨檢討修正相關規定，於修法完成前，相關機關應依本判決意旨辦理。惟於修法完成前：
+• (一) 對於「繼承人不公平負擔問題」之因應方式
+1. 受贈配偶同屬遺產稅納稅義務人 相關機關應計算擬制為遺產之財產占遺產總額比例，依該比例計算因該受贈財產所增加之稅額，就該部分稅額，僅得向配偶發單課徵。
+2. 受贈配偶因拋棄繼承或喪失繼承權等而非遺產稅納稅義務人 就視為遺產之贈與，所增加之遺產稅負，不得以繼承人為該部分遺產稅負之納稅義務人，亦不得以被繼承人死亡時遺留之財產為執行標的。
+• (二) 對於「遺產總額未一致考量配偶剩財扣除問題」之因應方式 相關機關於計算配偶剩餘財產差額分配請求權之扣除數額時，就視為遺產之贈與，應將該財產視為被繼承人現存財產，並依據民法第1030條之1規範意旨，例如該財產是否為婚後財產，有無但書各款情事等，計算在遺贈稅法上得扣除之剩餘財產差額分配數額，不受被繼承人配偶實際上得依民法第1030條之1規定請求之範圍限制。
+亦即如同前例，應將擬制遺產視為被繼承人現存財產，故其剩財請求＝(2000+2000-1000)/2＝1500，其遺產稅＝(2000+2000-553-138-1500-1333)*10%＝47.6</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913666</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:41</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>遺產、剩餘財產、差額分配、受贈配偶</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>913646</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>信託受益人死亡之處理方式,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025/04/01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>案例
+老張信託其所有之不動產給小美，約定受託人小美基於老張之女小張的利益，進行該信託不動產之使用管理與處分。小美即依約定進行適法之信託財產運用，惟受益人小張不幸車禍死亡，留有2子女，試問受託人小美該如何處理？
+觀念說明
+• (一) 信託受益權屬於一種財產權利，原則上允許受益人自由轉讓或繼承。因此，受益人死亡時，倘其信託關係依信託目的，不因其死亡而消滅，於終止信託關係前，信託利益依民法第1148條規定，由受益人之繼承人概括繼承。
+• (二) 信託關係存續中受益人死亡時，應就其享有信託利益之權利未領受部分，依本法規定課徵遺產稅。
+結論
+• (一) 信託關係並不因受益人小張死亡而當然消滅，需視是否屬所定事由發生（照顧到小張死亡為止）或信託目的不能完成（該受益權專屬小張）予以認定。
+• (二) 倘若老張信託契約並未限定該受益權僅屬小張，亦未有明確的解決條件，則由受託人小美繼續按信託契約目的，支付信託利益給小張之2子女。
+• (三) 2子女於申報遺產稅時，應就其享有信託利益之權利未領受部分，依本法規定課徵遺產稅。</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913646</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:44</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>信託、受益權、受託人、受益人</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>913623</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>共有人占用共有土地之默示分管關係,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2025/03/25</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>今日專欄舉一篇有關共有人占用共有土地之默示分管關係案例供參
+甲有一筆位於某市的A地，其死亡後由13位繼承人共同繼承該地，且未辦理繼承登記。民國74年時，其中一位繼承人乙於該地上興建一B建物並居住，其他繼承人皆有到場祝賀遷居，後續亦由甲繳納該地之地價稅。民國100年時，其他共有之繼承人訴請拆屋還地，試問甲得否主張其他共有人長期不反對而成立「默示分管」，故具有合法權源？
+• 一、默示分管之定義
+所謂默示分管，係指依共有人之舉動或其他情事，足以間接推知其效果意思者而言，必共有人間實際上劃定使用範圍，對各自占有管領之部分，互相容忍，對於他共有人使用、收益，各自占有之土地，未予干涉，已歷有年所，始得認有默示分管契約之存在（最高法院29年上字第762號判例、80年度臺上字第1470號判決、83年度臺上字第237號判決意旨參照）
+• 二、不得主張成立默示分管之理由
+1. 縱B屋於74年落成時，共有人均前往祝賀，惟僅是單純沈默而未為制止，不生任何法律效果，亦非默許同意繼續使用。
+2. 繳交地價稅，僅能說明其處理此部分事務，亦難作為其他共有人默許甲有單獨使用A地之權利。
+3. 甲雖請求傳喚A地其他共有人全部到庭，以證共有人有默示合意分管事實，然A地之共有人間並無默示分管協議存在等情，已如前述，無庸再為傳訊證人必要，況部分甫因繼承登記才成為共有人，非B屋興建時之共有人，房屋興建時年紀尚輕，實難認為其知悉A地當時是否經全體共有人為默示分管協議。
+綜上，甲並不能舉證證明A地有分管契約存在，自難徒憑A地共有人長期以來未向甲行使權利或經過時間之長短，遽以推論共有人間有明示或默示分管契約存在。
+提醒： 雖共有人可就長時間占用土地提出已有默示分管之適用，惟仍需有一定之事實證據得以佐證較為妥適。
+資料來源：臺灣高等法院102年度重上字第543號民事判決</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913623</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:47</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>共有人、繼承人、繼承登記、默示分管</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>913574</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>個人墓地出售是否得主張優先購買之疑義,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2025/03/18</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>本週專欄為土地法第34條之1第4項有關共有人出賣應有部分之特殊概念－個人墓地出售是否得主張優先購買。可參臺灣高等法院暨所屬法院110年法律座談會民事類提案第7號內容：
+甲以經營殯葬事務為業，將其所有之A土地（土地謄本所載使用地類別為殯葬用地）規劃為編號1至26,000位之個人墓園用地擬以出售。嗣乙向甲購買編號50之個人墓園用地，甲則移轉登記A土地之應有部分兩萬六千分之一予乙，又丙為乙之債權人，於清償期屆至後，乙無力還款，丙遂持執行名義向法院聲請強制執行上開乙於A土地之應有部分，經拍定後A土地之其他個人墓園用地所有人（高達千人）得否以共有人之身分行使優先承買權？
+討論意見：甲說：肯定說。 按土地法第34條之1第4項規定：「共有人出賣其應有部分時，他共有人得以同一價格共同或單獨優先承購。」其立法意旨無非為第三人買受共有人之應有部分時，承認其他共有人享有優先承購權，簡化共有關係（最高法院 72 年台抗字第94號判例意旨參照）。又共有物分管之約定，不以訂立書面為要件，倘共有人間實際上劃定使用範圍，對各自占有管領之部分，長年互相容忍，對於他共有人使用、收益，各自占有之土地，未予干涉，即非不得認有默示分管契約之存在（最高法院83年度台上字第1377號判決意旨參照）。復共有之土地縱已達成分管之約定，於該分管之共有人出售該土地應有部分，亦無排斥賦予共有人優先承買土地之權利，若認土地共有人間業已成立分管契約，而於他共有人出賣其應有部分時，其他共有人即不得主張共有人之優先承買權，顯失簡化共有關係之目的，無助於促進土地之利用（臺灣高等法院100年度上字第 1189 號判決意旨參照）。查題示A土地之共有人得於其使用個人墓園之範圍內排除他人干涉，並對各自占用管領之部分，長年互相容忍，堪認共有人間係成立默示分管契約。準此，揆諸前開實務見解，縱認A土地已達成分管之約定，仍不得限制共有人優先承買之權利，執行法院拍賣A土地之應有部分，仍應通知其他 A土地共有人行使優先承買權。
+乙說：否定說（最終採此說）。 按土地法第34條之1第4項優先承購權之立法目的，固在減少共有人人數，簡化土地之利用關係，並可解決共有不動產之糾紛，促進土地利用，便利地籍管理及稅捐課徵等，惟本件殯葬經營業者係將殯葬用地劃分成特定占用位置的個人墓園，再以應有部分的方式出賣，其目的無非係欲使多數買受人得以利用，故非有賦予其他共有人優先承買權以簡化土地關係之必要，且若維持共有關係，亦符合當初規劃及實際利用狀態，對於共有物之管理、收益並無妨礙。再事實上於此類情形，共有人之人數動輒數千人，不但送達不易，耗費郵資過鉅，況該殯葬用地之個人墓園倘已使用，其餘共有人往往缺乏應買意願，徒為增加國家財政負擔並延長執行時程，對於債權人及債務人均有所不利。
+初步研討結果：採乙說。 審查意見：採乙說。 研討結果： （一）乙說理由倒數第6行末「況該殯葬用地之個人墓園倘已使用，其餘共有人往往缺乏應買意願，」等字刪除。 （二）照修正後之乙說通過。
+提醒： 雖法律座談會並不具約束法院判決效力，但可供作參考。其結論即這種個人墓地出售土地應有部分無優先購買權適用，理由有三：
+1. 目的面：無簡化消滅共有關係之必要。
+2. 權益面：維持共有關係，並不妨礙共有物之使用管理。
+3. 執行面：此情形如需優先購買權通知，徒增時間與金錢，反而影響相關權益。
+資料來源：臺灣高等法院暨所屬法院110年法律座談會民事類提案第7號</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913574</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:51</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>個人墓地、土地法第34條之1、個人墓園、共有人、優先承買</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>913542</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>房地合一稅計算範例-受贈後出售,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2025/03/11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>首先，可先參考財政部高雄國稅局新聞稿2025-02-24（個人出售屬房地合一所得稅新制之土地，非持有期間之土地漲價總數額不得減除-財政部全球資訊網）所提重點：個人出售適用房地合一所得稅新制之房屋、土地，其交易所得之計算，係以成交價額減除原始取得成本（受贈取得者，指受贈時之房屋評定現值及公告土地現值，按政府發布之消費者物價指數調整後之價值）、相關必要費用及土地漲價總數額後之餘額為課稅所得額。所稱土地漲價總數額，僅限於個人持有本次交易土地期間所產生的漲價總數額，尚不含贈與人（前所有權人）持有期間的土地漲價總數額，至其受贈時因取得該土地所繳納的土地增值稅，則屬個人因取得該土地而支付的費用，得自房地交易所得中減除。
+本專欄擬計算案例如下：甲於107年9月受贈一筆市價1,000萬元之房地時，其當年公告土地現值總額為300萬元、房屋評定現值為200萬元，有支付契稅與印花稅5萬元，以及繳納土地增值稅20萬元，於118年11月出售之交易金額1,500萬元，並提出市地重劃負擔證明10萬元，且本次交易未提示取得、改良與移轉費用，依當期公告土地現值申報之土地漲價總數額為100萬元。試問甲如以自住房地提出申請，應繳納多少之房地合一所得稅？（消費者物價指數為150%）
+計算：
+• (一) 適用新舊制之判斷本題甲於107.9取得至118.11出售，依所得稅法規定交易之房屋、土地係於105年1月1日以後取得，應採用新制。
+• (二) 所得餘額＝成交價額－受贈時之房屋評定現值及公告土地現值按政府發布之消費者物價指數調整後之價值－取得、改良及移轉而支付之費用－依土地稅法計算之土地漲價總數額＝(1,500－((300+200)×150%)－5－20－10－30－100) ＝585 (萬元) （因1,500×3%=45萬＞費用上限30萬，故以30萬計）
+• (三) 稅率本題甲以自住房地提出申請，如符合所得稅法規定之自住條件，則其所得計算之餘額超過四百萬元部分，稅率為百分之十。
+• (四) 應納所得稅額 (585-400)*10%＝18.5 (萬元)</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913542</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:54</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>房地合一所得稅、受贈、土地現值、所得稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>913481</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>共有人占用共有土地之爭議,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025/03/04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>甲主張其於所有之A地上建造B屋（未登記建物）使用，迄今逾70年，A地共有人乙、丙、丁從未異議，顯存默示分管契約。況於A地上興建B屋，亦已時效取得地上權，是甲並非無權占有，其他共有人自不得請求拆屋還地、給付損害賠償。是否有理由？
+1. 請求權基礎（訴之標的） 各共有人得按其應有部分，對於共有物之全部，有使用收益之權，民法第818 條定有明文，係指各共有人得就共有物全部，於無害他共有人之權利限度內，可按其應有部分行使用益而言。是共有人對共有物之特定部分占有使用收益，仍須徵得他共有人全體之同意，非謂共有人得對共有物之任何一部或全部有自由使用、收益之權利。如共有人不顧他共有人之利益，而就共有物之一部或全部任意占有收益，即屬侵害共有人之權利，共有人除得依同法第767條第1項前段、第821條規定，請求除去其妨害及向全體共有人返還共有物外，並得依侵權行為法律關係，請求該無權占有之人按共有人就共有物之應有部分比例，賠償共有人所受損害。
+2. 默示分管及時效取得地上權之爭議 (1)證人審理時，並未證述共有人甲建造B屋時，業經A地其他共有人同意等情。 (2)A地共有人乙、丙、丁對甲占有A地未為爭執反對，其原因多端，不得僅憑甲長期公然繼續占有A地，逕謂其他共有人已同意或默示同意其占有。 (3)甲既謂其基於分管契約或默示分管契約之意思而占有A地，顯然欠缺行使地上權之主觀意思，況甲縱經地上權取得時效完成，亦僅得請求登記為地上權人而已，在未登記為地上權人前，不得本於地上權關係否認非無權占有。
+3. 判決結果 甲為B屋之事實上處分權人，其並無基於時效取得地上權而占有A地之主觀意思，無請求登記為地上權人之權利，且未能證明A地他共有人全體同意將B屋所在之A地特定部分交甲占有使用。是乙、丙、丁依上開規定，請求甲拆屋還地，並按乙、丙、丁各就A地所持應有部分比例，賠償乙、丙、丁所受損害，核屬權利之正當行使……。
+資料來源：最高法院109年度台上字第2037號民事判決（本案已確定）</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913481</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:10:57</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>共有人、地上權、共有物</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>913455</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>時效取得地上權之主觀意思要件探討,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025/02/25</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>• A. 地占有人甲主張：甲父乙自民國43年起，即在A地上建築房舍，甲自幼亦在該房地居住，從未遷居，乙於四十餘年間在A地上建造房屋時，即已知房屋主體結構之一部分坐落在A地上，足見甲與其父乙在主觀上均以行使地上權之意思，客觀上並以在他人土地上建築房屋使用他人土地，繼續占有已逾四十年，自因時效完成，而得請求登記為地上權人。試問有否理由？亦即是否於他人土地上興建房屋即認主觀上有以行使地上權之意思？
+首先，根據土地登記行政實務，土地登記規則第118條規定：「土地總登記後，因主張時效完成申請地上權登記時，應提出以行使地上權意思而占有之證明文件及占有土地四鄰證明或其他足資證明開始占有至申請登記時繼續占有事實之文件。」顯示行政實務來看，如無法提出主觀上曾以行使地上權意思而占有之證明文件是無法直接辦理時效取得地上權之登記的。
+其次，從司法實務而言，則有不同見解。 以下列案例而言，特別的是，最高法院認定應由占有人舉證其行使地上權之意思，並發回更審。但高等法院台南分院仍認為其於該土地上建造建築物與單純占有有別，難謂占有人於占有之始無行使地上權之意思。
+• T. ABLE_PLACEHOLDER_1</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913455</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>地上權、時效取得、占有人</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>913430</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>受託人得否將信託財產設定抵押權,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025/02/18</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>阿耀將其不動產信託給阿昌，請其依專業協助投資，並指定受益人為阿耀自己，請問阿昌得否將該筆不動產設定抵押給銀行，並將該筆借款作為投資基金？又假如後續投資失敗，無法償還借款，銀行得否就該筆信託不動產進行查封拍賣？
+• 一、相關規定
+• (一) 稱信託者，謂委託人將財產權移轉或為其他處分，使受託人依信託本旨，為受益人之利益或為特定之目的，管理或處分信託財產之關係。
+• (二) 受託人應依信託本旨，以善良管理人之注意，處理信託事務。
+• (三) 所謂「信託本旨」，指委託人意欲實現之信託目的及信託制度本來之意旨而言。是以，信託係以當事人間之信託關係為基礎，受託人既係基於信賴關係管理他人之財產，自須依信託行為所定意旨，積極實現信託之目的。又所謂「依信託本旨處分信託財產等」至少應本下列二個條件予以判斷，其一是信託契約之所定，其二是信託契約若未有明定，或所定不明確或不完全時，自應依信託目的，亦即委託人成立信託的本來意圖。（參法務部法律決字第0999042336號）
+• (四) 對信託財產不得強制執行，但基於「因處理信託事務所生之權利」者，不在此限。因此，受託人在信託契約授權範圍內，所為符合信託本旨，為達成信託目的而對外之適法借款，貸與人因其借款所取得之借款債權，屬因處理信託事務所生之權利（法務部法律決字第1000022066號函參照）。
+• (五) 受託人違反信託本旨處分信託財產時，受益人得聲請法院撤銷其處分。
+• 二、解題
+• (一) 首先，應視該抵押借款行為是否符合信託本旨，以及信託契約是否有所授權。就本題而言，阿耀之信託目的為投資，若有明確授權阿昌得進行抵押借款，則該行為有效；至於未明確授權的話，則就其信託本來意圖是協助投資來看，應可認尚符合信託本旨。至於後續無法償還時，銀行自得基於「因處理信託事務所生之權利」進行強制執行，予以查封拍賣。
+• (二) 相對而言，如阿昌將信託財產設定抵押，係屬權限外之行為，即違反信託本旨之行為，原則上地政機關應不准許其登記。惟倘若地政機關不察而登記完畢，則阿耀得以違反信託本旨處分之理由，聲請法院撤銷。然而，在阿耀聲請法院撤銷前，對於因信託事務所生之抵押權，銀行仍得進行查封。
+資料來源：曾榮耀編著，2023，信託法概要，高點出版。</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913430</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:03</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>信託、委託人、抵押、投資</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>913419</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>基地優先購買權之要件探討－合法建物,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025/02/11</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>假設某區已實施建築管理，其中一筆基地之所有權人甲，將其所有之A地租給乙興建建物，惟乙卻未依法申請建照，今甲出售基地所有權人時，試問該違章建築之所有權人乙得否按土地法第104條主張優先購買？
+根據土地法第104條規定，「基地出賣時，地上權人、典權人或承租人有依同樣條件優先購買之權。房屋出賣時，基地所有權人有依同樣條件優先購買之權。其順序以登記之先後定之(第一項)。」「前項優先購買權人，於接到出賣通知後10日內不表示者，其優先權視為放棄。出賣人未通知優先購買權人而與第三人訂立買賣契約者，其契約不得對抗優先購買權人(第二項)」。
+爭議：該基地上之建物是否需以合法為必要？
+• (一) 肯定說 需以合法為必要。 本條優先購買權具物權效力，其解釋適用上除維護權利人之利益外，並應兼顧交易安全與公共利益。由於違章建築有礙於公共安全，隨時有被拆除可能，與土地法第104條之立法意旨有間。 又如未辦竣保存登記，則登記審查時甚難注意，有辦竣登記則可防範糾紛。但亦有學者認為興建房屋屬於法律事實，依民法第759條不以登記為生效要件，故保存登記似非必要。
+• (二) 否定說 不需以合法為必要。 違章建築並非不得為交易、讓與之標的，且具一定之經濟價值。然而，該受讓人權利僅為事實上處分權是否符合土地法第104條房地之「所有權」合而為一之立法意旨，尚有爭議。
+學說通說原則以合法建築為必要（肯定說）。</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913419</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:07</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>基地、優先購買權、所有權人</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>913375</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>都市計畫訴訟(2)-臺北高等行政法院111年度都訴字第2號判決,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025/02/04</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>各位同學新年好，本週專欄延續前次主題「都市計畫訴訟」提供相關案例彙整供參。
+• 一、主要法源
+行政訴訟法第五章都市計畫審查程序 第237-18條：「人民、地方自治團體或其他公法人認為行政機關依都市計畫法發布之都市計畫違法，而直接損害、因適用而損害或在可預見之時間內將損害其權利或法律上利益者，得依本章規定，以核定都市計畫之行政機關為被告，逕向管轄之高等行政法院提起訴訟，請求宣告該都市計畫無效。」
+• 二、案例簡要概述
+• (一) 甲之A地位處市政府計畫道路範圍，系爭計畫道路於該處工業區之都市計畫邊陲地帶規劃囊底路提供迴車之功能。考量現況道路調整計畫道路線型，依原計畫道路範圍向東拓寬，將原計畫中0.1875公頃之工業區變更為道路用地，使變更後之計畫道路由15公尺漸變成36.5公尺，得以順接高速公路涵洞口。原告不服認其所有A地，經系爭都市計畫納入系爭計畫道路範圍內，損害其財產權，遂提起本件行政訴訟。
+• (二) 審理結果判決原告勝訴，都市計畫核定機關有利益衡量的瑕疵，故宣告該通盤檢討都市計畫案應為違法：
+1. 明知迴轉道之留設涉及系爭計畫道路寬度之規劃，卻未就與此道路規劃相關之重要事項，例如：進出工業區有迴轉需求之車流量、車輛類型及所需最小迴轉半徑等進行適當之調查或評估，於系爭都市計畫變更理由內無隻字片語提及有劃設迴轉道之需求，未善盡計畫變更之說理義務，即遽將與系爭計畫道路相鄰原計畫中0.1875公頃之工業區變更為道路用地（含原告所有756地號土地），甚至依市政府委外設計規劃之道路改善平面圖所示，劃設迴轉道中央分隔島之寬度長達12公尺，已相當於計畫地區範圍內次要道路之寬度，顯有衡量不足之情，而有明顯利益衡量程序瑕疵。
+2. 系爭都市計畫依原計畫道路範圍向東拓寬，使變更後之計畫道路由15公尺漸變成36.5公尺，且此道路寬度已遠超越系爭都市計畫範圍內所有主要道路及次要道路之路寬，是否有其必要性，顯非無疑。
+3. 計畫變更後依交通局之建議，實作道路寬度倘僅仍維持15公尺寬順接高速公路涵洞口，未實質增加供車輛通行之道路寬度及面積，至其餘道路寬度是否均為提供車輛迴轉功能所必要，或僅作植栽景觀綠化方式辦理而與迴車功能無關，並未見系爭都市計畫於變更理由中清楚敘明，顯難認此計畫之變更係為達成前述系爭計畫道路順接承天路等目的所不得不採之必要手段，且非侵害最小之方式，不符憲法比例原則之要求。
+參考文獻：
+1. 司法院，2023，臺北高等行政法院111年度都訴字第2號原告鴻運瀝青化學股份有限公司與被告內政部間都市計畫事件新聞稿。
+2. 李建良，2023，行政法裁判精選-都市計畫審查與計畫裁量瑕疵（之一），月旦實務選評，第3卷，第10期：27-67。</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913375</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:10</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>都市計畫、行政訴訟、道路</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>913325</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>都市計畫訴訟(1)-臺北高等行政法院111年度都訴字第1號判決,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025/01/21</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>• 一、主要法源
+行政訴訟法第五章都市計畫審查程序 第237-18條：「人民、地方自治團體或其他公法人認為行政機關依都市計畫法發布之都市計畫違法，而直接損害、因適用而損害或在可預見之時間內將損害其權利或法律上利益者，得依本章規定，以核定都市計畫之行政機關為被告，逕向管轄之高等行政法院提起訴訟，請求宣告該都市計畫無效。」
+• 二、案例簡要概述
+• (一) 市政府為配合捷運計畫，辦理都市計畫變更。所有權人甲原出租供加油站使用的A、B土地原本全部693平方公尺要配合設置緊急出口、通風口、轉乘設施等相關設施及辦理土地開發。後因土地徵收問題，縮小面積至260平方公尺，並將其由「住宅區」變更為「捷運系統用地」。甲不服爰提起行政訴訟。
+• (二) 審理結果判決原告勝訴，宣告主要計畫案及細部計畫案均無效。理由為系爭都市計畫有利益衡量瑕疵：
+1. 計畫有形成的自由（又稱計畫裁量），但計畫形成自由並非毫無限制，仍須受司法審查，包括計畫的形成有無利益衡量瑕疵，例如行政機關在調查、彙整的階段，沒有將與計畫有關的利益納入衡量之衡量不足。
+2. 所需土地面積，已由原先693平方公尺縮減至260平方公尺，徵收的必要範圍變小，選地的彈性相對增加，基於此一情事變更，系爭工程使用系爭土地的必要性，應將周邊其他土地的利用可能性一併列入，重新考量。惟該市政府並沒有對相關方案是否可行及利弊得失等，為有關的調查與評估，有衡量不足的瑕疵。
+3. 其他替代地點涉及其他土地的利用情況，市政府應為必要的調查，方能正確評估其他土地與系爭土地的使用程度、涉及的利益與規模，而後為適當方案的選擇。市政府僅以土地筆數、面積及地主人數等簡略因素，直接在原主要計畫的基礎上，維持在A、B土地上施作捷運設施的方案，也有衡量不足的瑕疵。
+• 三、考試重點參考
+• (一) 都市計畫的法律性質 本案主要計畫及細部計畫均為依都市計畫法第27條第1項第4款規定辦理的個案變更，依當時法制狀態，是定性為行政處分，依行政程序法第110條第3項規定，於經撤銷、廢止或因其他事由而失效前，其效力繼續存在。又，因是於行政訴訟法都市計畫審查程序專章109年7月1日施行後所發布，已透過立法的方式定性為法規性質，其救濟即應循都市計畫審查程序進行，而不再適用訴願法及行政訴訟法有關違法行政處分的救濟。 因此，行政法院審查的對象是具一般性、抽象性之都市計畫（法規），而非規制具體事件之行政處分。
+• (二) 違法審查標準 都市計畫審查程序之違法審查標準，包含有下列幾種類型：
+1. 違反作成都市計畫之程序規定。
+2. 都市計畫違反較高位階之法規範（含不成文法）。
+3. 違反都市計畫之利益衡量原則。
+• (三) 利益衡量瑕疵
+1. 所謂利益衡量瑕疵，係指行政機關於擬定或核定都市計畫時，沒有權衡可能受到計畫影響的各種不同公益與私益，並使各種利益在計畫中處於均衡的協調狀態（即似經濟學上最適境界的狀態）。
+2. 利益衡量瑕疵有四大類型，包含①衡量怠惰、②衡量不足、③衡量錯估、④衡量不符比例。都市計畫核定機關若有上述四種情形之一時，其計畫形成自由即應受到限制，而應受司法審查。
+3. 都市計畫本質上係屬行政計畫中，具有強制拘束力之行政行為，惟我國都市計畫法對於各種土地分區管制及公共設施之設置或衡量規定，十分抽象簡陋，甚至於完全缺乏。國內學者對於都市計畫中利益衡量瑕疵，認其明顯違法之指責，包含有： (1)都市計畫審議紀錄過分簡陋而未能載明應考量之重要事項（如：合理性與必要性說明）； (2)定期通盤檢討未於計畫書中說明； (3)逾數十年尚未取得及開闢之公共設施保留地，其仍規劃繼續保留之理由； (4)未說明公園、綠地、體育場所、廣場及兒童遊樂場所計畫面積不足都市計畫面積10%以上之理由（都市計畫法第45 條）； (5)鐵路、公路穿越市中心之具體理由（都市計畫法第44 條後段）； (6)屠宰場、殯儀館、公墓等嫌惡性設施，為何仍未能於都市邊緣適當地點設置之理由（都市計畫法第47 條）
+參考文獻：
+1. 林明鏘，2024，都市計畫審查訴訟之基本問題－兼評臺北高等行政法院111 年度都訴字第1 號判決，新學林法學第2期：1-31。
+2. 李建良，2023，行政法裁判精選-都市計畫審查與計畫裁量瑕疵（之一），月旦實務選評，第3卷，第10期：27-67。
+3. 司法院，2023，臺北高等行政法院111年度都訴字第1號原告英屬維京群島商勝方投資有限公司台灣分公司與被告內政部、臺北市政府間都市計畫事件新聞稿</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913325</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:13</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>都市計畫、計畫裁量、利益衡量</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>913285</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>承攬人抵押權登記之性質,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025/01/14</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>• 一、法源依據
+• (一) 民法第513條
+承攬之工作為建築物或其他土地上之工作物，或為此等工作物之重大修繕者，承攬人得就承攬關係報酬額，對於其工作所附之定作人之不動產，請求定作人為抵押權之登記；或對於將來完成之定作人之不動產，請求預為抵押權之登記。
+前項請求，承攬人於開始工作前亦得為之。
+前二項之抵押權登記，如承攬契約已經公證者，承攬人得單獨申請之。
+第一項及第二項就修繕報酬所登記之抵押權，於工作物因修繕所增加之價值限度內，優先於成立在先之抵押權。
+• (二) 土地登記規則第117條
+承攬人依民法第五百十三條規定申請為抵押權登記或預為抵押權登記，除應提出第三十四條及第四十條規定之文件外，並應提出建築執照或其他建築許可文件，會同定作人申請之。但承攬契約經公證者，承攬人得單獨申請登記，登記機關於登記完畢後，應將登記結果通知定作人。
+承攬人就尚未完成之建物，申請預為抵押權登記時，登記機關應即暫編建號，編造建物登記簿，於標示部其他登記事項欄辦理登記。
+• 二、登記類型
+• (一) 抵押權登記：針對定作人辦竣所有權第一次登記之建物。
+• (二) 預為抵押權登記：針對將來完成所屬定作人之建物。
+• 三、性質
+• (一) 抵押權登記：屬民法第860條普通抵押權範疇，惟應注意其登記內容應受民法第513條限制，即擔保權利價值及範圍應以承攬約定報酬額為準。
+• (二) 預為抵押權登記：係預先、暫時性登記，與已登記不動產之抵押權設定登記有別，主要是保全未來建物完成建物所有權第一次登記後之抵押權登記請求權，故須俟未來建物完成建物所有權第一次登記，並將原本標示部之抵押權內容轉至該他項權利部後，始生預為抵押權轉換為正式抵押權登記之效力，該抵押權始成立。
+參考來源： 陳立夫，2024.11，土地法裁判精選-承攬人抵押權之登記，月旦法學雜誌，第354期：151-162。</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913285</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:17</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>承攬人、抵押權</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>913253</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>市地重劃之辦理方式（舉辦主體）,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025/01/07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>• 一、公辦市地重劃
+• (一) 政府主動選定地區辦理辦理市地重劃時，主管機關應擬具市地重劃計畫書，送經上級主管機關核定公告滿30日後實施之。在前項公告期間內，重劃地區私有土地所有權人半數以上，而其所有土地面積超過重劃地區土地總面積半數者，表示反對時，主管機關應予調處，並參酌反對理由，修訂市地重劃計畫書，重行報請核定，並依其核定結果公告實施。(平§56)
+• (二) 地主申請優先辦理適當地區內之私有土地所有權人半數以上，而其所有土地面積超過區內私有土地總面積半數者之同意，得申請該管直轄市或縣（市）政府核准後優先實施市地重劃。(平§57)
+• 二、獎勵地主自辦市地重劃
+為促進土地利用，擴大辦理市地重劃，得獎勵土地所有權人自行組織重劃會辦理之。重劃會辦理市地重劃時，應由重劃區內私有土地所有權人半數以上，而其所有土地面積超過重劃區私有土地總面積半數以上者之同意，並經主管機關核准後實施之。(平§58)</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913253</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:20</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>市地重劃、土地所有權人</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>913190</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>114年贈與稅計算範例,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">某甲為經常居住於中華民國境內之中華民國國民，於民國114年4月贈與其兒一筆公告土地現值加房屋評定標準價格共計7,350萬元之不動產，受贈人所納契稅及土地增值稅合計500萬元，試問其應納贈與稅為多少？
+解答：
+• 一、公告114年發生繼承或贈與案件適用遺產稅、贈與稅之免稅額、課稅級距金額、不計入遺產總額及各項扣除額之金額
+[圖片1]
+資料來源：財政部，2024.11.28
+• 二、計算
+• (一) 贈與總額：贈與稅按贈與人每年贈與總額，減除規定之扣除額及免稅額後之課稅贈與淨額。其中，贈與財產價值之計算，以贈與人贈與時之時價為準；被繼承人如係受死亡之宣告者，以法院宣告死亡判決內所確定死亡日之時價為準。所稱時價，土地以公告土地現值或評定標準價格為準；房屋以評定標準價格為準；其他財產時價之估定，本法未規定者，由財政部定之。
+因此，本題贈與總額為7,350(萬元)
+• (二) 扣除額：契稅及土地增值稅扣除額500(萬元)
+• (三) 免稅額：244(萬元)
+• (四) 課稅贈與淨額＝贈與總額－扣除額－免稅額 ＝（7,350－500－244）＝6,606(萬元)
+• (五) 適用稅率：贈與稅按贈與人每年贈與總額，減除規定之扣除額及免稅額後之課稅贈與淨額，依下列稅率課徵之：
+1. 2,500萬元以下者，課徵10%。
+2. 超過2,500萬元至5,000萬元者，課徵250萬元，加超過2,500萬元部分之15%。
+3. 超過5,000萬元者，課徵625萬元，加超過5,000萬元部分之20%。
+惟114年課稅級距須依最新物價調整後金額計算，即：
+1. 贈與淨額2,811萬元以下者，課徵10%。
+2. 超過2,811萬元至5,621萬元者，課徵281萬1,000元，加超過5,621萬元部分之15%。
+3. 超過5,621萬元者，課徵702萬6,000元，加超過5,621萬元部分之20%。
+• (六) 贈與稅應納稅額
+贈與稅應納稅額＝2,811*10%+2,810×15%+(6,606-5,621)×20% ＝899.6(萬元)
+## 文章圖片
+![圖片1](./images/913190_710e5835.png)
+</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913190</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:24</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>贈與稅、免稅額、土地現值</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>913135</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>114年遺產稅計算範例,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2024/12/24</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">某甲為經常居住於中華民國境內之中華民國國民，於民國114年4月死亡，享年63歲，其遺有雙親、受其撫養哥哥、重度殘障之配偶，以及15歲、18歲與23歲之子女。經清查後，其留有遺產包含如下，請問遺產稅應納稅額為多少？
+• (一) 素地：面積3,000平方公尺，公告土地現值每平方公尺2萬元。 (二)成屋：土地面積1,500平方公尺，公告土地現值每平方公尺3萬元，房屋評定標準價格1千萬。 (三)地上權：年租額500萬元，賸餘期間40年。
+解答：
+• 一、公告114年發生繼承或贈與案件適用遺產稅、贈與稅之免稅額、課稅級距金額、不計入遺產總額及各項扣除額之金額
+[圖片1]
+資料來源：財政部，2024.11.28
+• 二、計算
+• (一) 遺產總額：遺產稅按被繼承人死亡時，依本法規定計算之遺產總額，減除規定之各項扣除額及免稅額後之課稅遺產淨額。遺產總額應包括被繼承人死亡時依規定之全部財產，及依規定計算之價值。但規定不計入遺產總額之財產，不包括在內。其中，遺產價值之計算，以被繼承人死亡時之時價為準；被繼承人如係受死亡之宣告者，以法院宣告死亡判決內所確定死亡日之時價為準。
+1. 土地：所稱時價，土地以公告土地現值或評定標準價格為準。
+2. 房屋：以評定標準價格為準。
+3. 地上權之設定有期限及年租者，其賸餘期間超過三十年至五十年以下者，以一年地租額之五倍為其價額。本題賸餘期間為40年。
+因此，甲遺產總額＝(3,000×2)+(1,500×3+1,000)+(500×5)＝14,000(萬元)
+• (二) 扣除額
+1. 雙親扣除額：138×2=276(萬元)
+2. 重度殘障配偶扣除額：553+693=1,246(萬元)
+3. 15歲未成年子女扣除額：56+56×3=224(萬元)
+4. 18歲成年子女扣除額：56(萬元)
+5. 23歲成年子女扣除額：56(萬元)
+6. 受其撫養哥哥扣除額：56(萬元)
+7. 喪葬費扣除額：138(萬元)
+8. 合計：276+1,246+224+56+56+56+138=2,052(萬元)
+• (三) 免稅額：1,333(萬元)
+• (四) 課稅遺產淨額＝遺產總額－扣除額－免稅額＝（14,000－2,052－1,333）＝10,615(萬元)
+• (四) 適用稅率：遺產稅按被繼承人死亡時，依本法規定計算之遺產總額，減除規定之各項扣除額及免稅額後之課稅遺產淨額，依下列稅率課徵之：
+1. 五千萬元以下者，課徵百分之十。
+2. 超過五千萬元至一億元者，課徵五百萬元，加超過五千萬元部分之百分之十五。
+3. 超過一億元者，課徵一千二百五十萬元，加超過一億元部分之百分之二十。
+惟114年課稅級距須依最新物價調整後金額計算，即：
+1. 遺產淨額5,621萬元以下者，課徵10%。
+2. 超過5,621萬元至1億1,242萬元者，課徵562萬1,000元，加超過5,621萬元部分之15%。
+3. 超過1億1,242萬元者，課徵1,405萬2,500元，加超過1億1,242萬元部分之20%。
+• (五) 遺產稅應納稅額＝5,621×10%+[(10,615-5,621)×15%]＝1,311.2(萬元)
+## 文章圖片
+![圖片1](./images/913135_2bb433ce.png)
+</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913135</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:28</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>遺產稅、繼承人、免稅額、扣除額</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>913109</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>判決共有物分割之法定抵押權登記,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2024/12/17</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 一、意義
+根據民法第824條，共有物之分割，依共有人協議之方法行之。分割之方法不能協議決定，或於協議決定後因消滅時效完成經共有人拒絕履行者，法院得因任何共有人之請求，命以原物分配於各共有人。但各共有人均受原物之分配顯有困難者，得將原物分配於部分共有人。倘若以原物為分配時，如共有人中有未受分配，或不能按其應有部分受分配者，得以金錢補償之。此為「補償分割」之方式。
+惟同法第824條之1第4項則為免補償義務人不給錢，爰規定如為不動產分割者，應受補償之共有人，就其補償金額，對於補償義務人所分得之不動產，有抵押權。繼按土地登記規則第100條之1亦規定，依民法第824條第3項規定申請共有物分割登記時，共有人中有應受金錢補償者，申請人應就其補償金額，對於補償義務人所分得之土地，同時為應受補償之共有人申請抵押權登記。但申請人提出應受補償之共有人已受領或為其提存之證明文件者，不在此限。
+• 二、申請方式
+• (一) 根據土地登記規則第27條第16款，依民法第824條之1第4項規定抵押權之登記為「單獨申請」，其登記原因為「法定」。
+• (二) 此法定抵押權登記需與判決共有物分割登記連件申請。
+• (三) 應受補償人(即法定抵押權人)為未會同申請登記之共有人，其未繳之登記規費，得於其抵押權之其他登記事項欄註記「未會同申請，欠繳登記費○○○及書狀費，繳清後發狀」。
+• (四) 申請文件：
+1. 土地登記申請書
+2. 法院判決共有物分割法定抵押權登記清冊
+3. 法院判決共有物分割確定證明（如法院對共有物分割裁判確定之判決書）
+4. 申請人身分證明
+5. 土地增值稅繳（免）稅證明
+6. 契稅繳（免）稅證明
+7. 其他依法律規定應提出之證明文件
+• 三、登簿範例
+[圖片1]
+## 文章圖片
+![圖片1](./images/913109_6da79200.png)
+</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913109</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:31</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>共有物分割、抵押權、共有人</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>913726</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>民眾購買預售屋與成屋之投機模式比較,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025/04/17</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>民眾購買預售屋或成屋，皆具有財務槓桿及選擇權操作。茲說明如下：
+• (一) 財務槓桿：
+1. 預售屋：民眾購買預售屋，必須分期繳納定金、簽約金、開工款、工程期款及交屋款。定金、簽約金、開工款、工程期款及交屋款之合計等於自備款（如預售屋之購屋貸款70%，就是自備款30%）。準此，自備款於房屋興建期間，分期繳納。如房屋興建三年，則在這三年內分期繳納。
+2. 成屋：民眾購買成屋，有一部分的錢向銀行融資，稱為購屋貸款；其餘的錢由自己出資，稱為自備款。如購屋貸款70%，則自備款30%。準此，自備款於房屋簽訂契約至過戶完成，分期繳納。如房屋簽訂契約至過戶完成為二個月，則在這二個月分期繳納。
+3. 比較：預售屋之自備款分期繳納，這期間相當長，購屋者之財務壓力較輕。成屋之自備款分期繳納，這期間相當短，短到如同一次繳清，購屋者之財務壓力較重。
+• (二) 選擇權操作：
+1. 預售屋： (1)房價上漲：民眾購買預售屋，當未來房價上漲時，依據平均地權條例第47條之4禁止預售屋轉售之規定，因此須俟完工交屋時，始得轉售。 (2)房價下跌：民眾購買預售屋，當未來房價下跌時，可以隨時斷頭。依據預售屋買賣定型化契約應記載事項第24點第4款規定，賣方最多没收房地總價15%。亦即，購屋者最多損失房地總價之15%。
+2. 成屋： (1)房價上漲：民眾購買成屋，當未來房價上漲時，可以隨時還清銀行貸款，轉售他人。 (2)房價下跌：民眾購買成屋，當未來房價下跌時，可以隨時斷頭，任由銀行拍賣房屋。但銀行拍賣房屋，未能獲得完全清償時，得再向借款人追索（如追索借款人之其他財產、薪資等）。
+3. 比較： (1)建設公司與購屋者為預售屋選擇權模式之當事人，建設公司為選擇權買權（Call Option）之賣方，購屋者為選擇權買權之買方。 銀行與購屋者為成屋選擇權模式之當事人，銀行為選擇權買權之賣方，購屋者為選擇權買權之買方。 (2)房價上漲時，預售屋須俟完工交屋，始得轉售；惟成屋可以隨時轉售。房價下跌時，預售屋可以隨時斷頭，最多損失房地總價15%；成屋亦可以隨時斷頭，惟損失無上限。
+總之，預售制度較成屋制度更有利於購屋者投機。</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913726</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:35</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>預售屋、成屋、購屋貸款、選擇權</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>913674</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>民眾購買預售屋之投機方法,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025/04/10</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>民眾購買預售屋從事投機之方法有二：
+• (一) 財務槓桿：民眾購買預售屋在交屋前分期繳納定金、簽約款、開工款、工程期款及交屋款。這些款項之合計等於自備款（如預售屋之購屋貸款70%，則自備款30%）。準此，在交屋時，如果房價上漲，將擴大購屋者之投資報酬率。如房價1,000萬元，自備款30%，交屋時房價上漲為1,200萬元，則民眾之投資報酬率為66.67%（即200 ÷ 300 = 66.67%），而非20%（即200 ÷ 1,000 = 20%）。
+• (二) 選擇權操作：預售屋之購屋者相當於站在選擇權買權（Call Option）之買方。亦即，購屋者付出定金及簽約金之後，取得要求建設公司於完工時移轉該預售屋之權利。析言之：
+1. 當未來房價上漲時，購屋者選擇履約，則建設公司須將完工後之預售屋移轉於購屋者。
+2. 當未來房價下跌時，購屋者可以在房屋興建中途隨時選擇不履約（俗稱斷頭），則購屋者已繳納之定金、簽約金及工程期款等會被建設公司没收。依據預售屋買賣定型化契約應記載事項第24點第4款規定，建設公司頂多没收房地總價之15%（如房地總價1,000萬元，自備款30%，則建設公司頂多沒收150萬元，不得没收300萬元）。亦即，購屋者頂多損失房地總價之15%。
+綜上，購屋者購買預售屋擁有上述二項投機利器。因此，不動產景氣時，會出現很多投機購屋者，而使不動產市場更加繁榮，最後造成房價飆漲。</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913674</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:39</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>預售屋、自備款、房價、定金、簽約金</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>913628</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>建設公司售屋何以偏愛採預售方式？,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025/03/27</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>建設公司售屋可以採「先售後建」（即出售預售屋），亦可以採「先建後售」（即出售新成屋）。坊間，建設公司售屋大都採「先售後建」方式（即預售方式）。其主要原因就是為了避險。茲說明如下：
+• (一) 建設公司於預售時，如賣得好，則動工興建，然後完工交屋。如賣得不好，因產品定位錯誤，修改產品規劃再出售；或乾脆不動工興建，將土地轉售。
+• (二) 建設公司於預售之當時房價已足以擁有合理利潤。因此，預售後如房價上漲，則歸屬購屋者投資不動產之利得；如房價下跌，則歸屬購屋者投資不動產之損失。因此，建設公司將預售後房價下跌之風險轉嫁給購屋者負擔。此種模式類似選擇權之買權，購屋者為買權之買方，建設公司為買權之賣方。選擇權原本就是一種避險工具。
+• (三) 建設公司採預售方式，可以拉長銷售期至二年或三年。相對地，如採先建後售方式，建物完工後，始開始銷售，則銷售期非常短促。萬一房屋未立即賣出，則無法以購屋貸款轉還建築貸款，建設公司將持續負擔沉重利息。另，房屋未立即賣出，建設公司將開始負擔房屋稅。
+• (四) 建設公司完銷後，恐因鋼筋、水泥、砂石或工資等大幅上漲而造成虧損。因此，建設公司於預售時，就與營造公司簽訂發包契約，將建築原料上漲因素轉嫁給營造公司。
+• (五) 建設公司採預售方式，購屋者必須先繳納定金、簽約款、開工款及按工程進度繳納期款。換言之，建設公司可用預售收入，充當建案資金來源之一。購屋者繳納之定金、簽約款、開工款及工程期款等為購屋款之一部分（亦即購屋者之自備款），因此建設公司使用預售收入的錢，不必付利息，亦不必償還。
+總之，建設公司售屋採預售方式有上述優點，因此建設公司售屋偏愛先售後建之預售方式。</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913628</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:42</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>建設公司、先售後建、預售屋</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>913597</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>選擇權簡介,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025/03/20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">選擇權（Option）分為買權選擇權（Call Option）與賣權選擇權（Put Option）二種商品。
+• (一) 買權選擇權：選擇權的買方在付出權利金之後，取得在未來特定時間內要求賣方依約賣出標的物之權利。換言之，選擇權是一種權利，選擇權之買方可以選擇履約或不履約。倘買方選擇履約，賣方應依約賣出標的物。倘買方選擇不履約，賣方可以沒收權利金。如圖所示。
+• (二) 賣權選擇權：選擇權的買方付出權利金之後，取得在未來特定時間內要求賣方依約買入標的物之權利。換言之，選擇權是一種權利，選擇權之買方可以選擇履約或不履約。倘買方選擇履約，賣方應依約買入標的物。倘買方選擇不履約，賣方可以沒收權利金。如圖所示。
+[圖片1]
+## 文章圖片
+![圖片1](./images/913597_3f65610a.png)
+</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913597</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:45</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>選擇權、買權選擇權、賣權選擇權、權利金、標的物</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>913557</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>新青安貸款是否為房價飆漲的元凶？,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025/03/13</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>政府為使年輕人買得起房子，推出青年安心成家購屋優惠貸款方案。其特色為，貸款對象限於借款人與其配偶及未成年子女均無自有住宅者，貸款成數最高8成，貸款額度最高1,000萬元，貸款年限最長40年，貸款利率採政府補貼之優惠利率。
+去年（民國113年）年初，部分人士將房價飆漲歸罪於新青安政策。但筆者不認同，其理由如下：
+• (一) 房價高漲主要是預售屋投機炒作所致，而非新青安政策所致。因為新青安之放款標的只限於成屋，而非預售屋。
+• (二) 新青安政策是針對名下無房子的購屋者，屬於住的基本需求，而非投機需求。況，新青安貸款條件，並非毫無限制。政府只補助購屋貸款利息，並非補助購屋資金。
+• (三) 中央銀行於民國113年9月19日第七波不動產選擇性信用管制（即貸款成數下修、取消寬限期等），重拳打擊到投機者的要害，房市立即冷卻。但第七波不動產選擇性信用管制之前及之後，新青安貸款維持不變。此一事實說明，新青安政策非房價飆漲之元凶。
+總之，新青安貸款是政府照顧青年人購屋的不動產政策，值得肯定。當然，新青安貸款亦存在一些漏洞（如不肖人士藉新青安貸款購屋，轉售圖利或出租牟利），政府應加強查核，並予以遏止。</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913557</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:49</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>新青安、購屋、房價、貸款</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>913517</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>友善農地,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• (一) 友善農地之意義：以自然農法從事耕作之農地。換言之，以生態農法從事耕作之農地，而非以慣行農法從事耕作之農地。
+• (二) 友善農地之特色：
+1. 不使用化學肥料及農藥：傳統慣行農業投入大量化學肥料，以增加產量；噴灑農藥，以消滅病蟲害。友善農業投入有機肥料（如枯葉堆肥），增加產量；以生態食物鏈，消滅病蟲害。
+2. 維護自然生態：友善農業將使農地生態變豐富，吸引鳥類、青蛙、蜻蜓、蚯蚓等野生動物回來棲息。藉此，可利用野生動物驅除病蟲害（如黑翅鳶可以補捉田間老鼠、青蛙可以吃掉飛蟲等）
+3. 面積愈大效果愈佳：認同友善農業的農民及加入的農地愈多，效果更加彰顯。起先為10甲、20甲，最後達到100甲、200甲，甚至更大，形成友善農業生產專區。
+• (三) 友善農地推行成功之條件：
+1. 實施保證收益：推行友善農業之初期，農地收益常不到慣性農業的四分之一，因此推行友善農業之初期，政府或農會必須實施保證收益，始克有成。
+2. 品牌行銷：友善農地所生產之農產品，經政府認證，建立自己品牌，品牌行銷，則其售價可以高於慣行農業，以價格優勢彌補產量減少的損失。
+3. 開發業外收益：友善農地除農產品收益外，尚可開發其他附帶收益（如休閒農場、體驗農業等）。另，友善農地亦為碳匯所在，經過認證後，可以出售碳權，增加收入。
+4. 積極介入輔導：政府及農會積極介入推行友善農業，輔導農民有關友善農業的Know How，免費技術指導，並整合成立友善農業生產專區。
+• (四) 慣行農業與友善農業之產出比較：農地生產具有聯合產出。一塊農地在生產「農產品」的同時，亦能生產「生態財」。如圖所示，AB代表一塊農地之生產可能曲線，CD代表慣行農業之無異曲線，EF代表友善農業之無異曲線。CD之邊際替換率小於EF。由AB與CD之切點R，決定慣行農業產出農產品X0及產出生態財Y0。由AB與EF之切點S，決定友善農業產出農產品X1及產出生態財Y1。由此可知，友善農業較慣行農業產出較少農產品，但產出較多生態財。
+[圖片1]
+## 文章圖片
+![圖片1](./images/913517_ccaaf9bc.png)
+</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913517</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:52</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>友善農地、慣行農業</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>913460</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>共有土地分管下之優先購買權,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025/02/27</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>甲、乙、丙三人共有一筆土地，應有部分相等，甲、乙、丙三人訂立分管契約，分管之特定位置分別為該筆土地之A、B、C部分。今，甲將其分管之特定位置A設定地上權予丁，丁並於其上興建房屋一棟；乙將其分管之特定位置B出租予戊，戊並於其上興建房屋一棟；丙自行使用其分管特定位置C。
+• (一) 甲出售其應有部分三分之一，何人有優先購買權？
+1. 丁依據土地法第104條規定，得主張優先購買權。
+2. 乙、丙二人依據土地法第34條之1第4項規定，得主張優先購買權。
+3. 土地法第104條之優先購買權具有物權效力，土地法第34條之1第4項之優先購買權僅具債權效力，因此丁之優先購買權先於乙、丙二人之優先購買權而行使。
+4. 戊無優先購買權。因為戊與甲之間無地上權、典權或租賃權關係存在。
+• (二) 戊出售其房屋時，何人有優先購買權？
+1. 乙依據土地法第104條規定，得主張優先購買權。
+2. 甲、丙二人無優先購買權。因為甲、丙二人與戊之間無地上權、典權或租賃權關係存在。
+• (三) 甲、乙二人運用土地法第34條之1第1項規定，將該筆土地全部出售時，何人有優先購買權？
+1. 丁基於土地法第104條規定之「同樣條件」，得就該筆土地全部主張優先購買權。
+2. 戊基於土地法第104條規定之「同樣條件」，得就該筆土地全部主張優先購買權。
+3. 丙依據土地法第34條之1第4項規定，得就該筆土地全部主張優先購買權。
+4. 土地法第104條之優先購買權具有物權效力，土地法第34條之1第4項之優先購買權僅具債權效力，因此，丁、戊二人之優先購買權先於丙而行使。
+5. 丁、戊二人之優先購買權皆具有物權效力，依登記（指地上權）或成立（指租賃權）先後定其行使之優先順序。</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913460</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:55</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>優先購買權、土地法第34條之1、租賃權、地上權、典權</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>913445</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>地上權房屋與使用權房屋,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025/02/20</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>現行對於大塊完整之公有土地，如無公共用途，政府儘量不標售所有權，而是招標設定地上權給民間使用，以增加國庫收入及促進公地利用。
+建設公司標得地上權後，興建房屋出售於一般民眾。因此，一般民眾買到的房屋，可區分為二種，一種為地上權房屋，另一種為使用權房屋。
+• (一) 地上權房屋：政府之招標文件未限制地上權分割移轉，則建設公司出售建物所有權及其地上權應有部分予購屋者。此即「地上權房屋」。因此，購屋者對該房屋擁有物權（即建物所有權及其地上權應有部分）。坊間，台北市「台北花園案」、台北市「基泰大安案」等是。
+• (二) 使用權房屋：政府之招標文件限制地上權分割移轉，致建設公司無法出售建物所有權及其地上權應有部分予購屋者（公寓大廈管理條例第4條第2項規定，專有部分不得與其所屬建築物共用部分之應有部分及其基地所有權或地上權之應有部分分離而為移轉或設定負擔），則建設公司只能出售建物及其土地之使用權予購屋者。建物所有權及其地上權仍保留在建設公司手中。此即「使用權房屋」。因此，購屋者對該房屋只擁有債權（即建物使用權及土地使用權）。坊間，台北市「京站案」、台北市「華固新天地案」等是。
+綜上，地上權房屋才是正統，使用權房屋是地上權無法分割移轉下之變通產物。
+房屋稅條例第5條第1項第1款第1目所稱「以土地設定地上權之使用權房屋」，包括地上權房屋及使用權房屋二種。</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913445</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:11:58</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>地上權、使用權、分割移轉</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>913421</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>農業權,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025/02/13</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>因應國土計畫法，最近有「農業權」之報導。農業權，指農地之發展權移轉，亦即農地之容積移轉。詳言之，農地只能作農業使用，無法興建房屋，為平衡農地與建地之利益，農地之發展權（即容積）得移出至建地使用。藉著容積市場買賣移轉，而使農地獲得補償。
+• (一) 農地容積移轉之優點
+1. 保護優良農地，避免農地流失。
+2. 平衡農地與建地之利益，使農民獲得補償。
+3. 藉由市場機制，保護農地，減輕政府之財政負擔。
+• (二) 農地容積移轉之缺點
+1. 農地數量龐大，所釋出之容積，市場恐無法吸納。
+2. 建地之既有容積，再加上農地釋出之容積，將造成都市公共設施無法負荷。
+3. 農地所釋出之容積過多，供強需弱，容積價格偏低，農民無法獲得充分補償。
+基上，農地容積移轉之可行性仍待商榷。然，農地具有外部利益，除生產糧食外，尚可涵養水源、調節氣候、保護生態、減緩暖化等效益。為使外部利益內部化，政府應對農地予以補貼，以符公平原則。</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913421</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:02</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>農業權、農地、容積、容積移轉</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>913381</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>環境永續,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025/02/06</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>• (一) 環境永續之意義 環境永續，指能保持這一代優良之生活、生產、生存之環境，也能留給下一代優良之生活、生產、生存之環境。代代相傳，生生不息。
+• (二) 追求環境永續之方法
+1. 碳排減量 (1)淨零排放：指溫室氣體排放量與碳匯量達成平衡（氣§3⑩）。所稱排放量，指自排放源排出之各種溫室氣體量乘以各該物質溫暖化潛勢所得之合計量，以二氣化碳當量表示（氣§3⑦）。所稱碳匯，指將二氣化碳或其他溫室氣體自排放源或大氣中持續移除後，吸收或儲存之樹木、森林、土壤、海洋、地層、設施或場所（氣§3⑨）。 (2)碳中和：指人為溫室氣體排放與移除達到平衡狀態。企業應努力追求碳中和組織、碳中和產品及碳中和服務。
+2. 循環經濟 (1)土地循環利用：從土地資源之成長量與開採量維持平衡，永保土地資源永續利用。 (2)建材循環利用：建物拆除時，建材回歸再使用，達到零廢棄物之目標。建物應增加使用再生資源之建材，應減少使用非再生資源之建材。
+3. 生態平衡 (1)物種多元：物種（包括動物及植物）愈多元，生態愈健康。任何一種物種之滅絕，將導致生態失衡。因此，對於瀕臨滅絕之物種，應盡力保護。 (2)友善農耕：儘量利用有機肥料從事耕作，減少化學肥料及農藥的投施。另，森林地之多功能性大於農地，農地之多功能性大於建地。因此，保護森林地應優於保護農地；保護農地應優於保護建地。
+【附註】 氣：氣候變遷因應法。</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913381</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:05</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>環境永續、碳中和、循環利用、溫室氣體</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>913331</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>國土計畫法延後至民國120年4月30日上路,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025/01/23</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>國土計畫法第45條原本規定，直轄市、縣（市）國土計畫法公告實施後四年內，公告國土功能分區圖。公告國土功能分區圖之日起，區域計畫法不再適用。準此，國土計畫法原訂民國114年4月30日上路。然，因民眾擔心農地未來使用受限，迫使朝野立法委員感受地方壓力，於民國113年12月31日將上開四年修正為十年。換言之，國土計畫法延後至民國120年4月30日上路。
+基上，政府應儘速提出延後六年上路之配套措施（如修正區域計畫法及非都市土地使用管制規則等），以遏止下列現象發生：
+• (一) 農地任意變更，農地持續流失。 (二)農地配合太陽能光電發展，因而假光電之名，行戕害農地之實。 (三)農地違規堆積廢土及殘渣，農地千瘡百孔，破壞肥沃土壤。 (四)農地浮濫開發，農地開發亂象層出不窮。</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913331</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:08</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>國土計畫法、區域計畫法、農地</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>913286</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>借名契約,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025/01/16</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">借名登記源自於借名契約。因此，借名契約之效力關係借名登記之效力。換言之，若借名契約無效，借名登記失其依附，則借名登記失其效力。據此，辦理塗銷借名登記及其附隨登記（如地上權登記、抵押權登記等）。
+• (一) 借名契約之意義 借名契約乃當事人一方將自己之財產以他方名義登記，而仍由自己管理、使用、處分，他方允就該財產為出名登記之契約（最高法院98年度台上字第76號判決）。
+• (二) 借名契約之法律性質 借名契約類推適用民法委任之規定。所稱委任者，謂當事人之約定，一方委託他人處理事務，他方允為處理之契約（民§528）。
+• (三) 借名契約之法律效力
+1. 借名契約僅規範借名人與出名人之內部關係。出名人對外所為之處分，仍屬有權處分，無民法第118條無權處分之適用。換言之，出名人所為之處分有效。
+2. 借名契約之內容如不違反法律強制禁止規定或公序良俗者，則借名契約有效。 例如：Ａ公司因農業發展條例第33條規定而無法將耕地登記於其名下，乃與自然人Ｂ成立借名契約，並將該耕地登記於Ｂ名下。現行實務，此借名契約有效。
+3. 借名契約之內容如違反法律強制禁止規定或公序良俗者，則借名契約無效。 例如：非原住民甲欲購買乙所有之原住民保留地經營民宿，為規避山坡地保育利用條例第37條第2項規定（即原住民取得原住民保留地所有權，如有移轉，以原住民為限）及原住民保留地開發管理辦法第18條第1項規定（即原住民取得原住民保留地所有權後，除政府指定之特定用途外，其移轉之承受人以原住民為限），乃與原住民丙成立借名契約，並將乙之土地所有權移轉登記於丙名下，無異實現非原住民取得原住民保留地之效果，則借名契約無效（108年度台上大字第1636號裁定）。
+[圖片1]
+【附註】 民：民法
+## 文章圖片
+![圖片1](./images/913286_dd6b7d89.png)
+</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913286</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:11</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>借名契約、借名登記、所有權</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>913274</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>公路法之私有公路之土地增值稅問題,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025/01/09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>• (一) 公路法之私有公路，移轉於自然人，不得適用不課徵土地增值稅。其理由如下：
+1. 非都市土地供農路使用之道地目土地，雖依法編定為交通用地，仍屬農業用地之範圍（依土地稅法第10條第1項規定，農路屬於農業用地之範圍），如移轉於自然人，得適用土地稅法第39條之2第1項規定（即作農業使用之農業用地，移轉與自然人時，得申請不課徵土地增值稅）。
+2. 惟依公路法所定義之公路，包括國道、省道、縣道、鄉道及專用公路，非屬於農路，如移轉於自然人，不得適用土地稅法第39條之2第1項規定。
+上開乃司法院釋字第779號解釋文第三段之解釋意旨。
+• (二) 公路法之私有公路，尚未被徵收前之移轉，得適用免徵土地增值稅。其理由如下：
+1. 都市土地之公共設施保留地，得適用土地稅法第39條第2項規定（即依都市計畫法指定之公共設施保留地尚未被徵收前之移轉，免徵土地增值稅）。
+2. 非都市土地供公共設施使用，得適用土地稅法第39條第3項規定（即非都市土地經需用土地人開闢完成或依計畫核定供公共設施使用，並依法完成使用地編定，其尚未被徵收前之移轉，經需用土地人證明者，免徵土地增值稅）。準此，公路法之私有公路，尚未被徵收前之移轉，如符合下列三項條件，免徵土地增值稅： (1)經需用土地人開闢完成或依計畫核定供公共設施使用。 (2)依法完成使用地編定。 (3)經需用土地人證明。
+上開乃司法院釋字第779號解釋文第一段之解釋意旨。
+• (三) 結論：
+依法編定為交通用地之公路法之私有公路，尚未被徵收前而移轉於自然人，雖不得適用土地稅法第39條之2第1項規定（不課徵土地增值稅），但得適用土地稅法第39條第3項規定（免徵土地增值稅）。</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913274</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:15</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>公路法、私有公路、自然人、土地增值稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>913225</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>112年憲判字第20號判決之影響,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025/01/02</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112年憲判字第20號判決除否定土地法第57條登記為國有之效力外，亦補充司法院釋字第107號及第164號之解釋。
+112年憲判字第20號判決理由提及，本件所示土地所有權爭議中，國家不得主張適用民法消滅時效之規定。其理由如下：
+• (一) 國家就其與人民間之私權爭議，原則上固得主張相關規定所賦予之權利。然而，國家係為人民而存在，本質上既不可能擁有如人民般得自由發展之人格及維繫生存之需求，亦不可能如人民般享有得自由追求之私益，只能追求公益，以執行公共任務為職志。從而，國家自無受憲法第15條所保障財產權之基本權利。
+• (二) 國家基於公權力主體地位行使統治高權，致與人民發生財產權爭執時，國家本非憲法第15條財產權保障之主體，從而不生基本權衝突之情事。
+• (三) 一般而言，權利人長久未行使其權利者，消滅時效制度固具有早日確定私法上權利義務狀態、維持法律秩序之公益性。惟國家與人民間關於土地之爭議，若非來源於兩者之合意，而係國家於政權更替之際，居於公權力主體地位，行使統治權，制定相關法規範，並依該規範將原屬人民私有而僅未及時申辦總登記之土地，逕行登記為國有之情形，倘又容許國家嗣後再以時間經過為由，依民法消滅時效規定為時效完成之抗辯，不啻變相承認國家得透過土地總登記之程序，及消滅時效之抗辯，而無須踐行任何徵收或類似徵收之程序，即可剝奪人民之財產。
+（參見：112年憲判字第20號判決理由）
+司法院釋字第107號解釋文：「已登記不動產所有人之回復請求權，無民法第一百二十五條消滅時效規定之適用。」司法院釋字第164號解釋文：「已登記不動產所有人之除去妨害請求權，不在本院釋字第一０七號解釋範圍之內，但依其性質，亦無民法第一百二十五條消滅時效規定之適用。」上開二則解釋文，再補充加入112年憲判字第20號判決理由，其結果（如圖所示）如下：
+• (一) 不動產真正所有權人，尚未依我國法律登記為所有權人，如登記名義人為私人，不動產真正所有權人行使民法第767條之物上請求權，請求返還不動產或除去妨害，有消滅時效規定之適用。
+• (二) 不動產真正所有權人，尚未依我國法律登記為所有權人，如登記名義人為國家，不動產真正所有權人行使民法第767條之物上請求權，請求返還不動產或除去妨害，無消滅時效規定之適用。
+• (三) 不動產真正所有權人，已依我國法律登記為所有權人，不論登記名義人為私人或國家，不動產真正所有權人行使民法第767條之物上請求權，請求返還不動產或除去妨害，無消滅時效規定之適用。
+[圖片1]
+## 文章圖片
+![圖片1](./images/913225_47124142.png)
+</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913225</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:18</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>財產權、不動產、112年憲判字第20號、所有權人</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>913158</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>內部估價與外部估價,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2024/12/26</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>• (一) 內部估價之意義：金融機構辦理放款時，擔保品價格由金融機構內部人員查估，稱為內部估價。
+• (二) 外部估價之意義：金融機構辦理放款時，擔保品價格委由金融機構外部之專業人員（即不動產估價師）查估，稱為外部估價。
+• (三) 優缺點比較：
+1. 內部估價：
+• (1) 優點： ①不必向借款人收取估價服務費，提高爭取業務之機會。 ②可以掌控貸款金額，達到客戶要求。
+• (2) 缺點： ①銀行人員充當估價人員，知識及經驗不足，恐造成估價錯誤。 ②銀行經理為了業績，指示承辦員高估，日後產生不良債權。
+2. 外部估價之優缺點：
+• (1) 優點： ①不動產估價師具有估價執照，且由公正第三人估價，其估價結果較易獲得借款人信賴。 ②不動產估價師不受銀行經理指揮監督，可以發揮客觀、公正、獨立估價。
+• (2) 缺點： ①委託估價師查估，須收取估價服務費，造成借款人或銀行之負擔。 ②估值較無彈性，難以溝通協調。
+綜上，目前國內銀行採內部估價者較多（如土地銀行、華南銀行、第一銀行等）；採外部估價者較少（如星展銀行、匯豐銀行、上海商銀等）。然，筆者認為宜採外部估價，短期可以降低銀行之呆帳率，長期可以避免銀行之系統風險。</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913158</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:21</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>內部估價、外部估價、不動產估價師</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>913112</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>終止住宅租約之限制,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2024/12/19</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>關於終止住宅租約之限制，土地法第100條針對不定期租約，住宅法第38條針對社會住宅，租賃住宅市場發展及管理條例第10條及第11條針對定期租約提前終止，三者之適用時機不同。茲分述如下：
+• (一) 土地法之規定：出租人非因下列情形之一，不得收回房屋：
+1. 出租人收回自住或重新建築時。
+2. 承租人違反民法第443條第1項之規定轉租於他人時。
+3. 承租人積欠租金額，除擔保金抵償外，達二個月以上時。
+4. 承租人以房屋供違反法令之使用時。
+5. 承租人違反租賃契約時。
+6. 承租人損壞出租人之房屋或附著財物，而不為相當之賠償時。（土§100）
+• (二) 住宅法之規定：社會住宅之承租人有下列情形之一者，經營管理者得隨時終止租約收回住宅：
+1. 已不符承租社會住宅之資格。
+2. 將住宅部分或全部轉租或借予他人居住。
+3. 改建、增建、搭蓋違建、改變住宅原狀或變更為居住以外之使用。
+4. 其他違反租約中得終止租約收回住宅之規定。（住§38I）
+• (三) 租賃住宅市場發展及管理條例之規定：
+1.
+出租人提前終止租約之情形：租賃期間發生下列情形之一者，出租人得提前終止租賃契約，且承租人不得要求任何賠償： (1)承租人毀損租賃住宅或附屬設備，不為修繕或相當之賠償。 (2)承租人遲付租金或費用，達二個月之租額，經定相當期限催告仍拒繳。 (3)承租人未經出租人書面同意，將租賃住宅轉租於他人。 (4)出租人為重新建築而必要收回。 (5)其他依法律規定得提前終止租賃契約。
+出租人依前項規定提前終止租賃契約者，應依下列規定期限，檢附相關事證，以書面通知承租人： (1)依前項第一款至第三款及第五款規定終止者，於終止前三十日。 (2)依前項第四款規定終止者，於終止前三個月。（租§10）
+2.
+承租人提前終止租約之情形：租賃期間發生下列情形之一者，承租人得提前終止租賃契約，且出租人不得要求任何賠償： (1)因疾病、意外產生有長期療養之需要。 (2)租賃住宅未合於居住使用，並有修繕之必要，經承租人定相當期限催告，而不於期限內修繕。 (3)因不可歸責於承租人之事由，致租賃住宅之一部滅失，且其存餘部分難以繼續居住。 (4)因第三人就租賃住宅主張其權利，致承租人不能為約定之居住使用。
+承租人死亡，繼承人得主張終止租賃契約。
+承租人依上開提前終止租賃契約者，應於終止前三十日，檢附相關事證，以書面通知出租人。（租§11）
+【附註】 土：土地法 住：住宅法 租：租賃住宅市場發展及管理條例</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913112</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:25</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>住宅租約、租賃住宅、承租人、出租人</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>913054</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>真透天與假透天,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2024/12/12</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>透天房屋依產權型態分為真透天與假透天二種。
+• (一) 真透天：透天房屋持有人對建物產權為單獨所有，對基地產權亦為單獨所有。
+• (二) 假透天：亦稱持分透天；透天房屋持有人對建物產權為單獨所有，對基地產權則與該社區其他房屋持有人共有（分別共有）。
+• (三) 兩者比較：
+1. 真透天得僅就土地或僅就建物為讓與，亦得就土地與建物讓與不同一人。假透天不得僅就土地或僅就建物為讓與，亦不得就土地與建物讓與不同一人。
+2. 假透天持有人就建物連同其基地應有部分之所有權一併移轉與同一人者，基地之他共有人無優先購買權。真透天無此一情形。
+3. 真透天之更新重建得由房地持有人單獨為之。假透天之更新重建應經社區之全體房地持有人同意。
+4. 相同情況下，真透天之房價較假透天為高。</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913054</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:28</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>透天房屋、真透天、假透天、產權</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>913011</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>地價稅與房屋稅之信託歸戶對照,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2024/12/05</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>• (一) 地價稅之信託歸戶：信託土地應與委託人在同一直轄市或縣（市）轄區內所有之土地合併計算地價總額，依規定稅率課徵地價稅，分別就各該土地地價占地價總額之比例，計算其應納之地價稅。但信託利益之受益人為非委託人且符合下列各款規定者，前項土地應與受益人在同一直轄市或縣（市）轄區內所有之土地合併計算地價總額：
+1. 受益人已確定並享有全部信託利益者。
+2. 委託人未保留變更受益人之權利者。（土稅§3-1 II）
+• (二) 房屋稅之信託歸戶：依規定計算房屋戶數時，房屋為信託財產者，於信託關係存續中，應改歸戶委託人，與其持有房屋，分別合併計算戶數。但信託利益之受益人為非委託人，且符合下列各款規定者，應改歸戶受益人：
+1. 受益人已確定並享有全部信託利益。
+2. 委託人未保留變更受益人之權利。（房§5 III）
+• (三) 比較：
+1. 地價稅就土地價格歸戶，房屋稅就房屋戶數歸戶。
+2. 地價稅以直轄市、縣（市）為歸戶範圍，房屋稅以全國為歸戶範圍。
+3. 地價稅歸戶之目的在累計申報地價（稅基），以適用累進稅率。房屋稅歸戶之目的在累計戶數，以適用囤房稅率。
+【附註】
+1. 土稅：土地稅法
+2. 房：房屋稅條例</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913011</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:31</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>地價稅、房屋稅、信託歸戶、信託利益、受益人</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>912956</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>先行區段徵收,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2024/11/28</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>• (一) 先行區段徵收之意義：區段徵收之公共設施配置依據都市計畫（細部計畫）內容。因此，先實施都市計畫（細部計畫），始辦理區段徵收。然，先行區段徵收剛好相反，先辦理區段徵收，再擬定或變更都市計畫。同理，先行區段徵收亦得應用於非都市土地。
+• (二) 先行區段徵收之目的：
+1. 根據區段徵收之需要配置公共設施，再據以變更細部計畫，符合區段徵收之規劃意旨。
+2. 避免都市計畫變更時程冗長，而遷延推行區段徵收之進度。
+3. 辦理區段徵收與變更都市計畫同時進行，以縮短區段徵收之時程。
+• (三) 先行區段徵收之情形：
+1. 都市土地：下列三種情形之開發範圍經中央主管機關核定者，得先行區段徵收，並於區段徵收公告期滿後一年內發布實施都市計畫，不受都市計畫法第52條規定之限制（亦即，不受徵收私有土地不得妨礙都市計畫之限制）。 (1)新設都市地區之全部或一部，實施開發建設者。 (2)舊都市地區為公共安全、衛生、交通之需要或促進土地之合理使用實施更新者。 (3)都市土地之農業區、保護區變更為建築用地或工業區變更為住宅區、商業區者。（徵§4 II）
+2. 非都市土地：農村社區為加強公共設施、改善公共衛生之需要或配合農業發展之規劃實施更新，需用土地人得會同有關機關研擬開發範圍，並檢具經上級目的事業主管機關核准之興辦事業計畫書，報經中央主管機關核定後，先行區段徵收，於區段徵收公告期滿後，依土地使用計畫完成非都市土地分區或用地編定之變更。（徵§4 III）
+【附註】 徵：土地徵收條例</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912956</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:34</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>區段徵收、都市土地、都市計畫</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>912910</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>都市計畫之變更途徑,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2024/11/21</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>• (一) 都市計畫之變更途徑：
+1. 通盤檢討：都市計畫經發布實施後，不得隨時任意變更。但擬定計畫之機關每三年內或五年內至少應通盤檢討一次，依據發展情況，並參考人民建議作必要之變更。對於非必要之公共設施用地，應變更其使用。（都§26 I）
+2. 個案變更：都市計畫經發布實施後，遇有下列情事之一時，當地直轄市、縣（市）政府或鄉、鎮、縣轄市公所，應視實際情況迅行變更： (1)因戰爭、地震、水災、風災、火災或其他重大事變遭受損壞時。 (2)為避免重大災害之發生時。 (3)為適應國防或經濟發展之需要時。 (4)為配合中央、直轄市或縣（市）興建之重大設施時。（都§27 I）
+3. 自行擬定或變更細部計畫：土地權利關係人為促進其土地利用，得配合當地分區發展計畫，自行擬定或變更細部計畫，並應附具事業及財務計畫，申請當地直轄市、縣（市）政府或鄉、鎮、縣轄市公所依規定辦理。（都§24）
+4. 自行舉辦新市區建設：私人或團體申請當地直轄市、縣（市）政府核准後，得舉辦新市區之建設事業。但其申請建設範圍之土地面積至少應在十公頃以上，並應附具下列計畫書件： (1)土地面積及其權利證明文件。 (2)細部計畫及其圖說。 (3)公共設施計畫。 (4)建築物配置圖。 (5)工程進度及竣工期限。 (6)財務計畫。 (7)建設完成後土地及建築物之處理計畫。（都§61 I）
+• (二) 地主回饋義務：
+都市計畫變更，土地使用性質及土地使用強度隨之改變，地主獲得租利，因此地主有回饋義務。
+1. 依上開第1種、第2種及第3種途徑變更都市計畫，主管機關得要求土地權利關係人提供或捐贈都市計畫變更範圍內之公共設施用地、可建築土地、樓地板面積或一定金額予當地直轄市、縣（市）政府或鄉、鎮、縣轄市公所。（都§27-1 I）
+2. 依上開第4種途徑變更都市計畫，私人或團體舉辦之新市區建設範圍內之道路、兒童遊樂場、公園以及其他必要之公共設施等，應由舉辦事業人自行負擔經費。（都§61 II）
+【附註】 都：都市計畫法</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912910</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:37</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>都市計畫、土地權利、地主</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>913024</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>區分所有建物記明基地權利種類,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2024/12/10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 一、規定
+按土地登記規則規定第83條：「區分所有權人申請建物所有權第一次登記時，除依第79條規定，提出相關文件外，並應於申請書適當欄記明基地權利種類及範圍(第1項)。登記機關受理前項登記時，應於建物登記簿標示部適當欄記明基地權利種類及範圍(第2項)。」
+倘若部分區分所有權人單獨申請建物所有權登記時，仍應依規定提出相關文件並於申請書記明基地權利種類及其範圍，如申請人查註基地權利種類及其範圍有困難時，應請其逕洽貴府建築主管機關調卷或影印其提供興建房屋時所附之土地權利證明文件後據以辦理。(內政部91年2月6日台內中地字第0910001589號函)
+• 二、意義
+配合公寓大廈管理條例第4條：「專有部分不得與其所屬建築物共用部分之應有部分及其基地所有權或地上權之應有部分分離而為移轉或設定負擔。」避免於辦理所有權移轉時滋生疑義
+• 三、範例
+• (一) 登記申請書之記明
+[圖片1]
+資料來源：台北市政府
+• (二) 建物登記簿之註記
+[圖片2]
+## 文章圖片
+![圖片1](./images/913024_6d894ab9.png)
+![圖片2](./images/913024_1d3339b9.png)
+</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=913024</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:43</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>基地權利種類、所有權</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>912981</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>公私有土地最小面積單位限制與禁止再分割─林業用地,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2024/12/03</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">按土地法第31條規定，直轄市或縣（市）地政機關於其管轄區域之土地，得斟酌地方經濟情形，依其性質及使用之種類，為最小面積單位之規定，並禁止其再分割。其立法意旨在防止土地細分，以免影響土地經濟有效使用。
+此相關規定除上課所提到的農業發展條例對耕地之0.25公頃限制，以及建築法對畸零地限制外。目前另有南投縣政府、臺南市政府、花蓮縣政府、屏東縣政府、彰化縣政府、臺東縣政府、新北市政府、嘉義縣政府、高雄市政府等縣市政府對於該轄區內林業用地為最小面積單位（0.1公頃/1分地）之限制，並禁止其再分割（內政部地政司，2021），如下圖所示，以維護林業資源，防止用地不當使用。
+[圖片1]
+惟如政府機關因公共事業之需要，就上開已限制分割之土地，因部分依法變更為其他用地使用須辦理分割者，其目的係在增進公共利益，促進土地有效利用，與最小面積單位並限制再分割之情形不同，應不受上開規定之限制。（內政部87年12月24日台內地字第8713136號函）
+## 文章圖片
+![圖片1](./images/912981_71661d08.png)
+</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912981</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:46</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>林業用地</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>912933</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>私有土地面積最高額之限制,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2024/11/26</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>為避免私人壟斷土地，並同時促進土地利用，直轄市或縣(市)政府對於尚未建築之私有建築用地應予限制所有面積最高額。
+• (一) 原則
+1. 土地法規定(土§28)： (1)直轄市或縣（市）政府對於私有土地，得斟酌地方情形，按土地種類及性質，分別限制個人或團體所有土地面積之最高額。 (2)限制私有土地面積之最高額，應經中央地政機關之核定。
+2. 平均地權條例規定(平§71I)： 直轄市或縣（市）政府對於尚未建築之私有建築用地，應限制土地所有權人所有面積之最高額。
+• (二) 標準
+1. 土地法規定(土施§7)： (1)宅地以十畝(10市畝=66.67公畝=2016.67坪)為限； (2)農地以其純收益足供一家十口之生活為限； (3)興辦事業用地視其事業規模之大小定其限制。
+2. 平均地權條例規定(平§71II)： (1)以十公畝 (302.5坪)為限。 (2)但工業用地、學校用地及經政府核准之大規模建築用地，應視其實際需要分別訂定之。 計算尚未建築土地面積最高額時，對於因法令限制不能建築之土地，應予扣除。(平§71III)
+• (三) 處理
+1. 土地法規定(土§29)： (1)私有土地受土地面積最高額限制時，由該管直轄市或縣（市）政府規定辦法，限令於一定期間內，將額外土地分劃出賣。 (2)不依前項規定分劃出賣者，該管直轄市或縣（市）政府得依本法徵收之。 (3)前項徵收之補償地價，得斟酌情形搭給土地債券。 *依土地法第二十九條以土地債券照價收買私有土地，其土地債券之清付期限，最長不得逾五年。(土施§8)
+2. 平均地權條例規定(平§72)： (1)超額土地，直轄市或縣（市）政府應通知土地所有權人於二年內出售或建築使用。 (2)逾期未出售或未建築使用者，得予照價收買，整理後出售與需用土地人建築使用。 (3)但在建設發展較緩之地段，不在此限。 *所稱建設發展較緩之地段，指公共設施尚未完竣地區或依法不得核發建造執照之地區。其範圍由直轄市或縣(市)主管機關劃定，作為限制最高額土地之依據。(平施§96)</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912933</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:50</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>土地法、私有土地、照價收買</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>912898</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>遺贈與死因贈與之比較,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2024/11/19</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>本週專欄茲整理相關文獻，將遺贈與死因贈與進行比較如下：
+• T. ABLE_PLACEHOLDER_1
+參考資料：臺灣新北地方法院家事紀錄科，2020；曾品傑、陳瀅伃，2013，死因贈與侵害特留分時，繼承人得否行使扣減權？─最高法院一一一年度台上字第九一六號判決；林秀雄，2024，遺贈和死因贈與之異同─評最高法院106年度台上字第2731號判決與臺灣高等法院107年度重上更一字第6號民事判決；曾品傑，2024，死因贈與—最高法院112年度台上字第1871號；黃詩淳，2016，死因贈與在臺灣社會之實態與功能。</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912898</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:53</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>遺贈、死因贈與、遺囑、贈與說</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>912862</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>不動產經紀業違反公平交易法之情形,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2024/11/12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>• 一、違反第15條「聯合行為」
+不動產經紀業者涉及違法聯合行為之態樣例示如下：
+• (一) 共同決定服務報酬收費標準，或協議限制服務報酬之調整。 (二)共同劃分經營區域。 (三)共同劃分交易對象。 (四)共同阻礙或排除其他競爭者或潛在競爭者參與競爭，例如協議拒絕其他不動產經紀業者參與聯賣。（考過） (五)共同約束開發物件必須與委託人簽訂專任委託契約，致使不動產經紀業者及委託人選擇委託契約型態之自由受到限制。 (六)共同約束專任委託契約之期間，致使不動產經紀業者縱未積極努力撮合，委託人卻因受限於契約而無法另行委託其他不動產經紀業者。 (七)共同約束收取斡旋金之票期，致使斡旋金票期趨於一致。 (八)共同約束實施聯賣之不動產物件開發方擁有一定的專賣期間，致使已尋得交易相對人之其他不動產經紀業者受限於專賣權之規定而無法成交。
+• 二、違反第20條「其他型限制競爭」（第5款以不正當限制交易相對人之事業活動為條件，而與其交易之行為）
+採加盟經營方式之不動產經紀業者應容許其加盟店自由決定服務報酬，如以不正當限制加盟店服務報酬標準，作為成立或持續加盟經營關係之條件，而有限制競爭之虞者（考過）
+• 三、違反第21條「不實廣告」
+• (一) 不動產經紀業者對於涉及事業服務品質、企業形象、行銷策略等內容之廣告，有虛偽不實或引人錯誤者。例如廣告宣稱「仲介服務第一品牌」，惟無銷售數字或意見調查等客觀數據為基礎，或宣稱「連續十年○○雜誌調查，獲經紀業第一名」，惟與事實不符。（考過） (二)不動產經紀業者受不動產開發業者委託從事銷售行為，依個案具體情形，倘得認不動產經紀業者與不動產開發業者俱為廣告主時，其廣告內容，有虛偽不實或引人錯誤者。例如不動產經紀業者與不動產開發業者共同具名製作不實房屋銷售廣告，且收取建案底價或總銷售金額一定成數之銷售服務費用，與不動產開發業者共同獲有利益。
+• 四、違反第23條「不當贈品或贈獎」
+不動產經紀業者為爭取交易之機會，辦理提供贈品或贈獎活動，違反公平交易委員會所定事業提供贈品贈獎額度辦法者。
+註：事業提供贈品贈獎額度辦法
+第4條 事業銷售商品或服務附送贈品，其贈品價值上限如下： 一、商品或服務價值在新臺幣一百元以上者，為商品或服務價值之二分之一。 二、商品或服務價值在新臺幣一百元以下者，為新臺幣五十元。
+第5條 事業辦理贈獎，其全年贈獎總額之上限如下： 一、上一會計年度之銷售金額在新臺幣三十億元以上者，為新臺幣六億元。 二、上一會計年度之銷售金額超過新臺幣七億五千萬元，未滿新臺幣三十億元者，為銷售金額的五分之一。 三、上一會計年度之銷售金額在新臺幣七億五千萬元以下者，為新臺幣一億五千萬元。
+第6條 事業辦理贈獎，其最大獎項之金額，不得超過新臺幣五百萬元。
+• 五、違反第25條「其他足以影響交易秩序之欺罔行為」
+• (一) 未涉及廣告之不實促銷手段。 (二)隱匿重要交易資訊，如：
+1. 不動產經紀業者從事不動產買賣之仲介業務時，在向買方收取斡旋金前，未以書面告知買方下列資訊，構成欺罔行為，且足以影響交易秩序者： (1)斡旋金契約與內政部版「要約書」之區別及其替代關係。 (2)買方得選擇支付斡旋金或採用內政部版「要約書」。
+2. 預售屋之銷售，就未列入買賣契約共有部分之項目，要求購屋人找補價款。
+• 六、違反第25條「其他足以影響交易秩序之顯失公平行為」
+• (一) 不當招攬顧客：以脅迫或煩擾等不正當方式干擾交易相對人之交易決定，如以一對一緊迫釘人、長時間疲勞轟炸或趁消費者窘迫之際從事銷售。 (二)不當利用相對市場優勢地位。 (三)利用資訊不對稱之行為，如：
+1. 加盟業主於招募加盟過程中，未以書面提供交易相對人加盟重要資訊，或未給予合理契約審閱期間。
+2. 不動產開發業者或不動產經紀業者銷售預售屋時，未以書面提供購屋人重要交易資訊，或不當限制購屋人之契約審閱。其中，重要交易資訊如： (1)建造執照影本。 (2)核准之基地位置圖、地盤圖(坐落基地之地籍圖)、各層平面圖及停車空間平面圖。 (3)銷售時最近一次建管機關核准之各戶持分總表（應足以顯示全區各戶之主建物、附屬建物與共有部分之面積及共有部分之分攤比例）。 (4)預售屋買賣契約書（應含共有部分之項目、面積或比例分攤之計算方式）。 (5)配合建案貸款之金融機構名稱。 (6)土地位於重劃用地限制資訊與所須負擔之重劃費用。
+• (四) 妨礙消費者行使合法權益：如不動產開發業者與購屋人締結預售屋買賣契約後，未交付契約書或要求繳回。
+注意上述係例示若干常見之欺罔及顯失公平行為類型，惟違反公平交易法規定之情形不以此為限，仍須就特定行為處理原則（或規範說明）及個案具體事實加以認定。
+來源：參考「公平交易委員會對於不動產經紀業之規範說明」、「公平交易委員會對於公平交易法第二十五條案件之處理原則」等</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912862</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:56</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>公平交易法、共同約束、加盟、聯合行為</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>912736</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>製造、設計與生產之企業經營者商品、服務責任,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2024/11/05</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>• (一) 規定
+根據消費者保護法第7條規定如下：
+1. 從事設計、生產、製造商品或提供服務之企業經營者，於提供商品流通進入市場，或提供服務時，應確保該商品或服務，符合當時科技或專業水準可合理期待之安全性(第一項)。
+2. 商品或服務具有危害消費者生命、身體、健康、財產之可能者，應於明顯處為警告標示及緊急處理危險之方法(第二項)。
+3. 企業經營者違反前二項規定，致生損害於消費者或第三人時，應負連帶賠償責任。但企業經營者能證明其無過失者，法院得減輕其賠償責任(第三項)。
+• (二) 意義
+對於企業經營者係採「無過失責任」。
+• (三) 要件
+依此規定企業經營者商品或服務責任之成立，須具備要件：
+1. 企業經營者於其所提供的商品或服務流通進入市場時，未符合當時科技或專業水準可合理期待之安全性 (1)所謂商品缺乏安全性，即商品或服務本身具有缺陷。 (2)反面來說，倘若商品或服務若符合當時科技或專業水準可合理期待之安全性者，該企業經營者即無須負責。舉例而言，公寓大廈遇到地震倒塌，如建商能舉證其興建時所用之建材、工法、設計等已符合當時安全水準及相關建築法規，原則上不需負責賠償。 (3)應由企業經營者舉證。企業經營者主張其商品於流通進入市場，或其服務於提供時，符合當時科技或專業水準可合理期待之安全性者，就其主張之事實負舉證責任。此外，商品或服務不得僅因其後有較佳之商品或服務，而被視為不符合前條第一項之安全性(消保§7-1)。 (4)所定商品或服務符合當時科技或專業水準可合理期待之安全性，應就下列情事認定之(消保細則§5)：
+1. 商品或服務之標示說明。
+2. 商品或服務可期待之合理使用或接受。
+3. 商品或服務流通進入市場或提供之時期。
+2. 未於明顯處為警告標示及緊急處理危險之方法
+3. 消費者或第三人受有損害 (1)此一商品或服務責任之性質，依通說屬於一種侵權責任，故以損害發生為其成立要件。 (2) 應由主張損害賠償請求權之消費者或第三人負舉證責任。
+4. 商品或服務欠缺安全性與損害發生間具有因果關係 應由主張損害賠償請求權之消費者或第三人負舉證責任。</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912736</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:12:59</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>企業經營者、消費者</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>912735</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>規約、視為規約及其效力,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2024/10/29</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>• (一) 規約之意義
+公寓大廈區分所有權人為增進共同利益，確保良好生活環境，經區分所有權人會議決議之共同遵守事項。
+• (二) 視為規約之意義
+1. 規約草案：公寓大廈之起造人於申請建造執照時，應檢附專有部分、共用部分、約定專用部分、約定共用部分標示之詳細圖說及規約草約。前項規約草約經承受人簽署同意後，於區分所有權人會議訂定規約前，視為規約。
+2. 中央主管機關之規約範本：公寓大廈管理條例施行前已取得建造執照之公寓大廈，其區分所有權人應依規定，互推一人為召集人，並召開第一次區分所有權人會議，成立管理委員會或推選管理負責人，並向直轄市、縣(市)主管機關報備。前項公寓大廈於區分所有權人會議訂定規約前，以中央主管機關所定規約範本，視為規約。
+• (三) 規約成立的程序
+擬定規約（可參考中央制訂的規約範本），經區分所有權人決議通過。
+• (四) 非經載明規約不生效力情形
+規約除應載明專有部分及共用部分範圍外，下列各款事項，非經載明於規約者，不生效力：
+1. 約定專用部分、約定共用部分之範圍及使用主體。
+2. 各區分所有權人對建築物共用部分及其基地之使用收益權及住戶對共用部分使用之特別約定。
+3. 禁止住戶飼養動物之特別約定。
+4. 違反義務之處理方式。
+5. 財務運作之監督規定。
+6. 區分所有權人會議決議有出席及同意之區分所有權人人數及其區分所有權比例之特別約定。
+7. 糾紛之協調程序。
+• (五) 載明規約仍不生效力事項
+1. 公寓大廈共用部分不得獨立使用供做專有部分。其為下列各款者，並不得為約定專用部分： (1)公寓大廈本身所占之地面。 (2)連通數個專有部分之走廊或樓梯，及其通往室外之通路或門廳；社區內各巷道、防火巷弄。 (3)公寓大廈基礎、主要樑柱、承重牆壁、樓地板及屋頂之構造。 (4)約定專用有違法令使用限制之規定者。 (5)其他有固定使用方法，並屬區分所有權人生活利用上不可或缺之共用部分。
+2. 約定事項有違反法令之規定者。
+• (六) 得請求撤銷情形
+民法第799條之1規定，規約之內容依區分所有建築物之專有部分、共有部分及其基地之位置、面積、使用目的、利用狀況、區分所有人已否支付對價及其他情事，按其情形顯失公平者，不同意之區分所有人得於規約成立後三個月內，請求法院撤銷之。</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912735</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:03</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>規約、公寓大廈、所有權人</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>912664</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>定型化契約條款顯失公平與違反平等互惠原則,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2024/10/22</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>根據消費者保護法第12條規定，定型化契約中之條款違反誠信原則，對消費者顯失公平者，無效。定型化契約中之條款有下列情形之一者，推定其顯失公平：
+• (一) 違反平等互惠原則者。 企業經營者在定型化契約中所用之條款，應本平等互惠之原則(消保§11)。而定型化契約條款，有下列情事之一者，為違反平等互惠原則(消保施§14)：
+1. 當事人間之給付與對待給付顯不相當者。例如：企業經營者未有任何優惠卻要消費者自負貨物瑕疵責任。
+2. 消費者應負擔非其所能控制之危險者。例如：負擔天氣因素不出旅遊團之風險。
+3. 消費者違約時，應負擔顯不相當之賠償責任者。例如：違約賠1,000倍。
+4. 其他顯有不利於消費者之情形者。例如貨物售出一概不退還。
+• (二) 條款與其所排除不予適用之任意規定之立法意旨顯相矛盾者。例如：貨物售出一概不退還。
+• (三) 契約之主要權利或義務，因受條款之限制，致契約之目的難以達成者。例如：免除企業經營者違約責任。
+定型化契約條款是否違反誠信原則，對消費者顯失公平，應斟酌契約之性質、締約目的、全部條款內容、交易習慣及其他情事判斷之 (消保施§13)，亦即仍需個案作綜合判斷。</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912664</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:06</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>定型化契約、誠信原則、平等互惠、消費者</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>912603</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>多數決創設地上權人、典權人後他共有人仍有優先購買權之意涵,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>• (一) 土地法第34條之1與第104條規定
+1. 根據土地法第三十四條之一執行要點第12點第1項：「部分共有人依本法條第一項規定出賣共有土地或建物時，他共有人得以出賣之同一條件共同或單獨優先購買。」亦即多數共有人利用多數決出賣整筆共有不動產時，為保障少數人權益，仍給予其機會進行優先購買。
+2. 另外，按土地法第104條規定：「基地出賣時，地上權人、典權人或承租人有依同樣條件優先購買之權。房屋出賣時，基地所有權人有依同樣條件優先購買之權。其順序以登記之先後定之 (第一項)。前項優先購買權人，於接到出賣通知後十日內不表示者，其優先權視為放棄。出賣人未通知優先購買權人而與第三人訂立買賣契約者，其契約不得對抗優先購買權人 (第二項)。」
+• (二) 優先購買權競合之處理原則
+1. 依照學說看法：物權性質優先購買權優先於債權性質優先購買權。
+2. 依照執行要點第13點第6款，土地法第34條之1之優先購買權與土地法第104條之優先購買權競合時，應優先適用土地法第104條。
+• (三) 多數決創設地上權人、典權人後他共有人仍有優先購買權之意涵
+1. 執行要點第12點第4項：「部分共有人依本法條第一項規定設定地上權或典權後出賣土地，他共有人仍有第一項優先購買權之適用。」
+2. 修法理由：「本法條之立法意旨並非以損害少數共有人權益為目的，如先依本法條規定辦理土地之地上權或典權設定，部分共有人再依本法條第一項規定出售該共有土地時，考量該地上權人或典權人已取得之權利仍存在於該土地上，尚不因土地所有權人之不同而受影響，參照內政部八十七年九月九日台內地字第八七七八二六六號函意旨，仍應通知他共有人是否願意優先購買，爰增訂第四項規定。」
+3. 87年台內地字第8778266號函：「查土地法第三十四條之一執行要點第10點第1款規定：共有土地之共有人依土地法第34條之1出售共有土地時，應先就其應有部分通知他共有人是否願意優先購買，此係為平衡共有土地共有人間之權益所為之規定。本案共有土地之地上權係由部分共有人依土地法第34條之1所為之設定，現部分共有人擬依土地法第34條之1再出售共有土地予地上權人。鑒於前依土地法第34條之1為地上權設定時，少數他共有人並未有優先設定之權利，對他共有人權益之均衡，顯有立法上之缺失，且探究土地法第34條之1之立法意旨係為促進共有土地之合理利用，並非以損害少數共有人權益為目的，其為兼顧共有人間權益之均衡，乃設優先購買權之規定，又本案如由共有人優先購買取得全部所有權，該地上權人已取得之地上權仍存在於該土地上，尚不因土地所有權人之不同而受影響。復基於本案土地前後辦理地上權設定及出售均係依土地法第三十四條之一規定所為之設定及處分，自應依土地法第34條之1之立法意旨優先探究其共有人間權益之均衡，故本案共有土地雖已設定地上權，於部分共有人依上開規定再行出售其共有土地時，應先就其應有部分通知他共有人是否願意優先購買，如有爭執，再循司法途徑解決。」
+4. 綜上，本條主要意思應只有提到用多數決設定地上權、典權後，因為「有可能」是故意創造出土地法第104條的優先購買權人出來，然後用物權大於債權方式，讓共有人完全無主張機會，因為競合時原則上土地法第104條應優先適用，因而過去很多人利用此方式先多數決虛假創設地上權、典權人出來，然後就直接以他們欲優先購買而就不需詢問其他共有人，等同於透過物權優先於債權的原則，架空共有人的優先購買權。換言之，此規定是說共有人仍有權利主張，但「並沒有」說就是違反競合原則，直接明確提到土地法第34條之1會優先於土地法第104條，而回到上述立法說明來看，只是強調多數共有人除地上權人外，也必須詢問他共有人是否願意優先購買（不可只問土地法第104條的地上權、典權人），當雙方都願意優先購買而產生爭議時（例如共有人認定多數人與少數共有人有通謀虛偽問題），就去訴訟決定。因此，物權大於債權之原則應並未突破。
+5. 此外，應注意的是，如果地上權人、典權人當初是全體同意設定的，那多數決出賣共有土地時，倘若地上權人、典權人已主張優先購買，就不需依執行要點第12點第4項再通知少數共有人。其原因係該地上權、典權即無通謀問題。</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912603</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:09</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>土地法、共有人、優先購買權、地上權、典權</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>912569</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>房屋稅計算範例（囤房稅修法後）,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>兄妹甲、乙、丙三人在相同行政區相同地段各擁有一棟鋼筋混凝土造2樓透天不動產，完工時間與房屋稅起課日期皆為民國87年7月1日，每層樓皆為3公尺高，每人的房屋面積皆為300m2，房屋標準單價為2,700元/m2。甲的房屋純供開業地政士事務所使用；乙的房屋非自住但借予其小叔供住宅使用；丙的房屋原供自住，但108年1月1日改為營業用。假設每年折舊率1%，地段調整率110%，則甲、乙、丙三人今年度（107年7月1日至108年6月30日）各應繳納房屋稅額為何？（自用住宅稅率為1.2%，非自住宅稅率為1.5%，非住非營稅率為2%，營業用稅率為3%）（108年地政士考題）
+甲乙丙房屋稅計算如下：
+1. 甲房屋供開業地政士事務所使用，適用營業用稅率3%： [2,700 × (1－1%×20) × 110% × 300] × 3% = 21,384元
+2. 乙房屋借予其小叔供住宅使用，適用非自住之其他住家用稅率2%至4.8%，以下假設適用2%計算： [2,700 × (1－1%×20) × 110% × 300] × 2% = 14,256元
+3. 丙房屋原供自住，後改為營業用致稅額增加，依規定自變更之次期（109年）開始適用，故108年度房屋稅仍適用自住用稅率1.2%： [2,700 × (1－1%×20) × 110% × 300] × 1.2% = 8,553元
+因此，甲應繳納房屋稅21,384元；乙應繳納房屋稅14,256元；丙應繳納房屋稅8,553元。</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912569</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:12</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>房屋稅、囤房稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>912499</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>違規土地使用之處罰對象,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2024/10/01</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>甲出租都市住宅區不動產予乙住宅使用，惟乙卻違反管制規定，對外作營業使用，經鄰居檢舉後，試問該縣市政府應以甲或乙作為裁罰對象，抑或兩人皆應處罰？
+1. 有關處罰對象部分，都市計畫法第79條明定得處土地或建築物所有權人、使用人或管理人。
+2. 參照最高行政法院95年1月份庭長聯席會議決議意旨：「應就其查獲建築物違規使用之實際情況，於符合建築法之立法目的為必要裁量，並非容許建築主管機關恣意選擇處罰之對象，擇一處罰或兩者皆予處罰。又行政罰係處罰行為人為原則，處罰行為人以外之人則屬例外。建築主管機關如對行為人處罰，已足達成行政目的時，即不得對建築物所有權人處罰。」因此，原則應以行為人乙為裁處對象。
+3. 至於所有權人甲，處分機關應依論理及經驗法則判斷土地或建築物所有權人是否有故意或過失等責任條件。</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912499</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:16</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>建築物違規、所有權人、行為人、建築法</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>912468</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>未辦繼承土地標售之優先購買權資格,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2024/09/24</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>案例：
+甲乙丙三人分別共有一筆土地，應有部分各1/3，甲先死亡，由ABC繼承並登記為公同共有，應繼分均等。後乙死亡且未辦繼承登記被列冊管理15年，今公開標售，且由丁得標，公同共有人A於30日內主張按決標金額優先購買，試問：
+1. 該公同共有人A得否主張優先購買權？
+2. 該公同共有人A是否依民法第828條第3項規定應經全體公同共有人同意？
+解析：
+• (一) 按土地法第73條之1第3項規定，因同條第1項及第2項原因而公開標售之土地或建築改良物，繼承人、合法使用人或其他共有人就其使用範圍，依序有優先購買權。查本條項規範目的，係為使土地之使用與所有權能合一，以利經濟效益。因此，本條項所指之其他共有人，自不以分別共有人為限，包括公同共有人，以公同共有人就該土地或建築改良物之所有權與使用權，逐漸趨於合一之故。
+• (二) 本條規定之優先購買權人，係立法賦予其有取得優先購買權之資格，得行使之權利係優先購買權，該權利行使既係一種資格，非行使全體公同共有人之公同共有權利，自無需由公同共有人共同為之，與公同共有人權利行使無涉。
+參考來源：最高法院109年度台上字第1546號民事判決</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912468</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:19</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>優先購買權、共有人</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>912422</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>「台版地面師」未辦繼承不動產偽造詐騙案,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2024/09/10</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>今日專欄主要研習一新的詐騙案例
+律師、警察、里長勾結「台版地面師」偽造老人遺囑騙1.4億房產：https://www.mirrormedia.mg/story/20240906soc006
+其詐騙手法涉及土法、民法與土地登記等觀念，同學可配合對照複習：
+首先，詐騙集團鎖定對象為「未辦繼承登記不動產」且最好是繼承人有無不明者。此可參見土地法第73條之1相關規定。
+其次，利用職權(警察、公務員)或人脈關係(里長)調查其身分資料。
+第三，偽造租賃契約，假裝是租戶，以欺騙鎖匠開門，進而得以進入搜尋權狀、印章等相關資料。
+第四，偽造遺囑，將該未辦繼承不動產遺贈給詐騙集團。此涉及民法繼承編第三章遺囑相關規定。
+第五，持偽造遺囑等文件，申辦繼承及遺贈登記。此涉及土地登記規則第119條繼承登記應備文件及第123條遺贈登記申請方式等。</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912422</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:22</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>地面師、偽造遺囑、土地登記、繼承登記</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>912332</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>名勝古蹟土地不得私有之例外,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2024/09/03</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>113年8月7日總統修正公布土地法第14條條文的第3項部分：
+下列土地不得為私有：
+• 一、海岸一定限度內之土地。 二、天然形成之湖澤而為公共需用者，及其沿岸一定限度內之土地。 三、可通運之水道及其沿岸一定限度內之土地。 四、城鎮區域內水道湖澤及其沿岸一定限度內之土地。 五、公共交通道路。 六、礦泉地。 七、瀑布地。 八、公共需用之水源地。 九、名勝古蹟。 十、其他法律禁止私有之土地。
+前項土地已成為私有者，得依法徵收之。
+符合下列情形之一者，不受第一項第九款規定之限制：
+• 一、日據時期原屬私有，臺灣光復後登記為公有，依法得贈與移轉為私有之名勝古蹟。 二、公營事業機構及行政法人，有經營或使用古蹟土地需要，並經中央文化主管機關認定古蹟土地移轉為其所有可助於古蹟保存及維護。
+立法理由
+考量行政法人及公營事業機構有推動維護古蹟資產之政策任務，若其無法取得業務上有經營或使用需要之古蹟所座落土地，恐影響其業務推動，且可能因古蹟移轉為私有，而所座落之土地仍屬公有情形，衍生產權及古蹟管理維護複雜化等問題，不易古蹟保存及維護。爰修法規範行政法人及公營事業機構，有經營或使用第一項第九款名勝古蹟土地之需要，並經中央文化主管機關認定古蹟土地移轉為其所有可助於古蹟保存及維護者，得移轉為其所有。</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912332</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:25</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>名勝古蹟、古蹟保存</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>912241</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>不構成定型化契約條款之情形,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2024/08/27</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>定型化契約條款指企業經營者為與多數消費者訂立同類契約之用，所提出預先擬定之契約條款。定型化契約條款不限於書面，其以放映字幕、張貼、牌示、網際網路、或其他方法表示者，亦屬之。(消保§2)
+下列情形屬於「不構成」定型化契約條款，亦即消費者可選擇是否願意遵守，倘若願意即得主張該條款仍構成契約之內容而受到限制：
+• (一) 企業經營者應向消費者明示定型化契約條款之內容；明示其內容顯有困難者，應以顯著之方式，公告其內容，並經消費者同意者，該條款即為契約之內容(消保§13 I)。亦即未明示者，不構成契約內容。
+• (二) 定型化契約條款未經記載於定型化契約中而依正常情形顯非消費者所得預見者，該條款不構成契約之內容。(消保§14)
+• (三) 定型化契約條款因字體、印刷或其他情事，致難以注意其存在或辨識者，該條款不構成契約之內容。(消保施§12)
+• (四) 企業經營者與消費者訂立定型化契約前，應有三十日以內之合理期間，供消費者審閱全部條款內容(消保§11-1 I)。違反規定者（亦即給予不合理、太倉促之審閱期間），其條款不構成契約之內容(消保§11-1 III)。</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912241</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:29</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>定型化契約</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>912225</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>更正登記應不妨害原登記同一性之相關案例,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">案例：
+甲主張其曾祖父乙於日據時期與A市公所簽訂「以地易地」之承諾書，由乙將所有之K地與A市所有同地段之L地約300坪土地互易移轉；嗣L地迭經分割，乙因互易取得並入住之土地經測量即在L土地範圍內，是依上述土地互易承諾書，此部分土地應屬乙所有，惟辦理總登記時，卻登記土地所有權人為A市，爰依土地法第69條及土地登記規則第144條規定，請求地政事務所辦理更正登記或塗銷登記，將該部分土地移轉予甲等人。試問是否有理由？
+[圖片1]
+判決重點：
+1. 按土地登記之目的，在於確立地籍，保護產權，藉以維持不動產交易安全，並為推行或制定土地政策之依據。故已登記完畢之土地權利，若登記錯誤、遺漏或虛偽，應予以更正，以杜絕弊端，並有助公示原則之確立。
+2. 土地法第69條所稱「登記錯誤之更正」，以不涉及私權爭執，且不妨害原登記之同一性者為限，亦即僅限「登記原因證明文件所載之內容不符」或「應登記事項漏未登記」之情形而言，並未涉及權利主體之變動，否則根據土地登記規則第7條規定，必須經由司法審判程序，始得塗銷或變更。殊非可依規定申請地政機關更正登記，以變更原登記所示之法律關係。
+3. 基此法理，內政部訂頒之更正登記法令補充規定第6點規定：「申請更正登記，如更正登記後之權利主體、種類、範圍或標的與原登記原因證明文件所載不符者，有違登記之同一性，應不予受理。」第7點規定：「更正登記以不妨害原登記之同一性為限，若登記以外之人對於登記所示之法律關係有所爭執，則應訴由司法機關審判，以資解決。」亦明揭上述意旨。
+4. 是更正登記，無論依職權或依聲請，均以不妨害原登記之同一性為限。亦即更正前後之標的物、權利主體及法律關係，均須相同。若更正登記之結果，使原登記關係人之土地權利發生變動或損害，則已妨害原登記之同一性，不在更正登記之範圍內。
+5. 因此，甲主張其曾祖父乙於日據時期與A市公所就L地簽訂承諾書互易移轉一節，因系爭土地現所有權人為A市，管理人為A市公所，甲請求將系爭土地所有權人更正登記為甲等人，顯已違反登記同一性之要件，於法不合。
+資料來源： 臺中高等行政法院109年度訴字第195號判決 最高行政法院110年度上字第128號裁定
+## 文章圖片
+![圖片1](./images/912225_155ae437.png)
+</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912225</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:32</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>更正登記、登記錯誤、土地登記</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>912197</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>消費者保護法有關定型化契約條款無效之情形,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2024/08/13</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>依據消費者保護法規定，有下列情形，定型化契約「條款」無效：
+• (一) 定型化契約中之條款違反誠信原則，對消費者顯失公平者，無效。(消保§12)
+• (二) 定型化契約中之定型化契約條款牴觸個別磋商條款之約定者，其牴觸部分無效。(消保§15)
+• (三) 違反中央公告之定型化契約，其定型化契約條款無效。(消保§17 IV)
+• (四) 企業經營者以定型化契約條款使消費者拋棄審閱權利者，無效。(消保§11-1)
+至於定型化契約中之定型化契約條款，全部或一部無效或不構成契約內容之一部者，除去該部分，契約亦可成立者，該契約之其他部分，仍為有效。但對當事人之一方顯失公平者，該契約全部無效。(消保§16)</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912197</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:35</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>定型化契約、消費者保護法、誠信原則、個別磋商、審閱權利</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>912152</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>共有多數決處分之申請登記方式,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2024/08/06</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>甲、乙2人共有A地一筆，其應有部分依序為四分之三及四分之一。甲將A地全部設定登記地上權予丙，丙並於該地上建築B房屋（非區分所有建物），且辦竣房屋之所有權第一次登記；之後，甲將A地出賣予丁時，其申辦買賣所有權移轉登記應注意什麼？
+依土地法第34條之1規定，共有土地或建築改良物，其處分、變更及設定地上權、農育權、不動產役權或典權，應以共有人過半數及其應有部分合計過半數之同意行之。但其應有部分合計逾三分之二者，其人數不予計算。共有人依前項規定為處分、變更或設定負擔時，應事先以書面通知他共有人；其不能以書面通知者，應公告之。第一項共有人，對於他共有人應得之對價或補償，負連帶清償責任。於為權利變更登記時，並應提出他共有人已為受領或為其提存之證明。其因而取得不動產物權者，應代他共有人申請登記。
+爰此，甲以其應有部分超過三分之二方式出賣A地給丁，符合多數決規定，惟同時涉及乙、丙之優先購買權，故其買賣所有權移轉登記應注意下列事項：
+• (一) 多數決出賣之移轉登記應注意事項
+1. 登記申請書及契約書內，應列明全體共有人。即甲、乙二人。
+2. 登記申請書備註欄記明依土地法第34條之1第1項至第3項規定辦理，如有不實，義務人願負法律責任。
+3. 提出已為書面通知或公告之證明文件。
+4. 提出他共有人應得對價或補償已受領或已提存之證明文件。並於登記申請書適當欄記明受領之對價或補償數額如有錯誤，由義務人自行負責。
+5. 申請登記時，契約書及登記申請書上無須他共有人乙簽名或蓋章。
+• (二) 涉及優先購買權之移轉登記應注意事項
+1. 他共有人乙之優先購買權 (1)依土地法第34條之1執行要點規定，部分共有人甲依本法條第一項規定出賣共有土地或建物時，他共有人乙得以出賣之同一條件共同或單獨優先購買。 (2)部分共有人甲依土地法第34條之1第1項規定設定地上權或典權後出賣土地，他共有人乙仍有第1項優先購買權之適用。 (3)申請土地權利移轉登記時，依民法物權編施行法第8條之5第3項、第5項、土地法第34條之1第4項、農地重劃條例第5條第2款、第3款或文化資產保存法第32條規定之優先購買權人乙已放棄優先購買權者，應附具出賣人甲之切結書，或於登記申請書適當欄記明優先購買權人乙確已放棄其優先購買權，如有不實，出賣人願負法律責任字樣。 (4)然而，根據新修訂的土地法第34條之1執行要點規定，優先購買權人乙已放棄或視為放棄優先購買權者，出賣人甲應依土地登記規則第97條第1項規定附具切結書之規定辦理，切結書內容應包括通知方式、優先購買權人主張情形並由出賣人記明「如有不實願負法律責任」，不適用同條項於登記申請書適當欄記明之方式。
+2. 地上權人丙之優先購買權 (1)基地出賣時，地上權人、典權人或承租人有依同樣條件優先購買之權。房屋出賣時，基地所有權人有依同樣條件優先購買之權。其順序以登記之先後定之。 (2)民法第426條之2、第919條、土地法第104條、第107條、耕地三七五減租條例第15條或農地重劃條例第5條第1款規定，優先購買權人放棄或視為放棄其優先購買權者，申請人應檢附優先購買權人放棄優先購買權之證明文件；或出賣人已通知優先購買權人之證件並切結優先購買權人接到出賣通知後逾期不表示優先購買，如有不實，願負法律責任字樣。
+綜上，甲、丁所有權移轉登記之申請文件，應附上乙放棄優先購買權之切結書，以及附上丙放棄優先購買權之證明或已通知或公告的證明並切結其逾期不表示優先購買等字樣。又倘若乙、丙皆主張優先購買如有爭執，再循司法途徑解決。</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912152</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:38</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>移轉登記、優先購買權、共有人</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>912098</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>欠稅應移送法務部行政執行署強制執行,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2024/07/30</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>根據契稅條例第25條規定，納稅義務人不依規定期限繳納稅款者，每逾二日，加徵應納稅額百分之一之滯納金；逾期三十日仍不繳納稅款及滯納金或前條之怠報金者，移送法院強制執行。
+按欠稅及罰鍰等公法上金錢給付義務之強制執行，係屬行政權之性質，原屬行政執行的範疇，因此以往移送法院執行的規定，並不符合行政法的法理，且移送法院執行的徵起率偏低，絕大部分為無財產可供執行，另因須移送法院辦理，法院執行緩慢，機關間協調配合困難，影響強制執行之效果與時效。因此，移送法院強制執行之規定，自90年1月1日施行修正行政執行法之日起，不再適用，而改移送法務部行政執行署所屬行政執行處執行之 (參行政執行法第4條)。
+此外，逾期繳納之滯納金規範，亦應以稅捐稽徵法為特別法優先適用，即依稅法規定逾期繳納稅捐應加徵滯納金者，每逾三日按滯納數額加徵百分之一滯納金；逾三十日仍未繳納者，移送強制執行(參稅捐稽徵法第20條)。</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912098</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:42</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>納稅、滯納金、強制執行、行政執行</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>912059</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>非都市土地使用管制架構,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2024/07/23</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">依據「區域計畫法」第15條第1項規定：「區域計畫公告實施後，不屬第11條之非都市土地（即變更為都市計畫者），應由有關直轄市或縣（市）政府，按照非都市土地分區使用計畫，製定非都市土地使用分區圖，並編定各種使用地，報經上級主管機關核備後，實施管制。變更之程序亦同。其管制規則，由中央主管機關定之。」因此，內政部依據該條文授權，訂定「非都市土地使用管制規則」，作為實施非都市土地使用管制之依據。依該規則第4條，非都市土地之使用，除國家公園區內土地，由國家公園主管機關依法管制外，按其編定使用地之類別，依本規則規定管制之。
+按「區域計畫法」第7條第9款、第15條及同法施行細則第5條規定，區域土地使用管制之結構，可分為三個層次：
+上層：土地分區使用計畫。 中層：非都市土地使用分區圖。 下層：編定各種使用地。
+上述三層次，分別具有上下位之指導關係，即製定非都市土地使用分區圖，須受土地分區使用計畫之指導；編定各種使用地，則須受非都市土地使用分區圖所定之使用區容許使用種類之限制。
+非都市土地使用管制架構如下圖所示：
+[圖片1]
+## 文章圖片
+![圖片1](./images/912059_8d9aecca.png)
+</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912059</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:45</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>非都市土地、區域計畫法</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>912885</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>土地法第34條之1於公同共有準用之,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2024/11/14</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>公同共有不動產得準用土地法第34條之1第1項（多數決）及第4項（優先購買權）。茲說明如下：
+• (一) 各公同共有人不得單獨出賣其潛在應有部分。惟部分公同共有人得依土地法第34條之1第1項規定出賣公同共有土地或建物全部。
+• (二) 共有人數及應有部分之計算，於公同共有土地或建物者，指共有人數及其潛在應有部分合計均過半數。但潛在應有部分合計逾三分之二者，其共有人數不予計算（執§7 II）。
+• (三) 他公同共有人得就該公同共有土地或建物主張優先購買權。如有數人主張時，其優先購買權之範圍應按各主張優先購買權人之潛在應有部分比例計算之（執§13⑩）。
+• (四) 民法第830條第1項規定，公同共有之關係，因公同共有物之讓與而消滅。準此，數人主張優先購買後，該土地或建物之產權由公同共有關係轉變為分別共有關係。
+例如：甲、乙、丙、丁、戊五人因繼承而公同共有一筆土地，應繼分各五分之一。甲、乙、丙三人依土地法第34條之1第1項將該筆土地出賣於庚，不同意共有人丁、戊二人主張優先購買權。優先購買後，該筆土地產權為丁、戊二人共有，應有部分各二分之一。
+【附註】 執：土地法第三十四條之一執行要點</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912885</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:48</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>土地法第34條之1、公同共有、優先購買權、共有人</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>912836</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>地價區段與區段地價之比較,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2024/11/07</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>• (一) 地價區段之意義：將地價相近、地段相連、情況相同或相近之土地劃為同一地價區段（查§18 I）。
+• (二) 區段地價之意義：以地價區段內實例土地正常單價，求其中位數為各該區段之區段地價（查§21 I①）。
+• (三) 兩者不同如下：
+1. 地價區段，所稱「地價」為形容詞，「區段」為名詞，最後結果為「範圍」。 區段地價，所稱「區段」為形容詞，「地價」為名詞，最後結果為「價格」。
+2. 地價區段係指地價同質空間之範圍。 區段地價係指各地價區段之平均地價。
+3. 地價查估時，先劃分「地價區段」，再求取「區段地價」。換言之,「地價區段」在先，「區段地價」在後。
+【附註】 查：地價調查估計規則</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912836</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:51</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>地價區段、區段地價</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>912784</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>數宗土地或建物併同出售之優先購買權,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2024/10/31</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>• (一) 土地法第34條之1第1項出賣之優先購買權：
+1. 部分共有人依土地法第34條之1第1項規定出賣共有土地或建物時，他共有人得以出賣之同一條件共同或單獨優先購買。前項情形，於數宗土地或建物併同出賣，他共有人得僅就其共有之土地或建物行使優先購買權。但有下列情形之一者，不在此限： (1)部分共有人表示使用上具不可分性並經法院判決確定或提出依法與法院確定判決有同一效力之證明文件。 (2)依法令規定應併同移轉。（執§12 I II）
+2. 數宗土地或建物併同出賣，部分共有人應記明各宗土地或建物價金。
+3. 優先購買權人得僅就共有土地或建物行使優先購買權，亦得就共有土地或建物及其併同出賣之土地或建物一併行使優先購買權。
+• (二) 土地法第104條出賣之優先購買權：
+1. 基地出賣時，地上權人、典權人或承租人有依同樣條件優先購買之權。房屋出賣時，基地所有權人有依同樣條件優先購買之權。其順序以登記之先後定之。（土§104 I）
+2. 土地法第104條第1項所稱「同樣條件」，包括同樣標的。因此，數宗土地或建物併同出賣時，優先購買權人應就原有基地或房屋及其併同出賣之土地或建物一併行使優先購買權，不得僅就原有基地或房屋行使優先購買權。
+【附註】 土：土地法 執：土地法第三十四條之一執行要點</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912784</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:55</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>併同出賣、優先購買權</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>912632</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>未實施限制私有土地面積最高額之理由,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2024/10/24</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>實施私有土地面積最高額之目的在避免私人壟斷或兼併土地。
+• (一) 現行地價稅採累進稅。累進稅對私人土地面積過大，以高稅率加以懲罰。換言之，現行已採地價稅累進稅作用，抑制私人壟斷或兼併土地。但，地價稅之歸戶範圍僅限於直轄市或縣（市），未及於全國，乃缺憾所在。
+• (二) 倘實施私有土地面積最高額，財團以人頭借名登記逃避限制，最後實施效果有限，且造成地籍紊亂。
+• (三) 現行，農地有鼓勵「擴大農場經營規模」政策，市地有鼓勵「新市區大規模開發」政策。因此，實施限制私有土地面積最高額恐背道而馳。</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912632</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:13:58</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>私有土地、累進稅、地價稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>912631</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>空地限建之問題,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>• (一) 當地價高漲時，政府應立即採取打擊投機措施。然，空地限建制裁措施（即空地稅及照價收買）之實施，遷延時日，緩不濟急。
+• (二) 地價高漲時，地價倍數上漲。然，空地稅僅按地價稅基本稅額之二倍至五倍課徵。投機者之獲利遠大於制裁金額。換言之，空地稅過輕，不足以嚇阻土地投機。
+• (三) 照價收買可以有效打擊土地投機。因為以低於市場地價之「公告土地現值」收買，造成土地所有權人之財產損失。然，照價收買未設置基金，如採照價收買措施，政府須先編列預算，始有財源。政府編列預算常受到地方民意代表阻撓，甚至刪除而無法實施。</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912631</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:01</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>空地限建、地價、空地稅、照價收買</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>912485</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>優先購買權之放棄及視為放棄,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2024/09/26</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• (一) 放棄與視為放棄之意義：
+1. 放棄：指出賣人通知優先購買權人時，優先購買權人於法定回覆期限內表示不願意購買。
+2. 視為放棄：指出賣人通知優先購買權人時，優先購買權人於法定回覆期限內不表示優先購買與否。
+• (二) 放棄與視為放棄於土地登記應檢附之文件：
+1. 債權效力之優先購買權： (1)申請土地權利移轉登記時，申請人應附具出賣人之切結書，或於登記申請書適當欄記明優先購買權人確已放棄其優先購買權，如有不實，出賣人願負法律責任字樣（登§97I）。 (2)土地法第34條之1第4項之優先購買權，優先購買權人已放棄或視為放棄優先購買權者，出賣人應依土地登記規則第97條第1項規定附具切結書之規定辦理，切結書內容應包括通知方式、優先購買權人主張情形並由出賣人記明「如有不實願負法律責任」，不適用同條項於登記申請書適當欄記明之方式（執§13　）。
+2. 物權效力之優先購買權： (1)放棄：申請土地權利移轉登記時，申請人應檢附優先購買權人放棄優先購買權之證明文件（登§97II）。 (2)視為放棄：申請土地權利移轉登記時，申請人應檢附出賣人已通知優先購買權人之證件並切結優先購買權人接到出賣通知後逾期不表示優先購買，如有不實，願負法律責任字樣（登§97II）。
+[圖片1]
+【附註】 ①登：土地登記規則 ②執：土地法第三十四條之一執行要點
+## 文章圖片
+![圖片1](./images/912485_872885bc.png)
+</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912485</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:05</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>優先購買權、土地登記、土地權利移轉</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>912452</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>土地徵收補償市價之查估標準,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2024/09/19</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>土地徵收條例第30條第1項規定：「被徵收之土地，應按照徵收當期之市價補償其地價。在都市計畫區內之公共設施保留地，應按毗鄰非公共設施保留地之平均市價補償其地價。」析言之：
+• (一) 非公共設施保留地：以被徵收土地本身之市價，補償其地價。所稱市價，指由直轄市、縣（市）主管機關查估或委由不動產估價師查估，並提交地價評議委員會評定之市場正常交易價格（徵查§2①）。
+• (二) 公共設施保留地：以被徵收土地之毗鄰非公共設施保留地之平均市價，補償其地價。其中，「毗鄰」之界定影響公共設施保留地土地所有權人之權益甚鉅。茲分下列二說：
+1. 地理接觸說：毗鄰，僅限於被徵收土地之接連土地，亦即毗連土地。然，當接連之非公共設施保留地市價偏低時，恐影響土地所有權人之權益。現行一般徵收採地理接觸說，即公共設施保留地市價，以毗鄰非公共設施保留地之市價平均計算。所稱平均計算，指按毗鄰各非公共設施保留地之區段線比例加權平均計算（徵查§22III）。
+2. 受益範圍說：毗鄰，指公共設施設置所影響之受益範圍。現行區段徵收採受益範圍說，即區段徵收範圍內之公共設施保留地市價，以同屬區段徵收範圍內之非公共設施保留地市價平均計算（徵查§22VI）。
+以上二說，以受益範圍說較合理。
+【附註】 徵查：土地徵收補償市價查估辧法</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912452</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:08</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>土地徵收、公共設施保留地、毗鄰</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>912425</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>公共設施保留地之意涵,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2024/09/12</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公共設施保留地之認定，關係租稅優惠，影響人民權益甚鉅。
+• (一) 公共設施保留地之意義：公共設施保留地係指都市計畫事先指定之公共設施用地，保留供政府機關或各事業機構日後取得。所謂公共設施用地，指都市計畫法第42條第1項規定之公共設施（如道路、公園、學校、市場等），所使用之土地。公共設施用地涵括公共設施保留地，其關係如下圖所示。
+[圖片1]
+• (二) 公共設施保留地之認定：
+1. 業經各級政府或鄉、鎮、縣轄市公所或各事業機構依法取得之公共設施用地，非屬公共設施保留地。
+2. 經各級政府或鄉、鎮、縣轄市公所或各事業機構興闢使用，但尚未依法取得之公共設施用地，仍屬公共設施保留地。
+3. 獎勵私人投資興闢之公共設施用地，在未核准私人或團體投資辦理前，仍屬公共設施保留地；經核准私人或團體投資辦理後，始非屬公共設施保留地。其須申領使用執照者，於取得使用執照前，仍屬公共設施保留地；於取得使用執照後，始非屬公共設施保留地。
+4. 下列非屬公共設施保留地： (1)經都市計畫法第30條規定所訂辦法核准由私人或團體投資興辦之公共設施用地。 (2)依都市計畫法第61條第2項規定，已由私人或團體於舉辦新市區建設範圍內，自行負擔經費興建之公共設施用地。 (3)配合私人或團體舉辦公共設施、新市區建設、舊市區更新等實質建設事業劃設，並指明由私人或團體取得興闢之公共設施用地。（87.6.30台內營字第8772176號）
+5. 都市計畫法第42條第1項第1款所稱之河道，係指依同法第3條就都市重要設施作有計畫之發展，而合理規劃所設置之河道而言。至於因地勢自然形成之河流，及因之而依水利法公告之原有「行水區」，雖在都市計畫使用區之範圍，仍不包括在內（司法院釋字第326號解釋）。
+## 文章圖片
+![圖片1](./images/912425_ae14c522.png)
+</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912425</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:11</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>公共設施保留地、公共設施用地</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>912355</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>發給補償完竣,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2024/09/05</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>• (一) 發給補償完竣之態樣：
+1. 現金補償： (1)應受補償人受領：需用土地人將補償費繳交該管直轄市或縣（市）主管機關發給應受補償人完竣，是為發給補償完竣。 (2) 應受補償人受領遲延、拒絕受領或不能受領：直轄市或縣（市）主管機關應發給補償費之期限屆滿次日起三個月內存入土地徵收補償費保管專戶保管。依規定繳存專戶保管時，視同發給補償完竣（徵§26III）。
+2. 抵價地補償：實施區段徵收，原土地所有權人申請發給抵價地者，於直轄市或縣（市）主管機關核定發給抵價地通知時，視同發給補償完竣。
+綜上，所謂「發給補償完竣」，包括應受補償人受領現金完竣、補償費存入專戶保管完畢及核定發給抵價地通知完成等三種態樣。
+• (二) 發給補償完竣之效力：
+1. 發生物權變動效果：土地徵收採登記處分要件主義（民§759），於發給補償完竣即發生物權變動效果。換言之，自發給補償完竣之日起，需用土地人取得被徵收土地之所有權，原地主喪失被徵收土地之所有權。
+2. 所有負擔消滅：土地徵收屬於原始取得，因此發給補償完竣，原所有權絕對消滅。存在於原所有權上之一切負擔（如他項權利、限制登記、三七五租佃、租賃權等）隨之消滅。
+3. 地上物限期遷移完成：被徵收土地或土地改良物應受之補償費發給完竣或核定發給抵價地後，直轄市或縣（市）主管機關應通知土地權利人或使用人限期遷移完竣（徵§28I）。
+4. 進入被徵收土地內工作：需用土地人應俟補償費發給完竣或核定發給抵價地後，始得進入被徵收土地內工作。但國防、交通及水利事業，因公共安全急需先行使用者，不在此限（徵§27）。
+【附註】 ①民：民法。 ②徵：土地徵收條例。</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912355</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:15</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>發給補償完竣、補償人、土地徵收</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>912242</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>參加市地重劃或區段徵收之地主於開發完成後分回或領回開發範圍內土地之條件(二),許文昌老師</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2024/08/29</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>• (二) 區段徵收：
+1. 實施區段徵收時，原土地所有權人不願領取現金補償者，應於徵收公告期間內，檢具有關證明文件，以書面向該管直轄市或縣（市）主管機關申請發給抵價地。該管直轄市或縣（市）主管機關收受申請後，應即審查，並將審查結果，以書面通知申請人。土地所有權人依規定申請發給抵價地時，得就其全部或部分被徵收土地應領之補償地價提出申請（徵§40I II）。
+2. 依規定領回面積不足最小建築單位面積者，應於規定期間內提出申請合併，未於規定期間內申請者，該管直轄市或縣（市）主管機關應於規定期間屆滿之日起三十日內，按原徵收地價補償費發給現金補償（徵§44II）。抵價地最小建築單位面積，由主管機關會商需用土地人依開發目的及實際作業需要劃定之。但最小建築單位面積不得小於畸零地使用規則及都市計畫所規定最小建築基地之寬度、深度及面積（徵施§54）。
+3. 土地所有權人應領抵價地之權利價值未達直轄市或縣（市）主管機關通知辦理抵價地分配當次最小分配面積所需之權利價值者，應於主管機關規定期限內自行洽商其他土地所有權人申請合併分配或申請主管機關協調合併分配。未於規定期間內申請者，由主管機關按原徵收補償地價發給現金補償（區徵§29I）。
+4. 土地所有權人合併後應領抵價地權利價值已達當次最小分配面積所需之權利價值，依抽籤順序選擇街廓時已無適合之最小分配面積可供分配者，或合併後應領抵價地權利價值未達當次最小分配面積所需之權利價值者，得於下次配地時依前項規定申請重新合併分配或由主管機關按原徵收補償地價發給現金補償（區徵§29II）。
+5. 土地所有權人申請發給抵價地之原有土地上訂有耕地租約或設定他項權利或限制登記者，直轄市或縣（市）主管機關應通知申請人限期自行清理，並依規定期限提出證明文件。申請人未依前項規定辦理者，直轄市或縣（市）主管機關應核定不發給抵價地。直轄市或縣（市）主管機關經核定不發給抵價地者，應於核定之次日起十五日內發給現金補償（徵§41）。
+綜上，參加區段徵收之地主於開發完成後領回開發範圍內土地之條件有三：
+1. 地主應於徵收公告期間內以書面申請發給抵價地。
+2. 地主應領抵價地之權利價值已達或合併後已達抵價地最小分配面積所需之權利價值。
+3. 地主之原有土地上如訂有耕地租約、設定他項權利或限制登記，應於限期內自行清理完畢。
+• (三) 兩者比較：
+1. 參加市地重劃之地主所領回之土地無專有名稱，而非稱為「抵費地」。參加區段徵收之地主所領回之土地，稱為「抵價地」。
+2. 參加市地重劃之地主無須主動申請分配土地，就可分回土地。參加區段徵收之地主必須主動申請發給抵價地，始可領回土地。
+3. 參加市地重劃之地主應分配土地面積已達或合併後已達最小分配面積標準二分之一，就可以分配土地。參加區段徵收之地主應領回抵價地權利價值已達或合併後已達抵價地最小分配面積所需之權利價值，就可以領回抵價地。前者有二分之一，後者無二分之一。
+4. 參加市地重劃地主之原有土地上訂有耕地租約、設定他項權利或限制登記，轉載於重劃後地主所分配之土地上，原地主無須清理，就可以分配土地。參加區段徵收地主原有土地訂有耕地租約、設定他項權利或限制登記，原地主應限期自行清理，並提出證明文件，否則不發給抵價地。
+【附註】 ①平：平地地權條例。 ②市重：市地重劃實施辦法。 ③徵：土地徵收條例。 ④徵施：土地徵收條例施行細則。 ⑤區徵：區段徵收實施辦法。</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912242</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:18</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>區段徵收、土地所有權人、抵價地</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>912231</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>參加市地重劃或區段徵收之地主於開發完成後分回或領回開發範圍內土地之條件(一),許文昌老師</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2024/08/22</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>• (一) 市地重劃：
+1. 重劃區內之土地扣除折價抵付共同負擔之土地後，其餘土地仍依各宗土地地價數額比例分配與原土地所有權人。但應分配土地之一部或全部因未達最小分配面積標準，不能分配土地者，得以現金補償之（平§60-1I）。重劃後土地之最小分配面積標準，由主管機關視各街廓土地使用情況及分配需要於規劃設計時定之。但不得小於畸零地使用規則及都市計畫所規定之寬度、深度及面積（市重§30）。
+2. 土地所有權人重劃後應分配土地面積已達重劃區最小分配面積標準二分之一，經主管機關按最小分配面積標準分配後，如申請放棄分配土地而改領現金補償時，應以其應分配權利面積，按重劃後分配位置之評定重劃後地價予以計算補償（市重§53II）。
+3. 同一土地所有權人在重劃區內所有土地應分配之面積，未達或合併後仍未達重劃區內最小分配面積標準二分之一者，除通知土地所有權人申請與其他土地所有權人合併分配者外，應以現金補償之；其已達重劃區內最小分配面積標準二分之一者，得於深度較淺、重劃後地價較低之街廓按最小分配面積標準分配或協調合併分配之（市重§31I②）。
+4. 土地所有權人重劃後應分配土地面積未達重劃區最小分配面積標準二分之一而不能分配土地時，主管機關應於重劃分配結果公告確定之次日起六十日內，以其重劃前原有面積按原位置評定重劃後地價發給現金補償（市重§53I）。
+綜上，參加市地重劃之地主於開發完成後分回開發範圍內土地之條件只有一個，即「重劃後地主應分配土地面積已達或合併後已達重劃區最小分配面積標準二分之一」。
+【附註】
+①平：平地地權條例。 ②市重：市地重劃實施辦法。 ③徵：土地徵收條例。 ④徵施：土地徵收條例施行細則。 ⑤區徵：區段徵收實施辦法。</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912231</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:21</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>市地重劃、區段徵收、地價、土地所有權人</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>912206</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>遺贈及遺囑信託之登記與稅負,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2024/08/15</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>遺贈登記規定於土地登記規則第123條，遺囑信託登記規定於同規則第126條，二者規定之內容大同小異。
+• (一) 遺贈之登記與稅負：
+1. 遺贈，指立遺囑而為贈與。遺贈於立遺囑人（即遺贈人）死亡時，發生效力。
+2.
+遺贈發生效力後，分下列三種情形辦理登記：
+• (1) 無遺囑執行人：①登記：先由繼承人辦理繼承登記，再由繼承人會同受遺贈人辦理所有權移轉登記。②稅負：辦理繼承登記時，應課徵遺產稅（納稅義務人為繼承人及受遺贈人），免徵土地增值稅及契稅。辦理所有權移轉登記時，應課徵土地增值稅（納稅義務人為受遺贈人），不徵贈與稅及契稅。值得一提的是，繼承土地以繼承時（即被繼承人死亡日）之公告現值核定其移轉現值（即原地價更動為繼承時之公告現值），而遺贈時申報移轉現值審核標準，以遺贈人（即被繼承人）死亡日當期公告現值為準，二者相同，因此受遺贈人只要以被繼承人死亡日當期之公告現值而為申報（亦即不高報），就無土地增值稅。
+• (2) 有遺囑執行人：①登記：先由遺囑執行人辦理遺囑執行人登記及繼承登記，再由遺囑執行人會同受遺贈人辦理所有權移轉登記。②稅負：辦理繼承登記時，應課徵遺產稅（納稅義務人為遺囑執行人），免徵土地增值稅及契稅。辦理所有權移轉登記時，應課徵土地增值稅（納稅義務人為受遺贈人），不徵贈與稅及契稅。
+• (3) 繼承人有無不明：①登記：先由遺產管理人辦理遺產管理人登記，再由遺產管理人會同受遺贈人辦理所有權移轉登記。須特別強調的是，繼承人有無不明之情形，無須辦理繼承登記，另，繼承開始時，繼承人之有無不明者，由親屬會議選定遺產管理人；未能選定者，得聲請法院選任遺產管理人。②稅負：辦理遺產管理人登記時，應課徵遺產稅（納稅義務人為遺產管理人），免徵土地增值稅及契稅。辦理所有權移轉登記時，應課徵土地增值稅（納稅義務人為受遺贈人），不徵贈與稅及契稅。應注意者，繼承人有無不明之情形，雖未辦理繼承登記，但於辦理遺產管理人登記時，應課徵遺產稅。
+• (二) 遺囑信託之登記與稅負：
+1. 遺囑信託，指立遺囑而為信託。遺囑信託於立遺囑人（即委託人）死亡時，發生效力。
+2.
+遺囑信託發生效力後，分下列三種情形辦理登記：
+• (1) 無遺囑執行人：①登記：先由繼承人辦理繼承登記，再由繼承人會同受託人辦理信託登記。②稅負：辦理繼承登記時，應課徵遺產稅（納稅義務人為繼承人），免徵土地增值稅及契稅。辦理信託登記時，不課徵土地增值稅及契稅。日後辦理信託歸屬登記時，不課徵贈與稅、土地增值稅及契稅。
+• (2) 有遺囑執行人：①登記：先由遺囑執行人辦理遺囑執行人登記及繼承登記，再由遺囑執行人會同受託人辦理信託登記。②稅負：辦理繼承登記時，應課徵遺產稅（納稅義務人為遺囑執行人），免徵土地增值稅及契稅。辦理信託登記時，不課徵土地增值稅及契稅。日後辦理信託歸屬登記時，不課徵贈與稅、土地增值稅及契稅。
+• (3) 繼承人有無不明：①登記：先由遺產管理人辦理遺產管理人登記，再由遺產管理人會同受託人辦理信託登記。須特別強調的是，繼承人有無不明之情形，無須辦理繼承登記。②稅負：辦理遺產管理人登記時，應課徵遺產稅（納稅義務人為遺產管理人），免徵土地增值稅及契稅。辦理信託登記時，不課徵土地增值稅及契稅。日後辦理信託歸屬登記時，不課徵贈與稅、土地增值稅及契稅。應注意者，繼承人有無不明之情形，雖未辦理繼承登記，但於辦理遺產管理人登記時，應課徵遺產稅。</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912206</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:24</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>遺囑信託、遺囑執行人、繼承人、繼承登記、遺產管理人</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>912171</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>抵費地與配餘地,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2024/08/08</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>政府辦理土地重劃及區段徵收後，公開標售之土地，於土地重劃為抵費地，於區段徵收為配餘地。
+• (一) 抵費地：土地重劃區內土地所有權人應行負擔之工程費用、重劃費用及貸款利息，由該區土地所有權人按其土地受益比例共同負擔，並以其未建築土地折價抵付，此種土地稱為抵費地（亦稱劃餘地）。因此，政府辦理土地重劃後所取得之抵費地，公開標售，以回收投入資金。
+• (二) 配餘地：區段徵收應給予之補償地價，改以規劃整理後可供建築之土地，按土地所有權人應領補償地價比例折算抵付，此種土地稱為抵價地。因此，抵價地由原土地所有權人領回，而非屬政府所有，無從公開標售。另，政府辦理區段徵收後之土地，除規劃為抵價地及公共設施用地外，其餘可供建築土地，得予標售、標租或設定地上權（徵 §44I⑤），此種土地稱為配餘地。因此，區段徵收後公開標售之土地為配餘地，而非抵價地。
+總之，政府辦理土地重劃後標售｢抵費地｣，政府辦理區段徵收後標售｢配餘地｣，以回收投入資金。</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912171</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:28</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>土地重劃、區段徵收、抵費地、配餘地</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>912110</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>設籍（辦竣戶籍登記）之綜合整理,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>政府給予不動產租稅優惠，常規定須設有戶籍。一般而言，設籍分為下列二種不同規定：
+• (一) 須有本人、配偶或直系親屬設籍（設籍條件較寬鬆）： 諸如：
+1. 地價稅之自用住宅用地優惠稅率（2‰）。
+2. 房屋稅之自住房屋（1%或1.2%）。
+3. 土地增值稅之一生一次優惠稅率（10%）。
+4. 土地增值稅之重購退稅。
+• (二) 須有本人、配偶或未成年子女設籍（設籍條件較嚴格）： 諸如：
+1. 土地增值稅之一生一屋優惠稅率（10%）。
+2. 房地合一所得稅之自住房地免稅（400萬元以下部分，免稅）及優惠稅率（超過400萬元之部分，稅率10%）。
+3. 房地合一所得稅之重購退稅。
+例如：甲擁有一棟自己居住使用之房屋，並由其已成年子女乙設籍。如單單考慮設籍因素，則持有時，得適用自用住宅用地之地價稅優惠及自住房屋之房屋稅優惠；移轉時，得適用自用住宅用地之土地增值稅一生一次優惠稅率及重購退稅；移轉時，不得適用自住房地之房地合一所得稅免稅、優惠稅率及重購退稅。</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912110</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:31</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>設籍、房地合一所得稅、地價稅、房屋稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>912049</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>房地合一所得稅之稅基疑義,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2024/07/18</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>計算房地合一所得稅之稅基時，扣除改良土地費用、工程受益費、土地重劃負擔總費用及土地使用變更而無償捐贈作為公共設施用地其捐贈土地之公告現值總額等四項，是否發生重複扣除？
+【解答】
+房地合一所得稅之稅基為「房地交易所得」。其公式如下： 房地交易所得＝成交價額－原始取得成本－支付費用－土地漲價總數額………①
+依房地合一課徵所得稅申報作業要點第14點規定：「個人除得按前二點規定減除成本外，得再減除依土地稅法施行細則第五十一條規定經主管稽徵機關核准減除之改良土地已支付之下列費用：
+• (一) 改良土地費用。 (二)工程受益費。 (三)土地重劃負擔總費用。 (四)因土地使用變更而無償捐贈作為公共設施用地其捐贈土地之公告現值總額。」準此，①式中之支付費用包括改良土地費用、工程受益費、土地重劃負擔總費用及因土地使用變更而無償捐贈作為公共設施用地其捐贈土地之公告現值總額等四項。
+上開四項費用於計算「土地漲價總數額」時，已扣除一次；又於計算「房地交易所得」時，再扣除一次，是否發生重複扣除。茲分析如下： 土地漲價總數額＝申報土地移轉現值－原規定地價或前次移轉時所申報之土地移轉現值×（臺灣地區消費者物價總指數÷100）－（改良土地費用＋工程受益費＋土地重劃負擔總費用＋因土地使用變更而無償捐贈作為公共設施用地其捐贈土地之公告現值總額）………②
+②式代入①式，得出： 房地交易所得＝成交價格－原始取得成本－支付費用 －〔申報土地移轉現值－原規定地價或前次移轉時所申報之土地移轉現值×（臺灣地區消費者物價總指數÷100）－（改良土地費用＋工程受益費＋土地重劃負擔總費用＋因土地使用變更而無償捐贈作為公共設施用地其捐贈土地之公告現值總額）〕………③
+③式框起來之虛線，負負得正，等同這四種費用尚未扣除。因此，於計算「房地交易所得」時，再扣除一次，並未重複扣除。</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912049</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:34</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>房地合一所得稅、稅基、房地交易所得</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>912009</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>預售屋履約擔保機制,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2024/07/11</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">預售屋自民國100年5月1日起應辦理履約擔保。依據預售屋買賣定型化契約應記載事項第7點之1規定，履約擔保依下列方式擇一處理：
+• (一) 不動產開發信託：由建商或起造人將建案土地及興建資金信託予某金融機構或經政府許可之信託業者執行履約管理。興建資金應依工程進度專款專用（預§7-1①）。不動產開發信託之功能有二：
+1. 信託機制：對信託財產不得強制執行（信§12I）。準此，建商或起造人將建案土地、興建資金及在建工程信託予金融機構，以防止建商發生問題時，這些財產被強制執行之風險，具有風險隔離之功能。
+2. 專戶管理：興建資金由受託機構（即金融機構）控管，按工程進度撥款，專款專用，避免興建資金流用他處。如圖(一)所示。所稱興建資金包括建商自有資金、銀行融資款項及買方所繳價金。買方所繳價金，包括訂金、簽約金、開工款及各期工程款等自備款。
+[圖片1]
+圖(一) 不動產開發信託之專戶管理
+• (二) 價金信託：將價金交付信託，由金融機構負責承作，設立專款專用帳戶，並由受託機構於信託存續期間，按信託契約約定辦理工程款交付、繳納各項稅費等資金控管事宜。前項信託之受益人為賣方（即建方或合建雙方）而非買方，受託人係受託為賣方而非買方管理信託財產。但賣方未依約定完工或交屋者，受益權歸屬於買方（預§7-1③）。價金信託之功能有二：
+1. 信託機制：信託機制之目的在隔離風險。建商或起造人將買方所繳價金信託予金融機構。本項信託屬於自益信託，但當賣方未依約定完工或交屋者，則屬於他益信託。
+2. 專戶管理：買方所繳價金由受託機構（即金融機構）控管，按工程進度撥款，專款專用。如圖(二)所示。
+[圖片2]
+圖(二) 價金信託之專戶管理
+綜上，不動產開發信託與價金信託，二者相似。茲比較如下：
+1. 信託財產： (1)不動產開發信託：信託財產包括建案土地、興建資金及在建工程等三項。 (2)價金信託：信託財產僅買方所繳價金一項。
+2. 專戶管理之資金流入： (1)不動產開發信託：資金流入包括建商自有資金、銀行融資款項及買方所繳價金等三項。 (2)價金信託：資金流入僅買方所繳價金一項。
+3. 專戶管理之資金流出： (1)不動產開發信託：資金流出限於購地款、工程款、貸款本息、管銷費用及信託事務所需一切支出等。 (2)價金信託：資金流出限於工程款及各項稅費支出等。
+總之，不動產開發信託對於信託財產、專戶管理之資金流入及資金流出的管制均較價金信託為廣泛。簡單的說，不動產開發信託為全套，價金信託為半套。
+• (三) 價金返還之保證：由金融機構負責承作價金返還保證。價金返還之保證費用由賣方負擔（預§7-1②）。價金返還保證對購屋者而言，最有保障。當建商出問題時，購屋者雖無法取得房屋，但最起碼可以拿回所繳交之自備款。然，辦理價金返還保證，建商須繳交保證費用予金融機構，對建商而言，成本費用最高。況，金融機構須評估預售個案情形，未必願意承保。
+• (四) 同業連帶擔保：與依公司章程規定得對外保證之同業同級公司等相互連帶擔保，賣方未依約定完工或交屋者，買方可持契約向上列公司請求完成建案後交屋。上列公司不得為任何異議，亦不得要求任何費用或補償（預§7-1④）。同業連帶擔保之性質屬於續建保證或續建承諾。然，當房地產不景氣時，負責保證之建商，本身就自身難保，如何保證他人。況，所稱同業，實務上常為關係企業。關係企業之間相互擔保，等同無擔保。一般而言，關係企業間之資金往來密切，互通有無，因此其中一家建商倒閉，全部關係企業皆倒閉。採用此種方式，對建商而言，成本費用最節省，又不必受到資金控管，因此為建商所偏愛。
+• (五) 公會辦理連帶保證協定：加入由全國或各縣市不動產開發商業同業公會辦理之連帶保證協定。賣方未依約定完工或交屋者，買方可持契約向加入協定之公司請求共同完成建案後交屋。加入協定之公司不得為任何異議，亦不得要求任何費用或補償（預§7-1⑤）。此種方式是一種理想，不切實際，故實務上採用者為零。
+## 文章圖片
+![圖片1](./images/912009_de3ffcb3.png)
+![圖片2](./images/912009_75322e49.png)
+</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912009</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:38</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>預售屋、履約擔保、信託、專戶管理、價金返還、連帶擔保</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>911940</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>登記駁回之情形,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2024/07/04</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>土地登記規則第57條第1項第3款規定，登記之權利人、義務人或其與申請登記之法律關係有關之權利關係人間有爭執，登記機關應以書面敍明理由及法令依據，駁回登記之申請。所稱「登記之權利人、義務人或其與申請登記之法律關係有關之權利關係人間有爭執」之意涵如下：
+• (一) 爭執之情形有三：
+1. 登記權利人與登記義務人之間有爭執。如甲將一筆土地出售於乙，甲與乙之間對買賣有爭執。
+2. 登記權利人與申請登記之法律關係有關之權利關係人之間有爭執。如甲以其土地設定典權於丙，嗣甲將其土地出售於乙，乙與丙之間對優先購買權有爭執。
+3. 登記義務人與申請登記之法律關係有關之權利關係人之間有爭執。如甲以其土地設定典權於丙，嗣甲將其土地出售於乙，甲與丙之間對優先購買權有爭執。
+• (二) 對於該法律關係有爭執，即已符合駁回之要件，不以對其爭執已提起訴訟為必要。
+• (三) 就申請登記之法律關係有爭執，登記機關始得駁回登記之申請。如非屬申請登記之法律關係有爭執，登記機關不得駁回登記之申請。換言之，僅限於申請登記之法律關係有爭執，而非泛指申請登記不動產之所有法律關係有爭執。如時效取得地上權登記審查要點第15點規定，即是一例。</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911940</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:41</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>登記、權利人、義務人、優先購買權</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>911726</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>共有耕地分割,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2024/06/27</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>農業發展條例第16條第1項本文規定：「每宗耕地分割後每人所有面積未達○．二五公頃者，不得分割。」設若「共有耕地分割後，部分為單獨所有，部分維持共有，但各筆面積均達0.25公頃。」是否為法所許？有二種不同見解：
+• (一) 行政機關見解：依據耕地分割執行要點第5點規定：「耕地之分割，除有本條例第十六條第一項各款情形外，其分割後每人所有每宗耕地面積應在○．二五公頃以上。」
+所謂「每人所有面積」意指耕地分割為單獨所有者，其分割後每筆之耕地面積應達0.25公頃以上，始得同意辦理分割，故不得有數筆面積合併計算達0.25公頃或數人共有單筆面積達0.25公頃之情事（94.4.20農企字第0940119312號函）。
+• (二) 司法實務見解：
+1. 農委會94年4月20日函釋所稱「不得有數人共有單筆面積達0.25公頃之情事」乙節，逾越農業發展條例第16條第1項本文之文義範圍，增加農業發展條例第16條所無之限制，與法律保留原則有違。
+2. 分割後每宗耕地面積均已達0.25公頃，並未形成多宗面積未達0.25公頃土地之耕地細分情形，符合農業發展條例第16條第1項本文規定分割後最小面積之限制，未違背該條防止耕地細分，便利農場經營管理，簡化耕地權屬複雜之立法目的。 （最高行政法院109年度上字第717號判決）
+• (三) 綜上，由於行政機關與司法實務之見解歧異，造成共有耕地雖經法院判決准於分割，但登記機關否准辦理測量登記之情形。</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911726</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:44</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>耕地、農業發展</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>911673</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>仕紳化現象,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2024/06/20</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>• 一、仕紳化之意義
+所謂仕紳化（Gentrification），指舊市區從原本聚集低收入者，到更新重建後，房租及房價上漲，而吸引高收入者的遷入。
+• 二、仕紳化之原因
+1. 租隙效應：租隙（rent gap），指一塊土地之潛在地租與實際地租之差額。所稱潛在地租，指最有效使用狀況下之地租。所稱實際地租，指實際使用狀況下之地租。一塊土地之租隙，隨著時間增加而逐漸擴大。當租隙夠大時，該土地就值得更新重建。
+2. 少子女化效應：家庭人口愈來愈少，居住坪數愈來愈小，因此經濟基礎稍佳者之居住地點由郊區遷往市中心，以接近工作地點，減少交通通勤時間，增加休閒娛樂時間。另，不婚人口增加，亦會產生此一現象。
+3. 舊市區建設效應：政府加強舊市區公共建設，增加舊市區公共設施，翻轉舊市區發展（如台北市西門町即是），造成舊市區地價及房價上漲。
+• 三、仕紳化對土地利用之影響
+1. 更新重建發生：舊市區房價、地價不斷上漲，租隙不斷擴大，老舊房屋之更新重建積極進行。
+2. 土地集約度提高：舊市區房屋原以透天、公寓為主，經過更新重建後，高樓大廈林立。土地集約度由小轉大、由弱轉強。
+3. 土地用途轉變：舊市區原本經濟活動凋零，經過仕紳化之後，精品店、大賣場、百貨公司等逐漸回流，土地用途發生變化。</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911673</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:48</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>仕紳化、租隙</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>911627</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>公地標售之兩難,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2024/06/13</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>公地標售，一般以市價作為其底價，再由投標者加價競標，因此標脫價一定高於周遭市價，因而帶動周遭之地價及房價上漲。
+公地標售（如市地重劃之抵費地標售、區段徵收之配餘地標售等），如果高價標出，雖增加國庫收入，但卻帶動地價及房價上漲。如果底價訂得太低而低價標出，恐被批評為賤售公產。因此，公地標售陷入兩難。
+總之，大塊完整之公有土地儘量不要標售，應採取招標設定地上權或供興建社會住宅之用。</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911627</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:51</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>公地標售、地價、房價</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>912036</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>土地建物參考資訊檔,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2024/07/16</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>• 一、意義
+所稱與土地或建物有關之資訊，指各級政府機關所提供非屬土地法規定應登記事項之資訊(土地參考資訊檔作業要點第2點)。係為「地政事務所將有關機關要求註記於土地登記簿之事項（例如海沙屋、受污染農地、容積移轉等），以電腦轉檔方式附屬記載於土地登記資料庫內，並且提供相關機關及社會大眾參考使用之資料而言」。
+• 二、目的
+為建立土地參考資訊檔，以利各級政府機關建置與土地或建物有關之資訊，提供相關機關及社會大眾參考使用，並達到土地、建物資訊單一窗口服務之功能。亦即進一步提供其他與民眾權益息息相關但與登記效力無涉之土地或建物參考資訊該項作業主要係為滿足民眾對於土地資訊知的權利，期能減少交易糾紛並促進土地利用。
+• 三、查詢方式
+自96年7月11日起，提供土地參考資訊查詢列印服務，獲得更多與申請標的相關之資訊。日前內政部已建置免費查詢網站可供直接輸入地、建號查詢： 土地建物參考資訊檔查詢網站 (moi.gov.tw)</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912036</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:54</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>土地參考資訊檔、建物、土地</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>912000</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>預告登記之意義與要件,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2024/07/09</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>預告登記係預為保全對於他人土地權利之請求權，而由請求權人檢附登記名義人之同意書及印鑑證明，向該管登記機關所為之限制登記名義人處分其土地權利之登記。亦即保全權利之得喪變更請求權之暫時性登記。
+• (1) 須以他人已登記之不動產為對象(標的物辦竣登記)
+• (2) 須為保全對不動產物權變動之債權請求權 預告登記係聲請保全下列請求權(土§79-1I)： A.關於土地權利移轉或使其消滅之請求權。 B.土地權利內容或次序變更之請求權。 C.附條件或期限之請求權。
+• (3) 須經登記名義人之同意 聲請保全下列請求權之預告登記，應由請求權人檢附登記名義人之同意書為之(土§79-1I、土登§137I)。
+• (4) 須申請並登記完畢</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=912000</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:14:58</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>預告登記、土地權利、請求權、登記名義人</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>911837</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>不課徵地價稅之土地,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2024/07/02</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>按土地稅法第14條，已規定地價之土地，除依規定課徵田賦者外，應課徵地價稅。亦即不課徵地價稅者，包含「未規定地價土地」及「課徵田賦之土地」。其中，後者依土地稅法第22條規定，有以下之土地：
+• (一) 非都市土地依法編定之農業用地或未規定地價者。
+• (二) 都市土地合於下列規定者：
+1. 依都市計畫編為農業區及保護區，限作農業用地使用者。
+2. 公共設施尚未完竣前，仍作農業用地使用者。
+3. 依法限制建築，仍作農業用地使用者。
+4. 依法不能建築，仍作農業用地使用者。
+5. 依都市計畫編為公共設施保留地，仍作農業用地使用者。
+前項第二款及第三款，以自耕農地及依耕地三七五減租條例出租之耕地為限。
+• (三) 其他土地：
+農民團體與合作農場所有直接供農業使用之倉庫、冷凍(藏)庫、農機中心、蠶種製造(繁殖)場、集貨場、檢驗場、水稻育苗用地、儲水池、農用溫室、農產品批發市場等用地。</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911837</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:01</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>地價稅、農業用地</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>911692</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>優先購買權的「發生」與「行使」時點,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2024/06/25</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>1. 以土地法及耕地三七五減租條例而言，法定優先承買權，應於耕地租賃契約成立時，隨即「發生」，而於出租人出賣或出典時得為「行使」。權利發生與行使，係屬不同層次概念，似有嚴格區別之必要（王澤鑑，1998）。
+2. 將其概念套用至共有不動產而言，當共有人成立共有關係時，即具有土地法第34條之1第4項所規定的優先購買權，此為「優先購買權之發生」；惟必須等到共有人出賣其應有部分時，此時方得為「優先購買權之行使」。
+3. 因此，連結到優先購買權得否在共有人正式訂約前就「預先」告知拋棄，以此概念是可以的。因為於共有時早就擁有優先購買權，只是尚不能行使而已，故得提前將已擁有的權利放棄掉。又從權益保障或目的來看，優先購買權會影響交易時程，且主要是為了保障他共有人，假設他共有人提前告知放棄優先購買權（不管什麼契約條件他都不會買），並無損於其權益，也會使交易更為順利，那解釋上就應該可以預先拋棄的。
+參考來源：王澤鑑，1998，耕地承租人事先拋棄優先承受權之效力，民法學說與判例研究第1冊。</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911692</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:04</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>優先購買權、土地法、耕地</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>911654</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>受託人死亡後之信託關係處理,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2024/06/18</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>小張將其名下A不動產辦理信託登記給阿寧，惟經過五年後，阿寧因病去世，阿寧之女小寧以A不動產屬遺產，以及繼承其母之受託人地位而拒絕將不動產移轉給小張，試問有無理由？
+• 一、適用法條
+信託法第8條（信託關係之存續）、第10條（信託財產非屬遺產）、第45條（受託人任務終了）、第47條（受託人變更之受託財產移轉）、第48條（受託人變更之債務負擔）。
+• 二、解題關鍵
+• (一) 受託人死亡時，信託財產不屬於其遺產。
+• (二) 受託人之任務，因受託人死亡、受破產、監護或輔助宣告而終了。由於信託是基於委託人對於受託人之信任，故受託人死亡後，其職責也將終止，而非由繼承人承繼，因委託人對其未必具有信賴。
+• (三) 受託人變更時，信託財產視為於原受託人任務終了時，移轉於新受託人。又受託人變更時，由新受託人承受原受託人因信託行為對受益人所負擔之債務。因此，受託人地位應不得繼承，且該信託財產及後續權利義務應由另行選定之新受託人承受。
+• 三、結論
+受託人阿寧死亡後，其地位、權利義務及信託財產都非得由其繼承人小寧繼承之標的，故小寧主張並無理由。
+參考來源： 曾榮耀編著，信託法概要，附錄四精選案例第20題。</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911654</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:07</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>受託人、信託財產、信託法</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>911612</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>居住正義之意涵,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2024/06/11</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>• 一、意義
+「居住」為基本人權，任何人皆應享有公平之居住權利，不得有歧視待遇，「正義」可謂是合於人心義理之行為，而不應出現恃強凌弱之現象。因此，居住正義指基於憲法保障國民基本人權的精神，結合政府與民間資源，在健全的住宅市場、合宜的居住品質、公平效率的住宅補貼與社會住宅的規劃下，使不同所得水準、身心機能、性別、年齡、家戶組成、族群文化之國民，擁有適居且有尊嚴的居住環境。
+• 二、內涵
+• (一) 分配正義
+不同所得、年齡、族群者，都應獲得平等對待，皆能擁有適居且有尊嚴的居住環境，故不應出現「富人住豪宅，窮人住陋室，甚或無家可歸」之現象，而應是「居者適其居」。
+• (二) 應報正義
+對於投機炒作等惡行者，給予相對應之限制、稅負或處罰，以健全住宅市場，增加住宅選擇機會。</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911612</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:11</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>居住、居住正義</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>911547</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>受託人得否同意處分共有不動產給自己,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2024/06/04</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>甲乙丙三人分別共有一筆A不動產，應有部分均等，其中甲應有部分辦理信託登記給丁，並約定受益人即為委託人甲，試問受託人丁今得否將1/3出售給自己？
+擬答
+• (一) 丁得自由將1/3出售給自己而不需乙、丙
+根據民法第819條規定，各共有人，得自由處分其應有部分。故丁得自由將1/3出售給自己而不需其他共有人乙、丙之同意。
+• (二) 丁將1/3出售給自己需經甲同意
+1.
+根據信託法第35條第1項規定，受託人除有下列各款情形之一外，不得將信託財產轉為自有財產，或於該信託財產上設定或取得權利：
+• (1) 經受益人書面同意，並依市價取得者。 (2)由集中市場競價取得者。 (3)有不得已事由經法院許可者。
+2. 倘若受託人丁係基於受益人之利益，確實經受益人甲書面同意，並依市價取得，或確有不得已事由經法院許可，則得將1/3出售給自己。
+3. 如受託人丁違反規定處分信託財產，委託人、受益人甲，可請求損害賠償、回復原狀或減免報酬，並得請求將其所得之利益歸於信託財產；於受託人丁有惡意者，應附加利息一併歸入。該請求權，自委託人、受益人甲知悉之日起，二年間不行使而消滅。自事實發生時起逾五年者，亦同。</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911547</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:14</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>信託財產、受益人、受託人</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>911446</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>先行區段徵收,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2024/05/28</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>• 一、區段徵收之意義
+區段徵收係於一定區域內之土地，應重新分宗整理，而為全區土地之徵收。其得辦理之情形如下：
+• (一) 新設都市地區之全部或一部，實施開發建設者。
+• (二) 舊都市地區為公共安全、衛生、交通之需要或促進土地之合理使用實施更新者。
+• (三) 都市土地之農業區、保護區變更為建築用地或工業區變更為住宅區、商業區者。
+• (四) 非都市土地實施開發建設者。
+• (五) 農村社區為加強公共設施、改善公共衛生之需要或配合農業發展之規劃實施更新者。
+• (六) 其他依法得為區段徵收者。
+• 二、先行區段徵收之意義
+都市計畫範圍內，各級政府徵收私有土地或撥用公有土地，不得妨礙當地都市計畫。而區段徵收為一定地區之土地整體開發，即須依據都市計畫空間指導進行空間配置，故原則應先有細部計畫，始有區段徵收。然「先行區段徵收」制度為例外，係都市計畫尚未發布實施時，可以先進行區段徵收的機制。
+• 三、先行區段徵收之程序
+• (一) 走都市計畫程序
+1. 就前區段徵收之原因當中，屬第一款至第三款(新、舊、都)之開發範圍經中央主管機關核定者，得先行區段徵收，並於區段徵收公告期滿後一年內發布實施都市計畫，不受都市計畫法規定之限制。
+2. 其中，先行區段徵收地區，應配合辦理迅行變更都市計畫者，需用土地人應於報請中央主管機關核定開發範圍前，先徵得中央都市計畫主管機關同意依都市計畫法第27條規定辦理；應辦理新訂或擴大都市計畫者，則依規定層報核可（即先經區域計畫委員會審議，取得內政部同意函）。
+• (二) 走非都市變更程序
+第五款(農村)之開發，需用土地人得會同有關機關研擬開發範圍，並檢具經上級目的事業主管機關核准之興辦事業計畫書，報經中央主管機關核定後，先行區段徵收，於區段徵收公告期滿後，依土地使用計畫完成非都市土地分區或用地編定之變更。
+• (三) 第四款(非都)或第六款(其他)之開發，涉及都市計畫之新訂、擴大或變更者，得依(一)規定辦理；未涉及者，得依(二)之規定辦理。</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911446</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:17</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>區段徵收、都市計畫</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>911405</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>私權爭執之意義,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2024/05/21</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>應係指登記權利人與登記義務人或關係人間，就「申請登記之法律關係」之爭執，在未經有權認定機關確認前，登記權利人所申請登記事項之權利是否確屬存在，尚不明確者而言。因此，所謂「涉及私權爭執」範圍甚廣，舉凡與登記事項有關而涉及私法上權利存否之爭議者，均包括在內。亦即對於該法律關係之存否有所爭議之情形而言。
+其要件歸納如下：
+1. 須申請登記案件已為登記機關受理並收件。
+2. 須主張異議之時點為登記機關行使審查權限至准予登記前。
+3. 須主張異議之人為登記權利人、登記義務人或權利關係。
+4. 須異議之人係就申請登記之法律關係為爭執。即「直接法律上關聯性說」：並非泛指以登記不動產為標的之所有法律關係之爭執而言，而應以申請登記之法律關係有「直接關聯」之爭執為限。例如甲與乙僅金錢債權爭執，應與甲辦理不動產所有權移轉登記給丙無涉。
+5. 須自始未被現行法規排除於登記案件涉及私權爭執規範之適用範圍。
+參考資料來源：
+陳立夫，2020，土地登記涉及私權爭執事項及土地法第34條之1規定，中華不動產仲裁協會第五期仲裁人講習。
+陳明燦，2020，土地登記異議處理方式法律問題之分析-兼論土地登記規則第57條第1項第3款規定。</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911405</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:20</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>私權爭執、登記權利人、登記義務人</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>911354</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>無償供公眾通行道路土地之減免申報義務,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2024/05/14</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>根據土地稅法第9條規定：「無償供公眾通行之道路土地，經查明屬實者，在使用期間內，地價稅或田賦全免。但其屬建造房屋應保留之法定空地部分，不予免徵。」
+至於其減免程序，根據土地稅減免規則第22條：依規定申請減免地價稅或田賦者，公有土地應由管理機關，私有土地應由所有權人或典權人，造具清冊檢同有關證明文件，向直轄市、縣（市）主管稽徵機關為之。但合於下列規定者，應由稽徵機關依通報資料逕行辦理或由用地機關函請稽徵機關辦理，免由土地所有權人或典權人申請，其中第五款為：「私有無償提供公共巷道用地」，應由工務、建設主管機關或各鄉（鎮、市、區）公所建設單位，列冊送稽徵機關辦理。
+然而，根據臺北高等行政法院100年度訴字第1951號判決要旨：「按土地稅減免規則第22條第5款有關私有無償提供公共巷道，免由土地所有權人申請規定之適用，係以稽徵機關經地方建設主管機關通報者為前提；倘係私設巷道或一般既成道路，因無資料可稽，則非由土地所有權人申請，尚乏憑據得以減免。故減徵或免徵地價稅之事由發生，自從土地所有權人提出免徵土地地價稅申請，依土地稅減免規則第24條之規定，應自該申請年度起始有免徵地價稅之適用，並無溯及之效力。」
+另臺中高等行政法院100年度訴更一字第42號判決要旨：「未完成都市計畫法定程序區域之私有土地，須土地所有權人已表示願意無償提供使用，稽徵機關始應依工務、建設主管機關或各鄉（鎮、市、區）公所建設單位之列冊通報資料逕行辦理免徵地價稅：如未經土地所有權人表示願意無償提供使用，縱有無償供公共通行之巷道或廣場使用，並不當然生免徵地價稅之優惠效果，稽徵機關仍應經納稅義務人即所有權人或典權人，造具清冊檢同有關證明文件申請。」
+另外，按112年憲法法庭第12號判決：建築基地內之私設通路固屬建造房屋應保留之法定空地，惟該等私設通路如已超過依法應保留之法定空地面積，且已無償供公眾通行使用，此等私設通路之功能，與非供不特定公眾使用之法定空地究有不同。有關機關對於此等情形之私設通路之地價稅核課，允宜考量予以一定程度之減免，以兼顧人民權益與租稅公平。
+綜上，私有無償供公眾通行之道路土地，倘若為都市計畫劃設或已屬明確經主管機關管理之公共巷道，則應由地方建設主管機關通報稅捐機關予以減免。至於非屬前列者，如私設道路、既成道路等，因無資料可稽，故無從列冊送稽徵機關，仍應由土地所有權人申請核定再憑減免。</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911354</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:24</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>公眾通行、無償、土地稅、土地所有權人</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>911195</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>約定由受贈人負擔贈與稅不得作為扣除額,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2024/05/07</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>文昌大師贈與一筆臺北市不動產給耀哥，並約定該次贈與應繳納之贈與稅10萬元由耀哥負擔，試問文昌大師辦理贈與稅申報時，得否將10萬元列為贈與扣除額？
+贈與稅的稅基為贈與淨額，其等於贈與總額－扣除額－免稅額。而扣除額包含「贈與附有負擔」、「公共設施保留地」、「土地增值稅與契稅」，其中，針對贈與附有負擔者，係依據遺產及贈與稅法第21條規定：「贈與附有負擔者，由受贈人負擔部分應自贈與額中扣除。」
+然而，約定由受贈人負擔該次贈與稅，並無此條規定以贈與附有負擔自贈與額中扣除之適用。其理由如下：
+1. 依遺產及贈與稅法第7條規定，贈與稅之納稅義務人為贈與人，其公法上負擔並不因當事人約定而變更，縱以贈與契約約定由受贈人負擔繳納贈與稅，亦僅屬私人間債權債務契約，僅生私法上效果，並無拘束稽徵機關之效力，如受贈人將來未履行繳納義務，稽徵機關也僅能對贈與人強制執行，所以，贈與契約訂定時，贈與人實難確保受贈人履行該繳納贈與稅之負擔，因此，與同法施行細則第18條第1項規定，贈與附有負擔而得主張扣除者，以該負擔業經履行或能確保其履行者為限之之要件不合，自不得扣除。
+2. 從遺產及贈與稅法體系來看，該法第21條所稱負擔，應不包含由受贈人負擔繳納贈與稅之情形。
+3. 同法施行細則第19條明文規定，得減除之稅賦限契稅或土地增值稅，並無准予扣除贈與稅之規定，故非現行法律所規範得扣除之項目。
+因此，文昌大師不得將該約定由耀哥負擔之10萬元贈與稅額，列為該次贈與之扣除額。
+參考來源：財政部中區國稅局，2016</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911195</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:27</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>贈與稅、受贈人、贈與人</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>911173</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>公共設施保留地抵繳遺產稅之規定,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2024/04/30</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>• 一、一般抵繳規定
+• (一) 抵繳情形
+遺產稅或贈與稅應納稅額在三十萬元以上，納稅義務人確有困難，不能一次繳納現金時，得於納稅期限內，就現金不足繳納部分申請以在中華民國境內之課徵標的物或納稅義務人所有易於變價及保管之實物一次抵繳。
+中華民國境內之課徵標的物屬不易變價或保管，或申請抵繳日之時價較死亡或贈與日之時價為低者，其得抵繳之稅額，以該項財產價值占全部課徵標的物價值比例計算之應納稅額為限。（遺贈稅法第30條第4項）
+• (二) 抵繳價值
+1.
+課徵標的物
+納稅義務人申請以繼承或受贈中華民國境內之課徵標的物抵繳遺產稅或贈與稅者，其抵繳價值之計算，以該項財產核課遺產稅或贈與稅之價值為準。（遺贈稅法細則第46條第1項）
+2.
+非課徵標的
+納稅義務人申請以課徵標的物以外之財產抵繳遺產稅或贈與稅者，其抵繳價值之計算，以申請日為準，並準用有關遺產或贈與財產之估價規定辦理。（遺贈稅法細則第46條第4項）
+• 二、公共設施保留地抵繳規定
+• (一) 根據遺產及贈與稅法第44條第一項規定：「被繼承人遺產中依都市計畫法第五十條之一免徵遺產稅之公共設施保留地，納稅義務人得以該項財產申請抵繳遺產稅款。」
+• (二) 同法第三項則規定：「公共設施保留地，除於劃設前已為被繼承人或贈與人所有，或於劃設後因繼承移轉予被繼承人或贈與人所有，且於劃設後至該次移轉前未曾以繼承以外原因移轉者外，得抵繳之遺產稅或贈與稅款，以依下列公式計算之金額為限：
+公共設施保留地得抵繳遺產稅或贈與稅之限額＝依本法計算之應納遺產稅額或贈與稅額 ×（申請抵繳之公共設施保留地財產價值÷全部遺產總額或受贈財產總額）」
+• (三) 亦即公共設施保留地申請抵繳遺產稅有以下兩種情形：
+1. 全額抵繳：公共設施保留地於劃設前已為被繼承人所有，或於劃設後歷次因繼承移轉給被繼承人，該土地得以全額抵繳。
+2. 部分抵繳：上述情況以外，申請抵繳的公設地須按公式計算的金額為抵繳上限，進行部分抵繳。
+其中，公共設施保留地依都市計畫法第50條之1後段規定，因繼承而移轉之公共設施保留地，免徵遺產稅。因此，其價值計算依據前述非遺產稅課徵標的，應以申請抵繳日之公告土地現值為準。（參財政部99年8月31日台財稅字第09900232770號函）
+舉例說明：
+甲於113年4月死亡，核定遺產總額共5,000萬元，該遺產皆為不動產並含有一筆於90年劃設的公共設施保留地A地，經其繼承人乙申報遺產稅後，應納稅額為40萬元。乙申請以甲所有之A地（申請日之公告土地現值1,000萬元）進行抵繳，請問A地之抵繳方式為何？
+1.
+甲於90年劃設後才取得A地
+申請抵繳稅款的上限金額＝遺產稅額40萬元 × （A地1,000萬元 ÷ 遺產總額5,000萬元）＝ 8萬元。
+2.
+甲於90年劃設前即取得A地
+可以A地全額抵繳該遺產稅40萬元。</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911173</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:30</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>公共設施保留地、遺產稅、贈與稅、納稅義務人</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>911137</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>土地增值稅與契稅繳納人不同之贈與稅差異,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2024/04/23</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>耀哥於101年4月取得台中市西屯區一處都市計畫住宅區房地，土地面積為200平方公尺（取得當時土地申報移轉現值為每平方公尺1萬元）、房屋標準價格為250萬元，113年3月贈與其成年已有財力之子（贈與當時耀哥依公告土地現值每平方公尺2萬元申報移轉現值、房屋標準價格為220萬元，消費者物價總指數則為115.7%，且增繳地價稅已超過5%），試問贈與時所應繳納之土地增值稅、契稅由其子支付或由耀哥代為支付，贈與稅額是否有所差異？各為多少？
+答：
+贈與時所應繳納之土地增值稅、契稅由耀哥支付或由其子支付，贈與稅有所差異，說明與計算如下：
+• 一、土地增值稅、契稅由其子（受贈人）支付
+• (一) 土地增值稅＝[((200×2)－(200×1×115.7%))×20%]×(1-5%)＝32.03(萬元)
+• (二) 契稅＝220×6%＝13.2(萬元)
+• (三) 根據遺產及贈與稅法施行細則第19條規定：「不動產贈與移轉所繳納之契稅或土地增值稅得自贈與總額中扣除。」因此，此次贈與所繳納的土地增值稅與契稅共45.23萬元得作為此次贈與稅之扣除額。
+• (四) 贈與稅＝（每年贈與總額－扣除額－免稅額）×累進稅率 [(200×2+220)－(32.03+13.2)－244]×10%＝33.08(萬元)
+• 二、土地增值稅、契稅由耀哥（贈與人）支付
+• (一) 土地增值稅＝32.03(萬元)
+• (二) 契稅＝13.2(萬元)
+• (三) 根據遺產及贈與稅法施行細則第19條規定：「不動產贈與移轉所繳納之契稅或土地增值稅得自贈與總額中扣除。」因此，此次贈與所繳納的土地增值稅與契稅共45.23萬元得作為此次贈與稅之扣除額。
+• (四) 惟土地增值稅、契稅如由耀哥（贈與人）代為繳納，依遺產及贈與稅法第5條第1款規定（在請求權時效內無償承擔債務者，其承擔之債務），應以贈與論，故應加入贈與總額中，再依遺產及贈與稅法施行細則第19條規定自贈與總額中扣除。
+• (五) 贈與稅＝（每年贈與總額－扣除額－免稅額）×累進稅率 [(200×2+220+45.23)－45.23－244]×10%＝37.06(萬元)
+綜此，土地增值稅與契稅由其子支付，其贈與稅負擔相對較輕。</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911137</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:34</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>土地增值稅、契稅、贈與稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>911049</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>土地增值稅公式之問題,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2024/04/16</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>土地增值稅計算公式之問題，茲彙整如下：
+1. 公告土地現值偏離市價，部分漲價歸私。
+2. 當期(同年度)移轉無土地增值。
+3. 僅有原地價有物價調整，費用卻無調整。
+4. 稅率僅20～40%，至少有一半以上土地增值歸私。
+5. 費用必須舉證方能扣除。
+另可參司法院釋字第286號解釋之不同意見書：
+• (1) 土地增值稅之徵收，以土地之自然漲價為標的，應依照土地自然漲價總數額計算，不包括土地所有權人為改良土地已支出之全部費用及因而增加之價值在內。
+• (2) 土地所有權人改良土地已支出之全部費用，不問土地價值有無增加，均許減去，乃以鼓勵土地所有權人改良土地為理由。
+• (3) 土地可因其所有權人施以勞力資本改良而增加價值，則為常態。此項價額，主管機關既認於計算土地自然漲價總數額時，理應扣除，自應修正估價法規，改進估計技術，予以推計分離。同條例施行細則為求課徵簡便，未規定土地所有權人於報請驗證登記改良費時，同時將土地因改良而增加之價額，報請驗證登記，以便於計算土地自然漲價總額數時憑以減去，致土地有無因土地所有權人改良而增加之價值或其價額若干？事後查核困難，但仍非不能查核，自應克服困難，予以核計而為合理之劃分。
+• (4) 明定該項費用之範圍，致扣除項目，不包括土地所有權改良土地所增加之價值，而將其算入自然增值。此種計算之方法，雖可減少困難，節省稽徵成本，然造成課稅基礎之混淆，已足以損及公益，且因土地增值稅之課稅標的中含有「可能存在」之非自然增值，在利益團體影響下，導致降低課徵土地增值稅稅率之立法。</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911049</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:37</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>土地增值稅、土地、所有權人</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>910966</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>地震等重大災害之不動產稅捐減免規定,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2024/04/09</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>倘若發生地震等重大災害時，不動產受到災損影響，其相關稅捐減免規定茲簡要整理如下：
+• 一、房屋稅
+• (一) 情形
+1. 尚可使用 私有房屋有受重大災害，毀損面積占整棟面積三成以上不及五成之房屋情形，其房屋稅減半徵收(房§15II)。
+2. 無法使用 私有房屋有受重大災害，毀損面積占整棟面積五成以上，必須修復始能使用之房屋情形，免徵房屋稅(房§15I⑦)
+3. 滅失或拆除 房屋遇有焚燬、坍塌、拆除至不堪居住程度者，應由納稅義務人申報當地主管稽徵機關查實後，在未重建完成期內，停止課稅 (房§8)。
+• (二) 程序
+應由納稅義務人於每期房屋稅開徵四十日以前向當地主管稽徵機關申報；逾期申報者，自申報之次期開始適用。經核定後減免原因未變更者，以後免再申報(房§15III)。
+• 二、地價稅
+• (一) 情形
+因山崩、地陷、流失、沙壓等環境限制及技術上無法使用之土地，地價稅全免 (土稅減§12)。
+• (二) 程序
+申請減免地價稅者，應於每年開徵四十日前（9月22日）提出申請；逾期申請者，自申請之次年起減免。減免原因消滅，自次年恢復徵收(土稅減§24)。
+• 三、申請延期或分期
+1. 納稅義務人因天災、事變、不可抗力之事由或為經濟弱勢者，不能於法定期間內繳清稅捐者，得於規定納稅期間內，向稅捐稽徵機關申請延期或分期繳納，其延期或分期繳納之期間，不得逾三年(稅稽§26)。
+2. 所稱延期繳納，指延長繳納期限，一次繳清應納稅捐；所稱分期繳納，指每期以一個月計算，分次繳納應納稅捐。
+3. 僅得就延期或分期繳納擇一適用。
+4. 延期最長12個月，分期最長得分36期。 （納稅義務人申請延期或分期繳納稅捐辦法）</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910966</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:40</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>重大災害、房屋稅、納稅義務人、地價稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>910921</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>淨零排放之意義與土地利用規劃作為,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2024/04/02</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• (一) 意義
+1. 淨零排放：指溫室氣體排放量與碳匯量達成平衡。
+2. 國家溫室氣體長期減量目標為中華民國一百三十九年（2050）溫室氣體淨零排放。為達成前項目標，各級政府應與國民、事業、團體共同推動溫室氣體減量、發展負排放技術及促進國際合作。(氣候變遷因應法第4條)
+• (二) 路徑
+我國於2022年3月正式公布「臺灣2050淨零排放路徑及策略總說明」，提供至2050年淨零之軌跡與行動路徑，以促進關鍵領域之技術、研究與創新，引導產業綠色轉型，帶動新一波經濟成長，並期盼在不同關鍵里程碑下，促進綠色融資與增加投資，確保公平與銜接過渡時期。
+我國2050淨零排放路徑將會以「能源轉型」、「產業轉型」、「生活轉型」、「社會轉型」等四大轉型，及「科技研發」、「氣候法制」兩大治理基礎，輔以「十二項關鍵戰略」，就能源、產業、生活轉型政策預期增長的重要領域制定行動計畫，落實淨零轉型目標。
+[圖片1]
+[圖片2]
+• (三) 碳匯
+1. 意義 碳匯指將二氧化碳或其他溫室氣體自排放源或大氣中持續移除後，吸收或儲存之樹木、森林、土壤、海洋、地層、設施或場所。
+2. 類型 (1)綠碳（森林碳匯） (2)藍碳（海洋碳匯） (3)黃碳（土壤碳匯）
+• (四) 土地利用規劃之作為
+• I. 土地使用面向
+1. 降低不必要土地開發：在人口總量減少的變遷下，透過國土計畫減少不必要之土地開發，降低碳排放與節約能源。
+2. 增加碳匯空間：就國土計畫所劃設的國土保育地區加強保育，於國土復育促進地區進行生態復育，配合森林保育與造林，增加碳匯空間，藉此達到碳中和。
+3. 緊密都市（Compact city）規劃：藉由土地混合使用，將食衣住行育樂等日常生活所需之活動空間，盡可能配置在同一區域，可有效降低都市活動移動距離，以步行或自行車取代私人汽機車運具使用，減少不必要的交通旅次，進而縮減使用運具所產生的溫室氣體排放。
+• I. I.交通運輸面向
+1. 大眾運輸導向發展（Transit-oriented development, TOD）：係藉由大眾運輸系統之構建，引導居住、工作、購物、休閒等活動空間於大眾運輸路線廊帶上有秩序地分布，以形塑高可居性、可及性及有效率的永續都市型態與土地利用模式。藉此，提高大眾運輸使用率，降低碳排高的汽機車使用。
+2. 適當縮減停車位與道路用地劃設：適當縮減停車位與道路用地，以誘導搭乘大眾運輸，減少私人運具使用，進而減少碳排放。
+3. 打造友善綠色運輸環境：以人為本的交通規劃，確保自行車道、步行環境的友善性、可及性、安全性、連貫性等，藉此鼓勵多以步行、自行車等綠色運輸取代私人運具之通勤使用，減少碳排。
+• I. II.公共設施面向
+1. 公共設施區位規劃：就鄰里人口分布狀況，有效配置公共設施服務，減少通勤旅次。
+2. 既有公共設施再利用：由於少子化、高齡化之社會結構變遷，就閒置的學校等公共設施，規劃、清理轉型為社會住宅、安養中心等，避免重新開發增加碳排。
+• I. V.都市設計面向
+1. 鼓勵綠建築：綠建築係在建築生命週期中，消耗最少地球資源，使用最少能源及製造最少廢棄物的建築物。因此，可於建築或開發審議時，除給予容積獎勵外，多鼓勵建商採用綠建築。
+2. 配置都市藍、綠帶系統與風廊：人口與建成環境集中下，都市熱島效應越趨嚴重。可透過水環境之藍帶系統，以及綠地、濕地之綠帶系統規劃設計，並配合風廊營造，紓緩熱島效應下冷氣空調大幅使用所造成之溫室氣體排放與高耗能。
+## 文章圖片
+![圖片1](./images/910921_128d65d8.png)
+![圖片2](./images/910921_d0e55009.png)
+</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910921</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:44</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>淨零排放、溫室氣體、碳匯</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>910860</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>被繼承人死亡前二年內贈與都市計畫公共設施保留地 是否應計入遺產總額,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>甲112年3月3日將其所有的A縣都市計畫之公共設施保留地贈與給其子乙，後於113年6月6日死亡，其子乙依規定申報遺產稅時，是否應將該筆土地併入遺產總額申報，再將其列為扣除額中扣除？
+• 一、相關規定
+• (一) 遺產及贈與稅法第15條：「被繼承人死亡前二年內贈與下列個人之財產，應於被繼承人死亡時，視為被繼承人之遺產，併入其遺產總額，依本法規定徵稅：
+1. 被繼承人之配偶。
+2. 被繼承人依民法第1138條及第1140條規定之各順序繼承人。
+3. 前款各順序繼承人之配偶。」
+• (二) 都市計畫法第50條之1後段：「…公共設施保留地因繼承或因配偶、直系血親間之贈與而移轉者，免徵遺產稅或贈與稅。」
+• 二、結論
+原本按照上述規定，照理應將該贈與之公共設施保留地併入被繼承人甲的遺產總額申報，並檢具註記公共設施保留地的土地使用分區證明書，列報公共設施保留地扣除額。
+惟因都市計畫法第50條之1已明定，因繼承而移轉予配偶、直系血親的公共設施保留地，免徵遺產稅，故甲生前贈與行為，顯無規避遺產稅的動機，乙無須再將甲死亡前2年內贈與公共設施保留地，併入被繼承人甲的遺產總額，以及將該公共設施保留地的遺產價額，同額列報公共設施保留地扣除額，以茲簡政便民。
+參考來源：被繼承人死亡前2年內贈與法定免徵遺產稅的土地，免併計遺產總額-財政部北區國稅局 (ntbna.gov.tw)</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910860</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:47</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>公共設施、都市計畫、遺產稅、繼承人</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>910827</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>信託與委託(任)之差異,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2024/03/19</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>信託與委託雖名稱相似，但有所差異，本周專欄茲整理如下：
+• T. ABLE_PLACEHOLDER_1</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910827</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:51</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>信託、委託、委任、委託人、委任人、受任人</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>910709</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>共有物分割與分管之差異,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>• T. ABLE_PLACEHOLDER_1</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910709</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:54</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>共有物、所有權、共有關係、變動關係</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>910659</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>農地之定義,曾榮耀老師</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>蘇偉強</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2024/03/05</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>凡供農業生產用的土地，即可稱為農地。
+由於農業生產的意義有廣狹之分，所以農地一詞也有廣狹之別：
+1. 廣義：農業用地
+• (1) 平均地權條例第3條、農業發展條例第3條及土地稅法第10條指非都市土地或都市土地農業區、保護區範圍內土地，依法供下列使用者︰
+1. 供農作、森林、養殖、畜牧及保育使用者。
+2. 供與農業經營不可分離之農舍、畜禽舍、倉儲設備、曬場、集貨場、農路、灌溉、排水及其他農用之土地。
+3. 農民團體與合作農場所有直接供農業使用之倉庫、冷凍（藏）庫、農機中心、蠶種製造（繁殖）場、集貨場、檢驗場等用地。
+• (2) 又依農業發展條例施行細則第2條，所稱依法供前述第一目至第三目使用之農業用地，其法律依據及範圍如下：
+1. 本條例第三條第十一款所稱之耕地。
+2. 依區域計畫法劃定為各種使用分區內所編定之林業用地、養殖用地、水利用地、生態保護用地、國土保安用地及供農路使用之土地，或上開分區內暫未依法編定用地別之土地。
+3. 依區域計畫法劃定為特定農業區、一般農業區、山坡地保育區、森林區以外之分區內所編定之農牧用地。
+4. 依都市計畫法劃定為農業區、保護區內之土地。
+5. 依國家公園法劃定為國家公園區內按各分區別及使用性質，經國家公園管理處會同有關機關認定合於前三款規定之土地。
+2. 狹義：耕地
+為農業生產力高的土地。依照農業發展條例第3條，耕地認定指依區域計畫法劃定為特定農業區、一般農業區、山坡地保育區及森林區之農牧用地。</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910659</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:15:57</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>農地、農業用地、區域計畫法、土地</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>911564</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>綠能智慧建築,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2024/06/06</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>根據聯合國環境規劃署2022年報告，營造建築業之碳排約占全球37%，耗能約占全球34%。因此，「節能減碳」是營造建築業之迫切課題。
+• 一、綠能智慧建築之特色
+建物生命週期，從建材生產、建物設計、營造施工、使用管理、至拆除重建之一系列過程，每一階段皆應導入節能減碳措施。其特色如下：
+• (一) 低碳材料：興建建物所採用之建材符合綠色設計、使用壽命長、維修容易、可以回收再利用等特色。從建物源頭開始實施減碳，效果最佳。
+• (二) 節能儲能：建物規劃設計，符合節能減耗（如綠屋頂、綠建築、節能設施等），裝設回收及儲能設備（如太陽能板、雨水回收系統等），以發揮最高能源效率。
+• (三) 智慧管理：建物運用數位化智慧管理（如大樓之空調、電梯、照明等），自動監測、自動調控、自動整合，以達到耗能最低要求。
+• (四) 循環經濟：將建物拆除之廢棄物轉換成資源，回收再利用，以達成零廢棄物之目標。
+• 二、綠能智慧建築之推展
+推展綠能智慧建築，政府居主導地位。政府得採取下列措施：
+• (一) 強制揭示：政府應對每一棟建物，認證其「碳足跡」。所謂碳足跡，指產品由原料取得、製造、配送銷售、使用及廢棄處理等生命週期各階段產生之碳排放量，經換算為二氧化碳當量之總和（氣候變遷因應法第3條第18款）。
+• (二) 教育宣導：政府應教育並鼓勵消費者選購碳足跡較低之建築物。
+• (三) 容積獎勵：對擬興建碳足跡較低之建物，給予容積奬勵。
+• (四) 差別稅負：對碳足跡較低之建物，課以較輕房屋稅。對碳足跡較高之建物，課以較重房屋稅。
+• (五) 綠色金融：對碳足跡較低之建物，給予較低貸款利率、較高貸款成數。對碳足跡較高之建物，給予較高貸款利率、較低貸款成數。</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911564</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:00</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>綠能智慧建築、節能減碳、碳足跡</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>911491</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>登記漏誤之救濟方法,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2024/05/30</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>土地登記規則第7條規定：「依本規則登記之土地權利，……非經法院判 決塗銷確定，登記機關不得為塗銷登記。」又，土地法第69條規定，辦理更正登記之程序。另於土地登記規則第144條規定，登記機關辦理塗銷登記之前提要件。請比較此三者規定適用情境與關係，及其重要之異同。
+【112地方政府】
+【解答】
+• (一) 適用情境：
+1.
+土地法第69條更正登記之適用情境：
+• (1) 登記錯誤：指登記事項與登記原因證明文件所載之內容不符者 (2)登記遺漏：指應登記事項而漏未登記者。
+此外，本項更正登記不得違反原登記之同一性（即不得變更原登記之法律關係）。
+2.
+土地登記規則第144條塗銷登記之適用情境：
+• (1) 偽造證明文件：登記證明文件經該主管機關認定係屬偽造。 (2)錯誤登記：純屬登記機關之疏失而錯誤之登記。
+此外，本項塗銷登記應於第三人取得該土地權利之新登記前，始得為之。
+3. 土地登記規則第7條法院判決塗銷登記之適用情境：依土地登記規則登記之土地權利，除土地登記規則另有規定外，非經法院判決塗銷確定，登記機關不得為塗銷登記。換言之，除土地登記規則另有規定由登記機關逕行塗銷登記（如土地登記規則第144條即是）外，餘皆應由法院判決塗銷，始得辦理塗銷登記。
+• (二) 三者關係：
+1.
+土地法第69條更正登記與土地登記規則第144條塗銷登記，兩者之原因均有「登記錯誤」一項，其不同如下：
+• (1) 如經查明原准予登記之處分純係登記機關疏失而為之違法行政處分，應以「塗銷登記」處理。 (2)如准予登記之行政處分並未違誤，僅登記機關辦理登記時未依登記原因證明文件所載之內容登記而造成登記事項與登記原因證明文件所載之內容不符，則應以「更正登記」處理。
+2. 土地登記之漏誤應先適用土地法第69條更正登記及土地登記規則第144條塗銷登記。在不能經由前揭辦理更正登記或塗銷登記，則訴請法院判決塗銷。
+• (三) 三者之異同：
+1. 相同點：三者皆在解決土地登記之漏誤。
+2.
+相異點：
+• (1) 程序不同：土地法第69條更正登記及土地登記規則第144條塗銷登記由地政機關辦理，無須訴請法院判決。土地登記規則第7條塗銷登記，須由法院判決塗銷。 (2)原因不同：土地法第69條更正登記之原因為登記錯誤及登記遺漏。土地登記規則第144條塗銷登記之原因為偽造證明文件及錯誤登記。土地登記規則第7條法院判決塗銷，未限定原因。
+3. 條件不同：土地法第69條更正登記之條件係不得違反原登記之同一性。土地登記規則第144條塗銷登記之條件應於第三人取得該土地權利之新登記。土地登記規則第7條法院判決塗銷，無上開二項條件。</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911491</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:04</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>土地登記規則、更正登記、登記錯誤、登記遺漏</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>911432</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>土地登記損害賠償請求救濟之程序,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2024/05/23</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>土地法第43條規定，土地登記具有「絕對效力」。請說明其保護對象為何？當發生登記錯誤、遺漏或虛偽，真正權利人應如何維護其權益？如產生損害賠償，則請依國家賠償法相關規定，說明請求救濟之程序。
+【112身心障礙】
+【解答】
+• (一) 登記絶對效力之保護對象：土地法第43條：「依本法所為之登記，有絕對效力。」意謂善意第三人因信賴登記所取得之權利，具有不可推翻之效力。準此，登記絶對效力之保護對象為善意第三人。
+• (二) 真正權利人維護權益之方法：
+1. 更正登記：真正權利人於登記完畢後，發現登記錯誤或遺漏時，得向地政機關申請更正登記。惟更正登記不得違反原登記之同一性（即不得變更原登記之法律關係）。
+2.
+塗銷登記：
+• (1) 在未有第三人取得權利之新登記前，真正權利人得訴請法院塗銷登記名義人。
+• (2) 登記之土地權利，有下列情形之一者，於第三人取得該土地權利之新登記前，登記機關得於報經直轄市或縣（市）地政機關查明核准後塗銷之： ①登記證明文件經該主管機關認定係屬偽造。 ②純屬登記機關之疏失而錯誤之登記。
+3. 損害賠償：因登記錯誤遺漏或虛偽致受損害者，由該地政機關負損害賠償責任。但該地政機關證明其原因應歸責於受害人時，不在此限。
+• (三) 請求救濟之程序：
+1. 請求：依國家賠償法請求損害賠償時，應先以書面向賠償義務機關請求之。
+2. 協議：賠償義務機關對於前項請求，應即與請求權人協議。協議成立時，應作成協議書，該項協議書得為執行名義。應注意者，協議為提起訴訟之先行必要程序。
+3. 訴訟：賠償義務機關拒絕賠償，或自提出請求之日起逾三十日不開始協議，或自開始協議之日起逾六十日協議不成立時，請求權人得提起損害賠償之訴。但已依行政訴訟法規定，附帶請求損害賠償者，就同一原因事實，不得更行起訴。</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911432</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:07</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>土地登記、登記錯誤、更正登記、塗銷登記</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>911364</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>法定空地,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2024/05/16</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>何謂法定空地？土地所有權人拋棄法定空地之效果如何？對無償供公眾通行之法定空地，不予免徵地價稅，是否合理？請依憲法法庭112年憲判字第19號判決說明其理由。
+【解答】
+• (一) 法定空地之意義：
+建築基地除供建築物本身所占之地面外，應留設一定土地面積，不得興建建築物。此不得興建建築物之土地，稱為法定空地。建築基地留設法定空地之目的在使建築物有充足之日照、通風、採光及視野，並可防止火災蔓延。例如，建築基地1,000平方公尺，若建蔽率40%，則法定空地600平方公尺；若建蔽率20%，則法定空地800平方公尺。
+• (二) 拋棄法定空地之效果：
+建築法第11條第1項前段規定：「本法所稱建築基地，為供建築物本身所占之地面及其所應留設之法定空地。」同條第3項前段復規定：「應留設之法定空地，非依規定不得分割、移轉，並不得重複使用。」準此，法定空地係屬建築基地之一部分，所有權人將其單獨拋棄，乃屬違反建築法應保留空地以維護公同利益之規定及意旨，亦即民法第148條第1項（即權利之行使，不得違反公共利益）所禁止之行為，牴觸權利濫用禁止原則，且有迂迴為脫法行為之嫌，顯與上開法條項之立法精神有悖。據此，土地所有權人拋棄法定空地者，無效。
+• (三) 法定空地不予免徵地價稅之理由：
+土地稅減免規則第9條規定：「無償供公眾通行之道路土地，經查明屬實者，在使用期間內，地價稅或田賦全免。但其屬建造房屋應保留之法定空地部分，不予免徵。」其但書規定未違反憲法第7條平等原則，其理由如下：
+1. 憲法第7條保障人民之平等權，法規範是否符合平等原則之要求，其判斷應取決於該法規範所以為差別待遇之目的是否合憲，其所採取之分類與規範目的之達成間，是否存有一定程度之關聯性而定。租稅法律關係中，立法者為了實現憲法所賦予之任務，而就各種稅捐之稽徵及減輕或免除分別訂定不同之規範，其分類及差別待遇，涉及國家財稅政策之整體規劃，適合由代表民意之立法機關及擁有專業能力之相關行政機關，以法律或法律明確授權之法規命令定之，其規定如有正當目的，且分類與目的之達成間具有合理關聯，即符合憲法第7條平等權保障之意旨。
+2. 法定空地屬建築基地之一部分，提供該建築物日照、採光、通風、景觀、防火、安全等特定之功能，與人民私有並非建築基地之一部分而單純無償供公眾使用之道路土地，性質與功能均有所不同。
+3. 按法定空地屬建築基地之一部分，依法應併同主建築物一併移轉，建築物所有人就法定空地之留設，除享有較優良之居住品質及環境空間外，未來如有改建或實施都市更新，該法定空地之所有權人尚得參與分配更新後之房地，其權益不因其是否專供或兼供公眾通行使用而受影響。是對土地所有人而言，建築基地所保留之法定空地雖可供公眾通行，但仍維持並享有該法定空地屬於建築基地之利益，與單純無償供公眾使用而完全無法使用收益之道路土地，在建築法上之性質與功能不同。
+4. 法定空地供公眾通行，縱為無償，因其已計入依建築法應留設之法定空地，即無須再就建築基地中之其他土地予以留設，對提供者仍具有建築上之利益；而提供私有非法定空地無償供公眾通行，該土地所有人並未獲取任何利益，二者本質尚有所不同。
+5. 綜上，系爭規定因此區隔，於地價稅核課上有所區別，對提供法定空地無償供公眾通行者，仍然課徵地價稅，其分類與公平課稅目的之達成間，具有合理關聯，尚無違反憲法第7條規定之平等原則，其規定亦未逾土地稅法第6條及平均地權條例第25條之授權範圍。</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911364</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:10</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>法定空地、地價稅、公眾通行、所有權人</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>911262</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>都市計畫行為之法律性質,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2024/05/09</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>都市計畫行為之法律性質是否為行政處分？試依行政處分之定義與司法院解釋之意旨申述說明之。
+【112身心障礙】
+【解答】
+• (一) 行政處分之意義：政府就具體事件所為之決定或措施，而對外直接發生公法上法律效果之單方行政行為。
+• (二) 都市計畫行為之法律性質：
+1. 都市計畫新訂：屬於法規性質，非屬行政處分。
+2. 都市計畫通盤檢訂：屬於法規性質，非屬行政處分。司法院釋字第742號解釋指出，都市計畫擬定計畫機關依規定所為定期通盤檢討，對原都市計畫作必要之變更，屬法規性質，並非行政處分。惟如其中具體項目有直接限制一定區域內特定人或可得確定多數人之權益或增加其負擔者，基於有權利即有救濟之憲法原則，應許其就該部分提起訴願或行政訴訟以資救濟。
+3. 都市計畫個案變更：屬於行政處分，非屬法規性質。司法院釋字第156號解釋指出，主管機關變更都市計畫，係公法上之單方行政行為，如直接限制一定區域內人民之權利、利益或增加其負擔，即具有行政處分之性質，其因而致特定人或可得確定之多數人之權益遭受不當或違法之損害者，自應許其提起訴願或行政訴訟以資救濟。</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911262</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:14</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>都市計畫、行政處分、行政訴訟</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>911189</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>房屋稅自住優惠稅率之條件,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2024/05/02</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>供自住者，房屋稅率為1.2%。全國僅持有一戶房屋供自住者，房屋稅率為1%。
+• (一) 自住稅率1.2%之條件：
+1. 戶籍條件：本人、配偶或直系親屬辦竣戶籍登記，並供其實際居住使用。
+2. 使用條件：房屋無出租或營業使用。
+3. 戶數條件：本人、配偶及未成年子女持有住家用房屋全國合計三戶內。
+• (二) 自住稅率1%之條件：
+1. 戶籍條件：本人、配偶或直系親屬辦竣戶籍登記，並供其實際居住使用。
+2. 使用條件：房屋無出租或營業使用。
+3. 戶數條件：本人、配偶及未成年子女於全國僅持有一戶房屋。
+4. 現值條件：房屋現值在一定金額以下。一定金額由直轄市及縣（市）政府訂定，報財政部備查。</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911189</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:17</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>自住、房屋稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>911150</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>農業用地移轉應課徵土地增值稅之情形,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2024/04/25</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>農業用地移轉，依法應課徵土地增值稅之情形有那些？又，農業用地移轉應課徵土地增值稅時，其計徵土地增值稅之原地價如何認定？試彙整土地稅法相關規定，詳細析述之。
+【112不動產估價師】
+【解答】
+• (一) 應課徵土地增值稅之情形：
+1. 農業用地移轉於法人，應課徵土地增值稅。但作農業使用之耕地依規定移轉與農民團體、農業企業機構及農業試驗研究機構時，其符合產業發展需要、一定規模或其他條件，經直轄市、縣（市）主管機關同意者，得申請不課徵土地增值稅。
+2. 農業用地移轉於自然人，未申請不課徵土地增值稅，或雖申請但未符合作農業使用之情事，應課徵土地增值稅。
+3. 不課徵土地增值稅之土地承受人於其具有土地所有權之期間內，曾經有關機關查獲該土地未作農業使用且未在有關機關所令期限內恢復作農業使用之情事，於再移轉時，應課徵土地增值稅。
+4. 不課徵土地增值稅之土地承受人於其具有土地所有權之期間內，曾經有關機關查獲該土地未作農業使用，雖在有關機關所令期限內已恢復作農業使用而再有未作農業使用之情事，於再移轉時，應課徵土地增值稅。
+• (二) 課徵土地增值稅時之原地價認定：
+1. 以民國89年1月26日修正施行日當期之公告土地現值為原地價：作農業使用之農業用地，於土地稅法中華民國89年1月26日修正施行後第一次移轉，或依規定取得不課徵土地增值稅之土地後再移轉，依法應課徵土地增值稅時，以該修正施行日當期之公告土地現值為原地價，計算漲價總數額，課徵土地增值稅。
+2. 以該土地最近一次課徵土地增值稅時核定之申報移轉現值為原地價：土地稅法中華民國89年1月26日修正施行後，曾經課徵土地增值稅之農業用地再移轉，依法應課徵土地增值稅時，以該土地最近一次課徵土地增值稅時核定之申報移轉現值為原地價，計算漲價總數額，課徵土地增值稅。</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911150</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:21</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>農業用地、土地增值稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>911127</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>既成道路與公共設施保留地之意涵,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2024/04/18</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">請分別說明「既成道路」與「公共設施保留地」之意義。「既成道路」與「公共設施保留地」是否應課徵其地價稅？試申述說明之。
+【112身心障礙】
+【解答】
+• (一) 既成道路：
+1. 意義：亦稱現有巷道，指成立公用地役關係之私有土地。既成道路雖屬私有，但應開放供公眾通行使用。其構成要件如下： (1)須不特定之公眾通行所必要，而非僅為通行之便利或省時。 (2)於公眾通行之初，土地所有權人並無阻止之情事。 (3)須經歷之年代久遠而未曾中斷。所謂年代久遠雖不必限定其期間，但仍應以時日長久，一般人無復記憶其確實之起始，僅能知其梗概（例如始於日治時期、八七水災等）為必要。
+2. 地價稅之課徵：土地稅減免規則第9條規定，無償供公眾通行之道路土地，經查明屬實者，在使用期間內，地價稅全免。但其屬建造房屋應保留之法定空地部分，不予免徵。準此，既成道路免徵地價稅。
+• (二) 公共設施保留地：
+1. 意義：指都市計畫範圍內，尚未徵收且尚未闢建之公共設施用地。所稱公共設施用地，指供公共設施使用之土地。所謂公共設施，以都市計畫法第42條所規定之項目為準。如道路、公園、學校、市場等。析言之： (1)公共設施用地涵括公共設施保留地。前者範圍較廣，後者範圍較狹。如下圖所示。
+[圖片1]
+• (2) 公共設施保留地僅存在於都市土地。非都市土地無公共設施保留地。 (3)公共設施保留地一旦經政府徵收完竣，就非屬公共設施保留地。 (4)公共設施保留地雖未經政府徵收，但經私人投資興建完成（如奬勵私人投資興建公共設施），就非屬公共設施保留地。
+2. 地價稅優惠： (1)未作任何使用：免徵。 (2)作農業使用：課徵田賦，田賦自民國76年停徵迄今。 (3)作自用住宅用地：按千分之二稅率計徵。 (4)作自用住宅以外之其他建築使用：按千分之六稅率計徵，不累進。
+## 文章圖片
+![圖片1](./images/911127_e7eb30a5.png)
+</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911127</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:24</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>既成道路、公共設施、地價稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>911012</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>配偶相互贈與之土地增值稅,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2024/04/11</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>甲將名下A地贈與其妻乙，是否需課徵土地增值稅？乙持有A地數年後出售予丙，依規定如何認定其原地價，計算漲價總數額，課徵土地增值稅？試依土地稅法相關規定說明之。
+【112高考】
+【解答】
+• (一) 經申請不課徵土地增值稅：
+1. 不課徵土地增值稅：配偶相互贈與之土地，得申請不課徵土地增值稅。準此，甲將名下A地贈與其妻乙，倘經申請不課徵，則不課徵土地增值稅。
+2. 再出售之原地價認定：乙持有A地數年後出售予丙，依法應課徵土地增值稅時，以採該土地第一次不課徵土地增值稅前之原規定地價或最近一次課徵土地增值稅時核定之申報移轉現值為原地價，計算漲價總數額，課徵土地增值稅。
+• (二) 未申請不課徵土地增值稅：
+1. 應課徵土地增值稅：配偶相互贈與之土地，如未申請不課徵，則應課徵土地增值稅。準此，甲將名下A地贈與其妻乙，倘未申請不課徵，則應課徵土地增值稅。
+2. 再出售之原地價認定：乙持有A地數年後出售予丙，依法應課徵土地增值稅時，以採該土地甲贈與乙當時課徵土地增值稅核定之申報移轉現值為原地價，計算漲價總數額，課徵土地增值稅。</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=911012</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:27</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>土地增值稅、配偶、贈與</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>910960</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>登記錯誤、登記遺漏及登記虛偽之闡述,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2024/04/04</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">土地法第68條第1項規定：「因登記錯誤遺漏或虛偽致受損害者，由該地政機關負損害賠償責任。但該地政機關證明其原因應歸責於受害人時，不在此限。」又，土地法第69條規定：「登記人員或利害關係人，於登記完畢後，發見登記錯誤或遺漏時，非以書面聲請該管上級機關查明核准後，不得更正。但登記錯誤或遺漏，純屬登記人員記載時之疏忽，並有原始登記原因證明文件可稽者，由登記機關逕行更正之。」準此，土地登記損害賠償之原因有三：①登記錯誤；②登記遺漏；③登記虛偽。另，更正登記之原因有二：①登記錯誤；②登記遺漏。換言之，土地登記損害賠償之原因有「登記虛偽」，更正登記之原因無「登記虛偽」
+• (一) 登記錯誤之意涵：登記錯誤可分為最廣義之登記錯誤、廣義之登記錯誤及狹義之登記錯誤。
+1. 最廣義之登記錯誤：凡登記事項與真實情形不符者，均屬之。
+2. 廣義之登記錯誤：指未違反登記同一性之登記錯誤。所稱登記同一性，指土地登記之同一權利主體、同一權利種類、同一權利範圍及同一權利標的而言。
+3. 狹義之登記錯誤：指未違反登記同一性之登記錯誤，且登記事項與登記原因證明文件不符。
+• (二) 登記虛偽之意涵：指違反登記同一性之登記錯誤。最廣義登記錯誤包括廣義之登記錯誤及登記虛偽二項。
+[圖片1]
+• (三) 結論：
+1. 土地法第68條（土地登記損害賠償）之登記錯誤，指廣義之登記錯誤。土地法第69條（更正登記）之登記錯誤，指狹義之登記錯誤。
+2. 土地法第68條所定登記錯誤（指廣義之登記錯誤）與登記虛偽，二者結合而為最廣義之登記錯誤。準此，土地登記損害賠償之原因有二： (1)最廣義之登記錯誤：指登記事項與真實情形不符者。 (2)登記遺漏：指應登記事項而漏未登記者。
+3. 土地法第69條所定登記錯誤，指狹義之登記錯誤。準此，更正登記之原因有二： (1)狹義之登記錯誤：指未違反登記同一性之登記錯誤，且登記事項與登記原因證明文件所載之內容不符者。 (2)登記遺漏：指應登記事項而漏未登記者。
+[圖片2]
+4. 土地登記規則第13條所定義之登記錯誤（即登記事項與登記原因證明文件所載之內容不符），實際上僅適用於土地法第69條之更正登記。土地法第68條之土地登記損害賠償，不以此定義為限。
+## 文章圖片
+![圖片1](./images/910960_d6f050a3.png)
+![圖片2](./images/910960_880f0399.png)
+</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910960</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:31</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>土地登記、登記錯誤、登記遺漏、登記虛偽</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>910874</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>徵收免稅及重購退稅之用意,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2024/03/28</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>• (一) 立法目的：
+土地（房屋）徵收或土地（房屋）出售時，如扣除稅費，將無法以其餘額購買同一地段、同一品質及同一面積之土地（房屋），因此給予免除或退還稅費。
+• (二) 相關規定：
+1. 土地徵收，免徵土地增值税（土地稅法第39條第1項）。
+2. 房地徵收，免徵房地合一所得稅（所得稅法第4條之5第1項第3款）。
+3. 自用住宅用地、自營工廠用地或自耕農業用地出售後，重購退還土地增值稅（土地稅法第35條）。
+4. 自住房地出售後，重購退還房地合一所稅（所得稅法第14條之8）。
+5. 建築改良物之徵收，其補償費按重建價格估定，不扣除折舊費用（土地徵收例第31條第1項）。</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910874</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:34</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>重購、土地徵收、免稅、退稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>910837</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>自住之意涵,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2024/03/21</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>地價稅及土地增值稅所採用之「自用住宅用地」，法有明文定義（詳見土地稅法§9），適用上較明確。然，房屋稅及房地合一所得稅所採用之「自住」，法無明文定義，其意涵因適用情形而異。茲就其適用情形分析其自住意涵如下：
+• (一) 自住之房屋稅優惠稅率：
+1. 條件：(1)戶籍條件：房屋所有權人、配偶或直系親屬辦竣戶籍登記，並供房屋所有權人、配偶或直系親屬實際居住使用。(2)使用條件：房屋無出租或營業使用。(3)戶數條件：房屋所有權人、配偶及未成年子女持有住家用房屋全國合計三戶內。
+2. 優惠稅率：自住房屋，按房屋現值之1.2%課徵。全國僅持有一戶，按房屋現值之1%課徵。
+• (二) 自住之房地合一所得稅免稅及優惠稅率：
+1. 條件：(1)戶籍條件：房地所有權人或其配偶、未成年子女辦竣戶籍登記，且連續滿六年。(2)持有條件：房地所有權人或其配偶、未成年子女持有並居住於該房屋連續滿六年。(3)使用條件：交易前六年內，無出租、供營業或執行業務使用。(4)次數條件：房地所有權人或其配偶、未成年子女於交易前六年內未曾適用本項免稅規定。換言之，每六年享用一次。
+2. 優惠規定：自住房地，房地交易所得在400萬元以下，免徵；超過400萬元部分，稅率10%。
+• (三) 自住之房地合一所得稅重購退稅：
+1. 條件：(1) 戶籍條件：房地所有權人或其配偶、未成年子女應於該出售及購買之房屋辦竣戶籍登記並居住。(2) 使用條件：出售前一年內，房屋無出租、供營業或執行業務使用。(3) 時間條件：自完成移轉登記之日起二年內重購。先購後售亦適用之。(4)名義條件：出售或重購房地限以納稅義務人本人或其配偶名義登記。(5)時效條件：自完成移轉登記之日起五年內申請退還。(6)移轉條件：重購後五年內再行移轉或改作其他用途，追繳原退還稅款。
+2. 退稅金額：(1)重購房地價格大於出售房地價格：退還全部納稅金額。(2)重購房地價格不及出售房地價格：就納稅金額按重購價格占出售價額之比率申請退稅。</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910837</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:38</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>自住、房屋所有權人、房地所有權人、房地合一、重購房地</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>910761</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>韌性城市,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>• 一、韌性城市之意義
+韌性城市（Resilient City），指城市面對天然災害（如颱風、地震、海嘯、土石流等）、能源危機、恐怖攻擊等事件發生時，能將其衝擊所造成之影響降至最低，並在最短時間內回復原來狀態。
+• 二、韌性城市之目的
+• (一) 減災：城市面對衝擊時，將災害減輕，以確保人民生命財產之安全。
+• (二) 調適：城市適應極端氣候變化，透過城市設施改善，以對抗地震、水災及風災等之侵襲。
+• (三) 永續：城市發揮韌性能力，以應付未來不確定性事件發生，追求城市永續發展。
+• 三、韌性城市之具體作法
+• (一) 過往「與水爭地」，改變為「還地於水」。如增加河川行水面積、氾濫平原（如關渡平原）不得開發等。
+• (二) 增加公園、綠地、廣場等開放空間，以增加透水面積。
+• (三) 設置滯洪池、建物地下水庫等，以儲存雨水，並減少暴雨逕流量。
+• (四) 鼓勵綠建築之興建，促進建物能源效率，減少溫室氣體排放。
+• (五) 以生態工法整治河川工程，增加地下水及生態復育。
+• (六) 劃定高災害潛勢地區（如斷層、土石流、地層下陷、土壤液化等地區），禁止建築使用，以避免災害損失。
+• (七) 監控災害徵兆，建立預警系統。
+• (八) 其他相關措施。</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910761</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:41</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>韌性城市、災害</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>910700</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>空地稅、空屋稅及囤房稅,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2024/03/07</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>• 一、空地稅
+• (一) 空地之意義：所稱空地，指已完成道路、排水及電力設施，於有自來水地區並已完成自來水系統，而仍未依法建築使用；或雖建築使用，而其建築改良物價值不及所占基地申報地價百分之十，且經直轄市或縣（市）政府認定應予增建、改建或重建之私有及公有非公用建築用地（平§3⑦）。
+• (二) 對空地之制裁手段：直轄市或縣（市）政府對於私有空地，得視建設發展情形，分別劃定區域，限期建築、增建、改建或重建；逾期未建築、增建、改建或重建者，按該宗土地應納地價稅基本稅額加徵二倍至五倍之空地稅或照價收買（平§26I）。準此，對空地之制裁手段有二，一為空地稅（照地價稅基本稅額之二倍至五倍加徵），另一為照價收買（照公告土地現值收買）。
+• (三) 空地稅之目的：
+1. 採寓禁於徵之手段，禁止土地閒置。
+2. 加重土地持有成本，促進土地利用。
+3. 打擊土地投機，穩定地價發展。
+• (四) 實施空地稅之問題：
+1. 空地稅過輕，難以發揮其政策效果。
+2. 空地須經限期建築使用而不使用，始得課徵空地稅。然，限期建築之期限過長，難以發揮立即打擊之效果。
+3. 空地限期使用，應考慮當地之住宅需求狀況，否則所興建房屋如淪為空屋，造成資源之更大浪費。
+• 二、空屋稅
+法無明文規定。實施空屋稅之最大問題在難以認定「空屋」。如以用水、用電或用瓦斯之度數為認定依據，則屋主恐以浪費水電或浪費瓦斯方式因應，反而造成資源浪費，得不償失。
+• 三、囤房稅
+• (一) 囤房稅之規定：本人、配偶及未成年子女全國持有超過三戶住家用房屋，按其全國總持有戶數，依房屋所在地直轄市、縣（市）政府訂定之相應差別稅率，課徵房屋稅。其稅率最低不得少於其房屋現值2%，最高不得超過4.8%。
+• (二) 囤房稅之目的：
+1. 採寓禁於徵之手段，禁止囤積房屋。
+2. 加重房屋持有成本，促其釋出房屋。
+3. 打擊炒作房屋，抑制房價高漲。
+• (三) 實施囤房稅之問題：
+1. 囤房稅過輕，難以發揮其政策效果。
+2. 課徵囤房稅，如發生轉嫁現象，政策效果恐落空。
+3. 各直轄市、縣（市）所訂定之差別稅率不同，造成稅負不公平。</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910700</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:44</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>空地稅、空屋稅、囤房稅、空地、空屋</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>910627</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>房屋稅條例之住家稅率,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2024/02/29</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>◎依據民國113年1月3日修正公布之「房屋稅條例」規定，住家用房屋之房屋稅率為何？
+【解答】
+• (一) 供自住、公益出租人出租使用或以土地設定地上權之使用權房屋並供該使用權人自住使用者，為其房屋現值1.2%。但本人、配偶及未成年子女於全國僅持有一戶房屋，供自住且房屋現值在一定金額以下者，為其房屋現值1%。
+• (二) 前款以外，出租申報租賃所得達所得稅法規定之當地一般租金標準者或繼承取得之共有房屋，最低不得少於其房屋現值1.5%，最高不得超過2.4%。
+• (三) 起造人持有使用執照所載用途為住家用之待銷售房屋，於起課房屋稅二年內，最低不得少於其房屋現值2%，最高不得超過3.6%。
+• (四) 其他住家用房屋，最低不得少於其房屋現值2%，最高不得超過4.8%。
+直轄市及縣（市）政府應依上開第2款至第4款規定，按各該納稅義務人全國總持有應稅房屋戶數或其他合理需要，分別訂定差別稅率；納稅義務人持有坐落於直轄市及縣（市）之各該應稅房屋，應分別按其全國總持有戶數，依房屋所在地直轄市、縣（市）政府訂定之相應稅率課徵房屋稅。</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910627</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:48</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>房屋稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>910575</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>112年憲判字第19號判決之模擬試題,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2024/02/22</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>◎土地稅減免規則第9條規定：「無償供公眾通行之道路土地，經查明屬實者，在使用期間內，地價稅或田賦全免。但其屬建造房屋應保留之法定空地部分，不予免徵。」其但書規定是否違反憲法第7條平等原則？試依112年憲判字第19號判決論述之。
+【解答】
+• (一) 憲法第7條保障人民之平等權，法規範是否符合平等原則之要求，其判斷應取決於該法規範所以為差別待遇之目的是否合憲，其所採取之分類與規範目的之達成間，是否存有一定程度之關聯性而定。租稅法律關係中，立法者為了實現憲法所賦予之任務，而就各種稅捐之稽徵及減輕或免除分別訂定不同之規範，其分類及差別待遇，涉及國家財稅政策之整體規劃，適合由代表民意之立法機關及擁有專業能力之相關行政機關，以法律或法律明確授權之法規命令定之，其規定如有正當目的，且分類與目的之達成間具有合理關聯，即符合憲法第7條平等權保障之意旨。
+• (二) 法定空地屬建築基地之一部分，提供該建築物日照、採光、通風、景觀、防火、安全等特定之功能，與人民私有並非建築基地之一部分而單純無償供公眾使用之道路土地，性質與功能均有所不同。
+• (三) 按法定空地屬建築基地之一部分，依法應併同主建築物一併移轉，建築物所有人就法定空地之留設，除享有較優良之居住品質及環境空間外，未來如有改建或實施都市更新，該法定空地之所有權人尚得參與分配更新後之房地，其權益不因其是否專供或兼供公眾通行使用而受影響。是對土地所有人而言，建築基地所保留之法定空地雖可供公眾通行，但仍維持並享有該法定空地屬於建築基地之利益，與單純無償供公眾使用而完全無法使用收益之道路土地，在建築法上之性質與功能不同。
+• (四) 法定空地供公眾通行，縱為無償，因其已計入依建築法應留設之法定空地，即無須再就建築基地中之其他土地予以留設，對提供者仍具有建築上之利益；而提供私有非法定空地無償供公眾通行，該土地所有人並未獲取任何利益，二者本質尚有所不同。
+• (五) 綜上，系爭規定因此區隔，於地價稅核課上有所區別，對提供法定空地無償供公眾通行者，仍然課徵地價稅，其分類與公平課稅目的之達成間，具有合理關聯，尚無違反憲法第7條規定之平等原則，其規定亦未逾土地稅法第6條及平均地權條例第25條之授權範圍。</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910575</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:51</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>土地稅、地價稅、建築物</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>910554</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>地籍圖重測之土地所有權人指界,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2024/02/15</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>地籍圖重測時，土地所有權人未到場指界、到場而不能指界及到場不指界等三種情形，地政機關應如何處理？
+【解答】
+• (一) 土地所有權人未到場指界：地政機關應依下列順序逕行施測：①鄰地界址；②現使用人之指界；③參照舊地籍圖；④地方習慣。
+• (二) 土地所有權人到場不能指界：地政機關得參照舊地籍圖及其他可靠資料，協助指界，並依下列方式辦理：
+1. 土地所有權人同意該協助指界之結果者，視同其自行指界。
+2. 土地所有權人不同意該協助指界之結果且未能自行指界者，地政機關應依下列順序逕行施測：①鄰地界址；②現使用人之指界；③參照舊地籍圖；④地方習慣。
+3. 土地所有權人不同意該協助指界之結果而產生界址爭議者，地政機關應予以調處，不服調處，應於接到調處通知後十五日內，向司法機關訴請處理，逾期不起訴者，依原調處結果辦理。
+• (三) 土地所有權人到場而不指界：地政機關應依下列順序逕行施測：①鄰地界址；②現使用人之指界；③參照舊地籍圖；④地方習慣。</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910554</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:54</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>地籍圖、土地所有權、指界</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>910446</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>112年憲判字第20號判決之模擬試題(二),許文昌老師</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2024/02/01</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>• 一、日治時期人民私有之土地，經依土地總登記程序登記為國有，其登記是否發生物權變動之效力？
+【解答】
+日治時期人民私有之土地，經依土地總登記程序登記為國有，其登記不發生物權變動之效力。其理由如下：
+• (一) 土地登記本身僅具有推定權利歸屬之效力，不能作為認定權利取得或消滅之絕對依據。是當土地所有權之登記與真實權利狀態不一致時，真正所有人為回復其權利之圓滿狀態，原則上仍得對登記名義人行使物上請求權，而請求塗銷登記及返還土地。此權利具財產上價值，自應受憲法第15條財產權之保障。
+• (二) 戰後初期所實施之土地總登記，雖為政府在政權移轉後管理國土、推行不動產物權登記制度所需，然該措施僅係確認、整理及清查當時土地之地籍狀態與產權歸屬，以利後續政令之推行，並無使不動產物權發生變動之意，非屬民法第758條第1項、第759條之情形。又，土地法第43條所定依該法所為之登記有絕對效力，僅為保護善意第三人因信賴既有登記而更為登記者，賦與登記之公信力，並非否認日治時期土地台帳或土地登記簿上所記載權利之效力。是日治時期屬人民私有之土地，雖經辦理土地總登記之程序而登記為國有，然該登記與物權之歸屬無關，並未影響人民自日治時期已取得之土地所有權，人民仍為該土地之真正所有人，此亦為審判實務上一貫見解。
+• (三) 上開日治時期人民私有之土地，經依土地總登記程序登記為國有，其登記雖不生物權變動之效力，卻造成真正權利人（即人民）與登記名義人（即國家）不一致，致人民須依民法第767條第1項規定對國家行使物上請求權，方得再度基於所有人地位，自由使用、收益及處分其所有物。
+• 二、日治時期為人民所有，嗣因逾土地總登記期限，未登記為人民所有，致登記為國有且持續至今之土地，在人民基於該土地所有人地位，請求國家塗銷登記時，有無民法消滅時效規定之適用？
+【解答】
+日治時期為人民所有，嗣因逾土地總登記期限，未登記為人民所有，致登記為國有且持續至今之土地，在人民基於該土地所有人地位，請求國家塗銷登記時，無民法消滅時效規定之適用。其理由如下：
+• (一) 國家就其與人民間之私權爭議，原則上固得主張相關規定所賦予之權利。然而，國家係為人民而存在，本質上既不可能擁有如人民般得自由發展之人格及維繫生存之需求，亦不可能如人民般享有得自由追求之私益，只能追求公益，以執行公共任務為職志。從而，國家自無受憲法第15條所保障財產權之基本權利。
+• (二) 國家與人民間關於土地之爭議，若非來源於兩者之合意，而係國家於政權更替之際，居於公權力主體地位，行使統治權，制定相關法規範，並依該規範將原屬人民私有而僅未及時申辦總登記之土地，逕行登記為國有之情形，倘又容許國家嗣後再以時間經過為由，依民法消滅時效規定為時效完成之抗辯，不啻變相承認國家得透過土地總登記之程序，及消滅時效之抗辯，而無須踐行任何徵收或類似徵收之程序，即可剝奪人民之財產。
+• (三) 國家基於公權力主體地位行使統治高權，致與人民發生財產權爭執時，國家本非憲法第15條財產權保障之主體，從而不生基本權衝突之情事。且考量臺灣因政權更迭而辦理土地權利憑證繳驗及換發土地權利書狀，當時之時空環境，絕大多數人民未通曉中文、因戰事流離他所、遺失土地權利憑證，或因社會資訊、教育尚非發達，不諳法令，甚至因36年間之228事件引發社會動盪等特殊原因，致未於限期內申報權利憑證繳驗，或於申報後未依限補繳證件，終致其所有之土地被登記為國有。於此情形，若使國家仍得主張民法消滅時效，從而透過時效制度維持私有土地登記為國有之狀態，不僅與誠實信用原則有違，且形成國家對人民財產權之侵害。故在憲法上，人民財產權之保障，相較於逕行承認土地登記為國有之狀態，更具值得保護之價值。是容許國家在此主張消滅時效，並無正當性可言。</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910446</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:16:57</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>日治時期、土地登記、土地所有權、請求權</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>910414</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>112年憲判字第20號判決之模擬試題(一),許文昌老師</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2024/01/25</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>◎最高法院70年台上字第311號民事判例：「司法院大法官會議釋字第107號解釋所謂已登記之不動產，無消滅時效之適用，其登記應係指依吾國法令所為之登記而言。系爭土地如尚未依吾國法令登記為被上訴人所有，而登記為國有後，迄今已經過15年，被上訴人請求塗銷此項國有登記，上訴人既有時效完成拒絕給付之抗辯，被上訴人之請求，自屬無從准許。」憲法法庭於112年憲判字第20號判決，就該判例之後段部分，即「系爭土地如尚未依吾國法令登記為被上訴人所有，而登記為國有後，迄今已經過15年，被上訴人請求塗銷此項國有登記，上訴人既有時效完成拒絕給付之抗辯，被上訴人之請求，自屬無從准許。」宣告違憲，理由為何？
+【解答】
+• (一) 國家就其與人民間之私權爭議，原則上固得主張相關規定所賦予之權利。然而，國家係為人民而存在，本質上既不可能擁有如人民般得自由發展之人格及維繫生存之需求，亦不可能如人民般享有得自由追求之私益，只能追求公益，以執行公共任務為職志。從而，國家自無受憲法第15條所保障財產權之基本權利。
+• (二) 國家與人民間關於土地之爭議，若非來源於兩者之合意，而係國家於政權更替之際，居於公權力主體地位，行使統治權，制定相關法規範，並依該規範將原屬人民私有而僅未及時申辦總登記之土地，逕行登記為國有之情形，倘又容許國家嗣後再以時間經過為由，依民法消滅時效規定為時效完成之抗辯，不啻變相承認國家得透過土地總登記之程序，及消滅時效之抗辯，而無須踐行任何徵收或類似徵收之程序，即可剝奪人民之財產。
+• (三) 國家基於公權力主體地位行使統治高權，致與人民發生財產權爭執時，國家本非憲法第15條財產權保障之主體，從而不生基本權衝突之情事。且考量臺灣因政權更迭而辦理土地權利憑證繳驗及換發土地權利書狀，當時之時空環境，絕大多數人民未通曉中文、因戰事流離他所、遺失土地權利憑證，或因社會資訊、教育尚非發達，不諳法令，甚至因36年間之228事件引發社會動盪等特殊原因，致未於限期內申報權利憑證繳驗，或於申報後未依限補繳證件，終致其所有之土地被登記為國有。於此情形，若使國家仍得主張民法消滅時效，從而透過時效制度維持私有土地登記為國有之狀態，不僅與誠實信用原則有違，且形成國家對人民財產權之侵害。故在憲法上，人民財產權之保障，相較於逕行承認土地登記為國有之狀態，更具值得保護之價值。是容許國家在此主張消滅時效，並無正當性可言。</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910414</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:17:01</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>登記、上訴人、土地權利</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>910373</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>地主之意涵,許文昌老師</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>許文昌</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2024/01/18</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>早期，農地租賃關係中，出租者稱為地主，承租者稱為佃農。民國38年至42年第一階段農地改革（即民國38年實施耕地三七五減租，民國40年實施公地放領，民國42年實施耕者有其田），因地主剥削佃農，「地主」一詞為專有名詞，存在負面評價，並為制裁對象。時至今日，出租者與承租者於法律上立於平等地位，「地主」一詞非專有名詞，而是普通名詞，顧名思義即土地所有權人，無負面評價，且不再為制裁對象。</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://real-estate.get.com.tw/Columns/detail.aspx?no=910373</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2026-02-20 15:17:04</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>地主、佃農、農地</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
